--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5580900</v>
+        <v>5735900</v>
       </c>
       <c r="E8" s="3">
-        <v>5487800</v>
+        <v>5703700</v>
       </c>
       <c r="F8" s="3">
-        <v>5542800</v>
+        <v>5608500</v>
       </c>
       <c r="G8" s="3">
-        <v>6423300</v>
+        <v>5664700</v>
       </c>
       <c r="H8" s="3">
-        <v>6368200</v>
+        <v>6564600</v>
       </c>
       <c r="I8" s="3">
-        <v>6108300</v>
+        <v>6508300</v>
       </c>
       <c r="J8" s="3">
+        <v>6242700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5872700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6285600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5847500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5403600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5073300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5111600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3819400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4014400</v>
+        <v>4200000</v>
       </c>
       <c r="E9" s="3">
-        <v>3890200</v>
+        <v>4102700</v>
       </c>
       <c r="F9" s="3">
-        <v>3884700</v>
+        <v>3975800</v>
       </c>
       <c r="G9" s="3">
-        <v>4478100</v>
+        <v>3970100</v>
       </c>
       <c r="H9" s="3">
-        <v>4472300</v>
+        <v>4576600</v>
       </c>
       <c r="I9" s="3">
-        <v>4174800</v>
+        <v>4570700</v>
       </c>
       <c r="J9" s="3">
+        <v>4266600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4011000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4364100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4072000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3892100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3635600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3643900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2714800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1566500</v>
+        <v>1535900</v>
       </c>
       <c r="E10" s="3">
-        <v>1597600</v>
+        <v>1601000</v>
       </c>
       <c r="F10" s="3">
-        <v>1658100</v>
+        <v>1632800</v>
       </c>
       <c r="G10" s="3">
-        <v>1945200</v>
+        <v>1694600</v>
       </c>
       <c r="H10" s="3">
-        <v>1895800</v>
+        <v>1988000</v>
       </c>
       <c r="I10" s="3">
-        <v>1933500</v>
+        <v>1937600</v>
       </c>
       <c r="J10" s="3">
+        <v>1976100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1861700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1921400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1775500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1511500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1437700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1467700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1104600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,17 +1046,20 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>15500</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4982300</v>
+        <v>5337600</v>
       </c>
       <c r="E17" s="3">
-        <v>4876700</v>
+        <v>5092000</v>
       </c>
       <c r="F17" s="3">
-        <v>4863200</v>
+        <v>4984000</v>
       </c>
       <c r="G17" s="3">
-        <v>5496400</v>
+        <v>4970200</v>
       </c>
       <c r="H17" s="3">
-        <v>5499800</v>
+        <v>5617300</v>
       </c>
       <c r="I17" s="3">
-        <v>5160600</v>
+        <v>5620800</v>
       </c>
       <c r="J17" s="3">
+        <v>5274100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4999600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5531700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5170900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4865900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4606000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4516700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3438900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>598500</v>
+        <v>398300</v>
       </c>
       <c r="E18" s="3">
-        <v>611000</v>
+        <v>611700</v>
       </c>
       <c r="F18" s="3">
-        <v>679600</v>
+        <v>624500</v>
       </c>
       <c r="G18" s="3">
-        <v>926900</v>
+        <v>694500</v>
       </c>
       <c r="H18" s="3">
-        <v>868300</v>
+        <v>947300</v>
       </c>
       <c r="I18" s="3">
-        <v>947700</v>
+        <v>887500</v>
       </c>
       <c r="J18" s="3">
+        <v>968600</v>
+      </c>
+      <c r="K18" s="3">
         <v>873100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>753900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>676500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>537700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>467400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>594900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>380500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>-37000</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>15300</v>
       </c>
       <c r="F20" s="3">
-        <v>-10900</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="3">
-        <v>35100</v>
+        <v>-11100</v>
       </c>
       <c r="H20" s="3">
-        <v>-33700</v>
+        <v>35900</v>
       </c>
       <c r="I20" s="3">
-        <v>11800</v>
+        <v>-34500</v>
       </c>
       <c r="J20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>372500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>909300</v>
+        <v>680700</v>
       </c>
       <c r="E21" s="3">
-        <v>906900</v>
+        <v>929300</v>
       </c>
       <c r="F21" s="3">
-        <v>965700</v>
+        <v>926800</v>
       </c>
       <c r="G21" s="3">
-        <v>1265200</v>
+        <v>986900</v>
       </c>
       <c r="H21" s="3">
-        <v>1132500</v>
+        <v>1293000</v>
       </c>
       <c r="I21" s="3">
-        <v>1254200</v>
+        <v>1157500</v>
       </c>
       <c r="J21" s="3">
+        <v>1281800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1193400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1052800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>992600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1205300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>763800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>821800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>643700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="E22" s="3">
-        <v>58700</v>
+        <v>53700</v>
       </c>
       <c r="F22" s="3">
-        <v>60400</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="3">
-        <v>57700</v>
+        <v>61800</v>
       </c>
       <c r="H22" s="3">
-        <v>57700</v>
+        <v>59000</v>
       </c>
       <c r="I22" s="3">
-        <v>54400</v>
+        <v>58900</v>
       </c>
       <c r="J22" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K22" s="3">
         <v>49300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>560900</v>
+        <v>308400</v>
       </c>
       <c r="E23" s="3">
-        <v>557200</v>
+        <v>573300</v>
       </c>
       <c r="F23" s="3">
-        <v>608200</v>
+        <v>569500</v>
       </c>
       <c r="G23" s="3">
-        <v>904400</v>
+        <v>621600</v>
       </c>
       <c r="H23" s="3">
-        <v>776900</v>
+        <v>924300</v>
       </c>
       <c r="I23" s="3">
-        <v>905100</v>
+        <v>794000</v>
       </c>
       <c r="J23" s="3">
+        <v>925000</v>
+      </c>
+      <c r="K23" s="3">
         <v>844800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>691300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>643900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>868000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>434800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>560600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129600</v>
+        <v>120800</v>
       </c>
       <c r="E24" s="3">
-        <v>161700</v>
+        <v>132400</v>
       </c>
       <c r="F24" s="3">
-        <v>162100</v>
+        <v>165200</v>
       </c>
       <c r="G24" s="3">
-        <v>226900</v>
+        <v>165600</v>
       </c>
       <c r="H24" s="3">
-        <v>219000</v>
+        <v>231900</v>
       </c>
       <c r="I24" s="3">
-        <v>268300</v>
+        <v>223900</v>
       </c>
       <c r="J24" s="3">
+        <v>274200</v>
+      </c>
+      <c r="K24" s="3">
         <v>254700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>293100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>142000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>259900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>135000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>124400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>431400</v>
+        <v>187600</v>
       </c>
       <c r="E26" s="3">
-        <v>395600</v>
+        <v>440900</v>
       </c>
       <c r="F26" s="3">
-        <v>446100</v>
+        <v>404300</v>
       </c>
       <c r="G26" s="3">
-        <v>677500</v>
+        <v>455900</v>
       </c>
       <c r="H26" s="3">
-        <v>557900</v>
+        <v>692400</v>
       </c>
       <c r="I26" s="3">
-        <v>636800</v>
+        <v>570200</v>
       </c>
       <c r="J26" s="3">
+        <v>650800</v>
+      </c>
+      <c r="K26" s="3">
         <v>590100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>398100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>501800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>608200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>348900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>425700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>276200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>410900</v>
+        <v>172600</v>
       </c>
       <c r="E27" s="3">
-        <v>387100</v>
+        <v>420000</v>
       </c>
       <c r="F27" s="3">
-        <v>431600</v>
+        <v>395600</v>
       </c>
       <c r="G27" s="3">
-        <v>657200</v>
+        <v>441100</v>
       </c>
       <c r="H27" s="3">
-        <v>534600</v>
+        <v>671600</v>
       </c>
       <c r="I27" s="3">
-        <v>567400</v>
+        <v>546400</v>
       </c>
       <c r="J27" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K27" s="3">
         <v>572400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>373800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>481900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>590900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>329000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>399600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>273300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>37000</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>-15300</v>
       </c>
       <c r="F32" s="3">
-        <v>10900</v>
+        <v>-5000</v>
       </c>
       <c r="G32" s="3">
-        <v>-35100</v>
+        <v>11100</v>
       </c>
       <c r="H32" s="3">
-        <v>33700</v>
+        <v>-35900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11800</v>
+        <v>34500</v>
       </c>
       <c r="J32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-372500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>410900</v>
+        <v>172600</v>
       </c>
       <c r="E33" s="3">
-        <v>387100</v>
+        <v>420000</v>
       </c>
       <c r="F33" s="3">
-        <v>431600</v>
+        <v>395600</v>
       </c>
       <c r="G33" s="3">
-        <v>657200</v>
+        <v>441100</v>
       </c>
       <c r="H33" s="3">
-        <v>534600</v>
+        <v>671600</v>
       </c>
       <c r="I33" s="3">
-        <v>567400</v>
+        <v>546400</v>
       </c>
       <c r="J33" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K33" s="3">
         <v>572400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>373800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>481900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>590900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>329000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>399600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>273300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>410900</v>
+        <v>172600</v>
       </c>
       <c r="E35" s="3">
-        <v>387100</v>
+        <v>420000</v>
       </c>
       <c r="F35" s="3">
-        <v>431600</v>
+        <v>395600</v>
       </c>
       <c r="G35" s="3">
-        <v>657200</v>
+        <v>441100</v>
       </c>
       <c r="H35" s="3">
-        <v>534600</v>
+        <v>671600</v>
       </c>
       <c r="I35" s="3">
-        <v>567400</v>
+        <v>546400</v>
       </c>
       <c r="J35" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K35" s="3">
         <v>572400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>373800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>481900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>590900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>329000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>399600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>273300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1686200</v>
+        <v>2319500</v>
       </c>
       <c r="E41" s="3">
-        <v>1497600</v>
+        <v>1723300</v>
       </c>
       <c r="F41" s="3">
-        <v>1779100</v>
+        <v>1530500</v>
       </c>
       <c r="G41" s="3">
-        <v>1370900</v>
+        <v>1818300</v>
       </c>
       <c r="H41" s="3">
-        <v>1368900</v>
+        <v>1401000</v>
       </c>
       <c r="I41" s="3">
-        <v>1170500</v>
+        <v>1399000</v>
       </c>
       <c r="J41" s="3">
+        <v>1196300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1343400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1327600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1516900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1482200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1381200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1083800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1209600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6987000</v>
+        <v>6915400</v>
       </c>
       <c r="E43" s="3">
-        <v>6725600</v>
+        <v>7140700</v>
       </c>
       <c r="F43" s="3">
-        <v>7055400</v>
+        <v>6873600</v>
       </c>
       <c r="G43" s="3">
-        <v>7655400</v>
+        <v>7210700</v>
       </c>
       <c r="H43" s="3">
-        <v>7187900</v>
+        <v>7823900</v>
       </c>
       <c r="I43" s="3">
-        <v>7429500</v>
+        <v>7346000</v>
       </c>
       <c r="J43" s="3">
+        <v>7593000</v>
+      </c>
+      <c r="K43" s="3">
         <v>7131300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7166100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6920900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6481500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5949400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5492900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5117000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8181300</v>
+        <v>7481300</v>
       </c>
       <c r="E44" s="3">
-        <v>8128400</v>
+        <v>8361300</v>
       </c>
       <c r="F44" s="3">
-        <v>7954000</v>
+        <v>8307200</v>
       </c>
       <c r="G44" s="3">
-        <v>7613300</v>
+        <v>8129000</v>
       </c>
       <c r="H44" s="3">
-        <v>7504600</v>
+        <v>7780900</v>
       </c>
       <c r="I44" s="3">
-        <v>7682600</v>
+        <v>7669700</v>
       </c>
       <c r="J44" s="3">
+        <v>7851600</v>
+      </c>
+      <c r="K44" s="3">
         <v>7246200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6601800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6847600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6441600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6211000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4735700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5252300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1365900</v>
+        <v>1369500</v>
       </c>
       <c r="E45" s="3">
-        <v>1211900</v>
+        <v>1395900</v>
       </c>
       <c r="F45" s="3">
-        <v>1312800</v>
+        <v>1238600</v>
       </c>
       <c r="G45" s="3">
-        <v>1258200</v>
+        <v>1341700</v>
       </c>
       <c r="H45" s="3">
-        <v>1243200</v>
+        <v>1285900</v>
       </c>
       <c r="I45" s="3">
-        <v>1180000</v>
+        <v>1270500</v>
       </c>
       <c r="J45" s="3">
+        <v>1205900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1188900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1154700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1105700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1052800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1084600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1278800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1242800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18220300</v>
+        <v>18085700</v>
       </c>
       <c r="E46" s="3">
-        <v>17563500</v>
+        <v>18621200</v>
       </c>
       <c r="F46" s="3">
-        <v>18101400</v>
+        <v>17949900</v>
       </c>
       <c r="G46" s="3">
-        <v>17897800</v>
+        <v>18499700</v>
       </c>
       <c r="H46" s="3">
-        <v>17304500</v>
+        <v>18291600</v>
       </c>
       <c r="I46" s="3">
-        <v>17462500</v>
+        <v>17685300</v>
       </c>
       <c r="J46" s="3">
+        <v>17846800</v>
+      </c>
+      <c r="K46" s="3">
         <v>16909800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16250200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16391200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15458100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14626200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12591200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12821700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4293000</v>
+        <v>4333400</v>
       </c>
       <c r="E47" s="3">
-        <v>4235100</v>
+        <v>4387400</v>
       </c>
       <c r="F47" s="3">
-        <v>4221800</v>
+        <v>4328300</v>
       </c>
       <c r="G47" s="3">
-        <v>4191900</v>
+        <v>4314700</v>
       </c>
       <c r="H47" s="3">
-        <v>3799500</v>
+        <v>4284100</v>
       </c>
       <c r="I47" s="3">
-        <v>4022000</v>
+        <v>3883100</v>
       </c>
       <c r="J47" s="3">
+        <v>4110500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3870100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3656300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3775100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3603400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3962700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3654400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3553700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7420200</v>
+        <v>7535400</v>
       </c>
       <c r="E48" s="3">
-        <v>7319600</v>
+        <v>7583400</v>
       </c>
       <c r="F48" s="3">
-        <v>7397300</v>
+        <v>7480700</v>
       </c>
       <c r="G48" s="3">
-        <v>7057700</v>
+        <v>7560000</v>
       </c>
       <c r="H48" s="3">
-        <v>6902100</v>
+        <v>7213000</v>
       </c>
       <c r="I48" s="3">
-        <v>6958200</v>
+        <v>7053900</v>
       </c>
       <c r="J48" s="3">
+        <v>7111300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6849300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6694400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6941200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6903500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6874400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6023000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6087900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3089300</v>
+        <v>2968900</v>
       </c>
       <c r="E49" s="3">
-        <v>3045800</v>
+        <v>3157200</v>
       </c>
       <c r="F49" s="3">
-        <v>2949300</v>
+        <v>3112800</v>
       </c>
       <c r="G49" s="3">
-        <v>2984500</v>
+        <v>3014200</v>
       </c>
       <c r="H49" s="3">
-        <v>3044600</v>
+        <v>3050200</v>
       </c>
       <c r="I49" s="3">
-        <v>3218300</v>
+        <v>3111600</v>
       </c>
       <c r="J49" s="3">
+        <v>3289100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3137100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2975000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3245200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3273300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3281300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>897200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>891700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>875900</v>
+        <v>1019300</v>
       </c>
       <c r="E52" s="3">
-        <v>901500</v>
+        <v>895200</v>
       </c>
       <c r="F52" s="3">
-        <v>886300</v>
+        <v>921300</v>
       </c>
       <c r="G52" s="3">
-        <v>939500</v>
+        <v>905800</v>
       </c>
       <c r="H52" s="3">
-        <v>848800</v>
+        <v>960100</v>
       </c>
       <c r="I52" s="3">
-        <v>894400</v>
+        <v>867500</v>
       </c>
       <c r="J52" s="3">
+        <v>914100</v>
+      </c>
+      <c r="K52" s="3">
         <v>875400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>911800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>925500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>867000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>685400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>397300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>395700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33898700</v>
+        <v>33942700</v>
       </c>
       <c r="E54" s="3">
-        <v>33065500</v>
+        <v>34644500</v>
       </c>
       <c r="F54" s="3">
-        <v>33556200</v>
+        <v>33793000</v>
       </c>
       <c r="G54" s="3">
-        <v>33071400</v>
+        <v>34294500</v>
       </c>
       <c r="H54" s="3">
-        <v>31899500</v>
+        <v>33799100</v>
       </c>
       <c r="I54" s="3">
-        <v>32555400</v>
+        <v>32601400</v>
       </c>
       <c r="J54" s="3">
+        <v>33271700</v>
+      </c>
+      <c r="K54" s="3">
         <v>31641700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30487700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31278300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30105200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29429900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23563000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23750700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2087100</v>
+        <v>2045300</v>
       </c>
       <c r="E57" s="3">
-        <v>2254000</v>
+        <v>2133100</v>
       </c>
       <c r="F57" s="3">
-        <v>2320900</v>
+        <v>2303600</v>
       </c>
       <c r="G57" s="3">
-        <v>2426600</v>
+        <v>2372000</v>
       </c>
       <c r="H57" s="3">
-        <v>2323600</v>
+        <v>2480000</v>
       </c>
       <c r="I57" s="3">
-        <v>2502500</v>
+        <v>2374700</v>
       </c>
       <c r="J57" s="3">
+        <v>2557500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2485200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2744100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2742000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2594600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2526300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2129800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1891800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5832600</v>
+        <v>5597600</v>
       </c>
       <c r="E58" s="3">
-        <v>4949600</v>
+        <v>5960900</v>
       </c>
       <c r="F58" s="3">
-        <v>4672300</v>
+        <v>5058500</v>
       </c>
       <c r="G58" s="3">
-        <v>4165200</v>
+        <v>4775100</v>
       </c>
       <c r="H58" s="3">
-        <v>4656600</v>
+        <v>4256800</v>
       </c>
       <c r="I58" s="3">
-        <v>3909900</v>
+        <v>4759100</v>
       </c>
       <c r="J58" s="3">
+        <v>3995900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4127800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2982300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3226400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2743000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4866100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1932300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2705700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3162700</v>
+        <v>3120800</v>
       </c>
       <c r="E59" s="3">
-        <v>3227400</v>
+        <v>3232300</v>
       </c>
       <c r="F59" s="3">
-        <v>3265200</v>
+        <v>3298400</v>
       </c>
       <c r="G59" s="3">
-        <v>3244900</v>
+        <v>3337000</v>
       </c>
       <c r="H59" s="3">
-        <v>2899900</v>
+        <v>3316300</v>
       </c>
       <c r="I59" s="3">
-        <v>3264800</v>
+        <v>2963700</v>
       </c>
       <c r="J59" s="3">
+        <v>3336600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3020600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3220100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3131200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2985200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2675700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2148500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1977100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11082400</v>
+        <v>10763600</v>
       </c>
       <c r="E60" s="3">
-        <v>10431000</v>
+        <v>11326300</v>
       </c>
       <c r="F60" s="3">
-        <v>10258400</v>
+        <v>10660500</v>
       </c>
       <c r="G60" s="3">
-        <v>9836600</v>
+        <v>10484100</v>
       </c>
       <c r="H60" s="3">
-        <v>9880100</v>
+        <v>10053100</v>
       </c>
       <c r="I60" s="3">
-        <v>9677200</v>
+        <v>10097500</v>
       </c>
       <c r="J60" s="3">
+        <v>9890100</v>
+      </c>
+      <c r="K60" s="3">
         <v>9633600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8946500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9099600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8322800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10068000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6210600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6574700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3696500</v>
+        <v>3807400</v>
       </c>
       <c r="E61" s="3">
-        <v>3698400</v>
+        <v>3777800</v>
       </c>
       <c r="F61" s="3">
-        <v>4457600</v>
+        <v>3779800</v>
       </c>
       <c r="G61" s="3">
-        <v>4294900</v>
+        <v>4555700</v>
       </c>
       <c r="H61" s="3">
-        <v>4126600</v>
+        <v>4389400</v>
       </c>
       <c r="I61" s="3">
-        <v>4428800</v>
+        <v>4217400</v>
       </c>
       <c r="J61" s="3">
+        <v>4526300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4365800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4345500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4771500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4645600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2829700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1692900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1742600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1932600</v>
+        <v>2127400</v>
       </c>
       <c r="E62" s="3">
-        <v>1934300</v>
+        <v>1975200</v>
       </c>
       <c r="F62" s="3">
-        <v>1932000</v>
+        <v>1976900</v>
       </c>
       <c r="G62" s="3">
-        <v>1642800</v>
+        <v>1974500</v>
       </c>
       <c r="H62" s="3">
-        <v>1530000</v>
+        <v>1679000</v>
       </c>
       <c r="I62" s="3">
-        <v>1512200</v>
+        <v>1563700</v>
       </c>
       <c r="J62" s="3">
+        <v>1545500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1485000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1433600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1437400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1448700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1037100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1041600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17503200</v>
+        <v>17484500</v>
       </c>
       <c r="E66" s="3">
-        <v>16812900</v>
+        <v>17888400</v>
       </c>
       <c r="F66" s="3">
-        <v>17409700</v>
+        <v>17182800</v>
       </c>
       <c r="G66" s="3">
-        <v>16567800</v>
+        <v>17792800</v>
       </c>
       <c r="H66" s="3">
-        <v>16285700</v>
+        <v>16932300</v>
       </c>
       <c r="I66" s="3">
-        <v>16390400</v>
+        <v>16644000</v>
       </c>
       <c r="J66" s="3">
+        <v>16751000</v>
+      </c>
+      <c r="K66" s="3">
         <v>16218100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15440300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16046200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15109600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14968700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9577900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9984500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15704900</v>
+        <v>16223000</v>
       </c>
       <c r="E72" s="3">
-        <v>15766400</v>
+        <v>16050500</v>
       </c>
       <c r="F72" s="3">
-        <v>15379300</v>
+        <v>16113300</v>
       </c>
       <c r="G72" s="3">
-        <v>15454200</v>
+        <v>15717700</v>
       </c>
       <c r="H72" s="3">
-        <v>14797100</v>
+        <v>15794200</v>
       </c>
       <c r="I72" s="3">
-        <v>14700200</v>
+        <v>15122600</v>
       </c>
       <c r="J72" s="3">
+        <v>15023600</v>
+      </c>
+      <c r="K72" s="3">
         <v>14132800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13901600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13527900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13353100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12762200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12442100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12042600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16395400</v>
+        <v>16458200</v>
       </c>
       <c r="E76" s="3">
-        <v>16252600</v>
+        <v>16756200</v>
       </c>
       <c r="F76" s="3">
-        <v>16146400</v>
+        <v>16610200</v>
       </c>
       <c r="G76" s="3">
-        <v>16503600</v>
+        <v>16501700</v>
       </c>
       <c r="H76" s="3">
-        <v>15613800</v>
+        <v>16866800</v>
       </c>
       <c r="I76" s="3">
-        <v>16165000</v>
+        <v>15957300</v>
       </c>
       <c r="J76" s="3">
+        <v>16520700</v>
+      </c>
+      <c r="K76" s="3">
         <v>15423500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15047400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15232100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14995700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14461200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13985100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13766200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>410900</v>
+        <v>172600</v>
       </c>
       <c r="E81" s="3">
-        <v>387100</v>
+        <v>420000</v>
       </c>
       <c r="F81" s="3">
-        <v>431600</v>
+        <v>395600</v>
       </c>
       <c r="G81" s="3">
-        <v>657200</v>
+        <v>441100</v>
       </c>
       <c r="H81" s="3">
-        <v>534600</v>
+        <v>671600</v>
       </c>
       <c r="I81" s="3">
-        <v>567400</v>
+        <v>546400</v>
       </c>
       <c r="J81" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K81" s="3">
         <v>572400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>373800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>481900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>590900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>329000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>399600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>273300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>295800</v>
+        <v>319300</v>
       </c>
       <c r="E83" s="3">
-        <v>290900</v>
+        <v>302300</v>
       </c>
       <c r="F83" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="G83" s="3">
-        <v>303200</v>
+        <v>303600</v>
       </c>
       <c r="H83" s="3">
-        <v>297900</v>
+        <v>309800</v>
       </c>
       <c r="I83" s="3">
-        <v>294700</v>
+        <v>304500</v>
       </c>
       <c r="J83" s="3">
+        <v>301200</v>
+      </c>
+      <c r="K83" s="3">
         <v>299200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>316900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>301900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>295000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>296800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>238900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>226700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>201800</v>
+        <v>1274800</v>
       </c>
       <c r="E89" s="3">
-        <v>707600</v>
+        <v>206200</v>
       </c>
       <c r="F89" s="3">
-        <v>526400</v>
+        <v>723200</v>
       </c>
       <c r="G89" s="3">
-        <v>929100</v>
+        <v>538000</v>
       </c>
       <c r="H89" s="3">
-        <v>249500</v>
+        <v>949500</v>
       </c>
       <c r="I89" s="3">
-        <v>663300</v>
+        <v>255000</v>
       </c>
       <c r="J89" s="3">
+        <v>677800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>603600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>357400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>376500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>971600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>448000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433800</v>
+        <v>-419400</v>
       </c>
       <c r="E91" s="3">
-        <v>-434900</v>
+        <v>-443300</v>
       </c>
       <c r="F91" s="3">
-        <v>-399900</v>
+        <v>-444400</v>
       </c>
       <c r="G91" s="3">
-        <v>-428900</v>
+        <v>-408700</v>
       </c>
       <c r="H91" s="3">
-        <v>-531900</v>
+        <v>-438400</v>
       </c>
       <c r="I91" s="3">
-        <v>-402700</v>
+        <v>-543600</v>
       </c>
       <c r="J91" s="3">
+        <v>-411600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-382200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-288700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-389600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-331300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-390900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-378000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-387400</v>
+        <v>-386600</v>
       </c>
       <c r="E94" s="3">
-        <v>-537000</v>
+        <v>-395900</v>
       </c>
       <c r="F94" s="3">
-        <v>-432900</v>
+        <v>-548800</v>
       </c>
       <c r="G94" s="3">
-        <v>-408900</v>
+        <v>-442500</v>
       </c>
       <c r="H94" s="3">
-        <v>-504900</v>
+        <v>-417900</v>
       </c>
       <c r="I94" s="3">
-        <v>-399500</v>
+        <v>-516000</v>
       </c>
       <c r="J94" s="3">
+        <v>-408300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-388400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-520100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-228800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>103500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-347600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-383000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-472400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-482800</v>
       </c>
       <c r="F96" s="3">
-        <v>-506500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-517600</v>
       </c>
       <c r="H96" s="3">
-        <v>-437700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-447400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-411800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-307100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-247400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-242700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>362800</v>
+        <v>-276000</v>
       </c>
       <c r="E100" s="3">
-        <v>-427200</v>
+        <v>370800</v>
       </c>
       <c r="F100" s="3">
-        <v>303000</v>
+        <v>-436600</v>
       </c>
       <c r="G100" s="3">
-        <v>-494300</v>
+        <v>309600</v>
       </c>
       <c r="H100" s="3">
-        <v>394100</v>
+        <v>-505200</v>
       </c>
       <c r="I100" s="3">
-        <v>-400000</v>
+        <v>402800</v>
       </c>
       <c r="J100" s="3">
+        <v>-408800</v>
+      </c>
+      <c r="K100" s="3">
         <v>466900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-341500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>246200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-372500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2673000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-763500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>417200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>-17900</v>
       </c>
       <c r="E101" s="3">
-        <v>-20600</v>
+        <v>10700</v>
       </c>
       <c r="F101" s="3">
-        <v>12700</v>
+        <v>-21100</v>
       </c>
       <c r="G101" s="3">
-        <v>-23400</v>
+        <v>13000</v>
       </c>
       <c r="H101" s="3">
-        <v>60000</v>
+        <v>-23900</v>
       </c>
       <c r="I101" s="3">
-        <v>-39800</v>
+        <v>61300</v>
       </c>
       <c r="J101" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-66000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>69000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>187700</v>
+        <v>594300</v>
       </c>
       <c r="E102" s="3">
-        <v>-277100</v>
+        <v>191800</v>
       </c>
       <c r="F102" s="3">
-        <v>409100</v>
+        <v>-283200</v>
       </c>
       <c r="G102" s="3">
-        <v>2400</v>
+        <v>418100</v>
       </c>
       <c r="H102" s="3">
-        <v>198800</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="3">
-        <v>-176000</v>
+        <v>203200</v>
       </c>
       <c r="J102" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="K102" s="3">
         <v>11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-189000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>97400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>278000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-125700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>416200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5735900</v>
+        <v>4330400</v>
       </c>
       <c r="E8" s="3">
-        <v>5703700</v>
+        <v>5828500</v>
       </c>
       <c r="F8" s="3">
-        <v>5608500</v>
+        <v>5795800</v>
       </c>
       <c r="G8" s="3">
-        <v>5664700</v>
+        <v>5699100</v>
       </c>
       <c r="H8" s="3">
-        <v>6564600</v>
+        <v>5756200</v>
       </c>
       <c r="I8" s="3">
-        <v>6508300</v>
+        <v>6670600</v>
       </c>
       <c r="J8" s="3">
+        <v>6613400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6242700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5872700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6285600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5847500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5403600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5073300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5111600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3819400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4200000</v>
+        <v>3159800</v>
       </c>
       <c r="E9" s="3">
-        <v>4102700</v>
+        <v>4267900</v>
       </c>
       <c r="F9" s="3">
-        <v>3975800</v>
+        <v>4168900</v>
       </c>
       <c r="G9" s="3">
-        <v>3970100</v>
+        <v>4040000</v>
       </c>
       <c r="H9" s="3">
-        <v>4576600</v>
+        <v>4034300</v>
       </c>
       <c r="I9" s="3">
-        <v>4570700</v>
+        <v>4650500</v>
       </c>
       <c r="J9" s="3">
+        <v>4644500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4266600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4011000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4364100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4072000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3892100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3635600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3643900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2714800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1535900</v>
+        <v>1170700</v>
       </c>
       <c r="E10" s="3">
-        <v>1601000</v>
+        <v>1560700</v>
       </c>
       <c r="F10" s="3">
-        <v>1632800</v>
+        <v>1626800</v>
       </c>
       <c r="G10" s="3">
-        <v>1694600</v>
+        <v>1659100</v>
       </c>
       <c r="H10" s="3">
-        <v>1988000</v>
+        <v>1722000</v>
       </c>
       <c r="I10" s="3">
-        <v>1937600</v>
+        <v>2020100</v>
       </c>
       <c r="J10" s="3">
+        <v>1968800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1976100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1861700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1921400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1775500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1511500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1437700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1467700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1104600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1049,17 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>15500</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5337600</v>
+        <v>4076300</v>
       </c>
       <c r="E17" s="3">
-        <v>5092000</v>
+        <v>5423700</v>
       </c>
       <c r="F17" s="3">
-        <v>4984000</v>
+        <v>5174200</v>
       </c>
       <c r="G17" s="3">
-        <v>4970200</v>
+        <v>5064500</v>
       </c>
       <c r="H17" s="3">
-        <v>5617300</v>
+        <v>5050500</v>
       </c>
       <c r="I17" s="3">
-        <v>5620800</v>
+        <v>5708000</v>
       </c>
       <c r="J17" s="3">
+        <v>5711600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5274100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4999600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5531700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5170900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4865900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4606000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4516700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3438900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>398300</v>
+        <v>254100</v>
       </c>
       <c r="E18" s="3">
-        <v>611700</v>
+        <v>404800</v>
       </c>
       <c r="F18" s="3">
-        <v>624500</v>
+        <v>621600</v>
       </c>
       <c r="G18" s="3">
-        <v>694500</v>
+        <v>634600</v>
       </c>
       <c r="H18" s="3">
-        <v>947300</v>
+        <v>705700</v>
       </c>
       <c r="I18" s="3">
-        <v>887500</v>
+        <v>962600</v>
       </c>
       <c r="J18" s="3">
+        <v>901800</v>
+      </c>
+      <c r="K18" s="3">
         <v>968600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>873100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>753900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>676500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>537700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>467400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>594900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>380500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-37000</v>
+        <v>51200</v>
       </c>
       <c r="E20" s="3">
-        <v>15300</v>
+        <v>-37600</v>
       </c>
       <c r="F20" s="3">
-        <v>5000</v>
+        <v>15600</v>
       </c>
       <c r="G20" s="3">
-        <v>-11100</v>
+        <v>5100</v>
       </c>
       <c r="H20" s="3">
-        <v>35900</v>
+        <v>-11300</v>
       </c>
       <c r="I20" s="3">
-        <v>-34500</v>
+        <v>36500</v>
       </c>
       <c r="J20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>372500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>36500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>680700</v>
+        <v>605700</v>
       </c>
       <c r="E21" s="3">
-        <v>929300</v>
+        <v>691600</v>
       </c>
       <c r="F21" s="3">
-        <v>926800</v>
+        <v>944300</v>
       </c>
       <c r="G21" s="3">
-        <v>986900</v>
+        <v>941800</v>
       </c>
       <c r="H21" s="3">
-        <v>1293000</v>
+        <v>1002900</v>
       </c>
       <c r="I21" s="3">
-        <v>1157500</v>
+        <v>1313900</v>
       </c>
       <c r="J21" s="3">
+        <v>1176100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1281800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1193400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1052800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>992600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1205300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>763800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>821800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>643700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53000</v>
+        <v>36300</v>
       </c>
       <c r="E22" s="3">
-        <v>53700</v>
+        <v>53800</v>
       </c>
       <c r="F22" s="3">
-        <v>60000</v>
+        <v>54600</v>
       </c>
       <c r="G22" s="3">
-        <v>61800</v>
+        <v>61000</v>
       </c>
       <c r="H22" s="3">
-        <v>59000</v>
+        <v>62800</v>
       </c>
       <c r="I22" s="3">
-        <v>58900</v>
+        <v>59900</v>
       </c>
       <c r="J22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K22" s="3">
         <v>55600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>308400</v>
+        <v>269000</v>
       </c>
       <c r="E23" s="3">
-        <v>573300</v>
+        <v>313300</v>
       </c>
       <c r="F23" s="3">
-        <v>569500</v>
+        <v>582500</v>
       </c>
       <c r="G23" s="3">
-        <v>621600</v>
+        <v>578700</v>
       </c>
       <c r="H23" s="3">
-        <v>924300</v>
+        <v>631600</v>
       </c>
       <c r="I23" s="3">
-        <v>794000</v>
+        <v>939200</v>
       </c>
       <c r="J23" s="3">
+        <v>806800</v>
+      </c>
+      <c r="K23" s="3">
         <v>925000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>844800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>691300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>643900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>868000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>434800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>560600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>120800</v>
+        <v>92700</v>
       </c>
       <c r="E24" s="3">
-        <v>132400</v>
+        <v>122700</v>
       </c>
       <c r="F24" s="3">
-        <v>165200</v>
+        <v>134500</v>
       </c>
       <c r="G24" s="3">
-        <v>165600</v>
+        <v>167900</v>
       </c>
       <c r="H24" s="3">
-        <v>231900</v>
+        <v>168300</v>
       </c>
       <c r="I24" s="3">
-        <v>223900</v>
+        <v>235700</v>
       </c>
       <c r="J24" s="3">
+        <v>227500</v>
+      </c>
+      <c r="K24" s="3">
         <v>274200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>254700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>293100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>142000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>259900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>135000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>124400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187600</v>
+        <v>176300</v>
       </c>
       <c r="E26" s="3">
-        <v>440900</v>
+        <v>190600</v>
       </c>
       <c r="F26" s="3">
-        <v>404300</v>
+        <v>448000</v>
       </c>
       <c r="G26" s="3">
-        <v>455900</v>
+        <v>410800</v>
       </c>
       <c r="H26" s="3">
-        <v>692400</v>
+        <v>463300</v>
       </c>
       <c r="I26" s="3">
-        <v>570200</v>
+        <v>703500</v>
       </c>
       <c r="J26" s="3">
+        <v>579400</v>
+      </c>
+      <c r="K26" s="3">
         <v>650800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>590100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>398100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>501800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>608200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>348900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>425700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>276200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>172600</v>
+        <v>153400</v>
       </c>
       <c r="E27" s="3">
-        <v>420000</v>
+        <v>175400</v>
       </c>
       <c r="F27" s="3">
-        <v>395600</v>
+        <v>426700</v>
       </c>
       <c r="G27" s="3">
-        <v>441100</v>
+        <v>402000</v>
       </c>
       <c r="H27" s="3">
-        <v>671600</v>
+        <v>448200</v>
       </c>
       <c r="I27" s="3">
-        <v>546400</v>
+        <v>682500</v>
       </c>
       <c r="J27" s="3">
+        <v>555200</v>
+      </c>
+      <c r="K27" s="3">
         <v>579800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>572400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>373800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>481900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>590900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>329000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>399600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>273300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>37000</v>
+        <v>-51200</v>
       </c>
       <c r="E32" s="3">
-        <v>-15300</v>
+        <v>37600</v>
       </c>
       <c r="F32" s="3">
-        <v>-5000</v>
+        <v>-15600</v>
       </c>
       <c r="G32" s="3">
-        <v>11100</v>
+        <v>-5100</v>
       </c>
       <c r="H32" s="3">
-        <v>-35900</v>
+        <v>11300</v>
       </c>
       <c r="I32" s="3">
-        <v>34500</v>
+        <v>-36500</v>
       </c>
       <c r="J32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-372500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-36500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>172600</v>
+        <v>153400</v>
       </c>
       <c r="E33" s="3">
-        <v>420000</v>
+        <v>175400</v>
       </c>
       <c r="F33" s="3">
-        <v>395600</v>
+        <v>426700</v>
       </c>
       <c r="G33" s="3">
-        <v>441100</v>
+        <v>402000</v>
       </c>
       <c r="H33" s="3">
-        <v>671600</v>
+        <v>448200</v>
       </c>
       <c r="I33" s="3">
-        <v>546400</v>
+        <v>682500</v>
       </c>
       <c r="J33" s="3">
+        <v>555200</v>
+      </c>
+      <c r="K33" s="3">
         <v>579800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>572400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>373800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>481900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>590900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>329000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>399600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>273300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>172600</v>
+        <v>153400</v>
       </c>
       <c r="E35" s="3">
-        <v>420000</v>
+        <v>175400</v>
       </c>
       <c r="F35" s="3">
-        <v>395600</v>
+        <v>426700</v>
       </c>
       <c r="G35" s="3">
-        <v>441100</v>
+        <v>402000</v>
       </c>
       <c r="H35" s="3">
-        <v>671600</v>
+        <v>448200</v>
       </c>
       <c r="I35" s="3">
-        <v>546400</v>
+        <v>682500</v>
       </c>
       <c r="J35" s="3">
+        <v>555200</v>
+      </c>
+      <c r="K35" s="3">
         <v>579800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>572400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>373800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>481900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>590900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>329000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>399600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>273300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2319500</v>
+        <v>2428300</v>
       </c>
       <c r="E41" s="3">
-        <v>1723300</v>
+        <v>2356900</v>
       </c>
       <c r="F41" s="3">
-        <v>1530500</v>
+        <v>1751100</v>
       </c>
       <c r="G41" s="3">
-        <v>1818300</v>
+        <v>1555200</v>
       </c>
       <c r="H41" s="3">
-        <v>1401000</v>
+        <v>1847600</v>
       </c>
       <c r="I41" s="3">
-        <v>1399000</v>
+        <v>1423600</v>
       </c>
       <c r="J41" s="3">
+        <v>1421600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1196300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1343400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1327600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1516900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1482200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1381200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1083800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1209600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6915400</v>
+        <v>6273400</v>
       </c>
       <c r="E43" s="3">
-        <v>7140700</v>
+        <v>7027100</v>
       </c>
       <c r="F43" s="3">
-        <v>6873600</v>
+        <v>7256000</v>
       </c>
       <c r="G43" s="3">
-        <v>7210700</v>
+        <v>6984600</v>
       </c>
       <c r="H43" s="3">
-        <v>7823900</v>
+        <v>7327100</v>
       </c>
       <c r="I43" s="3">
-        <v>7346000</v>
+        <v>7950200</v>
       </c>
       <c r="J43" s="3">
+        <v>7464600</v>
+      </c>
+      <c r="K43" s="3">
         <v>7593000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7131300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7166100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6920900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6481500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5949400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5492900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5117000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7481300</v>
+        <v>8181900</v>
       </c>
       <c r="E44" s="3">
-        <v>8361300</v>
+        <v>7602100</v>
       </c>
       <c r="F44" s="3">
-        <v>8307200</v>
+        <v>8496300</v>
       </c>
       <c r="G44" s="3">
-        <v>8129000</v>
+        <v>8441400</v>
       </c>
       <c r="H44" s="3">
-        <v>7780900</v>
+        <v>8260200</v>
       </c>
       <c r="I44" s="3">
-        <v>7669700</v>
+        <v>7906500</v>
       </c>
       <c r="J44" s="3">
+        <v>7793600</v>
+      </c>
+      <c r="K44" s="3">
         <v>7851600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7246200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6601800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6847600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6441600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6211000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4735700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5252300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1369500</v>
+        <v>1404900</v>
       </c>
       <c r="E45" s="3">
-        <v>1395900</v>
+        <v>1391600</v>
       </c>
       <c r="F45" s="3">
-        <v>1238600</v>
+        <v>1418500</v>
       </c>
       <c r="G45" s="3">
-        <v>1341700</v>
+        <v>1258600</v>
       </c>
       <c r="H45" s="3">
-        <v>1285900</v>
+        <v>1363400</v>
       </c>
       <c r="I45" s="3">
-        <v>1270500</v>
+        <v>1306600</v>
       </c>
       <c r="J45" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1205900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1188900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1154700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1105700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1052800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1084600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1278800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1242800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18085700</v>
+        <v>18288400</v>
       </c>
       <c r="E46" s="3">
-        <v>18621200</v>
+        <v>18377700</v>
       </c>
       <c r="F46" s="3">
-        <v>17949900</v>
+        <v>18921900</v>
       </c>
       <c r="G46" s="3">
-        <v>18499700</v>
+        <v>18239800</v>
       </c>
       <c r="H46" s="3">
-        <v>18291600</v>
+        <v>18798400</v>
       </c>
       <c r="I46" s="3">
-        <v>17685300</v>
+        <v>18587000</v>
       </c>
       <c r="J46" s="3">
+        <v>17970800</v>
+      </c>
+      <c r="K46" s="3">
         <v>17846800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16909800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16250200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16391200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15458100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14626200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12591200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12821700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4333400</v>
+        <v>4546400</v>
       </c>
       <c r="E47" s="3">
-        <v>4387400</v>
+        <v>4403300</v>
       </c>
       <c r="F47" s="3">
-        <v>4328300</v>
+        <v>4458300</v>
       </c>
       <c r="G47" s="3">
-        <v>4314700</v>
+        <v>4398100</v>
       </c>
       <c r="H47" s="3">
-        <v>4284100</v>
+        <v>4384400</v>
       </c>
       <c r="I47" s="3">
-        <v>3883100</v>
+        <v>4353300</v>
       </c>
       <c r="J47" s="3">
+        <v>3945800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4110500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3870100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3656300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3775100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3603400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3962700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3654400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3553700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7535400</v>
+        <v>7634700</v>
       </c>
       <c r="E48" s="3">
-        <v>7583400</v>
+        <v>7657100</v>
       </c>
       <c r="F48" s="3">
-        <v>7480700</v>
+        <v>7705900</v>
       </c>
       <c r="G48" s="3">
-        <v>7560000</v>
+        <v>7601500</v>
       </c>
       <c r="H48" s="3">
-        <v>7213000</v>
+        <v>7682100</v>
       </c>
       <c r="I48" s="3">
-        <v>7053900</v>
+        <v>7329400</v>
       </c>
       <c r="J48" s="3">
+        <v>7167800</v>
+      </c>
+      <c r="K48" s="3">
         <v>7111300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6849300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6694400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6941200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6903500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6874400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6023000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6087900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2968900</v>
+        <v>3063500</v>
       </c>
       <c r="E49" s="3">
-        <v>3157200</v>
+        <v>3016900</v>
       </c>
       <c r="F49" s="3">
-        <v>3112800</v>
+        <v>3208200</v>
       </c>
       <c r="G49" s="3">
-        <v>3014200</v>
+        <v>3163100</v>
       </c>
       <c r="H49" s="3">
-        <v>3050200</v>
+        <v>3062900</v>
       </c>
       <c r="I49" s="3">
-        <v>3111600</v>
+        <v>3099400</v>
       </c>
       <c r="J49" s="3">
+        <v>3161900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3289100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3137100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2975000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3245200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3273300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3281300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>897200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>891700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1019300</v>
+        <v>1025800</v>
       </c>
       <c r="E52" s="3">
-        <v>895200</v>
+        <v>1035800</v>
       </c>
       <c r="F52" s="3">
-        <v>921300</v>
+        <v>909600</v>
       </c>
       <c r="G52" s="3">
-        <v>905800</v>
+        <v>936200</v>
       </c>
       <c r="H52" s="3">
-        <v>960100</v>
+        <v>920500</v>
       </c>
       <c r="I52" s="3">
-        <v>867500</v>
+        <v>975700</v>
       </c>
       <c r="J52" s="3">
+        <v>881500</v>
+      </c>
+      <c r="K52" s="3">
         <v>914100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>875400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>911800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>925500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>867000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>685400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>397300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>395700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33942700</v>
+        <v>34558700</v>
       </c>
       <c r="E54" s="3">
-        <v>34644500</v>
+        <v>34490800</v>
       </c>
       <c r="F54" s="3">
-        <v>33793000</v>
+        <v>35203900</v>
       </c>
       <c r="G54" s="3">
-        <v>34294500</v>
+        <v>34338600</v>
       </c>
       <c r="H54" s="3">
-        <v>33799100</v>
+        <v>34848200</v>
       </c>
       <c r="I54" s="3">
-        <v>32601400</v>
+        <v>34344800</v>
       </c>
       <c r="J54" s="3">
+        <v>33127800</v>
+      </c>
+      <c r="K54" s="3">
         <v>33271700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31641700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30487700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31278300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30105200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29429900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23563000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23750700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2045300</v>
+        <v>1928200</v>
       </c>
       <c r="E57" s="3">
-        <v>2133100</v>
+        <v>2078300</v>
       </c>
       <c r="F57" s="3">
-        <v>2303600</v>
+        <v>2167500</v>
       </c>
       <c r="G57" s="3">
-        <v>2372000</v>
+        <v>2340800</v>
       </c>
       <c r="H57" s="3">
-        <v>2480000</v>
+        <v>2410200</v>
       </c>
       <c r="I57" s="3">
-        <v>2374700</v>
+        <v>2520000</v>
       </c>
       <c r="J57" s="3">
+        <v>2413100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2557500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2485200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2744100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2742000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2594600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2526300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2129800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1891800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5597600</v>
+        <v>5744400</v>
       </c>
       <c r="E58" s="3">
-        <v>5960900</v>
+        <v>5688000</v>
       </c>
       <c r="F58" s="3">
-        <v>5058500</v>
+        <v>6057200</v>
       </c>
       <c r="G58" s="3">
-        <v>4775100</v>
+        <v>5140200</v>
       </c>
       <c r="H58" s="3">
-        <v>4256800</v>
+        <v>4852200</v>
       </c>
       <c r="I58" s="3">
-        <v>4759100</v>
+        <v>4325500</v>
       </c>
       <c r="J58" s="3">
+        <v>4835900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3995900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4127800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2982300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3226400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2743000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4866100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1932300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2705700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3120800</v>
+        <v>3109000</v>
       </c>
       <c r="E59" s="3">
-        <v>3232300</v>
+        <v>3171200</v>
       </c>
       <c r="F59" s="3">
-        <v>3298400</v>
+        <v>3284500</v>
       </c>
       <c r="G59" s="3">
-        <v>3337000</v>
+        <v>3351700</v>
       </c>
       <c r="H59" s="3">
-        <v>3316300</v>
+        <v>3390900</v>
       </c>
       <c r="I59" s="3">
-        <v>2963700</v>
+        <v>3369800</v>
       </c>
       <c r="J59" s="3">
+        <v>3011500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3336600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3020600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3220100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3131200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2985200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2675700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2148500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1977100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10763600</v>
+        <v>10781700</v>
       </c>
       <c r="E60" s="3">
-        <v>11326300</v>
+        <v>10937400</v>
       </c>
       <c r="F60" s="3">
-        <v>10660500</v>
+        <v>11509200</v>
       </c>
       <c r="G60" s="3">
-        <v>10484100</v>
+        <v>10832600</v>
       </c>
       <c r="H60" s="3">
-        <v>10053100</v>
+        <v>10653400</v>
       </c>
       <c r="I60" s="3">
-        <v>10097500</v>
+        <v>10215400</v>
       </c>
       <c r="J60" s="3">
+        <v>10260500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9890100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9633600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8946500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9099600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8322800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10068000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6210600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6574700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3807400</v>
+        <v>4147400</v>
       </c>
       <c r="E61" s="3">
-        <v>3777800</v>
+        <v>3868900</v>
       </c>
       <c r="F61" s="3">
-        <v>3779800</v>
+        <v>3838800</v>
       </c>
       <c r="G61" s="3">
-        <v>4555700</v>
+        <v>3840900</v>
       </c>
       <c r="H61" s="3">
-        <v>4389400</v>
+        <v>4629200</v>
       </c>
       <c r="I61" s="3">
-        <v>4217400</v>
+        <v>4460300</v>
       </c>
       <c r="J61" s="3">
+        <v>4285500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4526300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4365800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4345500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4771500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4645600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2829700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1692900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1742600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2127400</v>
+        <v>2135700</v>
       </c>
       <c r="E62" s="3">
-        <v>1975200</v>
+        <v>2161700</v>
       </c>
       <c r="F62" s="3">
-        <v>1976900</v>
+        <v>2007000</v>
       </c>
       <c r="G62" s="3">
-        <v>1974500</v>
+        <v>2008800</v>
       </c>
       <c r="H62" s="3">
-        <v>1679000</v>
+        <v>2006400</v>
       </c>
       <c r="I62" s="3">
-        <v>1563700</v>
+        <v>1706100</v>
       </c>
       <c r="J62" s="3">
+        <v>1588900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1545500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1485000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1433600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1437400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1448700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1037100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1041600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17484500</v>
+        <v>17911100</v>
       </c>
       <c r="E66" s="3">
-        <v>17888400</v>
+        <v>17766800</v>
       </c>
       <c r="F66" s="3">
-        <v>17182800</v>
+        <v>18177200</v>
       </c>
       <c r="G66" s="3">
-        <v>17792800</v>
+        <v>17460300</v>
       </c>
       <c r="H66" s="3">
-        <v>16932300</v>
+        <v>18080100</v>
       </c>
       <c r="I66" s="3">
-        <v>16644000</v>
+        <v>17205700</v>
       </c>
       <c r="J66" s="3">
+        <v>16912800</v>
+      </c>
+      <c r="K66" s="3">
         <v>16751000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16218100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15440300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16046200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15109600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14968700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9577900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9984500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16223000</v>
+        <v>16290400</v>
       </c>
       <c r="E72" s="3">
-        <v>16050500</v>
+        <v>16485000</v>
       </c>
       <c r="F72" s="3">
-        <v>16113300</v>
+        <v>16309600</v>
       </c>
       <c r="G72" s="3">
-        <v>15717700</v>
+        <v>16373500</v>
       </c>
       <c r="H72" s="3">
-        <v>15794200</v>
+        <v>15971400</v>
       </c>
       <c r="I72" s="3">
-        <v>15122600</v>
+        <v>16049300</v>
       </c>
       <c r="J72" s="3">
+        <v>15366800</v>
+      </c>
+      <c r="K72" s="3">
         <v>15023600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14132800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13901600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13527900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13353100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12762200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12442100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12042600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16458200</v>
+        <v>16647600</v>
       </c>
       <c r="E76" s="3">
-        <v>16756200</v>
+        <v>16724000</v>
       </c>
       <c r="F76" s="3">
-        <v>16610200</v>
+        <v>17026700</v>
       </c>
       <c r="G76" s="3">
-        <v>16501700</v>
+        <v>16878400</v>
       </c>
       <c r="H76" s="3">
-        <v>16866800</v>
+        <v>16768100</v>
       </c>
       <c r="I76" s="3">
-        <v>15957300</v>
+        <v>17139100</v>
       </c>
       <c r="J76" s="3">
+        <v>16215000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16520700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15423500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15047400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15232100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14995700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14461200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13985100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13766200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>172600</v>
+        <v>153400</v>
       </c>
       <c r="E81" s="3">
-        <v>420000</v>
+        <v>175400</v>
       </c>
       <c r="F81" s="3">
-        <v>395600</v>
+        <v>426700</v>
       </c>
       <c r="G81" s="3">
-        <v>441100</v>
+        <v>402000</v>
       </c>
       <c r="H81" s="3">
-        <v>671600</v>
+        <v>448200</v>
       </c>
       <c r="I81" s="3">
-        <v>546400</v>
+        <v>682500</v>
       </c>
       <c r="J81" s="3">
+        <v>555200</v>
+      </c>
+      <c r="K81" s="3">
         <v>579800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>572400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>373800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>481900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>590900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>329000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>399600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>273300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>319300</v>
+        <v>300400</v>
       </c>
       <c r="E83" s="3">
-        <v>302300</v>
+        <v>324500</v>
       </c>
       <c r="F83" s="3">
-        <v>297300</v>
+        <v>307200</v>
       </c>
       <c r="G83" s="3">
-        <v>303600</v>
+        <v>302100</v>
       </c>
       <c r="H83" s="3">
-        <v>309800</v>
+        <v>308500</v>
       </c>
       <c r="I83" s="3">
-        <v>304500</v>
+        <v>314800</v>
       </c>
       <c r="J83" s="3">
+        <v>309400</v>
+      </c>
+      <c r="K83" s="3">
         <v>301200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>299200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>316900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>301900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>295000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>296800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>238900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>226700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1274800</v>
+        <v>519500</v>
       </c>
       <c r="E89" s="3">
-        <v>206200</v>
+        <v>1295400</v>
       </c>
       <c r="F89" s="3">
-        <v>723200</v>
+        <v>209600</v>
       </c>
       <c r="G89" s="3">
-        <v>538000</v>
+        <v>734900</v>
       </c>
       <c r="H89" s="3">
-        <v>949500</v>
+        <v>546700</v>
       </c>
       <c r="I89" s="3">
-        <v>255000</v>
+        <v>964800</v>
       </c>
       <c r="J89" s="3">
+        <v>259100</v>
+      </c>
+      <c r="K89" s="3">
         <v>677800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>603600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>357400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>376500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>971600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>448000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-419400</v>
+        <v>-351800</v>
       </c>
       <c r="E91" s="3">
-        <v>-443300</v>
+        <v>-426200</v>
       </c>
       <c r="F91" s="3">
-        <v>-444400</v>
+        <v>-450500</v>
       </c>
       <c r="G91" s="3">
-        <v>-408700</v>
+        <v>-451600</v>
       </c>
       <c r="H91" s="3">
-        <v>-438400</v>
+        <v>-415300</v>
       </c>
       <c r="I91" s="3">
-        <v>-543600</v>
+        <v>-445500</v>
       </c>
       <c r="J91" s="3">
+        <v>-552400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-411600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-382200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-288700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-389600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-331300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-390900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-378000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-358000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-386600</v>
+        <v>-334600</v>
       </c>
       <c r="E94" s="3">
-        <v>-395900</v>
+        <v>-392900</v>
       </c>
       <c r="F94" s="3">
-        <v>-548800</v>
+        <v>-402300</v>
       </c>
       <c r="G94" s="3">
-        <v>-442500</v>
+        <v>-557600</v>
       </c>
       <c r="H94" s="3">
-        <v>-417900</v>
+        <v>-449600</v>
       </c>
       <c r="I94" s="3">
-        <v>-516000</v>
+        <v>-424600</v>
       </c>
       <c r="J94" s="3">
+        <v>-524300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-408300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-388400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-520100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-228800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>103500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-347600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-383000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-347900</v>
       </c>
       <c r="E96" s="3">
-        <v>-482800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-490600</v>
       </c>
       <c r="G96" s="3">
-        <v>-517600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-526000</v>
       </c>
       <c r="I96" s="3">
-        <v>-447400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-454600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-411800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-307100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-247400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-242700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-276000</v>
+        <v>-113700</v>
       </c>
       <c r="E100" s="3">
-        <v>370800</v>
+        <v>-280400</v>
       </c>
       <c r="F100" s="3">
-        <v>-436600</v>
+        <v>376800</v>
       </c>
       <c r="G100" s="3">
-        <v>309600</v>
+        <v>-443600</v>
       </c>
       <c r="H100" s="3">
-        <v>-505200</v>
+        <v>314600</v>
       </c>
       <c r="I100" s="3">
-        <v>402800</v>
+        <v>-513400</v>
       </c>
       <c r="J100" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-408800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>466900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-341500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>246200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-372500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2673000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-763500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>417200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17900</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
-        <v>10700</v>
+        <v>-18200</v>
       </c>
       <c r="F101" s="3">
-        <v>-21100</v>
+        <v>10800</v>
       </c>
       <c r="G101" s="3">
-        <v>13000</v>
+        <v>-21400</v>
       </c>
       <c r="H101" s="3">
-        <v>-23900</v>
+        <v>13200</v>
       </c>
       <c r="I101" s="3">
-        <v>61300</v>
+        <v>-24300</v>
       </c>
       <c r="J101" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-40600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-66000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>69000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-66000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>594300</v>
+        <v>70700</v>
       </c>
       <c r="E102" s="3">
-        <v>191800</v>
+        <v>603900</v>
       </c>
       <c r="F102" s="3">
-        <v>-283200</v>
+        <v>194900</v>
       </c>
       <c r="G102" s="3">
-        <v>418100</v>
+        <v>-287800</v>
       </c>
       <c r="H102" s="3">
+        <v>424900</v>
+      </c>
+      <c r="I102" s="3">
         <v>2500</v>
       </c>
-      <c r="I102" s="3">
-        <v>203200</v>
-      </c>
       <c r="J102" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-179800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-189000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>97400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>278000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-125700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>416200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4330400</v>
+        <v>4795300</v>
       </c>
       <c r="E8" s="3">
-        <v>5828500</v>
+        <v>4408400</v>
       </c>
       <c r="F8" s="3">
-        <v>5795800</v>
+        <v>5933500</v>
       </c>
       <c r="G8" s="3">
-        <v>5699100</v>
+        <v>5900100</v>
       </c>
       <c r="H8" s="3">
-        <v>5756200</v>
+        <v>5801700</v>
       </c>
       <c r="I8" s="3">
-        <v>6670600</v>
+        <v>5859900</v>
       </c>
       <c r="J8" s="3">
+        <v>6790800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6613400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6242700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5872700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6285600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5847500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5403600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5073300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5111600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3819400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3159800</v>
+        <v>3508500</v>
       </c>
       <c r="E9" s="3">
-        <v>4267900</v>
+        <v>3216700</v>
       </c>
       <c r="F9" s="3">
-        <v>4168900</v>
+        <v>4344700</v>
       </c>
       <c r="G9" s="3">
-        <v>4040000</v>
+        <v>4244000</v>
       </c>
       <c r="H9" s="3">
-        <v>4034300</v>
+        <v>4112700</v>
       </c>
       <c r="I9" s="3">
-        <v>4650500</v>
+        <v>4106900</v>
       </c>
       <c r="J9" s="3">
+        <v>4734300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4644500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4266600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4011000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4364100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4072000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3892100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3635600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3643900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2714800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1170700</v>
+        <v>1286700</v>
       </c>
       <c r="E10" s="3">
-        <v>1560700</v>
+        <v>1191700</v>
       </c>
       <c r="F10" s="3">
-        <v>1626800</v>
+        <v>1588800</v>
       </c>
       <c r="G10" s="3">
-        <v>1659100</v>
+        <v>1656100</v>
       </c>
       <c r="H10" s="3">
-        <v>1722000</v>
+        <v>1689000</v>
       </c>
       <c r="I10" s="3">
-        <v>2020100</v>
+        <v>1753000</v>
       </c>
       <c r="J10" s="3">
+        <v>2056500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1968800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1976100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1861700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1921400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1775500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1511500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1437700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1467700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1104600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>15500</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4076300</v>
+        <v>4474100</v>
       </c>
       <c r="E17" s="3">
-        <v>5423700</v>
+        <v>4149700</v>
       </c>
       <c r="F17" s="3">
-        <v>5174200</v>
+        <v>5521400</v>
       </c>
       <c r="G17" s="3">
-        <v>5064500</v>
+        <v>5267300</v>
       </c>
       <c r="H17" s="3">
-        <v>5050500</v>
+        <v>5155700</v>
       </c>
       <c r="I17" s="3">
-        <v>5708000</v>
+        <v>5141400</v>
       </c>
       <c r="J17" s="3">
+        <v>5810800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5711600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5274100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4999600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5531700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5170900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4865900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4606000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4516700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3438900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>254100</v>
+        <v>321200</v>
       </c>
       <c r="E18" s="3">
-        <v>404800</v>
+        <v>258700</v>
       </c>
       <c r="F18" s="3">
-        <v>621600</v>
+        <v>412100</v>
       </c>
       <c r="G18" s="3">
-        <v>634600</v>
+        <v>632800</v>
       </c>
       <c r="H18" s="3">
-        <v>705700</v>
+        <v>646000</v>
       </c>
       <c r="I18" s="3">
-        <v>962600</v>
+        <v>718400</v>
       </c>
       <c r="J18" s="3">
+        <v>979900</v>
+      </c>
+      <c r="K18" s="3">
         <v>901800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>968600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>873100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>753900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>676500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>537700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>467400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>594900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>380500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>51200</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-37600</v>
+        <v>52100</v>
       </c>
       <c r="F20" s="3">
-        <v>15600</v>
+        <v>-38300</v>
       </c>
       <c r="G20" s="3">
-        <v>5100</v>
+        <v>15800</v>
       </c>
       <c r="H20" s="3">
-        <v>-11300</v>
+        <v>5200</v>
       </c>
       <c r="I20" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="O20" s="3">
+        <v>14300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>372500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="S20" s="3">
         <v>36500</v>
       </c>
-      <c r="J20" s="3">
-        <v>-35000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>21000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>14300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>372500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>36500</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>605700</v>
+        <v>639000</v>
       </c>
       <c r="E21" s="3">
-        <v>691600</v>
+        <v>616600</v>
       </c>
       <c r="F21" s="3">
-        <v>944300</v>
+        <v>704100</v>
       </c>
       <c r="G21" s="3">
-        <v>941800</v>
+        <v>961300</v>
       </c>
       <c r="H21" s="3">
-        <v>1002900</v>
+        <v>958800</v>
       </c>
       <c r="I21" s="3">
-        <v>1313900</v>
+        <v>1020900</v>
       </c>
       <c r="J21" s="3">
+        <v>1337600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1176100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1281800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1193400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1052800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>992600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1205300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>763800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>821800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>643700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36300</v>
+        <v>34300</v>
       </c>
       <c r="E22" s="3">
-        <v>53800</v>
+        <v>36900</v>
       </c>
       <c r="F22" s="3">
-        <v>54600</v>
+        <v>54800</v>
       </c>
       <c r="G22" s="3">
+        <v>55600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>62100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>63900</v>
+      </c>
+      <c r="J22" s="3">
         <v>61000</v>
       </c>
-      <c r="H22" s="3">
-        <v>62800</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>59900</v>
       </c>
-      <c r="J22" s="3">
-        <v>59900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>46900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>269000</v>
+        <v>288600</v>
       </c>
       <c r="E23" s="3">
-        <v>313300</v>
+        <v>273900</v>
       </c>
       <c r="F23" s="3">
-        <v>582500</v>
+        <v>319000</v>
       </c>
       <c r="G23" s="3">
-        <v>578700</v>
+        <v>593000</v>
       </c>
       <c r="H23" s="3">
-        <v>631600</v>
+        <v>589100</v>
       </c>
       <c r="I23" s="3">
-        <v>939200</v>
+        <v>643000</v>
       </c>
       <c r="J23" s="3">
+        <v>956100</v>
+      </c>
+      <c r="K23" s="3">
         <v>806800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>925000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>844800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>691300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>643900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>868000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>434800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>560600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92700</v>
+        <v>70000</v>
       </c>
       <c r="E24" s="3">
-        <v>122700</v>
+        <v>94400</v>
       </c>
       <c r="F24" s="3">
-        <v>134500</v>
+        <v>124900</v>
       </c>
       <c r="G24" s="3">
-        <v>167900</v>
+        <v>137000</v>
       </c>
       <c r="H24" s="3">
-        <v>168300</v>
+        <v>170900</v>
       </c>
       <c r="I24" s="3">
-        <v>235700</v>
+        <v>171400</v>
       </c>
       <c r="J24" s="3">
+        <v>239900</v>
+      </c>
+      <c r="K24" s="3">
         <v>227500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>274200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>254700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>293100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>142000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>259900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>135000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>124400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>176300</v>
+        <v>218700</v>
       </c>
       <c r="E26" s="3">
-        <v>190600</v>
+        <v>179500</v>
       </c>
       <c r="F26" s="3">
-        <v>448000</v>
+        <v>194000</v>
       </c>
       <c r="G26" s="3">
-        <v>410800</v>
+        <v>456100</v>
       </c>
       <c r="H26" s="3">
-        <v>463300</v>
+        <v>418200</v>
       </c>
       <c r="I26" s="3">
-        <v>703500</v>
+        <v>471600</v>
       </c>
       <c r="J26" s="3">
+        <v>716200</v>
+      </c>
+      <c r="K26" s="3">
         <v>579400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>650800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>590100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>398100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>501800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>608200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>348900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>425700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>276200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>153400</v>
+        <v>202200</v>
       </c>
       <c r="E27" s="3">
-        <v>175400</v>
+        <v>156200</v>
       </c>
       <c r="F27" s="3">
-        <v>426700</v>
+        <v>178500</v>
       </c>
       <c r="G27" s="3">
-        <v>402000</v>
+        <v>434400</v>
       </c>
       <c r="H27" s="3">
-        <v>448200</v>
+        <v>409300</v>
       </c>
       <c r="I27" s="3">
-        <v>682500</v>
+        <v>456200</v>
       </c>
       <c r="J27" s="3">
+        <v>694700</v>
+      </c>
+      <c r="K27" s="3">
         <v>555200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>579800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>572400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>373800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>481900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>590900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>329000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>399600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>273300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51200</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>37600</v>
+        <v>-52100</v>
       </c>
       <c r="F32" s="3">
-        <v>-15600</v>
+        <v>38300</v>
       </c>
       <c r="G32" s="3">
-        <v>-5100</v>
+        <v>-15800</v>
       </c>
       <c r="H32" s="3">
-        <v>11300</v>
+        <v>-5200</v>
       </c>
       <c r="I32" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>17900</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-372500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>300</v>
+      </c>
+      <c r="R32" s="3">
+        <v>11900</v>
+      </c>
+      <c r="S32" s="3">
         <v>-36500</v>
       </c>
-      <c r="J32" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>17900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-372500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>11900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>153400</v>
+        <v>202200</v>
       </c>
       <c r="E33" s="3">
-        <v>175400</v>
+        <v>156200</v>
       </c>
       <c r="F33" s="3">
-        <v>426700</v>
+        <v>178500</v>
       </c>
       <c r="G33" s="3">
-        <v>402000</v>
+        <v>434400</v>
       </c>
       <c r="H33" s="3">
-        <v>448200</v>
+        <v>409300</v>
       </c>
       <c r="I33" s="3">
-        <v>682500</v>
+        <v>456200</v>
       </c>
       <c r="J33" s="3">
+        <v>694700</v>
+      </c>
+      <c r="K33" s="3">
         <v>555200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>579800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>572400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>373800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>481900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>590900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>329000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>399600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>273300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>153400</v>
+        <v>202200</v>
       </c>
       <c r="E35" s="3">
-        <v>175400</v>
+        <v>156200</v>
       </c>
       <c r="F35" s="3">
-        <v>426700</v>
+        <v>178500</v>
       </c>
       <c r="G35" s="3">
-        <v>402000</v>
+        <v>434400</v>
       </c>
       <c r="H35" s="3">
-        <v>448200</v>
+        <v>409300</v>
       </c>
       <c r="I35" s="3">
-        <v>682500</v>
+        <v>456200</v>
       </c>
       <c r="J35" s="3">
+        <v>694700</v>
+      </c>
+      <c r="K35" s="3">
         <v>555200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>579800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>572400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>373800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>481900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>590900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>329000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>399600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>273300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2428300</v>
+        <v>2266500</v>
       </c>
       <c r="E41" s="3">
-        <v>2356900</v>
+        <v>2472000</v>
       </c>
       <c r="F41" s="3">
-        <v>1751100</v>
+        <v>2399400</v>
       </c>
       <c r="G41" s="3">
-        <v>1555200</v>
+        <v>1782600</v>
       </c>
       <c r="H41" s="3">
-        <v>1847600</v>
+        <v>1583200</v>
       </c>
       <c r="I41" s="3">
-        <v>1423600</v>
+        <v>1880900</v>
       </c>
       <c r="J41" s="3">
+        <v>1449300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1421600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1196300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1343400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1327600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1516900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1482200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1381200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1083800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1209600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2423,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6273400</v>
+        <v>6437800</v>
       </c>
       <c r="E43" s="3">
-        <v>7027100</v>
+        <v>6386400</v>
       </c>
       <c r="F43" s="3">
-        <v>7256000</v>
+        <v>7153600</v>
       </c>
       <c r="G43" s="3">
-        <v>6984600</v>
+        <v>7386700</v>
       </c>
       <c r="H43" s="3">
-        <v>7327100</v>
+        <v>7110300</v>
       </c>
       <c r="I43" s="3">
-        <v>7950200</v>
+        <v>7459000</v>
       </c>
       <c r="J43" s="3">
+        <v>8093400</v>
+      </c>
+      <c r="K43" s="3">
         <v>7464600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7593000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7131300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7166100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6920900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6481500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5949400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5492900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5117000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8181900</v>
+        <v>8061800</v>
       </c>
       <c r="E44" s="3">
-        <v>7602100</v>
+        <v>8329200</v>
       </c>
       <c r="F44" s="3">
-        <v>8496300</v>
+        <v>7739000</v>
       </c>
       <c r="G44" s="3">
-        <v>8441400</v>
+        <v>8649300</v>
       </c>
       <c r="H44" s="3">
-        <v>8260200</v>
+        <v>8593400</v>
       </c>
       <c r="I44" s="3">
-        <v>7906500</v>
+        <v>8409000</v>
       </c>
       <c r="J44" s="3">
+        <v>8048900</v>
+      </c>
+      <c r="K44" s="3">
         <v>7793600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7851600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7246200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6601800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6847600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6441600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6211000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4735700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5252300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1404900</v>
+        <v>1263000</v>
       </c>
       <c r="E45" s="3">
-        <v>1391600</v>
+        <v>1430200</v>
       </c>
       <c r="F45" s="3">
-        <v>1418500</v>
+        <v>1416600</v>
       </c>
       <c r="G45" s="3">
-        <v>1258600</v>
+        <v>1444000</v>
       </c>
       <c r="H45" s="3">
-        <v>1363400</v>
+        <v>1281300</v>
       </c>
       <c r="I45" s="3">
-        <v>1306600</v>
+        <v>1387900</v>
       </c>
       <c r="J45" s="3">
+        <v>1330200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1291000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1205900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1188900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1154700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1105700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1052800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1084600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1278800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1242800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18288400</v>
+        <v>18029200</v>
       </c>
       <c r="E46" s="3">
-        <v>18377700</v>
+        <v>18617800</v>
       </c>
       <c r="F46" s="3">
-        <v>18921900</v>
+        <v>18708700</v>
       </c>
       <c r="G46" s="3">
-        <v>18239800</v>
+        <v>19262600</v>
       </c>
       <c r="H46" s="3">
-        <v>18798400</v>
+        <v>18568200</v>
       </c>
       <c r="I46" s="3">
-        <v>18587000</v>
+        <v>19136900</v>
       </c>
       <c r="J46" s="3">
+        <v>18921700</v>
+      </c>
+      <c r="K46" s="3">
         <v>17970800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17846800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16909800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16250200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16391200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15458100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14626200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12591200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12821700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4546400</v>
+        <v>4539300</v>
       </c>
       <c r="E47" s="3">
-        <v>4403300</v>
+        <v>4628200</v>
       </c>
       <c r="F47" s="3">
-        <v>4458300</v>
+        <v>4482600</v>
       </c>
       <c r="G47" s="3">
-        <v>4398100</v>
+        <v>4538600</v>
       </c>
       <c r="H47" s="3">
-        <v>4384400</v>
+        <v>4477300</v>
       </c>
       <c r="I47" s="3">
-        <v>4353300</v>
+        <v>4463400</v>
       </c>
       <c r="J47" s="3">
+        <v>4431700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3945800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4110500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3870100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3656300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3775100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3603400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3962700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3654400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3553700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7634700</v>
+        <v>7802800</v>
       </c>
       <c r="E48" s="3">
-        <v>7657100</v>
+        <v>7772200</v>
       </c>
       <c r="F48" s="3">
-        <v>7705900</v>
+        <v>7795000</v>
       </c>
       <c r="G48" s="3">
-        <v>7601500</v>
+        <v>7844600</v>
       </c>
       <c r="H48" s="3">
-        <v>7682100</v>
+        <v>7738300</v>
       </c>
       <c r="I48" s="3">
-        <v>7329400</v>
+        <v>7820400</v>
       </c>
       <c r="J48" s="3">
+        <v>7461400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7167800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7111300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6849300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6694400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6941200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6903500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6874400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6023000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6087900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3063500</v>
+        <v>3091300</v>
       </c>
       <c r="E49" s="3">
-        <v>3016900</v>
+        <v>3118700</v>
       </c>
       <c r="F49" s="3">
-        <v>3208200</v>
+        <v>3071200</v>
       </c>
       <c r="G49" s="3">
-        <v>3163100</v>
+        <v>3266000</v>
       </c>
       <c r="H49" s="3">
-        <v>3062900</v>
+        <v>3220000</v>
       </c>
       <c r="I49" s="3">
-        <v>3099400</v>
+        <v>3118100</v>
       </c>
       <c r="J49" s="3">
+        <v>3155200</v>
+      </c>
+      <c r="K49" s="3">
         <v>3161900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3289100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3137100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2975000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3245200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3273300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3281300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>897200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>891700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1025800</v>
+        <v>1080300</v>
       </c>
       <c r="E52" s="3">
-        <v>1035800</v>
+        <v>1044200</v>
       </c>
       <c r="F52" s="3">
-        <v>909600</v>
+        <v>1054400</v>
       </c>
       <c r="G52" s="3">
-        <v>936200</v>
+        <v>926000</v>
       </c>
       <c r="H52" s="3">
-        <v>920500</v>
+        <v>953000</v>
       </c>
       <c r="I52" s="3">
-        <v>975700</v>
+        <v>937100</v>
       </c>
       <c r="J52" s="3">
+        <v>993200</v>
+      </c>
+      <c r="K52" s="3">
         <v>881500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>914100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>875400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>911800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>925500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>867000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>685400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>397300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>395700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34558700</v>
+        <v>34542900</v>
       </c>
       <c r="E54" s="3">
-        <v>34490800</v>
+        <v>35181100</v>
       </c>
       <c r="F54" s="3">
-        <v>35203900</v>
+        <v>35111900</v>
       </c>
       <c r="G54" s="3">
-        <v>34338600</v>
+        <v>35837900</v>
       </c>
       <c r="H54" s="3">
-        <v>34848200</v>
+        <v>34957000</v>
       </c>
       <c r="I54" s="3">
-        <v>34344800</v>
+        <v>35475800</v>
       </c>
       <c r="J54" s="3">
+        <v>34963300</v>
+      </c>
+      <c r="K54" s="3">
         <v>33127800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33271700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31641700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30487700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31278300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30105200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29429900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23563000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23750700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1928200</v>
+        <v>1864900</v>
       </c>
       <c r="E57" s="3">
-        <v>2078300</v>
+        <v>1963000</v>
       </c>
       <c r="F57" s="3">
-        <v>2167500</v>
+        <v>2115700</v>
       </c>
       <c r="G57" s="3">
-        <v>2340800</v>
+        <v>2206500</v>
       </c>
       <c r="H57" s="3">
-        <v>2410200</v>
+        <v>2382900</v>
       </c>
       <c r="I57" s="3">
-        <v>2520000</v>
+        <v>2453700</v>
       </c>
       <c r="J57" s="3">
+        <v>2565400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2413100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2557500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2485200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2744100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2742000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2594600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2526300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2129800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1891800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5744400</v>
+        <v>4205600</v>
       </c>
       <c r="E58" s="3">
-        <v>5688000</v>
+        <v>5847900</v>
       </c>
       <c r="F58" s="3">
-        <v>6057200</v>
+        <v>5790400</v>
       </c>
       <c r="G58" s="3">
-        <v>5140200</v>
+        <v>6166300</v>
       </c>
       <c r="H58" s="3">
-        <v>4852200</v>
+        <v>5232700</v>
       </c>
       <c r="I58" s="3">
-        <v>4325500</v>
+        <v>4939600</v>
       </c>
       <c r="J58" s="3">
+        <v>4403400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4835900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3995900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4127800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2982300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3226400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2743000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4866100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1932300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2705700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3109000</v>
+        <v>3251200</v>
       </c>
       <c r="E59" s="3">
-        <v>3171200</v>
+        <v>3165000</v>
       </c>
       <c r="F59" s="3">
-        <v>3284500</v>
+        <v>3228300</v>
       </c>
       <c r="G59" s="3">
-        <v>3351700</v>
+        <v>3343600</v>
       </c>
       <c r="H59" s="3">
-        <v>3390900</v>
+        <v>3412000</v>
       </c>
       <c r="I59" s="3">
-        <v>3369800</v>
+        <v>3452000</v>
       </c>
       <c r="J59" s="3">
+        <v>3430500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3011500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3336600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3020600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3220100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3131200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2985200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2675700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2148500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1977100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10781700</v>
+        <v>9321700</v>
       </c>
       <c r="E60" s="3">
-        <v>10937400</v>
+        <v>10975800</v>
       </c>
       <c r="F60" s="3">
-        <v>11509200</v>
+        <v>11134400</v>
       </c>
       <c r="G60" s="3">
-        <v>10832600</v>
+        <v>11716400</v>
       </c>
       <c r="H60" s="3">
-        <v>10653400</v>
+        <v>11027700</v>
       </c>
       <c r="I60" s="3">
-        <v>10215400</v>
+        <v>10845200</v>
       </c>
       <c r="J60" s="3">
+        <v>10399400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10260500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9890100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9633600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8946500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9099600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8322800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10068000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6210600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6574700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4147400</v>
+        <v>5078200</v>
       </c>
       <c r="E61" s="3">
-        <v>3868900</v>
+        <v>4222100</v>
       </c>
       <c r="F61" s="3">
-        <v>3838800</v>
+        <v>3938600</v>
       </c>
       <c r="G61" s="3">
-        <v>3840900</v>
+        <v>3907900</v>
       </c>
       <c r="H61" s="3">
-        <v>4629200</v>
+        <v>3910000</v>
       </c>
       <c r="I61" s="3">
-        <v>4460300</v>
+        <v>4712600</v>
       </c>
       <c r="J61" s="3">
+        <v>4540600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4285500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4526300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4365800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4345500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4771500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4645600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2829700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1692900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1742600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2135700</v>
+        <v>2204000</v>
       </c>
       <c r="E62" s="3">
-        <v>2161700</v>
+        <v>2174100</v>
       </c>
       <c r="F62" s="3">
-        <v>2007000</v>
+        <v>2200700</v>
       </c>
       <c r="G62" s="3">
-        <v>2008800</v>
+        <v>2043200</v>
       </c>
       <c r="H62" s="3">
-        <v>2006400</v>
+        <v>2045000</v>
       </c>
       <c r="I62" s="3">
-        <v>1706100</v>
+        <v>2042500</v>
       </c>
       <c r="J62" s="3">
+        <v>1736800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1588900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1545500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1485000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1433600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1437400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1448700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1400700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1037100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1041600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17911100</v>
+        <v>17460200</v>
       </c>
       <c r="E66" s="3">
-        <v>17766800</v>
+        <v>18233700</v>
       </c>
       <c r="F66" s="3">
-        <v>18177200</v>
+        <v>18086800</v>
       </c>
       <c r="G66" s="3">
-        <v>17460300</v>
+        <v>18504500</v>
       </c>
       <c r="H66" s="3">
-        <v>18080100</v>
+        <v>17774700</v>
       </c>
       <c r="I66" s="3">
-        <v>17205700</v>
+        <v>18405700</v>
       </c>
       <c r="J66" s="3">
+        <v>17515500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16912800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16751000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16218100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15440300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16046200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15109600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14968700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9577900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9984500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16290400</v>
+        <v>16782600</v>
       </c>
       <c r="E72" s="3">
-        <v>16485000</v>
+        <v>16583800</v>
       </c>
       <c r="F72" s="3">
-        <v>16309600</v>
+        <v>16781800</v>
       </c>
       <c r="G72" s="3">
-        <v>16373500</v>
+        <v>16603300</v>
       </c>
       <c r="H72" s="3">
-        <v>15971400</v>
+        <v>16668300</v>
       </c>
       <c r="I72" s="3">
-        <v>16049300</v>
+        <v>16259100</v>
       </c>
       <c r="J72" s="3">
+        <v>16338300</v>
+      </c>
+      <c r="K72" s="3">
         <v>15366800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15023600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14132800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13901600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13527900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13353100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12762200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12442100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12042600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16647600</v>
+        <v>17082700</v>
       </c>
       <c r="E76" s="3">
-        <v>16724000</v>
+        <v>16947400</v>
       </c>
       <c r="F76" s="3">
-        <v>17026700</v>
+        <v>17025100</v>
       </c>
       <c r="G76" s="3">
-        <v>16878400</v>
+        <v>17333300</v>
       </c>
       <c r="H76" s="3">
-        <v>16768100</v>
+        <v>17182300</v>
       </c>
       <c r="I76" s="3">
-        <v>17139100</v>
+        <v>17070100</v>
       </c>
       <c r="J76" s="3">
+        <v>17447700</v>
+      </c>
+      <c r="K76" s="3">
         <v>16215000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16520700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15423500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15047400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15232100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14995700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14461200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13985100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13766200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>153400</v>
+        <v>202200</v>
       </c>
       <c r="E81" s="3">
-        <v>175400</v>
+        <v>156200</v>
       </c>
       <c r="F81" s="3">
-        <v>426700</v>
+        <v>178500</v>
       </c>
       <c r="G81" s="3">
-        <v>402000</v>
+        <v>434400</v>
       </c>
       <c r="H81" s="3">
-        <v>448200</v>
+        <v>409300</v>
       </c>
       <c r="I81" s="3">
-        <v>682500</v>
+        <v>456200</v>
       </c>
       <c r="J81" s="3">
+        <v>694700</v>
+      </c>
+      <c r="K81" s="3">
         <v>555200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>579800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>572400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>373800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>481900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>590900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>329000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>399600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>273300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300400</v>
+        <v>316100</v>
       </c>
       <c r="E83" s="3">
-        <v>324500</v>
+        <v>305800</v>
       </c>
       <c r="F83" s="3">
-        <v>307200</v>
+        <v>330300</v>
       </c>
       <c r="G83" s="3">
-        <v>302100</v>
+        <v>312700</v>
       </c>
       <c r="H83" s="3">
-        <v>308500</v>
+        <v>307600</v>
       </c>
       <c r="I83" s="3">
-        <v>314800</v>
+        <v>314000</v>
       </c>
       <c r="J83" s="3">
+        <v>320500</v>
+      </c>
+      <c r="K83" s="3">
         <v>309400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>301200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>299200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>316900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>301900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>295000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>296800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>238900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>226700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>519500</v>
+        <v>937100</v>
       </c>
       <c r="E89" s="3">
-        <v>1295400</v>
+        <v>528800</v>
       </c>
       <c r="F89" s="3">
-        <v>209600</v>
+        <v>1318700</v>
       </c>
       <c r="G89" s="3">
-        <v>734900</v>
+        <v>213400</v>
       </c>
       <c r="H89" s="3">
-        <v>546700</v>
+        <v>748100</v>
       </c>
       <c r="I89" s="3">
-        <v>964800</v>
+        <v>556500</v>
       </c>
       <c r="J89" s="3">
+        <v>982200</v>
+      </c>
+      <c r="K89" s="3">
         <v>259100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>677800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>603600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>357400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>376500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>971600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>448000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-351800</v>
+        <v>-461400</v>
       </c>
       <c r="E91" s="3">
-        <v>-426200</v>
+        <v>-358100</v>
       </c>
       <c r="F91" s="3">
-        <v>-450500</v>
+        <v>-433900</v>
       </c>
       <c r="G91" s="3">
-        <v>-451600</v>
+        <v>-458600</v>
       </c>
       <c r="H91" s="3">
-        <v>-415300</v>
+        <v>-459700</v>
       </c>
       <c r="I91" s="3">
-        <v>-445500</v>
+        <v>-422800</v>
       </c>
       <c r="J91" s="3">
+        <v>-453500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-552400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-411600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-382200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-288700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-389600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-331300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-390900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-378000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-358000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-334600</v>
+        <v>-428400</v>
       </c>
       <c r="E94" s="3">
-        <v>-392900</v>
+        <v>-340600</v>
       </c>
       <c r="F94" s="3">
-        <v>-402300</v>
+        <v>-399900</v>
       </c>
       <c r="G94" s="3">
-        <v>-557600</v>
+        <v>-409500</v>
       </c>
       <c r="H94" s="3">
-        <v>-449600</v>
+        <v>-567700</v>
       </c>
       <c r="I94" s="3">
-        <v>-424600</v>
+        <v>-457700</v>
       </c>
       <c r="J94" s="3">
+        <v>-432300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-524300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-408300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-388400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-520100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-228800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>103500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-347600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-383000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-347900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-354200</v>
       </c>
       <c r="F96" s="3">
-        <v>-490600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-499400</v>
       </c>
       <c r="H96" s="3">
-        <v>-526000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-535500</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-454600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-411800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-307100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-247400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-242700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-113700</v>
+        <v>-720500</v>
       </c>
       <c r="E100" s="3">
-        <v>-280400</v>
+        <v>-115700</v>
       </c>
       <c r="F100" s="3">
-        <v>376800</v>
+        <v>-285500</v>
       </c>
       <c r="G100" s="3">
-        <v>-443600</v>
+        <v>383500</v>
       </c>
       <c r="H100" s="3">
-        <v>314600</v>
+        <v>-451600</v>
       </c>
       <c r="I100" s="3">
-        <v>-513400</v>
+        <v>320300</v>
       </c>
       <c r="J100" s="3">
+        <v>-522600</v>
+      </c>
+      <c r="K100" s="3">
         <v>409300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-408800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>466900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-341500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>246200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-372500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2673000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-763500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>417200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-18200</v>
-      </c>
       <c r="F101" s="3">
-        <v>10800</v>
+        <v>-18600</v>
       </c>
       <c r="G101" s="3">
-        <v>-21400</v>
+        <v>11000</v>
       </c>
       <c r="H101" s="3">
-        <v>13200</v>
+        <v>-21800</v>
       </c>
       <c r="I101" s="3">
-        <v>-24300</v>
+        <v>13400</v>
       </c>
       <c r="J101" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K101" s="3">
         <v>62300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-40600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-66000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>69000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-66000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70700</v>
+        <v>-198400</v>
       </c>
       <c r="E102" s="3">
-        <v>603900</v>
+        <v>71900</v>
       </c>
       <c r="F102" s="3">
-        <v>194900</v>
+        <v>614800</v>
       </c>
       <c r="G102" s="3">
-        <v>-287800</v>
+        <v>198400</v>
       </c>
       <c r="H102" s="3">
-        <v>424900</v>
+        <v>-293000</v>
       </c>
       <c r="I102" s="3">
+        <v>432500</v>
+      </c>
+      <c r="J102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>206500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-179800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-189000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>97400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>278000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-125700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>416200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4795300</v>
+        <v>5089200</v>
       </c>
       <c r="E8" s="3">
-        <v>4408400</v>
+        <v>4570700</v>
       </c>
       <c r="F8" s="3">
-        <v>5933500</v>
+        <v>4202000</v>
       </c>
       <c r="G8" s="3">
-        <v>5900100</v>
+        <v>5655600</v>
       </c>
       <c r="H8" s="3">
-        <v>5801700</v>
+        <v>5623800</v>
       </c>
       <c r="I8" s="3">
-        <v>5859900</v>
+        <v>5530100</v>
       </c>
       <c r="J8" s="3">
+        <v>5585500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6790800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6613400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6242700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5872700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6285600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5847500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5403600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5073300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5111600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3819400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3508500</v>
+        <v>3748700</v>
       </c>
       <c r="E9" s="3">
-        <v>3216700</v>
+        <v>3344200</v>
       </c>
       <c r="F9" s="3">
-        <v>4344700</v>
+        <v>3066000</v>
       </c>
       <c r="G9" s="3">
-        <v>4244000</v>
+        <v>4141300</v>
       </c>
       <c r="H9" s="3">
-        <v>4112700</v>
+        <v>4045300</v>
       </c>
       <c r="I9" s="3">
-        <v>4106900</v>
+        <v>3920100</v>
       </c>
       <c r="J9" s="3">
+        <v>3914600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4734300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4644500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4266600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4011000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4364100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4072000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3892100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3635600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3643900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2714800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1286700</v>
+        <v>1340500</v>
       </c>
       <c r="E10" s="3">
-        <v>1191700</v>
+        <v>1226500</v>
       </c>
       <c r="F10" s="3">
-        <v>1588800</v>
+        <v>1135900</v>
       </c>
       <c r="G10" s="3">
-        <v>1656100</v>
+        <v>1514400</v>
       </c>
       <c r="H10" s="3">
-        <v>1689000</v>
+        <v>1578600</v>
       </c>
       <c r="I10" s="3">
-        <v>1753000</v>
+        <v>1609900</v>
       </c>
       <c r="J10" s="3">
+        <v>1670900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2056500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1968800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1976100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1861700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1921400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1775500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1511500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1437700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1467700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1104600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,8 +1096,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1095,17 +1114,20 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>15500</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4474100</v>
+        <v>4656900</v>
       </c>
       <c r="E17" s="3">
-        <v>4149700</v>
+        <v>4264600</v>
       </c>
       <c r="F17" s="3">
-        <v>5521400</v>
+        <v>3955400</v>
       </c>
       <c r="G17" s="3">
-        <v>5267300</v>
+        <v>5262900</v>
       </c>
       <c r="H17" s="3">
-        <v>5155700</v>
+        <v>5020700</v>
       </c>
       <c r="I17" s="3">
-        <v>5141400</v>
+        <v>4914300</v>
       </c>
       <c r="J17" s="3">
+        <v>4900700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5810800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5711600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5274100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4999600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5531700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5170900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4865900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4606000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4516700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3438900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>321200</v>
+        <v>432300</v>
       </c>
       <c r="E18" s="3">
-        <v>258700</v>
+        <v>306200</v>
       </c>
       <c r="F18" s="3">
-        <v>412100</v>
+        <v>246600</v>
       </c>
       <c r="G18" s="3">
-        <v>632800</v>
+        <v>392800</v>
       </c>
       <c r="H18" s="3">
-        <v>646000</v>
+        <v>603100</v>
       </c>
       <c r="I18" s="3">
-        <v>718400</v>
+        <v>615800</v>
       </c>
       <c r="J18" s="3">
+        <v>684800</v>
+      </c>
+      <c r="K18" s="3">
         <v>979900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>901800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>968600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>873100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>753900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>676500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>537700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>467400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>594900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>380500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>7300</v>
       </c>
       <c r="E20" s="3">
-        <v>52100</v>
+        <v>1600</v>
       </c>
       <c r="F20" s="3">
-        <v>-38300</v>
+        <v>49600</v>
       </c>
       <c r="G20" s="3">
-        <v>15800</v>
+        <v>-36500</v>
       </c>
       <c r="H20" s="3">
-        <v>5200</v>
+        <v>15100</v>
       </c>
       <c r="I20" s="3">
-        <v>-11500</v>
+        <v>4900</v>
       </c>
       <c r="J20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K20" s="3">
         <v>37200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>372500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>639000</v>
+        <v>746900</v>
       </c>
       <c r="E21" s="3">
-        <v>616600</v>
+        <v>609000</v>
       </c>
       <c r="F21" s="3">
-        <v>704100</v>
+        <v>587700</v>
       </c>
       <c r="G21" s="3">
-        <v>961300</v>
+        <v>671100</v>
       </c>
       <c r="H21" s="3">
-        <v>958800</v>
+        <v>916300</v>
       </c>
       <c r="I21" s="3">
-        <v>1020900</v>
+        <v>913900</v>
       </c>
       <c r="J21" s="3">
+        <v>973100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1337600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1176100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1281800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1193400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1052800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>992600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1205300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>763800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>821800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>643700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34300</v>
+        <v>28900</v>
       </c>
       <c r="E22" s="3">
-        <v>36900</v>
+        <v>32700</v>
       </c>
       <c r="F22" s="3">
-        <v>54800</v>
+        <v>35200</v>
       </c>
       <c r="G22" s="3">
+        <v>52200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>59200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="M22" s="3">
         <v>55600</v>
       </c>
-      <c r="H22" s="3">
-        <v>62100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>63900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>61000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>59900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>55600</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>46900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>288600</v>
+        <v>410600</v>
       </c>
       <c r="E23" s="3">
-        <v>273900</v>
+        <v>275100</v>
       </c>
       <c r="F23" s="3">
-        <v>319000</v>
+        <v>261000</v>
       </c>
       <c r="G23" s="3">
-        <v>593000</v>
+        <v>304000</v>
       </c>
       <c r="H23" s="3">
-        <v>589100</v>
+        <v>565300</v>
       </c>
       <c r="I23" s="3">
-        <v>643000</v>
+        <v>561500</v>
       </c>
       <c r="J23" s="3">
+        <v>612900</v>
+      </c>
+      <c r="K23" s="3">
         <v>956100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>806800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>925000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>844800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>691300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>643900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>868000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>434800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>560600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70000</v>
+        <v>126800</v>
       </c>
       <c r="E24" s="3">
-        <v>94400</v>
+        <v>66700</v>
       </c>
       <c r="F24" s="3">
-        <v>124900</v>
+        <v>89900</v>
       </c>
       <c r="G24" s="3">
-        <v>137000</v>
+        <v>119100</v>
       </c>
       <c r="H24" s="3">
-        <v>170900</v>
+        <v>130600</v>
       </c>
       <c r="I24" s="3">
-        <v>171400</v>
+        <v>162900</v>
       </c>
       <c r="J24" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K24" s="3">
         <v>239900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>227500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>274200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>254700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>293100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>142000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>259900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>135000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>124400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>218700</v>
+        <v>283800</v>
       </c>
       <c r="E26" s="3">
-        <v>179500</v>
+        <v>208400</v>
       </c>
       <c r="F26" s="3">
-        <v>194000</v>
+        <v>171100</v>
       </c>
       <c r="G26" s="3">
-        <v>456100</v>
+        <v>184900</v>
       </c>
       <c r="H26" s="3">
-        <v>418200</v>
+        <v>434700</v>
       </c>
       <c r="I26" s="3">
-        <v>471600</v>
+        <v>398600</v>
       </c>
       <c r="J26" s="3">
+        <v>449600</v>
+      </c>
+      <c r="K26" s="3">
         <v>716200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>579400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>650800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>590100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>398100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>501800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>608200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>348900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>425700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>276200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>202200</v>
+        <v>262700</v>
       </c>
       <c r="E27" s="3">
-        <v>156200</v>
+        <v>192800</v>
       </c>
       <c r="F27" s="3">
-        <v>178500</v>
+        <v>148900</v>
       </c>
       <c r="G27" s="3">
-        <v>434400</v>
+        <v>170200</v>
       </c>
       <c r="H27" s="3">
-        <v>409300</v>
+        <v>414100</v>
       </c>
       <c r="I27" s="3">
-        <v>456200</v>
+        <v>390100</v>
       </c>
       <c r="J27" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K27" s="3">
         <v>694700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>555200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>579800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>572400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>373800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>481900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>590900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>329000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>399600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>273300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>-7300</v>
       </c>
       <c r="E32" s="3">
-        <v>-52100</v>
+        <v>-1600</v>
       </c>
       <c r="F32" s="3">
-        <v>38300</v>
+        <v>-49600</v>
       </c>
       <c r="G32" s="3">
-        <v>-15800</v>
+        <v>36500</v>
       </c>
       <c r="H32" s="3">
-        <v>-5200</v>
+        <v>-15100</v>
       </c>
       <c r="I32" s="3">
-        <v>11500</v>
+        <v>-4900</v>
       </c>
       <c r="J32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-37200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-372500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>202200</v>
+        <v>262700</v>
       </c>
       <c r="E33" s="3">
-        <v>156200</v>
+        <v>192800</v>
       </c>
       <c r="F33" s="3">
-        <v>178500</v>
+        <v>148900</v>
       </c>
       <c r="G33" s="3">
-        <v>434400</v>
+        <v>170200</v>
       </c>
       <c r="H33" s="3">
-        <v>409300</v>
+        <v>414100</v>
       </c>
       <c r="I33" s="3">
-        <v>456200</v>
+        <v>390100</v>
       </c>
       <c r="J33" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K33" s="3">
         <v>694700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>555200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>579800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>572400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>373800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>481900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>590900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>329000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>399600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>273300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>202200</v>
+        <v>262700</v>
       </c>
       <c r="E35" s="3">
-        <v>156200</v>
+        <v>192800</v>
       </c>
       <c r="F35" s="3">
-        <v>178500</v>
+        <v>148900</v>
       </c>
       <c r="G35" s="3">
-        <v>434400</v>
+        <v>170200</v>
       </c>
       <c r="H35" s="3">
-        <v>409300</v>
+        <v>414100</v>
       </c>
       <c r="I35" s="3">
-        <v>456200</v>
+        <v>390100</v>
       </c>
       <c r="J35" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K35" s="3">
         <v>694700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>555200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>579800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>572400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>373800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>481900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>590900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>329000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>399600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>273300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2266500</v>
+        <v>2001400</v>
       </c>
       <c r="E41" s="3">
-        <v>2472000</v>
+        <v>2160400</v>
       </c>
       <c r="F41" s="3">
-        <v>2399400</v>
+        <v>2356200</v>
       </c>
       <c r="G41" s="3">
-        <v>1782600</v>
+        <v>2287000</v>
       </c>
       <c r="H41" s="3">
-        <v>1583200</v>
+        <v>1699200</v>
       </c>
       <c r="I41" s="3">
-        <v>1880900</v>
+        <v>1509100</v>
       </c>
       <c r="J41" s="3">
+        <v>1792800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1449300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1421600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1196300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1343400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1327600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1516900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1482200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1381200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1083800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1209600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,400 +2515,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6437800</v>
+        <v>6309900</v>
       </c>
       <c r="E43" s="3">
-        <v>6386400</v>
+        <v>6136300</v>
       </c>
       <c r="F43" s="3">
-        <v>7153600</v>
+        <v>6087300</v>
       </c>
       <c r="G43" s="3">
-        <v>7386700</v>
+        <v>6818700</v>
       </c>
       <c r="H43" s="3">
-        <v>7110300</v>
+        <v>7040800</v>
       </c>
       <c r="I43" s="3">
-        <v>7459000</v>
+        <v>6777400</v>
       </c>
       <c r="J43" s="3">
+        <v>7109800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8093400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7464600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7593000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7131300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7166100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6920900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6481500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5949400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5492900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5117000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8061800</v>
+        <v>7529200</v>
       </c>
       <c r="E44" s="3">
-        <v>8329200</v>
+        <v>7684300</v>
       </c>
       <c r="F44" s="3">
-        <v>7739000</v>
+        <v>7939200</v>
       </c>
       <c r="G44" s="3">
-        <v>8649300</v>
+        <v>7376600</v>
       </c>
       <c r="H44" s="3">
-        <v>8593400</v>
+        <v>8244300</v>
       </c>
       <c r="I44" s="3">
-        <v>8409000</v>
+        <v>8191000</v>
       </c>
       <c r="J44" s="3">
+        <v>8015200</v>
+      </c>
+      <c r="K44" s="3">
         <v>8048900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7793600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7851600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7246200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6601800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6847600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6441600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6211000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4735700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5252300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1263000</v>
+        <v>1202900</v>
       </c>
       <c r="E45" s="3">
-        <v>1430200</v>
+        <v>1203900</v>
       </c>
       <c r="F45" s="3">
-        <v>1416600</v>
+        <v>1363200</v>
       </c>
       <c r="G45" s="3">
-        <v>1444000</v>
+        <v>1350300</v>
       </c>
       <c r="H45" s="3">
-        <v>1281300</v>
+        <v>1376400</v>
       </c>
       <c r="I45" s="3">
-        <v>1387900</v>
+        <v>1221300</v>
       </c>
       <c r="J45" s="3">
+        <v>1322900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1330200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1291000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1205900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1188900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1154700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1105700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1052800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1084600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1278800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1242800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18029200</v>
+        <v>17043400</v>
       </c>
       <c r="E46" s="3">
-        <v>18617800</v>
+        <v>17185000</v>
       </c>
       <c r="F46" s="3">
-        <v>18708700</v>
+        <v>17746000</v>
       </c>
       <c r="G46" s="3">
-        <v>19262600</v>
+        <v>17832600</v>
       </c>
       <c r="H46" s="3">
-        <v>18568200</v>
+        <v>18360700</v>
       </c>
       <c r="I46" s="3">
-        <v>19136900</v>
+        <v>17698800</v>
       </c>
       <c r="J46" s="3">
+        <v>18240800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18921700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17970800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17846800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16909800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16250200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16391200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15458100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14626200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12591200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12821700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4539300</v>
+        <v>4390500</v>
       </c>
       <c r="E47" s="3">
-        <v>4628200</v>
+        <v>4326700</v>
       </c>
       <c r="F47" s="3">
-        <v>4482600</v>
+        <v>4411500</v>
       </c>
       <c r="G47" s="3">
-        <v>4538600</v>
+        <v>4272700</v>
       </c>
       <c r="H47" s="3">
-        <v>4477300</v>
+        <v>4326000</v>
       </c>
       <c r="I47" s="3">
-        <v>4463400</v>
+        <v>4267700</v>
       </c>
       <c r="J47" s="3">
+        <v>4254400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4431700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3945800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4110500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3870100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3656300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3775100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3603400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3962700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3654400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3553700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7802800</v>
+        <v>7507300</v>
       </c>
       <c r="E48" s="3">
-        <v>7772200</v>
+        <v>7437500</v>
       </c>
       <c r="F48" s="3">
-        <v>7795000</v>
+        <v>7408200</v>
       </c>
       <c r="G48" s="3">
-        <v>7844600</v>
+        <v>7430000</v>
       </c>
       <c r="H48" s="3">
-        <v>7738300</v>
+        <v>7477300</v>
       </c>
       <c r="I48" s="3">
-        <v>7820400</v>
+        <v>7376000</v>
       </c>
       <c r="J48" s="3">
+        <v>7454200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7461400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7167800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7111300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6849300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6694400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6941200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6903500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6874400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6023000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6087900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3091300</v>
+        <v>2961900</v>
       </c>
       <c r="E49" s="3">
-        <v>3118700</v>
+        <v>2946500</v>
       </c>
       <c r="F49" s="3">
-        <v>3071200</v>
+        <v>2972600</v>
       </c>
       <c r="G49" s="3">
-        <v>3266000</v>
+        <v>2927400</v>
       </c>
       <c r="H49" s="3">
-        <v>3220000</v>
+        <v>3113100</v>
       </c>
       <c r="I49" s="3">
-        <v>3118100</v>
+        <v>3069300</v>
       </c>
       <c r="J49" s="3">
+        <v>2972100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3155200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3161900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3289100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3137100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2975000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3245200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3273300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3281300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>897200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>891700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1080300</v>
+        <v>1008700</v>
       </c>
       <c r="E52" s="3">
-        <v>1044200</v>
+        <v>1029700</v>
       </c>
       <c r="F52" s="3">
-        <v>1054400</v>
+        <v>995300</v>
       </c>
       <c r="G52" s="3">
-        <v>926000</v>
+        <v>1005100</v>
       </c>
       <c r="H52" s="3">
-        <v>953000</v>
+        <v>882700</v>
       </c>
       <c r="I52" s="3">
-        <v>937100</v>
+        <v>908400</v>
       </c>
       <c r="J52" s="3">
+        <v>893200</v>
+      </c>
+      <c r="K52" s="3">
         <v>993200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>881500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>914100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>875400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>911800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>925500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>867000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>685400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>397300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>395700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34542900</v>
+        <v>32911800</v>
       </c>
       <c r="E54" s="3">
-        <v>35181100</v>
+        <v>32925400</v>
       </c>
       <c r="F54" s="3">
-        <v>35111900</v>
+        <v>33533700</v>
       </c>
       <c r="G54" s="3">
-        <v>35837900</v>
+        <v>33467800</v>
       </c>
       <c r="H54" s="3">
-        <v>34957000</v>
+        <v>34159700</v>
       </c>
       <c r="I54" s="3">
-        <v>35475800</v>
+        <v>33320100</v>
       </c>
       <c r="J54" s="3">
+        <v>33814600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34963300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33127800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33271700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31641700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30487700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31278300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30105200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29429900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23563000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23750700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1864900</v>
+        <v>1996100</v>
       </c>
       <c r="E57" s="3">
-        <v>1963000</v>
+        <v>1777500</v>
       </c>
       <c r="F57" s="3">
-        <v>2115700</v>
+        <v>1871000</v>
       </c>
       <c r="G57" s="3">
-        <v>2206500</v>
+        <v>2016700</v>
       </c>
       <c r="H57" s="3">
-        <v>2382900</v>
+        <v>2103200</v>
       </c>
       <c r="I57" s="3">
-        <v>2453700</v>
+        <v>2271400</v>
       </c>
       <c r="J57" s="3">
+        <v>2338800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2565400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2413100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2557500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2485200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2744100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2742000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2594600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2526300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2129800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1891800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4205600</v>
+        <v>3659600</v>
       </c>
       <c r="E58" s="3">
-        <v>5847900</v>
+        <v>4008700</v>
       </c>
       <c r="F58" s="3">
-        <v>5790400</v>
+        <v>5574000</v>
       </c>
       <c r="G58" s="3">
-        <v>6166300</v>
+        <v>5519200</v>
       </c>
       <c r="H58" s="3">
-        <v>5232700</v>
+        <v>5877500</v>
       </c>
       <c r="I58" s="3">
-        <v>4939600</v>
+        <v>4987700</v>
       </c>
       <c r="J58" s="3">
+        <v>4708300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4403400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4835900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3995900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4127800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2982300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3226400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2743000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4866100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1932300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2705700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3251200</v>
+        <v>3155200</v>
       </c>
       <c r="E59" s="3">
-        <v>3165000</v>
+        <v>3099000</v>
       </c>
       <c r="F59" s="3">
-        <v>3228300</v>
+        <v>3016800</v>
       </c>
       <c r="G59" s="3">
-        <v>3343600</v>
+        <v>3077100</v>
       </c>
       <c r="H59" s="3">
-        <v>3412000</v>
+        <v>3187100</v>
       </c>
       <c r="I59" s="3">
-        <v>3452000</v>
+        <v>3252200</v>
       </c>
       <c r="J59" s="3">
+        <v>3290300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3430500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3011500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3336600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3020600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3220100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3131200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2985200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2675700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2148500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1977100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9321700</v>
+        <v>8810900</v>
       </c>
       <c r="E60" s="3">
-        <v>10975800</v>
+        <v>8885200</v>
       </c>
       <c r="F60" s="3">
-        <v>11134400</v>
+        <v>10461900</v>
       </c>
       <c r="G60" s="3">
-        <v>11716400</v>
+        <v>10613000</v>
       </c>
       <c r="H60" s="3">
-        <v>11027700</v>
+        <v>11167800</v>
       </c>
       <c r="I60" s="3">
-        <v>10845200</v>
+        <v>10511300</v>
       </c>
       <c r="J60" s="3">
+        <v>10337400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10399400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10260500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9890100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9633600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8946500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9099600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8322800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10068000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6210600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6574700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5078200</v>
+        <v>4734500</v>
       </c>
       <c r="E61" s="3">
-        <v>4222100</v>
+        <v>4840400</v>
       </c>
       <c r="F61" s="3">
-        <v>3938600</v>
+        <v>4024400</v>
       </c>
       <c r="G61" s="3">
-        <v>3907900</v>
+        <v>3754100</v>
       </c>
       <c r="H61" s="3">
-        <v>3910000</v>
+        <v>3724900</v>
       </c>
       <c r="I61" s="3">
-        <v>4712600</v>
+        <v>3726900</v>
       </c>
       <c r="J61" s="3">
+        <v>4491900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4540600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4285500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4526300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4365800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4345500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4771500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4645600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2829700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1692900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1742600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2204000</v>
+        <v>2034600</v>
       </c>
       <c r="E62" s="3">
-        <v>2174100</v>
+        <v>2100800</v>
       </c>
       <c r="F62" s="3">
-        <v>2200700</v>
+        <v>2072300</v>
       </c>
       <c r="G62" s="3">
-        <v>2043200</v>
+        <v>2097600</v>
       </c>
       <c r="H62" s="3">
-        <v>2045000</v>
+        <v>1947500</v>
       </c>
       <c r="I62" s="3">
-        <v>2042500</v>
+        <v>1949200</v>
       </c>
       <c r="J62" s="3">
+        <v>1946800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1736800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1588900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1545500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1485000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1433600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1437400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1448700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1037100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1041600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17460200</v>
+        <v>16428400</v>
       </c>
       <c r="E66" s="3">
-        <v>18233700</v>
+        <v>16642600</v>
       </c>
       <c r="F66" s="3">
-        <v>18086800</v>
+        <v>17379900</v>
       </c>
       <c r="G66" s="3">
-        <v>18504500</v>
+        <v>17239900</v>
       </c>
       <c r="H66" s="3">
-        <v>17774700</v>
+        <v>17638000</v>
       </c>
       <c r="I66" s="3">
-        <v>18405700</v>
+        <v>16942400</v>
       </c>
       <c r="J66" s="3">
+        <v>17543800</v>
+      </c>
+      <c r="K66" s="3">
         <v>17515500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16912800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16751000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16218100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15440300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16046200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15109600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14968700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9577900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9984500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16782600</v>
+        <v>16103600</v>
       </c>
       <c r="E72" s="3">
-        <v>16583800</v>
+        <v>15996700</v>
       </c>
       <c r="F72" s="3">
-        <v>16781800</v>
+        <v>15807200</v>
       </c>
       <c r="G72" s="3">
-        <v>16603300</v>
+        <v>15996000</v>
       </c>
       <c r="H72" s="3">
-        <v>16668300</v>
+        <v>15825900</v>
       </c>
       <c r="I72" s="3">
-        <v>16259100</v>
+        <v>15887800</v>
       </c>
       <c r="J72" s="3">
+        <v>15497700</v>
+      </c>
+      <c r="K72" s="3">
         <v>16338300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15366800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15023600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14132800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13901600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13527900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13353100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12762200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12442100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12042600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17082700</v>
+        <v>16483400</v>
       </c>
       <c r="E76" s="3">
-        <v>16947400</v>
+        <v>16282800</v>
       </c>
       <c r="F76" s="3">
-        <v>17025100</v>
+        <v>16153800</v>
       </c>
       <c r="G76" s="3">
-        <v>17333300</v>
+        <v>16227900</v>
       </c>
       <c r="H76" s="3">
-        <v>17182300</v>
+        <v>16521700</v>
       </c>
       <c r="I76" s="3">
-        <v>17070100</v>
+        <v>16377700</v>
       </c>
       <c r="J76" s="3">
+        <v>16270800</v>
+      </c>
+      <c r="K76" s="3">
         <v>17447700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16215000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16520700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15423500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15047400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15232100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14995700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14461200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13985100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13766200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>202200</v>
+        <v>262700</v>
       </c>
       <c r="E81" s="3">
-        <v>156200</v>
+        <v>192800</v>
       </c>
       <c r="F81" s="3">
-        <v>178500</v>
+        <v>148900</v>
       </c>
       <c r="G81" s="3">
-        <v>434400</v>
+        <v>170200</v>
       </c>
       <c r="H81" s="3">
-        <v>409300</v>
+        <v>414100</v>
       </c>
       <c r="I81" s="3">
-        <v>456200</v>
+        <v>390100</v>
       </c>
       <c r="J81" s="3">
+        <v>434900</v>
+      </c>
+      <c r="K81" s="3">
         <v>694700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>555200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>579800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>572400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>373800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>481900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>590900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>329000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>399600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>273300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>316100</v>
+        <v>307300</v>
       </c>
       <c r="E83" s="3">
-        <v>305800</v>
+        <v>301300</v>
       </c>
       <c r="F83" s="3">
-        <v>330300</v>
+        <v>291500</v>
       </c>
       <c r="G83" s="3">
-        <v>312700</v>
+        <v>314900</v>
       </c>
       <c r="H83" s="3">
-        <v>307600</v>
+        <v>298000</v>
       </c>
       <c r="I83" s="3">
-        <v>314000</v>
+        <v>293200</v>
       </c>
       <c r="J83" s="3">
+        <v>299300</v>
+      </c>
+      <c r="K83" s="3">
         <v>320500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>309400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>301200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>299200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>316900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>301900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>295000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>296800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>238900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>226700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>937100</v>
+        <v>795500</v>
       </c>
       <c r="E89" s="3">
-        <v>528800</v>
+        <v>893200</v>
       </c>
       <c r="F89" s="3">
-        <v>1318700</v>
+        <v>504100</v>
       </c>
       <c r="G89" s="3">
-        <v>213400</v>
+        <v>1257000</v>
       </c>
       <c r="H89" s="3">
-        <v>748100</v>
+        <v>203400</v>
       </c>
       <c r="I89" s="3">
-        <v>556500</v>
+        <v>713100</v>
       </c>
       <c r="J89" s="3">
+        <v>530400</v>
+      </c>
+      <c r="K89" s="3">
         <v>982200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>259100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>677800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>603600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>357400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>376500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>971600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>448000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-461400</v>
+        <v>-476000</v>
       </c>
       <c r="E91" s="3">
-        <v>-358100</v>
+        <v>-439800</v>
       </c>
       <c r="F91" s="3">
-        <v>-433900</v>
+        <v>-341400</v>
       </c>
       <c r="G91" s="3">
-        <v>-458600</v>
+        <v>-413500</v>
       </c>
       <c r="H91" s="3">
-        <v>-459700</v>
+        <v>-437100</v>
       </c>
       <c r="I91" s="3">
-        <v>-422800</v>
+        <v>-438200</v>
       </c>
       <c r="J91" s="3">
+        <v>-403000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-453500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-552400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-411600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-382200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-288700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-389600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-331300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-390900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-378000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-358000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-428400</v>
+        <v>-426200</v>
       </c>
       <c r="E94" s="3">
-        <v>-340600</v>
+        <v>-408300</v>
       </c>
       <c r="F94" s="3">
-        <v>-399900</v>
+        <v>-324700</v>
       </c>
       <c r="G94" s="3">
-        <v>-409500</v>
+        <v>-381200</v>
       </c>
       <c r="H94" s="3">
-        <v>-567700</v>
+        <v>-390400</v>
       </c>
       <c r="I94" s="3">
-        <v>-457700</v>
+        <v>-541100</v>
       </c>
       <c r="J94" s="3">
+        <v>-436300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-432300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-524300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-408300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-388400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-520100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-228800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>103500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-347600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-383000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-155900</v>
       </c>
       <c r="E96" s="3">
-        <v>-354200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-337600</v>
       </c>
       <c r="G96" s="3">
-        <v>-499400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-476000</v>
       </c>
       <c r="I96" s="3">
-        <v>-535500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-510400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-454600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-411800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-307100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-247400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-242700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-720500</v>
+        <v>-552400</v>
       </c>
       <c r="E100" s="3">
-        <v>-115700</v>
+        <v>-686700</v>
       </c>
       <c r="F100" s="3">
-        <v>-285500</v>
+        <v>-110300</v>
       </c>
       <c r="G100" s="3">
-        <v>383500</v>
+        <v>-272100</v>
       </c>
       <c r="H100" s="3">
-        <v>-451600</v>
+        <v>365600</v>
       </c>
       <c r="I100" s="3">
-        <v>320300</v>
+        <v>-430500</v>
       </c>
       <c r="J100" s="3">
+        <v>305300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-522600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>409300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-408800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>466900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-341500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>246200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-372500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2673000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-763500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>417200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13400</v>
+        <v>23800</v>
       </c>
       <c r="E101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-18600</v>
-      </c>
       <c r="G101" s="3">
-        <v>11000</v>
+        <v>-17700</v>
       </c>
       <c r="H101" s="3">
-        <v>-21800</v>
+        <v>10500</v>
       </c>
       <c r="I101" s="3">
-        <v>13400</v>
+        <v>-20800</v>
       </c>
       <c r="J101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-24800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>62300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-40600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-66000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>69000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-66000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-198400</v>
+        <v>-159400</v>
       </c>
       <c r="E102" s="3">
-        <v>71900</v>
+        <v>-189100</v>
       </c>
       <c r="F102" s="3">
-        <v>614800</v>
+        <v>68600</v>
       </c>
       <c r="G102" s="3">
-        <v>198400</v>
+        <v>586000</v>
       </c>
       <c r="H102" s="3">
-        <v>-293000</v>
+        <v>189100</v>
       </c>
       <c r="I102" s="3">
-        <v>432500</v>
+        <v>-279200</v>
       </c>
       <c r="J102" s="3">
+        <v>412300</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>206500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-179800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-189000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>97400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>278000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-125700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>416200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5089200</v>
+        <v>6214300</v>
       </c>
       <c r="E8" s="3">
-        <v>4570700</v>
+        <v>5105900</v>
       </c>
       <c r="F8" s="3">
-        <v>4202000</v>
+        <v>4585700</v>
       </c>
       <c r="G8" s="3">
-        <v>5655600</v>
+        <v>4215700</v>
       </c>
       <c r="H8" s="3">
-        <v>5623800</v>
+        <v>5674200</v>
       </c>
       <c r="I8" s="3">
-        <v>5530100</v>
+        <v>5642300</v>
       </c>
       <c r="J8" s="3">
+        <v>5548200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5585500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6790800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6613400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6242700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5872700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6285600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5847500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5403600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5073300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5111600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3819400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3748700</v>
+        <v>4589500</v>
       </c>
       <c r="E9" s="3">
-        <v>3344200</v>
+        <v>3761000</v>
       </c>
       <c r="F9" s="3">
-        <v>3066000</v>
+        <v>3355200</v>
       </c>
       <c r="G9" s="3">
-        <v>4141300</v>
+        <v>3076100</v>
       </c>
       <c r="H9" s="3">
-        <v>4045300</v>
+        <v>4154800</v>
       </c>
       <c r="I9" s="3">
-        <v>3920100</v>
+        <v>4058500</v>
       </c>
       <c r="J9" s="3">
+        <v>3933000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3914600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4734300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4644500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4266600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4011000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4364100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4072000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3892100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3635600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3643900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2714800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1340500</v>
+        <v>1624800</v>
       </c>
       <c r="E10" s="3">
-        <v>1226500</v>
+        <v>1344900</v>
       </c>
       <c r="F10" s="3">
-        <v>1135900</v>
+        <v>1230500</v>
       </c>
       <c r="G10" s="3">
-        <v>1514400</v>
+        <v>1139700</v>
       </c>
       <c r="H10" s="3">
-        <v>1578600</v>
+        <v>1519300</v>
       </c>
       <c r="I10" s="3">
-        <v>1609900</v>
+        <v>1583700</v>
       </c>
       <c r="J10" s="3">
+        <v>1615200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1670900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2056500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1968800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1976100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1861700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1921400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1775500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1511500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1437700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1467700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1104600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>22100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1099,8 +1119,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1117,17 +1137,20 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>15500</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4656900</v>
+        <v>5664800</v>
       </c>
       <c r="E17" s="3">
-        <v>4264600</v>
+        <v>4672200</v>
       </c>
       <c r="F17" s="3">
-        <v>3955400</v>
+        <v>4278500</v>
       </c>
       <c r="G17" s="3">
-        <v>5262900</v>
+        <v>3968400</v>
       </c>
       <c r="H17" s="3">
-        <v>5020700</v>
+        <v>5280100</v>
       </c>
       <c r="I17" s="3">
-        <v>4914300</v>
+        <v>5037100</v>
       </c>
       <c r="J17" s="3">
+        <v>4930400</v>
+      </c>
+      <c r="K17" s="3">
         <v>4900700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5810800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5711600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5274100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4999600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5531700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5170900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4865900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4606000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4516700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3438900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>432300</v>
+        <v>549500</v>
       </c>
       <c r="E18" s="3">
-        <v>306200</v>
+        <v>433700</v>
       </c>
       <c r="F18" s="3">
-        <v>246600</v>
+        <v>307200</v>
       </c>
       <c r="G18" s="3">
-        <v>392800</v>
+        <v>247400</v>
       </c>
       <c r="H18" s="3">
-        <v>603100</v>
+        <v>394100</v>
       </c>
       <c r="I18" s="3">
-        <v>615800</v>
+        <v>605100</v>
       </c>
       <c r="J18" s="3">
+        <v>617800</v>
+      </c>
+      <c r="K18" s="3">
         <v>684800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>979900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>901800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>968600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>873100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>753900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>676500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>537700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>467400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>594900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>380500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>49600</v>
-      </c>
       <c r="G20" s="3">
-        <v>-36500</v>
+        <v>49800</v>
       </c>
       <c r="H20" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="I20" s="3">
         <v>15100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>372500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>746900</v>
+        <v>895800</v>
       </c>
       <c r="E21" s="3">
-        <v>609000</v>
+        <v>749400</v>
       </c>
       <c r="F21" s="3">
-        <v>587700</v>
+        <v>611000</v>
       </c>
       <c r="G21" s="3">
-        <v>671100</v>
+        <v>589600</v>
       </c>
       <c r="H21" s="3">
-        <v>916300</v>
+        <v>673300</v>
       </c>
       <c r="I21" s="3">
-        <v>913900</v>
+        <v>919300</v>
       </c>
       <c r="J21" s="3">
+        <v>916800</v>
+      </c>
+      <c r="K21" s="3">
         <v>973100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1337600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1176100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1281800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1193400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1052800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>992600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1205300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>763800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>821800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>643700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="E22" s="3">
-        <v>32700</v>
+        <v>29000</v>
       </c>
       <c r="F22" s="3">
-        <v>35200</v>
+        <v>32800</v>
       </c>
       <c r="G22" s="3">
-        <v>52200</v>
+        <v>35300</v>
       </c>
       <c r="H22" s="3">
-        <v>53000</v>
+        <v>52400</v>
       </c>
       <c r="I22" s="3">
-        <v>59200</v>
+        <v>53200</v>
       </c>
       <c r="J22" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K22" s="3">
         <v>60900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>61000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>32300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>410600</v>
+        <v>546000</v>
       </c>
       <c r="E23" s="3">
-        <v>275100</v>
+        <v>412000</v>
       </c>
       <c r="F23" s="3">
-        <v>261000</v>
+        <v>276000</v>
       </c>
       <c r="G23" s="3">
-        <v>304000</v>
+        <v>261900</v>
       </c>
       <c r="H23" s="3">
-        <v>565300</v>
+        <v>305000</v>
       </c>
       <c r="I23" s="3">
-        <v>561500</v>
+        <v>567100</v>
       </c>
       <c r="J23" s="3">
+        <v>563400</v>
+      </c>
+      <c r="K23" s="3">
         <v>612900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>956100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>806800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>925000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>844800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>691300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>643900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>868000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>434800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>560600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>126800</v>
+        <v>146800</v>
       </c>
       <c r="E24" s="3">
-        <v>66700</v>
+        <v>127300</v>
       </c>
       <c r="F24" s="3">
-        <v>89900</v>
+        <v>66900</v>
       </c>
       <c r="G24" s="3">
-        <v>119100</v>
+        <v>90200</v>
       </c>
       <c r="H24" s="3">
-        <v>130600</v>
+        <v>119500</v>
       </c>
       <c r="I24" s="3">
-        <v>162900</v>
+        <v>131000</v>
       </c>
       <c r="J24" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K24" s="3">
         <v>163300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>239900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>227500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>274200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>254700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>293100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>142000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>259900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>135000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>124400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>283800</v>
+        <v>399200</v>
       </c>
       <c r="E26" s="3">
-        <v>208400</v>
+        <v>284700</v>
       </c>
       <c r="F26" s="3">
-        <v>171100</v>
+        <v>209100</v>
       </c>
       <c r="G26" s="3">
-        <v>184900</v>
+        <v>171700</v>
       </c>
       <c r="H26" s="3">
-        <v>434700</v>
+        <v>185500</v>
       </c>
       <c r="I26" s="3">
-        <v>398600</v>
+        <v>436100</v>
       </c>
       <c r="J26" s="3">
+        <v>399900</v>
+      </c>
+      <c r="K26" s="3">
         <v>449600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>716200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>579400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>650800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>590100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>398100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>501800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>608200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>348900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>425700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>276200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>262700</v>
+        <v>370000</v>
       </c>
       <c r="E27" s="3">
-        <v>192800</v>
+        <v>263600</v>
       </c>
       <c r="F27" s="3">
-        <v>148900</v>
+        <v>193400</v>
       </c>
       <c r="G27" s="3">
-        <v>170200</v>
+        <v>149300</v>
       </c>
       <c r="H27" s="3">
-        <v>414100</v>
+        <v>170700</v>
       </c>
       <c r="I27" s="3">
-        <v>390100</v>
+        <v>415400</v>
       </c>
       <c r="J27" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K27" s="3">
         <v>434900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>694700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>555200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>579800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>572400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>373800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>481900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>590900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>329000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>399600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>273300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-49600</v>
-      </c>
       <c r="G32" s="3">
-        <v>36500</v>
+        <v>-49800</v>
       </c>
       <c r="H32" s="3">
+        <v>36600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-15100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-372500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>262700</v>
+        <v>370000</v>
       </c>
       <c r="E33" s="3">
-        <v>192800</v>
+        <v>263600</v>
       </c>
       <c r="F33" s="3">
-        <v>148900</v>
+        <v>193400</v>
       </c>
       <c r="G33" s="3">
-        <v>170200</v>
+        <v>149300</v>
       </c>
       <c r="H33" s="3">
-        <v>414100</v>
+        <v>170700</v>
       </c>
       <c r="I33" s="3">
-        <v>390100</v>
+        <v>415400</v>
       </c>
       <c r="J33" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K33" s="3">
         <v>434900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>694700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>555200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>579800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>572400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>373800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>481900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>590900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>329000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>399600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>273300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>262700</v>
+        <v>370000</v>
       </c>
       <c r="E35" s="3">
-        <v>192800</v>
+        <v>263600</v>
       </c>
       <c r="F35" s="3">
-        <v>148900</v>
+        <v>193400</v>
       </c>
       <c r="G35" s="3">
-        <v>170200</v>
+        <v>149300</v>
       </c>
       <c r="H35" s="3">
-        <v>414100</v>
+        <v>170700</v>
       </c>
       <c r="I35" s="3">
-        <v>390100</v>
+        <v>415400</v>
       </c>
       <c r="J35" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K35" s="3">
         <v>434900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>694700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>555200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>579800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>572400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>373800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>481900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>590900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>329000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>399600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>273300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2001400</v>
+        <v>2234300</v>
       </c>
       <c r="E41" s="3">
-        <v>2160400</v>
+        <v>2008000</v>
       </c>
       <c r="F41" s="3">
-        <v>2356200</v>
+        <v>2167500</v>
       </c>
       <c r="G41" s="3">
-        <v>2287000</v>
+        <v>2363900</v>
       </c>
       <c r="H41" s="3">
-        <v>1699200</v>
+        <v>2294500</v>
       </c>
       <c r="I41" s="3">
-        <v>1509100</v>
+        <v>1704700</v>
       </c>
       <c r="J41" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1792800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1449300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1421600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1196300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1343400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1327600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1516900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1482200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1381200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1083800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1209600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6309900</v>
+        <v>7542200</v>
       </c>
       <c r="E43" s="3">
-        <v>6136300</v>
+        <v>6330500</v>
       </c>
       <c r="F43" s="3">
-        <v>6087300</v>
+        <v>6156400</v>
       </c>
       <c r="G43" s="3">
-        <v>6818700</v>
+        <v>6107300</v>
       </c>
       <c r="H43" s="3">
-        <v>7040800</v>
+        <v>6841000</v>
       </c>
       <c r="I43" s="3">
-        <v>6777400</v>
+        <v>7063800</v>
       </c>
       <c r="J43" s="3">
+        <v>6799600</v>
+      </c>
+      <c r="K43" s="3">
         <v>7109800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8093400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7464600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7593000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7131300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7166100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6920900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6481500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5949400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5492900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5117000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7529200</v>
+        <v>7295500</v>
       </c>
       <c r="E44" s="3">
-        <v>7684300</v>
+        <v>7553800</v>
       </c>
       <c r="F44" s="3">
-        <v>7939200</v>
+        <v>7709500</v>
       </c>
       <c r="G44" s="3">
-        <v>7376600</v>
+        <v>7965200</v>
       </c>
       <c r="H44" s="3">
-        <v>8244300</v>
+        <v>7400800</v>
       </c>
       <c r="I44" s="3">
-        <v>8191000</v>
+        <v>8271300</v>
       </c>
       <c r="J44" s="3">
+        <v>8217800</v>
+      </c>
+      <c r="K44" s="3">
         <v>8015200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8048900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7793600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7851600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7246200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6601800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6847600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6441600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6211000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4735700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5252300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1202900</v>
+        <v>1209500</v>
       </c>
       <c r="E45" s="3">
-        <v>1203900</v>
+        <v>1206900</v>
       </c>
       <c r="F45" s="3">
-        <v>1363200</v>
+        <v>1207800</v>
       </c>
       <c r="G45" s="3">
-        <v>1350300</v>
+        <v>1367700</v>
       </c>
       <c r="H45" s="3">
-        <v>1376400</v>
+        <v>1354700</v>
       </c>
       <c r="I45" s="3">
-        <v>1221300</v>
+        <v>1380900</v>
       </c>
       <c r="J45" s="3">
+        <v>1225300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1322900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1330200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1291000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1205900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1188900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1154700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1105700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1052800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1084600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1278800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1242800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17043400</v>
+        <v>18281600</v>
       </c>
       <c r="E46" s="3">
-        <v>17185000</v>
+        <v>17099200</v>
       </c>
       <c r="F46" s="3">
-        <v>17746000</v>
+        <v>17241300</v>
       </c>
       <c r="G46" s="3">
-        <v>17832600</v>
+        <v>17804100</v>
       </c>
       <c r="H46" s="3">
-        <v>18360700</v>
+        <v>17891000</v>
       </c>
       <c r="I46" s="3">
-        <v>17698800</v>
+        <v>18420800</v>
       </c>
       <c r="J46" s="3">
+        <v>17756700</v>
+      </c>
+      <c r="K46" s="3">
         <v>18240800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18921700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17970800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17846800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16909800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16250200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16391200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15458100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14626200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12591200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12821700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4390500</v>
+        <v>4543400</v>
       </c>
       <c r="E47" s="3">
-        <v>4326700</v>
+        <v>4404900</v>
       </c>
       <c r="F47" s="3">
-        <v>4411500</v>
+        <v>4340900</v>
       </c>
       <c r="G47" s="3">
-        <v>4272700</v>
+        <v>4425900</v>
       </c>
       <c r="H47" s="3">
-        <v>4326000</v>
+        <v>4286700</v>
       </c>
       <c r="I47" s="3">
-        <v>4267700</v>
+        <v>4340200</v>
       </c>
       <c r="J47" s="3">
+        <v>4281700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4254400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4431700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3945800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4110500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3870100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3656300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3775100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3603400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3962700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3654400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3553700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7507300</v>
+        <v>7768300</v>
       </c>
       <c r="E48" s="3">
-        <v>7437500</v>
+        <v>7531900</v>
       </c>
       <c r="F48" s="3">
-        <v>7408200</v>
+        <v>7461800</v>
       </c>
       <c r="G48" s="3">
-        <v>7430000</v>
+        <v>7432500</v>
       </c>
       <c r="H48" s="3">
-        <v>7477300</v>
+        <v>7454300</v>
       </c>
       <c r="I48" s="3">
-        <v>7376000</v>
+        <v>7501800</v>
       </c>
       <c r="J48" s="3">
+        <v>7400100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7454200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7461400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7167800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7111300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6849300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6694400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6941200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6903500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6874400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6023000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6087900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2961900</v>
+        <v>3121500</v>
       </c>
       <c r="E49" s="3">
-        <v>2946500</v>
+        <v>2971600</v>
       </c>
       <c r="F49" s="3">
-        <v>2972600</v>
+        <v>2956200</v>
       </c>
       <c r="G49" s="3">
-        <v>2927400</v>
+        <v>2982400</v>
       </c>
       <c r="H49" s="3">
-        <v>3113100</v>
+        <v>2937000</v>
       </c>
       <c r="I49" s="3">
-        <v>3069300</v>
+        <v>3123200</v>
       </c>
       <c r="J49" s="3">
+        <v>3079300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2972100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3155200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3161900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3289100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3137100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2975000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3245200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3273300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3281300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>897200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>891700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1008700</v>
+        <v>1067800</v>
       </c>
       <c r="E52" s="3">
-        <v>1029700</v>
+        <v>1012000</v>
       </c>
       <c r="F52" s="3">
-        <v>995300</v>
+        <v>1033100</v>
       </c>
       <c r="G52" s="3">
-        <v>1005100</v>
+        <v>998600</v>
       </c>
       <c r="H52" s="3">
-        <v>882700</v>
+        <v>1008400</v>
       </c>
       <c r="I52" s="3">
-        <v>908400</v>
+        <v>885500</v>
       </c>
       <c r="J52" s="3">
+        <v>911400</v>
+      </c>
+      <c r="K52" s="3">
         <v>893200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>993200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>881500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>914100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>875400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>911800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>925500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>867000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>685400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>397300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>395700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32911800</v>
+        <v>34782700</v>
       </c>
       <c r="E54" s="3">
-        <v>32925400</v>
+        <v>33019600</v>
       </c>
       <c r="F54" s="3">
-        <v>33533700</v>
+        <v>33033200</v>
       </c>
       <c r="G54" s="3">
-        <v>33467800</v>
+        <v>33643500</v>
       </c>
       <c r="H54" s="3">
-        <v>34159700</v>
+        <v>33577400</v>
       </c>
       <c r="I54" s="3">
-        <v>33320100</v>
+        <v>34271600</v>
       </c>
       <c r="J54" s="3">
+        <v>33429200</v>
+      </c>
+      <c r="K54" s="3">
         <v>33814600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34963300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33127800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33271700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31641700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30487700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31278300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30105200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29429900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23563000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23750700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1996100</v>
+        <v>2373900</v>
       </c>
       <c r="E57" s="3">
-        <v>1777500</v>
+        <v>2002600</v>
       </c>
       <c r="F57" s="3">
-        <v>1871000</v>
+        <v>1783400</v>
       </c>
       <c r="G57" s="3">
-        <v>2016700</v>
+        <v>1877200</v>
       </c>
       <c r="H57" s="3">
-        <v>2103200</v>
+        <v>2023300</v>
       </c>
       <c r="I57" s="3">
-        <v>2271400</v>
+        <v>2110100</v>
       </c>
       <c r="J57" s="3">
+        <v>2278800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2338800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2565400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2413100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2557500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2485200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2744100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2742000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2594600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2526300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2129800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1891800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3659600</v>
+        <v>3395400</v>
       </c>
       <c r="E58" s="3">
-        <v>4008700</v>
+        <v>3671600</v>
       </c>
       <c r="F58" s="3">
-        <v>5574000</v>
+        <v>4021800</v>
       </c>
       <c r="G58" s="3">
-        <v>5519200</v>
+        <v>5592300</v>
       </c>
       <c r="H58" s="3">
-        <v>5877500</v>
+        <v>5537300</v>
       </c>
       <c r="I58" s="3">
-        <v>4987700</v>
+        <v>5896800</v>
       </c>
       <c r="J58" s="3">
+        <v>5004000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4708300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4403400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4835900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3995900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4127800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2982300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3226400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2743000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4866100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1932300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2705700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3155200</v>
+        <v>3355100</v>
       </c>
       <c r="E59" s="3">
-        <v>3099000</v>
+        <v>3165500</v>
       </c>
       <c r="F59" s="3">
-        <v>3016800</v>
+        <v>3109100</v>
       </c>
       <c r="G59" s="3">
-        <v>3077100</v>
+        <v>3026700</v>
       </c>
       <c r="H59" s="3">
-        <v>3187100</v>
+        <v>3087200</v>
       </c>
       <c r="I59" s="3">
-        <v>3252200</v>
+        <v>3197500</v>
       </c>
       <c r="J59" s="3">
+        <v>3262900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3290300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3430500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3011500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3336600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3020600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3220100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3131200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2985200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2675700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2148500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1977100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8810900</v>
+        <v>9124500</v>
       </c>
       <c r="E60" s="3">
-        <v>8885200</v>
+        <v>8839800</v>
       </c>
       <c r="F60" s="3">
-        <v>10461900</v>
+        <v>8914300</v>
       </c>
       <c r="G60" s="3">
-        <v>10613000</v>
+        <v>10496100</v>
       </c>
       <c r="H60" s="3">
-        <v>11167800</v>
+        <v>10647800</v>
       </c>
       <c r="I60" s="3">
-        <v>10511300</v>
+        <v>11204400</v>
       </c>
       <c r="J60" s="3">
+        <v>10545700</v>
+      </c>
+      <c r="K60" s="3">
         <v>10337400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10399400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10260500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9890100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9633600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8946500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9099600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8322800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10068000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6210600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6574700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4734500</v>
+        <v>4967400</v>
       </c>
       <c r="E61" s="3">
-        <v>4840400</v>
+        <v>4750000</v>
       </c>
       <c r="F61" s="3">
-        <v>4024400</v>
+        <v>4856200</v>
       </c>
       <c r="G61" s="3">
-        <v>3754100</v>
+        <v>4037600</v>
       </c>
       <c r="H61" s="3">
-        <v>3724900</v>
+        <v>3766400</v>
       </c>
       <c r="I61" s="3">
-        <v>3726900</v>
+        <v>3737100</v>
       </c>
       <c r="J61" s="3">
+        <v>3739100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4491900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4540600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4285500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4526300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4365800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4345500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4771500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4645600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2829700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1692900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1742600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2034600</v>
+        <v>2200400</v>
       </c>
       <c r="E62" s="3">
-        <v>2100800</v>
+        <v>2041300</v>
       </c>
       <c r="F62" s="3">
-        <v>2072300</v>
+        <v>2107700</v>
       </c>
       <c r="G62" s="3">
-        <v>2097600</v>
+        <v>2079100</v>
       </c>
       <c r="H62" s="3">
-        <v>1947500</v>
+        <v>2104500</v>
       </c>
       <c r="I62" s="3">
-        <v>1949200</v>
+        <v>1953900</v>
       </c>
       <c r="J62" s="3">
+        <v>1955600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1946800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1736800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1588900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1545500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1485000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1433600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1437400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1448700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1037100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1041600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16428400</v>
+        <v>17208700</v>
       </c>
       <c r="E66" s="3">
-        <v>16642600</v>
+        <v>16482200</v>
       </c>
       <c r="F66" s="3">
-        <v>17379900</v>
+        <v>16697100</v>
       </c>
       <c r="G66" s="3">
-        <v>17239900</v>
+        <v>17436800</v>
       </c>
       <c r="H66" s="3">
-        <v>17638000</v>
+        <v>17296300</v>
       </c>
       <c r="I66" s="3">
-        <v>16942400</v>
+        <v>17695800</v>
       </c>
       <c r="J66" s="3">
+        <v>16997900</v>
+      </c>
+      <c r="K66" s="3">
         <v>17543800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17515500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16912800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16751000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16218100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15440300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16046200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15109600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14968700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9577900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9984500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16103600</v>
+        <v>16526300</v>
       </c>
       <c r="E72" s="3">
-        <v>15996700</v>
+        <v>16156300</v>
       </c>
       <c r="F72" s="3">
-        <v>15807200</v>
+        <v>16049100</v>
       </c>
       <c r="G72" s="3">
-        <v>15996000</v>
+        <v>15859000</v>
       </c>
       <c r="H72" s="3">
-        <v>15825900</v>
+        <v>16048400</v>
       </c>
       <c r="I72" s="3">
-        <v>15887800</v>
+        <v>15877700</v>
       </c>
       <c r="J72" s="3">
+        <v>15939800</v>
+      </c>
+      <c r="K72" s="3">
         <v>15497700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16338300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15366800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15023600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14132800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13901600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13527900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13353100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12762200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12442100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12042600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16483400</v>
+        <v>17574000</v>
       </c>
       <c r="E76" s="3">
-        <v>16282800</v>
+        <v>16537400</v>
       </c>
       <c r="F76" s="3">
-        <v>16153800</v>
+        <v>16336100</v>
       </c>
       <c r="G76" s="3">
-        <v>16227900</v>
+        <v>16206700</v>
       </c>
       <c r="H76" s="3">
-        <v>16521700</v>
+        <v>16281100</v>
       </c>
       <c r="I76" s="3">
-        <v>16377700</v>
+        <v>16575800</v>
       </c>
       <c r="J76" s="3">
+        <v>16431400</v>
+      </c>
+      <c r="K76" s="3">
         <v>16270800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17447700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16215000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16520700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15423500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15047400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15232100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14995700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14461200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13985100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13766200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>262700</v>
+        <v>370000</v>
       </c>
       <c r="E81" s="3">
-        <v>192800</v>
+        <v>263600</v>
       </c>
       <c r="F81" s="3">
-        <v>148900</v>
+        <v>193400</v>
       </c>
       <c r="G81" s="3">
-        <v>170200</v>
+        <v>149300</v>
       </c>
       <c r="H81" s="3">
-        <v>414100</v>
+        <v>170700</v>
       </c>
       <c r="I81" s="3">
-        <v>390100</v>
+        <v>415400</v>
       </c>
       <c r="J81" s="3">
+        <v>391400</v>
+      </c>
+      <c r="K81" s="3">
         <v>434900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>694700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>555200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>579800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>572400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>373800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>481900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>590900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>329000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>399600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>273300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>307300</v>
+        <v>320400</v>
       </c>
       <c r="E83" s="3">
-        <v>301300</v>
+        <v>308400</v>
       </c>
       <c r="F83" s="3">
-        <v>291500</v>
+        <v>302300</v>
       </c>
       <c r="G83" s="3">
-        <v>314900</v>
+        <v>292400</v>
       </c>
       <c r="H83" s="3">
-        <v>298000</v>
+        <v>315900</v>
       </c>
       <c r="I83" s="3">
-        <v>293200</v>
+        <v>299000</v>
       </c>
       <c r="J83" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K83" s="3">
         <v>299300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>320500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>309400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>301200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>299200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>316900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>301900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>295000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>296800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>238900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>226700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>795500</v>
+        <v>1054500</v>
       </c>
       <c r="E89" s="3">
-        <v>893200</v>
+        <v>798100</v>
       </c>
       <c r="F89" s="3">
-        <v>504100</v>
+        <v>896100</v>
       </c>
       <c r="G89" s="3">
-        <v>1257000</v>
+        <v>505700</v>
       </c>
       <c r="H89" s="3">
-        <v>203400</v>
+        <v>1261100</v>
       </c>
       <c r="I89" s="3">
-        <v>713100</v>
+        <v>204000</v>
       </c>
       <c r="J89" s="3">
+        <v>715400</v>
+      </c>
+      <c r="K89" s="3">
         <v>530400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>982200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>259100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>677800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>603600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>357400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>376500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>971600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>448000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-476000</v>
+        <v>-407200</v>
       </c>
       <c r="E91" s="3">
-        <v>-439800</v>
+        <v>-477500</v>
       </c>
       <c r="F91" s="3">
-        <v>-341400</v>
+        <v>-441200</v>
       </c>
       <c r="G91" s="3">
-        <v>-413500</v>
+        <v>-342500</v>
       </c>
       <c r="H91" s="3">
-        <v>-437100</v>
+        <v>-414900</v>
       </c>
       <c r="I91" s="3">
-        <v>-438200</v>
+        <v>-438600</v>
       </c>
       <c r="J91" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-403000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-453500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-552400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-411600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-382200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-288700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-389600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-331300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-390900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-378000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-358000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-426200</v>
+        <v>-335500</v>
       </c>
       <c r="E94" s="3">
+        <v>-427600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-409700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-325700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-382500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-391600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-542900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-436300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-432300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-524300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-408300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-324700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-381200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-390400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-541100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-436300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-432300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-524300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-408300</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-388400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-520100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-228800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>103500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-347600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-383000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-155900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-156400</v>
       </c>
       <c r="F96" s="3">
-        <v>-337600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-338700</v>
       </c>
       <c r="H96" s="3">
-        <v>-476000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-477600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-510400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-454600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-411800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-307100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-247400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-242700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-552400</v>
+        <v>-481000</v>
       </c>
       <c r="E100" s="3">
-        <v>-686700</v>
+        <v>-554200</v>
       </c>
       <c r="F100" s="3">
-        <v>-110300</v>
+        <v>-689000</v>
       </c>
       <c r="G100" s="3">
-        <v>-272100</v>
+        <v>-110700</v>
       </c>
       <c r="H100" s="3">
-        <v>365600</v>
+        <v>-273000</v>
       </c>
       <c r="I100" s="3">
-        <v>-430500</v>
+        <v>366800</v>
       </c>
       <c r="J100" s="3">
+        <v>-431900</v>
+      </c>
+      <c r="K100" s="3">
         <v>305300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-522600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>409300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-408800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>466900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-341500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>246200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-372500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2673000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-763500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>417200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23800</v>
+        <v>-10600</v>
       </c>
       <c r="E101" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F101" s="3">
         <v>12800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-17700</v>
-      </c>
       <c r="H101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I101" s="3">
         <v>10500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>62300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-40600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-66000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>69000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-66000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-159400</v>
+        <v>227400</v>
       </c>
       <c r="E102" s="3">
-        <v>-189100</v>
+        <v>-159900</v>
       </c>
       <c r="F102" s="3">
-        <v>68600</v>
+        <v>-189800</v>
       </c>
       <c r="G102" s="3">
-        <v>586000</v>
+        <v>68800</v>
       </c>
       <c r="H102" s="3">
-        <v>189100</v>
+        <v>587900</v>
       </c>
       <c r="I102" s="3">
-        <v>-279200</v>
+        <v>189700</v>
       </c>
       <c r="J102" s="3">
+        <v>-280200</v>
+      </c>
+      <c r="K102" s="3">
         <v>412300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>206500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-179800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-189000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>97400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>278000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-125700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>416200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6214300</v>
+        <v>5905700</v>
       </c>
       <c r="E8" s="3">
-        <v>5105900</v>
+        <v>6160200</v>
       </c>
       <c r="F8" s="3">
-        <v>4585700</v>
+        <v>5061500</v>
       </c>
       <c r="G8" s="3">
-        <v>4215700</v>
+        <v>4545800</v>
       </c>
       <c r="H8" s="3">
-        <v>5674200</v>
+        <v>4179000</v>
       </c>
       <c r="I8" s="3">
-        <v>5642300</v>
+        <v>5624800</v>
       </c>
       <c r="J8" s="3">
+        <v>5593100</v>
+      </c>
+      <c r="K8" s="3">
         <v>5548200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5585500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6790800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6613400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6242700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5872700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6285600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5847500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5403600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5073300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5111600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3819400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4589500</v>
+        <v>4328000</v>
       </c>
       <c r="E9" s="3">
-        <v>3761000</v>
+        <v>4549500</v>
       </c>
       <c r="F9" s="3">
-        <v>3355200</v>
+        <v>3728200</v>
       </c>
       <c r="G9" s="3">
-        <v>3076100</v>
+        <v>3326000</v>
       </c>
       <c r="H9" s="3">
-        <v>4154800</v>
+        <v>3049300</v>
       </c>
       <c r="I9" s="3">
-        <v>4058500</v>
+        <v>4118700</v>
       </c>
       <c r="J9" s="3">
+        <v>4023200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3933000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3914600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4734300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4644500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4266600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4011000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4364100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4072000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3892100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3635600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3643900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2714800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1624800</v>
+        <v>1577700</v>
       </c>
       <c r="E10" s="3">
-        <v>1344900</v>
+        <v>1610700</v>
       </c>
       <c r="F10" s="3">
-        <v>1230500</v>
+        <v>1333200</v>
       </c>
       <c r="G10" s="3">
-        <v>1139700</v>
+        <v>1219800</v>
       </c>
       <c r="H10" s="3">
-        <v>1519300</v>
+        <v>1129700</v>
       </c>
       <c r="I10" s="3">
-        <v>1583700</v>
+        <v>1506100</v>
       </c>
       <c r="J10" s="3">
+        <v>1569900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1615200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1670900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2056500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1968800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1976100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1861700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1921400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1775500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1511500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1437700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1467700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1104600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>22100</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1140,17 +1160,20 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>15500</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5664800</v>
+        <v>5343200</v>
       </c>
       <c r="E17" s="3">
-        <v>4672200</v>
+        <v>5615500</v>
       </c>
       <c r="F17" s="3">
-        <v>4278500</v>
+        <v>4631500</v>
       </c>
       <c r="G17" s="3">
-        <v>3968400</v>
+        <v>4241300</v>
       </c>
       <c r="H17" s="3">
-        <v>5280100</v>
+        <v>3933800</v>
       </c>
       <c r="I17" s="3">
-        <v>5037100</v>
+        <v>5234100</v>
       </c>
       <c r="J17" s="3">
+        <v>4993300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4930400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5810800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5711600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5274100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4999600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5531700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5170900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4865900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4606000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4516700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3438900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>549500</v>
+        <v>562500</v>
       </c>
       <c r="E18" s="3">
-        <v>433700</v>
+        <v>544700</v>
       </c>
       <c r="F18" s="3">
-        <v>307200</v>
+        <v>429900</v>
       </c>
       <c r="G18" s="3">
-        <v>247400</v>
+        <v>304500</v>
       </c>
       <c r="H18" s="3">
-        <v>394100</v>
+        <v>245200</v>
       </c>
       <c r="I18" s="3">
-        <v>605100</v>
+        <v>390600</v>
       </c>
       <c r="J18" s="3">
+        <v>599900</v>
+      </c>
+      <c r="K18" s="3">
         <v>617800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>684800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>979900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>901800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>968600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>873100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>753900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>676500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>537700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>467400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>594900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>380500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26000</v>
+        <v>24300</v>
       </c>
       <c r="E20" s="3">
-        <v>7300</v>
+        <v>25700</v>
       </c>
       <c r="F20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>49800</v>
-      </c>
       <c r="H20" s="3">
-        <v>-36600</v>
+        <v>49400</v>
       </c>
       <c r="I20" s="3">
-        <v>15100</v>
+        <v>-36300</v>
       </c>
       <c r="J20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>372500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>895800</v>
+        <v>898900</v>
       </c>
       <c r="E21" s="3">
-        <v>749400</v>
+        <v>888000</v>
       </c>
       <c r="F21" s="3">
-        <v>611000</v>
+        <v>742800</v>
       </c>
       <c r="G21" s="3">
-        <v>589600</v>
+        <v>605700</v>
       </c>
       <c r="H21" s="3">
-        <v>673300</v>
+        <v>584500</v>
       </c>
       <c r="I21" s="3">
-        <v>919300</v>
+        <v>667500</v>
       </c>
       <c r="J21" s="3">
+        <v>911300</v>
+      </c>
+      <c r="K21" s="3">
         <v>916800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>973100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1337600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1176100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1281800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1193400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1052800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>992600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1205300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>763800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>821800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>643700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29400</v>
+        <v>27000</v>
       </c>
       <c r="E22" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="F22" s="3">
-        <v>32800</v>
+        <v>28800</v>
       </c>
       <c r="G22" s="3">
-        <v>35300</v>
+        <v>32500</v>
       </c>
       <c r="H22" s="3">
-        <v>52400</v>
+        <v>35000</v>
       </c>
       <c r="I22" s="3">
-        <v>53200</v>
+        <v>51900</v>
       </c>
       <c r="J22" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K22" s="3">
         <v>59300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>61000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>46900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>32300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>22400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>546000</v>
+        <v>559800</v>
       </c>
       <c r="E23" s="3">
-        <v>412000</v>
+        <v>541300</v>
       </c>
       <c r="F23" s="3">
-        <v>276000</v>
+        <v>408400</v>
       </c>
       <c r="G23" s="3">
-        <v>261900</v>
+        <v>273600</v>
       </c>
       <c r="H23" s="3">
-        <v>305000</v>
+        <v>259600</v>
       </c>
       <c r="I23" s="3">
-        <v>567100</v>
+        <v>302400</v>
       </c>
       <c r="J23" s="3">
+        <v>562200</v>
+      </c>
+      <c r="K23" s="3">
         <v>563400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>612900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>956100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>806800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>925000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>844800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>691300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>643900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>868000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>434800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>560600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>146800</v>
+        <v>164300</v>
       </c>
       <c r="E24" s="3">
-        <v>127300</v>
+        <v>145500</v>
       </c>
       <c r="F24" s="3">
-        <v>66900</v>
+        <v>126200</v>
       </c>
       <c r="G24" s="3">
-        <v>90200</v>
+        <v>66300</v>
       </c>
       <c r="H24" s="3">
-        <v>119500</v>
+        <v>89400</v>
       </c>
       <c r="I24" s="3">
-        <v>131000</v>
+        <v>118400</v>
       </c>
       <c r="J24" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K24" s="3">
         <v>163500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>163300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>239900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>227500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>274200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>254700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>293100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>142000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>259900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>85900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>135000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>124400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>399200</v>
+        <v>395600</v>
       </c>
       <c r="E26" s="3">
-        <v>284700</v>
+        <v>395800</v>
       </c>
       <c r="F26" s="3">
-        <v>209100</v>
+        <v>282200</v>
       </c>
       <c r="G26" s="3">
-        <v>171700</v>
+        <v>207300</v>
       </c>
       <c r="H26" s="3">
-        <v>185500</v>
+        <v>170200</v>
       </c>
       <c r="I26" s="3">
-        <v>436100</v>
+        <v>183900</v>
       </c>
       <c r="J26" s="3">
+        <v>432300</v>
+      </c>
+      <c r="K26" s="3">
         <v>399900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>449600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>716200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>579400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>650800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>590100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>398100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>501800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>608200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>348900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>425700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>276200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>370000</v>
+        <v>372500</v>
       </c>
       <c r="E27" s="3">
-        <v>263600</v>
+        <v>366800</v>
       </c>
       <c r="F27" s="3">
-        <v>193400</v>
+        <v>261300</v>
       </c>
       <c r="G27" s="3">
-        <v>149300</v>
+        <v>191700</v>
       </c>
       <c r="H27" s="3">
-        <v>170700</v>
+        <v>148000</v>
       </c>
       <c r="I27" s="3">
-        <v>415400</v>
+        <v>169200</v>
       </c>
       <c r="J27" s="3">
+        <v>411800</v>
+      </c>
+      <c r="K27" s="3">
         <v>391400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>434900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>694700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>555200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>579800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>572400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>373800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>481900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>590900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>329000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>399600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>273300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26000</v>
+        <v>-24300</v>
       </c>
       <c r="E32" s="3">
-        <v>-7300</v>
+        <v>-25700</v>
       </c>
       <c r="F32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-49800</v>
-      </c>
       <c r="H32" s="3">
-        <v>36600</v>
+        <v>-49400</v>
       </c>
       <c r="I32" s="3">
-        <v>-15100</v>
+        <v>36300</v>
       </c>
       <c r="J32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-372500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>370000</v>
+        <v>372500</v>
       </c>
       <c r="E33" s="3">
-        <v>263600</v>
+        <v>366800</v>
       </c>
       <c r="F33" s="3">
-        <v>193400</v>
+        <v>261300</v>
       </c>
       <c r="G33" s="3">
-        <v>149300</v>
+        <v>191700</v>
       </c>
       <c r="H33" s="3">
-        <v>170700</v>
+        <v>148000</v>
       </c>
       <c r="I33" s="3">
-        <v>415400</v>
+        <v>169200</v>
       </c>
       <c r="J33" s="3">
+        <v>411800</v>
+      </c>
+      <c r="K33" s="3">
         <v>391400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>434900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>694700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>555200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>579800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>572400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>373800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>481900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>590900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>329000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>399600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>273300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>370000</v>
+        <v>372500</v>
       </c>
       <c r="E35" s="3">
-        <v>263600</v>
+        <v>366800</v>
       </c>
       <c r="F35" s="3">
-        <v>193400</v>
+        <v>261300</v>
       </c>
       <c r="G35" s="3">
-        <v>149300</v>
+        <v>191700</v>
       </c>
       <c r="H35" s="3">
-        <v>170700</v>
+        <v>148000</v>
       </c>
       <c r="I35" s="3">
-        <v>415400</v>
+        <v>169200</v>
       </c>
       <c r="J35" s="3">
+        <v>411800</v>
+      </c>
+      <c r="K35" s="3">
         <v>391400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>434900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>694700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>555200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>579800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>572400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>373800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>481900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>590900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>329000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>399600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>273300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2234300</v>
+        <v>2147800</v>
       </c>
       <c r="E41" s="3">
-        <v>2008000</v>
+        <v>2214900</v>
       </c>
       <c r="F41" s="3">
-        <v>2167500</v>
+        <v>1990500</v>
       </c>
       <c r="G41" s="3">
-        <v>2363900</v>
+        <v>2148600</v>
       </c>
       <c r="H41" s="3">
-        <v>2294500</v>
+        <v>2343400</v>
       </c>
       <c r="I41" s="3">
-        <v>1704700</v>
+        <v>2274500</v>
       </c>
       <c r="J41" s="3">
+        <v>1689900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1514000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1792800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1449300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1421600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1196300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1343400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1327600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1516900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1482200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1381200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1083800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1209600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7542200</v>
+        <v>7177800</v>
       </c>
       <c r="E43" s="3">
-        <v>6330500</v>
+        <v>7476600</v>
       </c>
       <c r="F43" s="3">
-        <v>6156400</v>
+        <v>6275400</v>
       </c>
       <c r="G43" s="3">
-        <v>6107300</v>
+        <v>6102900</v>
       </c>
       <c r="H43" s="3">
-        <v>6841000</v>
+        <v>6054100</v>
       </c>
       <c r="I43" s="3">
-        <v>7063800</v>
+        <v>6781400</v>
       </c>
       <c r="J43" s="3">
+        <v>7002300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6799600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7109800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8093400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7464600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7593000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7131300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7166100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6920900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6481500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5949400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5492900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5117000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7295500</v>
+        <v>7461600</v>
       </c>
       <c r="E44" s="3">
-        <v>7553800</v>
+        <v>7232000</v>
       </c>
       <c r="F44" s="3">
-        <v>7709500</v>
+        <v>7488100</v>
       </c>
       <c r="G44" s="3">
-        <v>7965200</v>
+        <v>7642400</v>
       </c>
       <c r="H44" s="3">
-        <v>7400800</v>
+        <v>7895800</v>
       </c>
       <c r="I44" s="3">
-        <v>8271300</v>
+        <v>7336400</v>
       </c>
       <c r="J44" s="3">
+        <v>8199300</v>
+      </c>
+      <c r="K44" s="3">
         <v>8217800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8015200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8048900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7793600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7851600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7246200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6601800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6847600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6441600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6211000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4735700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5252300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1209500</v>
+        <v>1268800</v>
       </c>
       <c r="E45" s="3">
-        <v>1206900</v>
+        <v>1199000</v>
       </c>
       <c r="F45" s="3">
-        <v>1207800</v>
+        <v>1196400</v>
       </c>
       <c r="G45" s="3">
-        <v>1367700</v>
+        <v>1197300</v>
       </c>
       <c r="H45" s="3">
-        <v>1354700</v>
+        <v>1355800</v>
       </c>
       <c r="I45" s="3">
-        <v>1380900</v>
+        <v>1342900</v>
       </c>
       <c r="J45" s="3">
+        <v>1368900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1225300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1322900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1330200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1291000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1205900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1188900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1154700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1105700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1052800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1084600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1278800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1242800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18281600</v>
+        <v>18056000</v>
       </c>
       <c r="E46" s="3">
-        <v>17099200</v>
+        <v>18122500</v>
       </c>
       <c r="F46" s="3">
-        <v>17241300</v>
+        <v>16950300</v>
       </c>
       <c r="G46" s="3">
-        <v>17804100</v>
+        <v>17091200</v>
       </c>
       <c r="H46" s="3">
-        <v>17891000</v>
+        <v>17649100</v>
       </c>
       <c r="I46" s="3">
-        <v>18420800</v>
+        <v>17735300</v>
       </c>
       <c r="J46" s="3">
+        <v>18260400</v>
+      </c>
+      <c r="K46" s="3">
         <v>17756700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18240800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18921700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17970800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17846800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16909800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16250200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16391200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15458100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14626200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12591200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12821700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4543400</v>
+        <v>4748800</v>
       </c>
       <c r="E47" s="3">
-        <v>4404900</v>
+        <v>4503800</v>
       </c>
       <c r="F47" s="3">
-        <v>4340900</v>
+        <v>4366500</v>
       </c>
       <c r="G47" s="3">
-        <v>4425900</v>
+        <v>4303100</v>
       </c>
       <c r="H47" s="3">
-        <v>4286700</v>
+        <v>4387400</v>
       </c>
       <c r="I47" s="3">
-        <v>4340200</v>
+        <v>4249400</v>
       </c>
       <c r="J47" s="3">
+        <v>4302400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4281700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4254400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4431700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3945800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4110500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3870100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3656300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3775100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3603400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3962700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3654400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3553700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7768300</v>
+        <v>7626200</v>
       </c>
       <c r="E48" s="3">
-        <v>7531900</v>
+        <v>7700700</v>
       </c>
       <c r="F48" s="3">
-        <v>7461800</v>
+        <v>7466300</v>
       </c>
       <c r="G48" s="3">
-        <v>7432500</v>
+        <v>7396900</v>
       </c>
       <c r="H48" s="3">
-        <v>7454300</v>
+        <v>7367800</v>
       </c>
       <c r="I48" s="3">
-        <v>7501800</v>
+        <v>7389400</v>
       </c>
       <c r="J48" s="3">
+        <v>7436500</v>
+      </c>
+      <c r="K48" s="3">
         <v>7400100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7454200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7461400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7167800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7111300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6849300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6694400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6941200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6903500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6874400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6023000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6087900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3121500</v>
+        <v>3073700</v>
       </c>
       <c r="E49" s="3">
-        <v>2971600</v>
+        <v>3094400</v>
       </c>
       <c r="F49" s="3">
-        <v>2956200</v>
+        <v>2945700</v>
       </c>
       <c r="G49" s="3">
-        <v>2982400</v>
+        <v>2930500</v>
       </c>
       <c r="H49" s="3">
-        <v>2937000</v>
+        <v>2956400</v>
       </c>
       <c r="I49" s="3">
-        <v>3123200</v>
+        <v>2911400</v>
       </c>
       <c r="J49" s="3">
+        <v>3096100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3079300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2972100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3155200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3161900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3289100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3137100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2975000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3245200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3273300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3281300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>897200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>891700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1067800</v>
+        <v>1025700</v>
       </c>
       <c r="E52" s="3">
-        <v>1012000</v>
+        <v>1058500</v>
       </c>
       <c r="F52" s="3">
-        <v>1033100</v>
+        <v>1003200</v>
       </c>
       <c r="G52" s="3">
-        <v>998600</v>
+        <v>1024100</v>
       </c>
       <c r="H52" s="3">
-        <v>1008400</v>
+        <v>989900</v>
       </c>
       <c r="I52" s="3">
-        <v>885500</v>
+        <v>999600</v>
       </c>
       <c r="J52" s="3">
+        <v>877800</v>
+      </c>
+      <c r="K52" s="3">
         <v>911400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>893200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>993200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>881500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>914100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>875400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>911800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>925500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>867000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>685400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>397300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>395700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34782700</v>
+        <v>34530400</v>
       </c>
       <c r="E54" s="3">
-        <v>33019600</v>
+        <v>34479900</v>
       </c>
       <c r="F54" s="3">
-        <v>33033200</v>
+        <v>32732200</v>
       </c>
       <c r="G54" s="3">
-        <v>33643500</v>
+        <v>32745700</v>
       </c>
       <c r="H54" s="3">
-        <v>33577400</v>
+        <v>33350700</v>
       </c>
       <c r="I54" s="3">
-        <v>34271600</v>
+        <v>33285100</v>
       </c>
       <c r="J54" s="3">
+        <v>33973200</v>
+      </c>
+      <c r="K54" s="3">
         <v>33429200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33814600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34963300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33127800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33271700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31641700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30487700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31278300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30105200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29429900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23563000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23750700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2373900</v>
+        <v>2366000</v>
       </c>
       <c r="E57" s="3">
-        <v>2002600</v>
+        <v>2353300</v>
       </c>
       <c r="F57" s="3">
-        <v>1783400</v>
+        <v>1985200</v>
       </c>
       <c r="G57" s="3">
-        <v>1877200</v>
+        <v>1767800</v>
       </c>
       <c r="H57" s="3">
-        <v>2023300</v>
+        <v>1860800</v>
       </c>
       <c r="I57" s="3">
-        <v>2110100</v>
+        <v>2005700</v>
       </c>
       <c r="J57" s="3">
+        <v>2091700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2278800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2338800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2565400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2413100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2557500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2485200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2744100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2742000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2594600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2526300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2129800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1891800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3395400</v>
+        <v>3679200</v>
       </c>
       <c r="E58" s="3">
-        <v>3671600</v>
+        <v>3365800</v>
       </c>
       <c r="F58" s="3">
-        <v>4021800</v>
+        <v>3639700</v>
       </c>
       <c r="G58" s="3">
-        <v>5592300</v>
+        <v>3986800</v>
       </c>
       <c r="H58" s="3">
-        <v>5537300</v>
+        <v>5543600</v>
       </c>
       <c r="I58" s="3">
-        <v>5896800</v>
+        <v>5489100</v>
       </c>
       <c r="J58" s="3">
+        <v>5845400</v>
+      </c>
+      <c r="K58" s="3">
         <v>5004000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4708300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4403400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4835900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3995900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4127800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2982300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3226400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2743000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4866100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1932300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2705700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3355100</v>
+        <v>3236300</v>
       </c>
       <c r="E59" s="3">
-        <v>3165500</v>
+        <v>3325900</v>
       </c>
       <c r="F59" s="3">
-        <v>3109100</v>
+        <v>3138000</v>
       </c>
       <c r="G59" s="3">
-        <v>3026700</v>
+        <v>3082000</v>
       </c>
       <c r="H59" s="3">
-        <v>3087200</v>
+        <v>3000300</v>
       </c>
       <c r="I59" s="3">
-        <v>3197500</v>
+        <v>3060300</v>
       </c>
       <c r="J59" s="3">
+        <v>3169700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3262900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3290300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3430500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3011500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3336600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3020600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3220100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3131200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2985200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2675700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2148500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1977100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9124500</v>
+        <v>9281400</v>
       </c>
       <c r="E60" s="3">
-        <v>8839800</v>
+        <v>9045000</v>
       </c>
       <c r="F60" s="3">
-        <v>8914300</v>
+        <v>8762800</v>
       </c>
       <c r="G60" s="3">
-        <v>10496100</v>
+        <v>8836700</v>
       </c>
       <c r="H60" s="3">
-        <v>10647800</v>
+        <v>10404800</v>
       </c>
       <c r="I60" s="3">
-        <v>11204400</v>
+        <v>10555100</v>
       </c>
       <c r="J60" s="3">
+        <v>11106800</v>
+      </c>
+      <c r="K60" s="3">
         <v>10545700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10337400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10399400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10260500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9890100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9633600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8946500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9099600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8322800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10068000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6210600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6574700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4967400</v>
+        <v>4568300</v>
       </c>
       <c r="E61" s="3">
-        <v>4750000</v>
+        <v>4924100</v>
       </c>
       <c r="F61" s="3">
-        <v>4856200</v>
+        <v>4708600</v>
       </c>
       <c r="G61" s="3">
-        <v>4037600</v>
+        <v>4814000</v>
       </c>
       <c r="H61" s="3">
-        <v>3766400</v>
+        <v>4002500</v>
       </c>
       <c r="I61" s="3">
-        <v>3737100</v>
+        <v>3733600</v>
       </c>
       <c r="J61" s="3">
+        <v>3704600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3739100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4491900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4540600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4285500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4526300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4365800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4345500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4771500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4645600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2829700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1692900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1742600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200400</v>
+        <v>2177400</v>
       </c>
       <c r="E62" s="3">
-        <v>2041300</v>
+        <v>2181200</v>
       </c>
       <c r="F62" s="3">
-        <v>2107700</v>
+        <v>2023500</v>
       </c>
       <c r="G62" s="3">
-        <v>2079100</v>
+        <v>2089300</v>
       </c>
       <c r="H62" s="3">
-        <v>2104500</v>
+        <v>2061000</v>
       </c>
       <c r="I62" s="3">
-        <v>1953900</v>
+        <v>2086200</v>
       </c>
       <c r="J62" s="3">
+        <v>1936900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1955600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1946800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1736800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1588900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1545500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1485000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1433600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1437400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1448700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1037100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1041600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17208700</v>
+        <v>16931300</v>
       </c>
       <c r="E66" s="3">
-        <v>16482200</v>
+        <v>17058900</v>
       </c>
       <c r="F66" s="3">
-        <v>16697100</v>
+        <v>16338700</v>
       </c>
       <c r="G66" s="3">
-        <v>17436800</v>
+        <v>16551800</v>
       </c>
       <c r="H66" s="3">
-        <v>17296300</v>
+        <v>17285000</v>
       </c>
       <c r="I66" s="3">
-        <v>17695800</v>
+        <v>17145700</v>
       </c>
       <c r="J66" s="3">
+        <v>17541800</v>
+      </c>
+      <c r="K66" s="3">
         <v>16997900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17543800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17515500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16912800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16751000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16218100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15440300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16046200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15109600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14968700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9577900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9984500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16526300</v>
+        <v>16436200</v>
       </c>
       <c r="E72" s="3">
-        <v>16156300</v>
+        <v>16382400</v>
       </c>
       <c r="F72" s="3">
-        <v>16049100</v>
+        <v>16015700</v>
       </c>
       <c r="G72" s="3">
-        <v>15859000</v>
+        <v>15909400</v>
       </c>
       <c r="H72" s="3">
-        <v>16048400</v>
+        <v>15721000</v>
       </c>
       <c r="I72" s="3">
-        <v>15877700</v>
+        <v>15908700</v>
       </c>
       <c r="J72" s="3">
+        <v>15739500</v>
+      </c>
+      <c r="K72" s="3">
         <v>15939800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15497700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16338300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15366800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15023600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14132800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13901600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13527900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13353100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12762200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12442100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12042600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17574000</v>
+        <v>17599100</v>
       </c>
       <c r="E76" s="3">
-        <v>16537400</v>
+        <v>17421000</v>
       </c>
       <c r="F76" s="3">
-        <v>16336100</v>
+        <v>16393400</v>
       </c>
       <c r="G76" s="3">
-        <v>16206700</v>
+        <v>16193900</v>
       </c>
       <c r="H76" s="3">
-        <v>16281100</v>
+        <v>16065600</v>
       </c>
       <c r="I76" s="3">
-        <v>16575800</v>
+        <v>16139300</v>
       </c>
       <c r="J76" s="3">
+        <v>16431500</v>
+      </c>
+      <c r="K76" s="3">
         <v>16431400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16270800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17447700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16215000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16520700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15423500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15047400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15232100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14995700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14461200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13985100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13766200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>370000</v>
+        <v>372500</v>
       </c>
       <c r="E81" s="3">
-        <v>263600</v>
+        <v>366800</v>
       </c>
       <c r="F81" s="3">
-        <v>193400</v>
+        <v>261300</v>
       </c>
       <c r="G81" s="3">
-        <v>149300</v>
+        <v>191700</v>
       </c>
       <c r="H81" s="3">
-        <v>170700</v>
+        <v>148000</v>
       </c>
       <c r="I81" s="3">
-        <v>415400</v>
+        <v>169200</v>
       </c>
       <c r="J81" s="3">
+        <v>411800</v>
+      </c>
+      <c r="K81" s="3">
         <v>391400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>434900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>694700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>555200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>579800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>572400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>373800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>481900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>590900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>329000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>399600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>273300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>320400</v>
+        <v>312000</v>
       </c>
       <c r="E83" s="3">
-        <v>308400</v>
+        <v>317600</v>
       </c>
       <c r="F83" s="3">
-        <v>302300</v>
+        <v>305700</v>
       </c>
       <c r="G83" s="3">
-        <v>292400</v>
+        <v>299600</v>
       </c>
       <c r="H83" s="3">
-        <v>315900</v>
+        <v>289900</v>
       </c>
       <c r="I83" s="3">
-        <v>299000</v>
+        <v>313200</v>
       </c>
       <c r="J83" s="3">
+        <v>296400</v>
+      </c>
+      <c r="K83" s="3">
         <v>294100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>299300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>320500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>309400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>301200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>299200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>316900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>301900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>295000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>296800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>238900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>226700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1054500</v>
+        <v>588500</v>
       </c>
       <c r="E89" s="3">
-        <v>798100</v>
+        <v>1045300</v>
       </c>
       <c r="F89" s="3">
-        <v>896100</v>
+        <v>791200</v>
       </c>
       <c r="G89" s="3">
-        <v>505700</v>
+        <v>888300</v>
       </c>
       <c r="H89" s="3">
-        <v>1261100</v>
+        <v>501300</v>
       </c>
       <c r="I89" s="3">
-        <v>204000</v>
+        <v>1250100</v>
       </c>
       <c r="J89" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K89" s="3">
         <v>715400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>530400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>982200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>259100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>677800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>603600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>357400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>376500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>971600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>448000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-407200</v>
+        <v>-346000</v>
       </c>
       <c r="E91" s="3">
-        <v>-477500</v>
+        <v>-403700</v>
       </c>
       <c r="F91" s="3">
-        <v>-441200</v>
+        <v>-473400</v>
       </c>
       <c r="G91" s="3">
-        <v>-342500</v>
+        <v>-437400</v>
       </c>
       <c r="H91" s="3">
-        <v>-414900</v>
+        <v>-339500</v>
       </c>
       <c r="I91" s="3">
-        <v>-438600</v>
+        <v>-411300</v>
       </c>
       <c r="J91" s="3">
+        <v>-434800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-439600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-403000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-453500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-552400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-411600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-382200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-288700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-389600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-331300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-390900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-378000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-358000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-335500</v>
+        <v>-270200</v>
       </c>
       <c r="E94" s="3">
-        <v>-427600</v>
+        <v>-332500</v>
       </c>
       <c r="F94" s="3">
-        <v>-409700</v>
+        <v>-423900</v>
       </c>
       <c r="G94" s="3">
-        <v>-325700</v>
+        <v>-406100</v>
       </c>
       <c r="H94" s="3">
-        <v>-382500</v>
+        <v>-322900</v>
       </c>
       <c r="I94" s="3">
-        <v>-391600</v>
+        <v>-379100</v>
       </c>
       <c r="J94" s="3">
+        <v>-388200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-542900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-436300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-432300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-524300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-408300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-388400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-520100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-228800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>103500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-347600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-383000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-318700</v>
       </c>
       <c r="E96" s="3">
-        <v>-156400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-155000</v>
       </c>
       <c r="G96" s="3">
-        <v>-338700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-335800</v>
       </c>
       <c r="I96" s="3">
-        <v>-477600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-473400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-510400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-454600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-411800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-307100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-247400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-242700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-481000</v>
+        <v>-397200</v>
       </c>
       <c r="E100" s="3">
-        <v>-554200</v>
+        <v>-476800</v>
       </c>
       <c r="F100" s="3">
-        <v>-689000</v>
+        <v>-549400</v>
       </c>
       <c r="G100" s="3">
-        <v>-110700</v>
+        <v>-683000</v>
       </c>
       <c r="H100" s="3">
-        <v>-273000</v>
+        <v>-109700</v>
       </c>
       <c r="I100" s="3">
-        <v>366800</v>
+        <v>-270600</v>
       </c>
       <c r="J100" s="3">
+        <v>363600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-431900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>305300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-522600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>409300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-408800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>466900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-341500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>246200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-372500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2673000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-763500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>417200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10600</v>
+        <v>12900</v>
       </c>
       <c r="E101" s="3">
-        <v>23900</v>
+        <v>-10500</v>
       </c>
       <c r="F101" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="L101" s="3">
         <v>12800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>12800</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-24800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>62300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-40600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-66000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>69000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-66000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>227400</v>
+        <v>-66000</v>
       </c>
       <c r="E102" s="3">
-        <v>-159900</v>
+        <v>225400</v>
       </c>
       <c r="F102" s="3">
-        <v>-189800</v>
+        <v>-158500</v>
       </c>
       <c r="G102" s="3">
-        <v>68800</v>
+        <v>-188100</v>
       </c>
       <c r="H102" s="3">
-        <v>587900</v>
+        <v>68200</v>
       </c>
       <c r="I102" s="3">
-        <v>189700</v>
+        <v>582800</v>
       </c>
       <c r="J102" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-280200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>412300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>206500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-179800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-189000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>97400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>278000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-125700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>416200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5905700</v>
+        <v>5666000</v>
       </c>
       <c r="E8" s="3">
-        <v>6160200</v>
+        <v>5711200</v>
       </c>
       <c r="F8" s="3">
-        <v>5061500</v>
+        <v>5957300</v>
       </c>
       <c r="G8" s="3">
-        <v>4545800</v>
+        <v>4894800</v>
       </c>
       <c r="H8" s="3">
-        <v>4179000</v>
+        <v>4396100</v>
       </c>
       <c r="I8" s="3">
-        <v>5624800</v>
+        <v>4041400</v>
       </c>
       <c r="J8" s="3">
+        <v>5439500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5593100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5548200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5585500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6790800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6613400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6242700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5872700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6285600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5847500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5403600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5073300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5111600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3819400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4328000</v>
+        <v>4030400</v>
       </c>
       <c r="E9" s="3">
-        <v>4549500</v>
+        <v>4185500</v>
       </c>
       <c r="F9" s="3">
-        <v>3728200</v>
+        <v>4399700</v>
       </c>
       <c r="G9" s="3">
-        <v>3326000</v>
+        <v>3605500</v>
       </c>
       <c r="H9" s="3">
-        <v>3049300</v>
+        <v>3216500</v>
       </c>
       <c r="I9" s="3">
-        <v>4118700</v>
+        <v>2948900</v>
       </c>
       <c r="J9" s="3">
+        <v>3983000</v>
+      </c>
+      <c r="K9" s="3">
         <v>4023200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3933000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3914600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4734300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4644500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4266600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4011000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4364100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4072000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3892100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3635600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3643900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2714800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1577700</v>
+        <v>1635600</v>
       </c>
       <c r="E10" s="3">
-        <v>1610700</v>
+        <v>1525800</v>
       </c>
       <c r="F10" s="3">
-        <v>1333200</v>
+        <v>1557700</v>
       </c>
       <c r="G10" s="3">
-        <v>1219800</v>
+        <v>1289300</v>
       </c>
       <c r="H10" s="3">
-        <v>1129700</v>
+        <v>1179600</v>
       </c>
       <c r="I10" s="3">
-        <v>1506100</v>
+        <v>1092500</v>
       </c>
       <c r="J10" s="3">
+        <v>1456500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1569900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1615200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1670900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2056500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1968800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1976100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1861700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1921400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1775500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1511500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1437700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1467700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1104600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>21900</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>21200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1163,17 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>15500</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5343200</v>
+        <v>5009400</v>
       </c>
       <c r="E17" s="3">
-        <v>5615500</v>
+        <v>5167200</v>
       </c>
       <c r="F17" s="3">
-        <v>4631500</v>
+        <v>5430600</v>
       </c>
       <c r="G17" s="3">
-        <v>4241300</v>
+        <v>4479000</v>
       </c>
       <c r="H17" s="3">
-        <v>3933800</v>
+        <v>4101600</v>
       </c>
       <c r="I17" s="3">
-        <v>5234100</v>
+        <v>3804300</v>
       </c>
       <c r="J17" s="3">
+        <v>5061800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4993300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4930400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5810800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5711600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5274100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4999600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5531700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5170900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4865900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4606000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4516700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3438900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>562500</v>
+        <v>656600</v>
       </c>
       <c r="E18" s="3">
-        <v>544700</v>
+        <v>544000</v>
       </c>
       <c r="F18" s="3">
-        <v>429900</v>
+        <v>526800</v>
       </c>
       <c r="G18" s="3">
-        <v>304500</v>
+        <v>415800</v>
       </c>
       <c r="H18" s="3">
-        <v>245200</v>
+        <v>294500</v>
       </c>
       <c r="I18" s="3">
-        <v>390600</v>
+        <v>237200</v>
       </c>
       <c r="J18" s="3">
+        <v>377800</v>
+      </c>
+      <c r="K18" s="3">
         <v>599900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>617800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>684800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>979900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>901800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>968600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>873100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>753900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>676500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>537700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>467400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>594900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>380500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24300</v>
+        <v>29100</v>
       </c>
       <c r="E20" s="3">
-        <v>25700</v>
+        <v>23500</v>
       </c>
       <c r="F20" s="3">
-        <v>7200</v>
+        <v>24900</v>
       </c>
       <c r="G20" s="3">
-        <v>1600</v>
+        <v>7000</v>
       </c>
       <c r="H20" s="3">
-        <v>49400</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
-        <v>-36300</v>
+        <v>47700</v>
       </c>
       <c r="J20" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>372500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>898900</v>
+        <v>981000</v>
       </c>
       <c r="E21" s="3">
-        <v>888000</v>
+        <v>869300</v>
       </c>
       <c r="F21" s="3">
-        <v>742800</v>
+        <v>858800</v>
       </c>
       <c r="G21" s="3">
-        <v>605700</v>
+        <v>718400</v>
       </c>
       <c r="H21" s="3">
-        <v>584500</v>
+        <v>585800</v>
       </c>
       <c r="I21" s="3">
-        <v>667500</v>
+        <v>565200</v>
       </c>
       <c r="J21" s="3">
+        <v>645500</v>
+      </c>
+      <c r="K21" s="3">
         <v>911300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>916800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>973100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1337600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1176100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1281800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1193400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1052800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>992600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1205300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>763800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>821800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>643700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27000</v>
+        <v>24500</v>
       </c>
       <c r="E22" s="3">
-        <v>29200</v>
+        <v>26100</v>
       </c>
       <c r="F22" s="3">
-        <v>28800</v>
+        <v>28200</v>
       </c>
       <c r="G22" s="3">
-        <v>32500</v>
+        <v>27800</v>
       </c>
       <c r="H22" s="3">
-        <v>35000</v>
+        <v>31400</v>
       </c>
       <c r="I22" s="3">
-        <v>51900</v>
+        <v>33800</v>
       </c>
       <c r="J22" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K22" s="3">
         <v>52700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>46900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>32300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>22400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>559800</v>
+        <v>661200</v>
       </c>
       <c r="E23" s="3">
-        <v>541300</v>
+        <v>541400</v>
       </c>
       <c r="F23" s="3">
-        <v>408400</v>
+        <v>523500</v>
       </c>
       <c r="G23" s="3">
-        <v>273600</v>
+        <v>394900</v>
       </c>
       <c r="H23" s="3">
-        <v>259600</v>
+        <v>264600</v>
       </c>
       <c r="I23" s="3">
-        <v>302400</v>
+        <v>251100</v>
       </c>
       <c r="J23" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K23" s="3">
         <v>562200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>563400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>612900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>956100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>806800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>925000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>844800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>691300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>643900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>868000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>434800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>560600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>164300</v>
+        <v>182100</v>
       </c>
       <c r="E24" s="3">
-        <v>145500</v>
+        <v>158800</v>
       </c>
       <c r="F24" s="3">
-        <v>126200</v>
+        <v>140700</v>
       </c>
       <c r="G24" s="3">
-        <v>66300</v>
+        <v>122000</v>
       </c>
       <c r="H24" s="3">
-        <v>89400</v>
+        <v>64100</v>
       </c>
       <c r="I24" s="3">
-        <v>118400</v>
+        <v>86500</v>
       </c>
       <c r="J24" s="3">
+        <v>114500</v>
+      </c>
+      <c r="K24" s="3">
         <v>129800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>163500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>163300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>239900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>227500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>274200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>254700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>293100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>142000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>259900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>85900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>135000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>124400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>395600</v>
+        <v>479200</v>
       </c>
       <c r="E26" s="3">
-        <v>395800</v>
+        <v>382600</v>
       </c>
       <c r="F26" s="3">
-        <v>282200</v>
+        <v>382700</v>
       </c>
       <c r="G26" s="3">
-        <v>207300</v>
+        <v>272900</v>
       </c>
       <c r="H26" s="3">
-        <v>170200</v>
+        <v>200500</v>
       </c>
       <c r="I26" s="3">
-        <v>183900</v>
+        <v>164600</v>
       </c>
       <c r="J26" s="3">
+        <v>177900</v>
+      </c>
+      <c r="K26" s="3">
         <v>432300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>399900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>449600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>716200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>579400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>650800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>590100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>398100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>501800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>608200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>348900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>425700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>276200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>372500</v>
+        <v>460300</v>
       </c>
       <c r="E27" s="3">
-        <v>366800</v>
+        <v>360300</v>
       </c>
       <c r="F27" s="3">
-        <v>261300</v>
+        <v>354700</v>
       </c>
       <c r="G27" s="3">
-        <v>191700</v>
+        <v>252700</v>
       </c>
       <c r="H27" s="3">
-        <v>148000</v>
+        <v>185400</v>
       </c>
       <c r="I27" s="3">
-        <v>169200</v>
+        <v>143200</v>
       </c>
       <c r="J27" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K27" s="3">
         <v>411800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>391400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>434900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>694700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>555200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>579800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>572400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>373800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>481900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>590900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>329000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>399600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>273300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24300</v>
+        <v>-29100</v>
       </c>
       <c r="E32" s="3">
-        <v>-25700</v>
+        <v>-23500</v>
       </c>
       <c r="F32" s="3">
-        <v>-7200</v>
+        <v>-24900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1600</v>
+        <v>-7000</v>
       </c>
       <c r="H32" s="3">
-        <v>-49400</v>
+        <v>-1500</v>
       </c>
       <c r="I32" s="3">
-        <v>36300</v>
+        <v>-47700</v>
       </c>
       <c r="J32" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-372500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>372500</v>
+        <v>460300</v>
       </c>
       <c r="E33" s="3">
-        <v>366800</v>
+        <v>360300</v>
       </c>
       <c r="F33" s="3">
-        <v>261300</v>
+        <v>354700</v>
       </c>
       <c r="G33" s="3">
-        <v>191700</v>
+        <v>252700</v>
       </c>
       <c r="H33" s="3">
-        <v>148000</v>
+        <v>185400</v>
       </c>
       <c r="I33" s="3">
-        <v>169200</v>
+        <v>143200</v>
       </c>
       <c r="J33" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K33" s="3">
         <v>411800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>391400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>434900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>694700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>555200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>579800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>572400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>373800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>481900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>590900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>329000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>399600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>273300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>372500</v>
+        <v>460300</v>
       </c>
       <c r="E35" s="3">
-        <v>366800</v>
+        <v>360300</v>
       </c>
       <c r="F35" s="3">
-        <v>261300</v>
+        <v>354700</v>
       </c>
       <c r="G35" s="3">
-        <v>191700</v>
+        <v>252700</v>
       </c>
       <c r="H35" s="3">
-        <v>148000</v>
+        <v>185400</v>
       </c>
       <c r="I35" s="3">
-        <v>169200</v>
+        <v>143200</v>
       </c>
       <c r="J35" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K35" s="3">
         <v>411800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>391400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>434900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>694700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>555200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>579800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>572400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>373800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>481900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>590900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>329000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>399600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>273300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2147800</v>
+        <v>2414000</v>
       </c>
       <c r="E41" s="3">
-        <v>2214900</v>
+        <v>2077100</v>
       </c>
       <c r="F41" s="3">
-        <v>1990500</v>
+        <v>2141900</v>
       </c>
       <c r="G41" s="3">
-        <v>2148600</v>
+        <v>1924900</v>
       </c>
       <c r="H41" s="3">
-        <v>2343400</v>
+        <v>2077900</v>
       </c>
       <c r="I41" s="3">
-        <v>2274500</v>
+        <v>2266200</v>
       </c>
       <c r="J41" s="3">
+        <v>2199600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1689900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1514000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1792800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1449300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1421600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1196300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1343400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1327600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1516900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1482200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1381200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1083800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1209600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7177800</v>
+        <v>7020100</v>
       </c>
       <c r="E43" s="3">
-        <v>7476600</v>
+        <v>6941400</v>
       </c>
       <c r="F43" s="3">
-        <v>6275400</v>
+        <v>7230300</v>
       </c>
       <c r="G43" s="3">
-        <v>6102900</v>
+        <v>6068800</v>
       </c>
       <c r="H43" s="3">
-        <v>6054100</v>
+        <v>5901900</v>
       </c>
       <c r="I43" s="3">
-        <v>6781400</v>
+        <v>5854700</v>
       </c>
       <c r="J43" s="3">
+        <v>6558100</v>
+      </c>
+      <c r="K43" s="3">
         <v>7002300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6799600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7109800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8093400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7464600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7593000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7131300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7166100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6920900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6481500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5949400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5492900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5117000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7461600</v>
+        <v>7481800</v>
       </c>
       <c r="E44" s="3">
-        <v>7232000</v>
+        <v>7215900</v>
       </c>
       <c r="F44" s="3">
-        <v>7488100</v>
+        <v>6993800</v>
       </c>
       <c r="G44" s="3">
-        <v>7642400</v>
+        <v>7241500</v>
       </c>
       <c r="H44" s="3">
-        <v>7895800</v>
+        <v>7390700</v>
       </c>
       <c r="I44" s="3">
-        <v>7336400</v>
+        <v>7635800</v>
       </c>
       <c r="J44" s="3">
+        <v>7094800</v>
+      </c>
+      <c r="K44" s="3">
         <v>8199300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8217800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8015200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8048900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7793600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7851600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7246200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6601800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6847600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6441600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6211000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4735700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5252300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1268800</v>
+        <v>1210900</v>
       </c>
       <c r="E45" s="3">
-        <v>1199000</v>
+        <v>1227000</v>
       </c>
       <c r="F45" s="3">
-        <v>1196400</v>
+        <v>1159500</v>
       </c>
       <c r="G45" s="3">
-        <v>1197300</v>
+        <v>1157000</v>
       </c>
       <c r="H45" s="3">
-        <v>1355800</v>
+        <v>1157900</v>
       </c>
       <c r="I45" s="3">
-        <v>1342900</v>
+        <v>1311200</v>
       </c>
       <c r="J45" s="3">
+        <v>1298700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1368900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1225300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1322900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1330200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1291000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1205900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1188900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1154700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1105700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1052800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1084600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1278800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1242800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18056000</v>
+        <v>18126700</v>
       </c>
       <c r="E46" s="3">
-        <v>18122500</v>
+        <v>17461400</v>
       </c>
       <c r="F46" s="3">
-        <v>16950300</v>
+        <v>17525700</v>
       </c>
       <c r="G46" s="3">
-        <v>17091200</v>
+        <v>16392200</v>
       </c>
       <c r="H46" s="3">
-        <v>17649100</v>
+        <v>16528400</v>
       </c>
       <c r="I46" s="3">
-        <v>17735300</v>
+        <v>17067900</v>
       </c>
       <c r="J46" s="3">
+        <v>17151200</v>
+      </c>
+      <c r="K46" s="3">
         <v>18260400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17756700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18240800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18921700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17970800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17846800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16909800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16250200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16391200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15458100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14626200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12591200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12821700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4748800</v>
+        <v>4460400</v>
       </c>
       <c r="E47" s="3">
-        <v>4503800</v>
+        <v>4592400</v>
       </c>
       <c r="F47" s="3">
-        <v>4366500</v>
+        <v>4355500</v>
       </c>
       <c r="G47" s="3">
-        <v>4303100</v>
+        <v>4222700</v>
       </c>
       <c r="H47" s="3">
-        <v>4387400</v>
+        <v>4161400</v>
       </c>
       <c r="I47" s="3">
-        <v>4249400</v>
+        <v>4242900</v>
       </c>
       <c r="J47" s="3">
+        <v>4109500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4302400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4281700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4254400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4431700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3945800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4110500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3870100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3656300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3775100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3603400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3962700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3654400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3553700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7626200</v>
+        <v>7384500</v>
       </c>
       <c r="E48" s="3">
-        <v>7700700</v>
+        <v>7375100</v>
       </c>
       <c r="F48" s="3">
-        <v>7466300</v>
+        <v>7447100</v>
       </c>
       <c r="G48" s="3">
-        <v>7396900</v>
+        <v>7220500</v>
       </c>
       <c r="H48" s="3">
-        <v>7367800</v>
+        <v>7153300</v>
       </c>
       <c r="I48" s="3">
-        <v>7389400</v>
+        <v>7125200</v>
       </c>
       <c r="J48" s="3">
+        <v>7146100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7436500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7454200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7461400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7167800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7111300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6849300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6694400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6941200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6903500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6874400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6023000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6087900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3073700</v>
+        <v>2940100</v>
       </c>
       <c r="E49" s="3">
-        <v>3094400</v>
+        <v>2972500</v>
       </c>
       <c r="F49" s="3">
-        <v>2945700</v>
+        <v>2992500</v>
       </c>
       <c r="G49" s="3">
-        <v>2930500</v>
+        <v>2848700</v>
       </c>
       <c r="H49" s="3">
-        <v>2956400</v>
+        <v>2833900</v>
       </c>
       <c r="I49" s="3">
-        <v>2911400</v>
+        <v>2859100</v>
       </c>
       <c r="J49" s="3">
+        <v>2815500</v>
+      </c>
+      <c r="K49" s="3">
         <v>3096100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3079300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2972100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3155200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3161900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3289100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3137100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2975000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3245200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3273300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3281300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>897200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>891700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1025700</v>
+        <v>1037700</v>
       </c>
       <c r="E52" s="3">
-        <v>1058500</v>
+        <v>991900</v>
       </c>
       <c r="F52" s="3">
-        <v>1003200</v>
+        <v>1023700</v>
       </c>
       <c r="G52" s="3">
-        <v>1024100</v>
+        <v>970200</v>
       </c>
       <c r="H52" s="3">
-        <v>989900</v>
+        <v>990300</v>
       </c>
       <c r="I52" s="3">
-        <v>999600</v>
+        <v>957300</v>
       </c>
       <c r="J52" s="3">
+        <v>966700</v>
+      </c>
+      <c r="K52" s="3">
         <v>877800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>911400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>893200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>993200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>881500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>914100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>875400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>911800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>925500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>867000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>685400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>397300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>395700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34530400</v>
+        <v>33949400</v>
       </c>
       <c r="E54" s="3">
-        <v>34479900</v>
+        <v>33393300</v>
       </c>
       <c r="F54" s="3">
-        <v>32732200</v>
+        <v>33344400</v>
       </c>
       <c r="G54" s="3">
-        <v>32745700</v>
+        <v>31654300</v>
       </c>
       <c r="H54" s="3">
-        <v>33350700</v>
+        <v>31667300</v>
       </c>
       <c r="I54" s="3">
-        <v>33285100</v>
+        <v>32252400</v>
       </c>
       <c r="J54" s="3">
+        <v>32189000</v>
+      </c>
+      <c r="K54" s="3">
         <v>33973200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33429200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33814600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34963300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33127800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33271700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31641700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30487700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31278300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30105200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29429900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23563000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23750700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2366000</v>
+        <v>2369400</v>
       </c>
       <c r="E57" s="3">
-        <v>2353300</v>
+        <v>2288100</v>
       </c>
       <c r="F57" s="3">
-        <v>1985200</v>
+        <v>2275800</v>
       </c>
       <c r="G57" s="3">
-        <v>1767800</v>
+        <v>1919800</v>
       </c>
       <c r="H57" s="3">
-        <v>1860800</v>
+        <v>1709600</v>
       </c>
       <c r="I57" s="3">
-        <v>2005700</v>
+        <v>1799600</v>
       </c>
       <c r="J57" s="3">
+        <v>1939600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2091700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2278800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2338800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2565400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2413100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2557500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2485200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2744100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2742000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2594600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2526300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2129800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1891800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3679200</v>
+        <v>3968100</v>
       </c>
       <c r="E58" s="3">
-        <v>3365800</v>
+        <v>3558000</v>
       </c>
       <c r="F58" s="3">
-        <v>3639700</v>
+        <v>3255000</v>
       </c>
       <c r="G58" s="3">
-        <v>3986800</v>
+        <v>3519800</v>
       </c>
       <c r="H58" s="3">
-        <v>5543600</v>
+        <v>3855500</v>
       </c>
       <c r="I58" s="3">
-        <v>5489100</v>
+        <v>5361000</v>
       </c>
       <c r="J58" s="3">
+        <v>5308400</v>
+      </c>
+      <c r="K58" s="3">
         <v>5845400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5004000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4708300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4403400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4835900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3995900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4127800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2982300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3226400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2743000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4866100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1932300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2705700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3236300</v>
+        <v>3296200</v>
       </c>
       <c r="E59" s="3">
-        <v>3325900</v>
+        <v>3129700</v>
       </c>
       <c r="F59" s="3">
-        <v>3138000</v>
+        <v>3216400</v>
       </c>
       <c r="G59" s="3">
-        <v>3082000</v>
+        <v>3034600</v>
       </c>
       <c r="H59" s="3">
-        <v>3000300</v>
+        <v>2980600</v>
       </c>
       <c r="I59" s="3">
-        <v>3060300</v>
+        <v>2901500</v>
       </c>
       <c r="J59" s="3">
+        <v>2959500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3169700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3262900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3290300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3430500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3011500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3336600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3020600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3220100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3131200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2985200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2675700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2148500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1977100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9281400</v>
+        <v>9633700</v>
       </c>
       <c r="E60" s="3">
-        <v>9045000</v>
+        <v>8975800</v>
       </c>
       <c r="F60" s="3">
-        <v>8762800</v>
+        <v>8747200</v>
       </c>
       <c r="G60" s="3">
-        <v>8836700</v>
+        <v>8474200</v>
       </c>
       <c r="H60" s="3">
-        <v>10404800</v>
+        <v>8545700</v>
       </c>
       <c r="I60" s="3">
-        <v>10555100</v>
+        <v>10062100</v>
       </c>
       <c r="J60" s="3">
+        <v>10207500</v>
+      </c>
+      <c r="K60" s="3">
         <v>11106800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10545700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10337400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10399400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10260500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9890100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9633600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8946500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9099600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8322800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10068000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6210600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6574700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4568300</v>
+        <v>3648700</v>
       </c>
       <c r="E61" s="3">
-        <v>4924100</v>
+        <v>4417800</v>
       </c>
       <c r="F61" s="3">
-        <v>4708600</v>
+        <v>4762000</v>
       </c>
       <c r="G61" s="3">
-        <v>4814000</v>
+        <v>4553600</v>
       </c>
       <c r="H61" s="3">
-        <v>4002500</v>
+        <v>4655400</v>
       </c>
       <c r="I61" s="3">
-        <v>3733600</v>
+        <v>3870600</v>
       </c>
       <c r="J61" s="3">
+        <v>3610700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3704600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3739100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4491900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4540600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4285500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4526300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4365800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4345500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4771500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4645600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2829700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1692900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1742600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2177400</v>
+        <v>2043900</v>
       </c>
       <c r="E62" s="3">
-        <v>2181200</v>
+        <v>2105700</v>
       </c>
       <c r="F62" s="3">
-        <v>2023500</v>
+        <v>2109400</v>
       </c>
       <c r="G62" s="3">
-        <v>2089300</v>
+        <v>1956900</v>
       </c>
       <c r="H62" s="3">
-        <v>2061000</v>
+        <v>2020500</v>
       </c>
       <c r="I62" s="3">
-        <v>2086200</v>
+        <v>1993100</v>
       </c>
       <c r="J62" s="3">
+        <v>2017500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1936900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1955600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1946800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1736800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1588900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1545500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1485000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1433600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1437400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1448700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1400700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1037100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1041600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16931300</v>
+        <v>16349400</v>
       </c>
       <c r="E66" s="3">
-        <v>17058900</v>
+        <v>16373800</v>
       </c>
       <c r="F66" s="3">
-        <v>16338700</v>
+        <v>16497100</v>
       </c>
       <c r="G66" s="3">
-        <v>16551800</v>
+        <v>15800700</v>
       </c>
       <c r="H66" s="3">
-        <v>17285000</v>
+        <v>16006700</v>
       </c>
       <c r="I66" s="3">
-        <v>17145700</v>
+        <v>16715800</v>
       </c>
       <c r="J66" s="3">
+        <v>16581100</v>
+      </c>
+      <c r="K66" s="3">
         <v>17541800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16997900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17543800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17515500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16912800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16751000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16218100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15440300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16046200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15109600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14968700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9577900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9984500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16436200</v>
+        <v>16355300</v>
       </c>
       <c r="E72" s="3">
-        <v>16382400</v>
+        <v>15895000</v>
       </c>
       <c r="F72" s="3">
-        <v>16015700</v>
+        <v>15843000</v>
       </c>
       <c r="G72" s="3">
-        <v>15909400</v>
+        <v>15488300</v>
       </c>
       <c r="H72" s="3">
-        <v>15721000</v>
+        <v>15385500</v>
       </c>
       <c r="I72" s="3">
-        <v>15908700</v>
+        <v>15203300</v>
       </c>
       <c r="J72" s="3">
+        <v>15384800</v>
+      </c>
+      <c r="K72" s="3">
         <v>15739500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15939800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15497700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16338300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15366800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15023600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14132800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13901600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13527900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13353100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12762200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12442100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12042600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17599100</v>
+        <v>17600000</v>
       </c>
       <c r="E76" s="3">
-        <v>17421000</v>
+        <v>17019600</v>
       </c>
       <c r="F76" s="3">
-        <v>16393400</v>
+        <v>16847300</v>
       </c>
       <c r="G76" s="3">
-        <v>16193900</v>
+        <v>15853600</v>
       </c>
       <c r="H76" s="3">
-        <v>16065600</v>
+        <v>15660600</v>
       </c>
       <c r="I76" s="3">
-        <v>16139300</v>
+        <v>15536600</v>
       </c>
       <c r="J76" s="3">
+        <v>15607800</v>
+      </c>
+      <c r="K76" s="3">
         <v>16431500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16431400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16270800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17447700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16215000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16520700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15423500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15047400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15232100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14995700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14461200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13985100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13766200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>372500</v>
+        <v>460300</v>
       </c>
       <c r="E81" s="3">
-        <v>366800</v>
+        <v>360300</v>
       </c>
       <c r="F81" s="3">
-        <v>261300</v>
+        <v>354700</v>
       </c>
       <c r="G81" s="3">
-        <v>191700</v>
+        <v>252700</v>
       </c>
       <c r="H81" s="3">
-        <v>148000</v>
+        <v>185400</v>
       </c>
       <c r="I81" s="3">
-        <v>169200</v>
+        <v>143200</v>
       </c>
       <c r="J81" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K81" s="3">
         <v>411800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>391400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>434900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>694700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>555200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>579800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>572400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>373800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>481900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>590900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>329000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>399600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>273300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>312000</v>
+        <v>295200</v>
       </c>
       <c r="E83" s="3">
-        <v>317600</v>
+        <v>301700</v>
       </c>
       <c r="F83" s="3">
-        <v>305700</v>
+        <v>307100</v>
       </c>
       <c r="G83" s="3">
-        <v>299600</v>
+        <v>295600</v>
       </c>
       <c r="H83" s="3">
-        <v>289900</v>
+        <v>289800</v>
       </c>
       <c r="I83" s="3">
-        <v>313200</v>
+        <v>280400</v>
       </c>
       <c r="J83" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K83" s="3">
         <v>296400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>294100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>299300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>320500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>309400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>301200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>299200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>316900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>301900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>295000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>296800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>238900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>226700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>588500</v>
+        <v>817900</v>
       </c>
       <c r="E89" s="3">
-        <v>1045300</v>
+        <v>569100</v>
       </c>
       <c r="F89" s="3">
-        <v>791200</v>
+        <v>1010900</v>
       </c>
       <c r="G89" s="3">
-        <v>888300</v>
+        <v>765100</v>
       </c>
       <c r="H89" s="3">
-        <v>501300</v>
+        <v>859000</v>
       </c>
       <c r="I89" s="3">
-        <v>1250100</v>
+        <v>484800</v>
       </c>
       <c r="J89" s="3">
+        <v>1208900</v>
+      </c>
+      <c r="K89" s="3">
         <v>202300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>715400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>530400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>982200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>259100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>677800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>603600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>357400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>376500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>971600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>448000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-346000</v>
+        <v>-390300</v>
       </c>
       <c r="E91" s="3">
-        <v>-403700</v>
+        <v>-334600</v>
       </c>
       <c r="F91" s="3">
-        <v>-473400</v>
+        <v>-390400</v>
       </c>
       <c r="G91" s="3">
-        <v>-437400</v>
+        <v>-457800</v>
       </c>
       <c r="H91" s="3">
-        <v>-339500</v>
+        <v>-423000</v>
       </c>
       <c r="I91" s="3">
-        <v>-411300</v>
+        <v>-328300</v>
       </c>
       <c r="J91" s="3">
+        <v>-397700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-434800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-439600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-403000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-453500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-552400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-411600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-382200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-288700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-389600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-331300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-390900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-378000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-358000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-270200</v>
+        <v>-349200</v>
       </c>
       <c r="E94" s="3">
-        <v>-332500</v>
+        <v>-261300</v>
       </c>
       <c r="F94" s="3">
-        <v>-423900</v>
+        <v>-321600</v>
       </c>
       <c r="G94" s="3">
-        <v>-406100</v>
+        <v>-409900</v>
       </c>
       <c r="H94" s="3">
-        <v>-322900</v>
+        <v>-392700</v>
       </c>
       <c r="I94" s="3">
-        <v>-379100</v>
+        <v>-312300</v>
       </c>
       <c r="J94" s="3">
+        <v>-366600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-388200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-542900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-436300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-432300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-524300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-408300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-520100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-228800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>103500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-347600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-383000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-308200</v>
       </c>
       <c r="F96" s="3">
-        <v>-155000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-149900</v>
       </c>
       <c r="H96" s="3">
-        <v>-335800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-324700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-473400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-510400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-454600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-411800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-307100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-247400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-242700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-397200</v>
+        <v>-136500</v>
       </c>
       <c r="E100" s="3">
-        <v>-476800</v>
+        <v>-384100</v>
       </c>
       <c r="F100" s="3">
-        <v>-549400</v>
+        <v>-461100</v>
       </c>
       <c r="G100" s="3">
-        <v>-683000</v>
+        <v>-531300</v>
       </c>
       <c r="H100" s="3">
-        <v>-109700</v>
+        <v>-660500</v>
       </c>
       <c r="I100" s="3">
-        <v>-270600</v>
+        <v>-106100</v>
       </c>
       <c r="J100" s="3">
+        <v>-261700</v>
+      </c>
+      <c r="K100" s="3">
         <v>363600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-431900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>305300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-522600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>409300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-408800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>466900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-341500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>246200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-372500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2673000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-763500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>417200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12900</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>-10500</v>
+        <v>12400</v>
       </c>
       <c r="F101" s="3">
-        <v>23700</v>
+        <v>-10200</v>
       </c>
       <c r="G101" s="3">
-        <v>12700</v>
+        <v>22900</v>
       </c>
       <c r="H101" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-17600</v>
-      </c>
       <c r="J101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K101" s="3">
         <v>10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-24800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>62300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-40600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>69000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-66000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-66000</v>
+        <v>337200</v>
       </c>
       <c r="E102" s="3">
-        <v>225400</v>
+        <v>-63800</v>
       </c>
       <c r="F102" s="3">
-        <v>-158500</v>
+        <v>218000</v>
       </c>
       <c r="G102" s="3">
-        <v>-188100</v>
+        <v>-153300</v>
       </c>
       <c r="H102" s="3">
-        <v>68200</v>
+        <v>-181900</v>
       </c>
       <c r="I102" s="3">
-        <v>582800</v>
+        <v>66000</v>
       </c>
       <c r="J102" s="3">
+        <v>563600</v>
+      </c>
+      <c r="K102" s="3">
         <v>188100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-280200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>412300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>206500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-179800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-189000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>97400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>278000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-125700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>416200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5666000</v>
+        <v>6169600</v>
       </c>
       <c r="E8" s="3">
-        <v>5711200</v>
+        <v>5485900</v>
       </c>
       <c r="F8" s="3">
-        <v>5957300</v>
+        <v>5529700</v>
       </c>
       <c r="G8" s="3">
-        <v>4894800</v>
+        <v>5768000</v>
       </c>
       <c r="H8" s="3">
-        <v>4396100</v>
+        <v>4739200</v>
       </c>
       <c r="I8" s="3">
-        <v>4041400</v>
+        <v>4256400</v>
       </c>
       <c r="J8" s="3">
+        <v>3913000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5439500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5593100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5548200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5585500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6790800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6613400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6242700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5872700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6285600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5847500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5403600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5073300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5111600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3819400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4030400</v>
+        <v>4456500</v>
       </c>
       <c r="E9" s="3">
-        <v>4185500</v>
+        <v>3902300</v>
       </c>
       <c r="F9" s="3">
-        <v>4399700</v>
+        <v>4052400</v>
       </c>
       <c r="G9" s="3">
-        <v>3605500</v>
+        <v>4259900</v>
       </c>
       <c r="H9" s="3">
-        <v>3216500</v>
+        <v>3490900</v>
       </c>
       <c r="I9" s="3">
-        <v>2948900</v>
+        <v>3114200</v>
       </c>
       <c r="J9" s="3">
+        <v>2855200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3983000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4023200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3933000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3914600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4734300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4644500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4266600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4011000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4364100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4072000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3892100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3635600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3643900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2714800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1635600</v>
+        <v>1713100</v>
       </c>
       <c r="E10" s="3">
-        <v>1525800</v>
+        <v>1583600</v>
       </c>
       <c r="F10" s="3">
-        <v>1557700</v>
+        <v>1477300</v>
       </c>
       <c r="G10" s="3">
-        <v>1289300</v>
+        <v>1508100</v>
       </c>
       <c r="H10" s="3">
-        <v>1179600</v>
+        <v>1248300</v>
       </c>
       <c r="I10" s="3">
-        <v>1092500</v>
+        <v>1142100</v>
       </c>
       <c r="J10" s="3">
+        <v>1057800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1456500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1569900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1615200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1670900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2056500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1968800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1976100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1861700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1921400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1775500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1511500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1437700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1467700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1104600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,11 +1157,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1168,8 +1187,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1186,17 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>15500</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5009400</v>
+        <v>5423400</v>
       </c>
       <c r="E17" s="3">
-        <v>5167200</v>
+        <v>4850200</v>
       </c>
       <c r="F17" s="3">
-        <v>5430600</v>
+        <v>5003000</v>
       </c>
       <c r="G17" s="3">
-        <v>4479000</v>
+        <v>5258000</v>
       </c>
       <c r="H17" s="3">
-        <v>4101600</v>
+        <v>4336600</v>
       </c>
       <c r="I17" s="3">
-        <v>3804300</v>
+        <v>3971300</v>
       </c>
       <c r="J17" s="3">
+        <v>3683400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5061800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4993300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4930400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5810800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5711600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5274100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4999600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5531700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5170900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4865900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4606000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4516700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3438900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>656600</v>
+        <v>746200</v>
       </c>
       <c r="E18" s="3">
-        <v>544000</v>
+        <v>635800</v>
       </c>
       <c r="F18" s="3">
-        <v>526800</v>
+        <v>526700</v>
       </c>
       <c r="G18" s="3">
-        <v>415800</v>
+        <v>510000</v>
       </c>
       <c r="H18" s="3">
-        <v>294500</v>
+        <v>402600</v>
       </c>
       <c r="I18" s="3">
-        <v>237200</v>
+        <v>285100</v>
       </c>
       <c r="J18" s="3">
+        <v>229600</v>
+      </c>
+      <c r="K18" s="3">
         <v>377800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>599900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>617800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>684800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>979900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>901800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>968600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>873100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>753900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>676500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>537700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>467400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>594900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>380500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29100</v>
+        <v>31500</v>
       </c>
       <c r="E20" s="3">
-        <v>23500</v>
+        <v>28200</v>
       </c>
       <c r="F20" s="3">
-        <v>24900</v>
+        <v>22800</v>
       </c>
       <c r="G20" s="3">
-        <v>7000</v>
+        <v>24100</v>
       </c>
       <c r="H20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>47700</v>
-      </c>
       <c r="J20" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-35100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>37200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>372500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>36500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>981000</v>
+        <v>1044600</v>
       </c>
       <c r="E21" s="3">
-        <v>869300</v>
+        <v>949800</v>
       </c>
       <c r="F21" s="3">
-        <v>858800</v>
+        <v>841700</v>
       </c>
       <c r="G21" s="3">
-        <v>718400</v>
+        <v>831500</v>
       </c>
       <c r="H21" s="3">
-        <v>585800</v>
+        <v>695600</v>
       </c>
       <c r="I21" s="3">
-        <v>565200</v>
+        <v>567200</v>
       </c>
       <c r="J21" s="3">
+        <v>547300</v>
+      </c>
+      <c r="K21" s="3">
         <v>645500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>911300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>916800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>973100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1337600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1176100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1281800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1193400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1052800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>992600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1205300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>763800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>821800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>643700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24500</v>
+        <v>28700</v>
       </c>
       <c r="E22" s="3">
-        <v>26100</v>
+        <v>23700</v>
       </c>
       <c r="F22" s="3">
-        <v>28200</v>
+        <v>25300</v>
       </c>
       <c r="G22" s="3">
-        <v>27800</v>
+        <v>27300</v>
       </c>
       <c r="H22" s="3">
-        <v>31400</v>
+        <v>27000</v>
       </c>
       <c r="I22" s="3">
-        <v>33800</v>
+        <v>30400</v>
       </c>
       <c r="J22" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K22" s="3">
         <v>50200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>32300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>22400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>16300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>661200</v>
+        <v>749000</v>
       </c>
       <c r="E23" s="3">
-        <v>541400</v>
+        <v>640200</v>
       </c>
       <c r="F23" s="3">
-        <v>523500</v>
+        <v>524200</v>
       </c>
       <c r="G23" s="3">
-        <v>394900</v>
+        <v>506800</v>
       </c>
       <c r="H23" s="3">
-        <v>264600</v>
+        <v>382400</v>
       </c>
       <c r="I23" s="3">
-        <v>251100</v>
+        <v>256200</v>
       </c>
       <c r="J23" s="3">
+        <v>243100</v>
+      </c>
+      <c r="K23" s="3">
         <v>292400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>562200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>563400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>612900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>956100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>806800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>925000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>844800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>691300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>643900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>868000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>434800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>560600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>182100</v>
+        <v>197000</v>
       </c>
       <c r="E24" s="3">
-        <v>158800</v>
+        <v>176300</v>
       </c>
       <c r="F24" s="3">
-        <v>140700</v>
+        <v>153800</v>
       </c>
       <c r="G24" s="3">
-        <v>122000</v>
+        <v>136200</v>
       </c>
       <c r="H24" s="3">
-        <v>64100</v>
+        <v>118100</v>
       </c>
       <c r="I24" s="3">
-        <v>86500</v>
+        <v>62100</v>
       </c>
       <c r="J24" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K24" s="3">
         <v>114500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>129800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>163500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>163300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>239900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>227500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>274200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>254700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>293100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>142000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>259900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>85900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>135000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>124400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>479200</v>
+        <v>552000</v>
       </c>
       <c r="E26" s="3">
-        <v>382600</v>
+        <v>463900</v>
       </c>
       <c r="F26" s="3">
-        <v>382700</v>
+        <v>370400</v>
       </c>
       <c r="G26" s="3">
-        <v>272900</v>
+        <v>370600</v>
       </c>
       <c r="H26" s="3">
-        <v>200500</v>
+        <v>264300</v>
       </c>
       <c r="I26" s="3">
-        <v>164600</v>
+        <v>194100</v>
       </c>
       <c r="J26" s="3">
+        <v>159300</v>
+      </c>
+      <c r="K26" s="3">
         <v>177900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>432300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>399900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>449600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>716200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>579400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>650800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>590100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>398100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>501800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>608200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>348900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>425700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>276200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>460300</v>
+        <v>531900</v>
       </c>
       <c r="E27" s="3">
-        <v>360300</v>
+        <v>445700</v>
       </c>
       <c r="F27" s="3">
-        <v>354700</v>
+        <v>348800</v>
       </c>
       <c r="G27" s="3">
-        <v>252700</v>
+        <v>343400</v>
       </c>
       <c r="H27" s="3">
-        <v>185400</v>
+        <v>244700</v>
       </c>
       <c r="I27" s="3">
-        <v>143200</v>
+        <v>179500</v>
       </c>
       <c r="J27" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K27" s="3">
         <v>163700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>411800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>391400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>434900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>694700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>555200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>579800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>572400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>373800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>481900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>590900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>329000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>399600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>273300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29100</v>
+        <v>-31500</v>
       </c>
       <c r="E32" s="3">
-        <v>-23500</v>
+        <v>-28200</v>
       </c>
       <c r="F32" s="3">
-        <v>-24900</v>
+        <v>-22800</v>
       </c>
       <c r="G32" s="3">
-        <v>-7000</v>
+        <v>-24100</v>
       </c>
       <c r="H32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-47700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="K32" s="3">
         <v>35100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-37200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-372500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-36500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>460300</v>
+        <v>531900</v>
       </c>
       <c r="E33" s="3">
-        <v>360300</v>
+        <v>445700</v>
       </c>
       <c r="F33" s="3">
-        <v>354700</v>
+        <v>348800</v>
       </c>
       <c r="G33" s="3">
-        <v>252700</v>
+        <v>343400</v>
       </c>
       <c r="H33" s="3">
-        <v>185400</v>
+        <v>244700</v>
       </c>
       <c r="I33" s="3">
-        <v>143200</v>
+        <v>179500</v>
       </c>
       <c r="J33" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K33" s="3">
         <v>163700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>411800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>391400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>434900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>694700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>555200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>579800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>572400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>373800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>481900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>590900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>329000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>399600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>273300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>460300</v>
+        <v>531900</v>
       </c>
       <c r="E35" s="3">
-        <v>360300</v>
+        <v>445700</v>
       </c>
       <c r="F35" s="3">
-        <v>354700</v>
+        <v>348800</v>
       </c>
       <c r="G35" s="3">
-        <v>252700</v>
+        <v>343400</v>
       </c>
       <c r="H35" s="3">
-        <v>185400</v>
+        <v>244700</v>
       </c>
       <c r="I35" s="3">
-        <v>143200</v>
+        <v>179500</v>
       </c>
       <c r="J35" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K35" s="3">
         <v>163700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>411800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>391400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>434900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>694700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>555200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>579800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>572400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>373800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>481900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>590900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>329000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>399600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>273300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2414000</v>
+        <v>2331300</v>
       </c>
       <c r="E41" s="3">
-        <v>2077100</v>
+        <v>2337200</v>
       </c>
       <c r="F41" s="3">
-        <v>2141900</v>
+        <v>2011100</v>
       </c>
       <c r="G41" s="3">
-        <v>1924900</v>
+        <v>2073900</v>
       </c>
       <c r="H41" s="3">
-        <v>2077900</v>
+        <v>1863700</v>
       </c>
       <c r="I41" s="3">
-        <v>2266200</v>
+        <v>2011800</v>
       </c>
       <c r="J41" s="3">
+        <v>2194200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2199600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1689900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1514000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1792800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1449300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1421600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1196300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1343400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1327600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1516900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1482200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1381200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1083800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1209600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,484 +2886,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7020100</v>
+        <v>7270200</v>
       </c>
       <c r="E43" s="3">
-        <v>6941400</v>
+        <v>6797000</v>
       </c>
       <c r="F43" s="3">
-        <v>7230300</v>
+        <v>6720800</v>
       </c>
       <c r="G43" s="3">
-        <v>6068800</v>
+        <v>7000600</v>
       </c>
       <c r="H43" s="3">
-        <v>5901900</v>
+        <v>5875900</v>
       </c>
       <c r="I43" s="3">
-        <v>5854700</v>
+        <v>5714300</v>
       </c>
       <c r="J43" s="3">
+        <v>5668600</v>
+      </c>
+      <c r="K43" s="3">
         <v>6558100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7002300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6799600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7109800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8093400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7464600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7593000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7131300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7166100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6920900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6481500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5949400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5492900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5117000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7481800</v>
+        <v>7688500</v>
       </c>
       <c r="E44" s="3">
-        <v>7215900</v>
+        <v>7244000</v>
       </c>
       <c r="F44" s="3">
-        <v>6993800</v>
+        <v>6986500</v>
       </c>
       <c r="G44" s="3">
-        <v>7241500</v>
+        <v>6771600</v>
       </c>
       <c r="H44" s="3">
-        <v>7390700</v>
+        <v>7011300</v>
       </c>
       <c r="I44" s="3">
-        <v>7635800</v>
+        <v>7155800</v>
       </c>
       <c r="J44" s="3">
+        <v>7393100</v>
+      </c>
+      <c r="K44" s="3">
         <v>7094800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8199300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8217800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8015200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8048900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7793600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7851600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7246200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6601800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6847600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6441600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6211000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4735700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5252300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1210900</v>
+        <v>1396000</v>
       </c>
       <c r="E45" s="3">
-        <v>1227000</v>
+        <v>1172400</v>
       </c>
       <c r="F45" s="3">
-        <v>1159500</v>
+        <v>1188000</v>
       </c>
       <c r="G45" s="3">
-        <v>1157000</v>
+        <v>1122700</v>
       </c>
       <c r="H45" s="3">
-        <v>1157900</v>
+        <v>1120200</v>
       </c>
       <c r="I45" s="3">
-        <v>1311200</v>
+        <v>1121100</v>
       </c>
       <c r="J45" s="3">
+        <v>1269500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1298700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1368900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1225300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1322900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1330200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1291000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1205900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1188900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1154700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1105700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1052800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1084600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1278800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1242800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18126700</v>
+        <v>18686000</v>
       </c>
       <c r="E46" s="3">
-        <v>17461400</v>
+        <v>17550600</v>
       </c>
       <c r="F46" s="3">
-        <v>17525700</v>
+        <v>16906500</v>
       </c>
       <c r="G46" s="3">
-        <v>16392200</v>
+        <v>16968700</v>
       </c>
       <c r="H46" s="3">
-        <v>16528400</v>
+        <v>15871200</v>
       </c>
       <c r="I46" s="3">
-        <v>17067900</v>
+        <v>16003000</v>
       </c>
       <c r="J46" s="3">
+        <v>16525500</v>
+      </c>
+      <c r="K46" s="3">
         <v>17151200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18260400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17756700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18240800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18921700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17970800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17846800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16909800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16250200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16391200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15458100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14626200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12591200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12821700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4460400</v>
+        <v>4510700</v>
       </c>
       <c r="E47" s="3">
-        <v>4592400</v>
+        <v>4318700</v>
       </c>
       <c r="F47" s="3">
-        <v>4355500</v>
+        <v>4446500</v>
       </c>
       <c r="G47" s="3">
-        <v>4222700</v>
+        <v>4217100</v>
       </c>
       <c r="H47" s="3">
-        <v>4161400</v>
+        <v>4088500</v>
       </c>
       <c r="I47" s="3">
-        <v>4242900</v>
+        <v>4029100</v>
       </c>
       <c r="J47" s="3">
+        <v>4108100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4109500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4302400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4281700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4254400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4431700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3945800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4110500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3870100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3656300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3775100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3603400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3962700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3654400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3553700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7384500</v>
+        <v>7247000</v>
       </c>
       <c r="E48" s="3">
-        <v>7375100</v>
+        <v>7149800</v>
       </c>
       <c r="F48" s="3">
-        <v>7447100</v>
+        <v>7140700</v>
       </c>
       <c r="G48" s="3">
-        <v>7220500</v>
+        <v>7210400</v>
       </c>
       <c r="H48" s="3">
-        <v>7153300</v>
+        <v>6991000</v>
       </c>
       <c r="I48" s="3">
-        <v>7125200</v>
+        <v>6925900</v>
       </c>
       <c r="J48" s="3">
+        <v>6898700</v>
+      </c>
+      <c r="K48" s="3">
         <v>7146100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7436500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7400100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7454200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7461400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7167800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7111300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6849300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6694400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6941200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6903500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6874400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6023000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6087900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2940100</v>
+        <v>2893900</v>
       </c>
       <c r="E49" s="3">
-        <v>2972500</v>
+        <v>2846600</v>
       </c>
       <c r="F49" s="3">
-        <v>2992500</v>
+        <v>2878000</v>
       </c>
       <c r="G49" s="3">
-        <v>2848700</v>
+        <v>2897400</v>
       </c>
       <c r="H49" s="3">
-        <v>2833900</v>
+        <v>2758200</v>
       </c>
       <c r="I49" s="3">
-        <v>2859100</v>
+        <v>2743900</v>
       </c>
       <c r="J49" s="3">
+        <v>2768200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2815500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3096100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3079300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2972100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3155200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3161900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3289100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3137100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2975000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3245200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3273300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3281300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>897200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>891700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1037700</v>
+        <v>1015800</v>
       </c>
       <c r="E52" s="3">
-        <v>991900</v>
+        <v>1004700</v>
       </c>
       <c r="F52" s="3">
-        <v>1023700</v>
+        <v>960400</v>
       </c>
       <c r="G52" s="3">
-        <v>970200</v>
+        <v>991200</v>
       </c>
       <c r="H52" s="3">
-        <v>990300</v>
+        <v>939400</v>
       </c>
       <c r="I52" s="3">
-        <v>957300</v>
+        <v>958900</v>
       </c>
       <c r="J52" s="3">
+        <v>926900</v>
+      </c>
+      <c r="K52" s="3">
         <v>966700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>877800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>911400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>893200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>993200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>881500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>914100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>875400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>911800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>925500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>867000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>685400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>397300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>395700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33949400</v>
+        <v>34353500</v>
       </c>
       <c r="E54" s="3">
-        <v>33393300</v>
+        <v>32870400</v>
       </c>
       <c r="F54" s="3">
-        <v>33344400</v>
+        <v>32332000</v>
       </c>
       <c r="G54" s="3">
-        <v>31654300</v>
+        <v>32284700</v>
       </c>
       <c r="H54" s="3">
-        <v>31667300</v>
+        <v>30648200</v>
       </c>
       <c r="I54" s="3">
-        <v>32252400</v>
+        <v>30660900</v>
       </c>
       <c r="J54" s="3">
+        <v>31227300</v>
+      </c>
+      <c r="K54" s="3">
         <v>32189000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33973200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33429200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33814600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34963300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33127800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33271700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31641700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30487700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31278300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30105200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29429900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23563000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23750700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2369400</v>
+        <v>2448100</v>
       </c>
       <c r="E57" s="3">
-        <v>2288100</v>
+        <v>2294100</v>
       </c>
       <c r="F57" s="3">
-        <v>2275800</v>
+        <v>2215300</v>
       </c>
       <c r="G57" s="3">
-        <v>1919800</v>
+        <v>2203400</v>
       </c>
       <c r="H57" s="3">
-        <v>1709600</v>
+        <v>1858800</v>
       </c>
       <c r="I57" s="3">
-        <v>1799600</v>
+        <v>1655300</v>
       </c>
       <c r="J57" s="3">
+        <v>1742400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1939600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2091700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2278800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2338800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2565400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2413100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2557500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2485200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2744100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2742000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2594600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2526300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2129800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1891800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3968100</v>
+        <v>4469400</v>
       </c>
       <c r="E58" s="3">
-        <v>3558000</v>
+        <v>3841900</v>
       </c>
       <c r="F58" s="3">
-        <v>3255000</v>
+        <v>3444900</v>
       </c>
       <c r="G58" s="3">
-        <v>3519800</v>
+        <v>3151500</v>
       </c>
       <c r="H58" s="3">
-        <v>3855500</v>
+        <v>3407900</v>
       </c>
       <c r="I58" s="3">
-        <v>5361000</v>
+        <v>3733000</v>
       </c>
       <c r="J58" s="3">
+        <v>5190700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5308400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5845400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5004000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4708300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4403400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4835900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3995900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4127800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2982300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3226400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2743000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4866100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1932300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2705700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3296200</v>
+        <v>3372000</v>
       </c>
       <c r="E59" s="3">
-        <v>3129700</v>
+        <v>3191400</v>
       </c>
       <c r="F59" s="3">
-        <v>3216400</v>
+        <v>3030200</v>
       </c>
       <c r="G59" s="3">
-        <v>3034600</v>
+        <v>3114200</v>
       </c>
       <c r="H59" s="3">
-        <v>2980600</v>
+        <v>2938200</v>
       </c>
       <c r="I59" s="3">
-        <v>2901500</v>
+        <v>2885800</v>
       </c>
       <c r="J59" s="3">
+        <v>2809300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2959500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3169700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3262900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3290300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3430500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3011500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3336600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3020600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3220100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3131200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2985200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2675700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2148500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1977100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9633700</v>
+        <v>10289400</v>
       </c>
       <c r="E60" s="3">
-        <v>8975800</v>
+        <v>9327500</v>
       </c>
       <c r="F60" s="3">
-        <v>8747200</v>
+        <v>8690500</v>
       </c>
       <c r="G60" s="3">
-        <v>8474200</v>
+        <v>8469200</v>
       </c>
       <c r="H60" s="3">
-        <v>8545700</v>
+        <v>8204900</v>
       </c>
       <c r="I60" s="3">
-        <v>10062100</v>
+        <v>8274100</v>
       </c>
       <c r="J60" s="3">
+        <v>9742300</v>
+      </c>
+      <c r="K60" s="3">
         <v>10207500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11106800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10545700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10337400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10399400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10260500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9890100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9633600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8946500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9099600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8322800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10068000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6210600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6574700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3648700</v>
+        <v>3412100</v>
       </c>
       <c r="E61" s="3">
-        <v>4417800</v>
+        <v>3532800</v>
       </c>
       <c r="F61" s="3">
-        <v>4762000</v>
+        <v>4277400</v>
       </c>
       <c r="G61" s="3">
-        <v>4553600</v>
+        <v>4610600</v>
       </c>
       <c r="H61" s="3">
-        <v>4655400</v>
+        <v>4408800</v>
       </c>
       <c r="I61" s="3">
-        <v>3870600</v>
+        <v>4507500</v>
       </c>
       <c r="J61" s="3">
+        <v>3747600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3610700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3704600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3739100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4491900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4540600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4285500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4526300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4365800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4345500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4771500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4645600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2829700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1692900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1742600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2043900</v>
+        <v>2001300</v>
       </c>
       <c r="E62" s="3">
-        <v>2105700</v>
+        <v>1978900</v>
       </c>
       <c r="F62" s="3">
-        <v>2109400</v>
+        <v>2038800</v>
       </c>
       <c r="G62" s="3">
-        <v>1956900</v>
+        <v>2042300</v>
       </c>
       <c r="H62" s="3">
-        <v>2020500</v>
+        <v>1894700</v>
       </c>
       <c r="I62" s="3">
-        <v>1993100</v>
+        <v>1956300</v>
       </c>
       <c r="J62" s="3">
+        <v>1929800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2017500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1936900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1955600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1946800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1736800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1588900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1545500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1485000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1433600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1437400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1448700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1400700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1037100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1041600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16349400</v>
+        <v>16749500</v>
       </c>
       <c r="E66" s="3">
-        <v>16373800</v>
+        <v>15829800</v>
       </c>
       <c r="F66" s="3">
-        <v>16497100</v>
+        <v>15853400</v>
       </c>
       <c r="G66" s="3">
-        <v>15800700</v>
+        <v>15972800</v>
       </c>
       <c r="H66" s="3">
-        <v>16006700</v>
+        <v>15298500</v>
       </c>
       <c r="I66" s="3">
-        <v>16715800</v>
+        <v>15498000</v>
       </c>
       <c r="J66" s="3">
+        <v>16184500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16581100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17541800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16997900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17543800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17515500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16912800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16751000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16218100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15440300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16046200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15109600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14968700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9577900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9984500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16355300</v>
+        <v>16044800</v>
       </c>
       <c r="E72" s="3">
-        <v>15895000</v>
+        <v>15835500</v>
       </c>
       <c r="F72" s="3">
-        <v>15843000</v>
+        <v>15389800</v>
       </c>
       <c r="G72" s="3">
-        <v>15488300</v>
+        <v>15339400</v>
       </c>
       <c r="H72" s="3">
-        <v>15385500</v>
+        <v>14996000</v>
       </c>
       <c r="I72" s="3">
-        <v>15203300</v>
+        <v>14896500</v>
       </c>
       <c r="J72" s="3">
+        <v>14720100</v>
+      </c>
+      <c r="K72" s="3">
         <v>15384800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15739500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15939800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15497700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16338300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15366800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15023600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14132800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13901600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13527900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13353100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12762200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12442100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12042600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17600000</v>
+        <v>17604000</v>
       </c>
       <c r="E76" s="3">
-        <v>17019600</v>
+        <v>17040600</v>
       </c>
       <c r="F76" s="3">
-        <v>16847300</v>
+        <v>16478600</v>
       </c>
       <c r="G76" s="3">
-        <v>15853600</v>
+        <v>16311900</v>
       </c>
       <c r="H76" s="3">
-        <v>15660600</v>
+        <v>15349700</v>
       </c>
       <c r="I76" s="3">
-        <v>15536600</v>
+        <v>15162900</v>
       </c>
       <c r="J76" s="3">
+        <v>15042800</v>
+      </c>
+      <c r="K76" s="3">
         <v>15607800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16431500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16431400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16270800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17447700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16215000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16520700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15423500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15047400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15232100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14995700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14461200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13985100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13766200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>460300</v>
+        <v>531900</v>
       </c>
       <c r="E81" s="3">
-        <v>360300</v>
+        <v>445700</v>
       </c>
       <c r="F81" s="3">
-        <v>354700</v>
+        <v>348800</v>
       </c>
       <c r="G81" s="3">
-        <v>252700</v>
+        <v>343400</v>
       </c>
       <c r="H81" s="3">
-        <v>185400</v>
+        <v>244700</v>
       </c>
       <c r="I81" s="3">
-        <v>143200</v>
+        <v>179500</v>
       </c>
       <c r="J81" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K81" s="3">
         <v>163700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>411800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>391400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>434900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>694700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>555200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>579800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>572400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>373800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>481900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>590900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>329000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>399600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>273300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>295200</v>
+        <v>266900</v>
       </c>
       <c r="E83" s="3">
-        <v>301700</v>
+        <v>285800</v>
       </c>
       <c r="F83" s="3">
-        <v>307100</v>
+        <v>292200</v>
       </c>
       <c r="G83" s="3">
-        <v>295600</v>
+        <v>297400</v>
       </c>
       <c r="H83" s="3">
-        <v>289800</v>
+        <v>286200</v>
       </c>
       <c r="I83" s="3">
-        <v>280400</v>
+        <v>280600</v>
       </c>
       <c r="J83" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K83" s="3">
         <v>302800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>296400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>294100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>299300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>320500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>309400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>301200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>299200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>316900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>301900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>295000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>296800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>238900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>226700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>817900</v>
+        <v>234000</v>
       </c>
       <c r="E89" s="3">
-        <v>569100</v>
+        <v>791900</v>
       </c>
       <c r="F89" s="3">
-        <v>1010900</v>
+        <v>551000</v>
       </c>
       <c r="G89" s="3">
-        <v>765100</v>
+        <v>978800</v>
       </c>
       <c r="H89" s="3">
-        <v>859000</v>
+        <v>740800</v>
       </c>
       <c r="I89" s="3">
-        <v>484800</v>
+        <v>831700</v>
       </c>
       <c r="J89" s="3">
+        <v>469400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1208900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>202300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>715400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>530400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>982200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>259100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>677800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>603600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>357400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>376500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>971600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>448000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-390300</v>
+        <v>-354300</v>
       </c>
       <c r="E91" s="3">
-        <v>-334600</v>
+        <v>-377900</v>
       </c>
       <c r="F91" s="3">
-        <v>-390400</v>
+        <v>-323900</v>
       </c>
       <c r="G91" s="3">
-        <v>-457800</v>
+        <v>-378000</v>
       </c>
       <c r="H91" s="3">
-        <v>-423000</v>
+        <v>-443200</v>
       </c>
       <c r="I91" s="3">
-        <v>-328300</v>
+        <v>-409500</v>
       </c>
       <c r="J91" s="3">
+        <v>-317900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-397700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-434800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-439600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-403000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-453500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-552400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-411600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-382200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-288700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-389600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-331300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-390900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-378000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-358000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-349200</v>
+        <v>-296900</v>
       </c>
       <c r="E94" s="3">
-        <v>-261300</v>
+        <v>-338100</v>
       </c>
       <c r="F94" s="3">
-        <v>-321600</v>
+        <v>-253000</v>
       </c>
       <c r="G94" s="3">
-        <v>-409900</v>
+        <v>-311400</v>
       </c>
       <c r="H94" s="3">
-        <v>-392700</v>
+        <v>-396900</v>
       </c>
       <c r="I94" s="3">
-        <v>-312300</v>
+        <v>-380300</v>
       </c>
       <c r="J94" s="3">
+        <v>-302300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-366600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-388200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-542900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-436300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-432300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-524300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-408300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-388400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-520100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-228800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>103500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-347600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-383000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-322700</v>
       </c>
       <c r="E96" s="3">
-        <v>-308200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-298400</v>
       </c>
       <c r="G96" s="3">
-        <v>-149900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-145200</v>
       </c>
       <c r="I96" s="3">
-        <v>-324700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-314400</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-473400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-510400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-454600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-411800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-307100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-247400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-242700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-136500</v>
+        <v>21400</v>
       </c>
       <c r="E100" s="3">
-        <v>-384100</v>
+        <v>-132200</v>
       </c>
       <c r="F100" s="3">
-        <v>-461100</v>
+        <v>-371900</v>
       </c>
       <c r="G100" s="3">
-        <v>-531300</v>
+        <v>-446500</v>
       </c>
       <c r="H100" s="3">
-        <v>-660500</v>
+        <v>-514400</v>
       </c>
       <c r="I100" s="3">
-        <v>-106100</v>
+        <v>-639500</v>
       </c>
       <c r="J100" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-261700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>363600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-431900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>305300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-522600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>409300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-408800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>466900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-341500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>246200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-372500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2673000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-763500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>417200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>26200</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>4900</v>
       </c>
       <c r="F101" s="3">
-        <v>-10200</v>
+        <v>12000</v>
       </c>
       <c r="G101" s="3">
-        <v>22900</v>
+        <v>-9900</v>
       </c>
       <c r="H101" s="3">
-        <v>12300</v>
+        <v>22200</v>
       </c>
       <c r="I101" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-24800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>62300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-40600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-66000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>69000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-66000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>337200</v>
+        <v>-15300</v>
       </c>
       <c r="E102" s="3">
-        <v>-63800</v>
+        <v>326500</v>
       </c>
       <c r="F102" s="3">
-        <v>218000</v>
+        <v>-61800</v>
       </c>
       <c r="G102" s="3">
-        <v>-153300</v>
+        <v>211100</v>
       </c>
       <c r="H102" s="3">
-        <v>-181900</v>
+        <v>-148400</v>
       </c>
       <c r="I102" s="3">
-        <v>66000</v>
+        <v>-176100</v>
       </c>
       <c r="J102" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K102" s="3">
         <v>563600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>188100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-280200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>412300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>206500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-179800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-189000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>97400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>278000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-125700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>416200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,249 +665,259 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6169600</v>
+        <v>6135800</v>
       </c>
       <c r="E8" s="3">
-        <v>5485900</v>
+        <v>5634300</v>
       </c>
       <c r="F8" s="3">
-        <v>5529700</v>
+        <v>5010000</v>
       </c>
       <c r="G8" s="3">
-        <v>5768000</v>
+        <v>5050000</v>
       </c>
       <c r="H8" s="3">
-        <v>4739200</v>
+        <v>5267600</v>
       </c>
       <c r="I8" s="3">
-        <v>4256400</v>
+        <v>4328100</v>
       </c>
       <c r="J8" s="3">
+        <v>3887100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3913000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5439500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5593100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5548200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5585500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6790800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6613400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6242700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5872700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6285600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5847500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5403600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5073300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5111600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3819400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4456500</v>
+        <v>4422700</v>
       </c>
       <c r="E9" s="3">
-        <v>3902300</v>
+        <v>4069900</v>
       </c>
       <c r="F9" s="3">
-        <v>4052400</v>
+        <v>3563800</v>
       </c>
       <c r="G9" s="3">
-        <v>4259900</v>
+        <v>3700900</v>
       </c>
       <c r="H9" s="3">
-        <v>3490900</v>
+        <v>3890300</v>
       </c>
       <c r="I9" s="3">
-        <v>3114200</v>
+        <v>3188000</v>
       </c>
       <c r="J9" s="3">
+        <v>2844100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2855200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3983000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4023200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3933000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3914600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4734300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4644500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4266600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4011000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4364100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4072000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3892100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3635600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3643900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2714800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,70 +925,73 @@
         <v>1713100</v>
       </c>
       <c r="E10" s="3">
-        <v>1583600</v>
+        <v>1564500</v>
       </c>
       <c r="F10" s="3">
-        <v>1477300</v>
+        <v>1446200</v>
       </c>
       <c r="G10" s="3">
-        <v>1508100</v>
+        <v>1349100</v>
       </c>
       <c r="H10" s="3">
-        <v>1248300</v>
+        <v>1377300</v>
       </c>
       <c r="I10" s="3">
-        <v>1142100</v>
+        <v>1140000</v>
       </c>
       <c r="J10" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1057800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1456500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1569900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1615200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1670900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2056500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1968800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1976100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1861700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1921400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1775500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1511500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1437700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1467700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1104600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,13 +1163,16 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>10700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1160,11 +1180,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>20500</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1181,8 +1201,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1190,8 +1210,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1208,17 +1228,20 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>15500</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5423400</v>
+        <v>5409300</v>
       </c>
       <c r="E17" s="3">
-        <v>4850200</v>
+        <v>4952900</v>
       </c>
       <c r="F17" s="3">
-        <v>5003000</v>
+        <v>4429400</v>
       </c>
       <c r="G17" s="3">
-        <v>5258000</v>
+        <v>4569000</v>
       </c>
       <c r="H17" s="3">
-        <v>4336600</v>
+        <v>4801800</v>
       </c>
       <c r="I17" s="3">
-        <v>3971300</v>
+        <v>3960400</v>
       </c>
       <c r="J17" s="3">
+        <v>3626700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3683400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5061800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4993300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4930400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5810800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5711600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5274100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4999600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5531700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5170900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4865900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4606000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4516700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3438900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>746200</v>
+        <v>726400</v>
       </c>
       <c r="E18" s="3">
-        <v>635800</v>
+        <v>681500</v>
       </c>
       <c r="F18" s="3">
-        <v>526700</v>
+        <v>580600</v>
       </c>
       <c r="G18" s="3">
-        <v>510000</v>
+        <v>481000</v>
       </c>
       <c r="H18" s="3">
-        <v>402600</v>
+        <v>465800</v>
       </c>
       <c r="I18" s="3">
-        <v>285100</v>
+        <v>367600</v>
       </c>
       <c r="J18" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K18" s="3">
         <v>229600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>377800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>599900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>617800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>684800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>979900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>901800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>968600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>873100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>753900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>676500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>537700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>467400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>594900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>380500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31500</v>
+        <v>78800</v>
       </c>
       <c r="E20" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="F20" s="3">
-        <v>22800</v>
+        <v>25700</v>
       </c>
       <c r="G20" s="3">
-        <v>24100</v>
+        <v>20800</v>
       </c>
       <c r="H20" s="3">
-        <v>6800</v>
+        <v>22000</v>
       </c>
       <c r="I20" s="3">
-        <v>1500</v>
+        <v>6200</v>
       </c>
       <c r="J20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>46200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>37200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>372500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>36500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1044600</v>
+        <v>1095700</v>
       </c>
       <c r="E21" s="3">
-        <v>949800</v>
+        <v>954000</v>
       </c>
       <c r="F21" s="3">
-        <v>841700</v>
+        <v>867400</v>
       </c>
       <c r="G21" s="3">
-        <v>831500</v>
+        <v>768600</v>
       </c>
       <c r="H21" s="3">
-        <v>695600</v>
+        <v>759300</v>
       </c>
       <c r="I21" s="3">
-        <v>567200</v>
+        <v>635200</v>
       </c>
       <c r="J21" s="3">
+        <v>517900</v>
+      </c>
+      <c r="K21" s="3">
         <v>547300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>645500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>911300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>916800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>973100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1337600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1176100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1281800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1193400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1052800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>992600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1205300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>763800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>821800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>643700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28700</v>
+        <v>24200</v>
       </c>
       <c r="E22" s="3">
-        <v>23700</v>
+        <v>26200</v>
       </c>
       <c r="F22" s="3">
-        <v>25300</v>
+        <v>21700</v>
       </c>
       <c r="G22" s="3">
-        <v>27300</v>
+        <v>23100</v>
       </c>
       <c r="H22" s="3">
-        <v>27000</v>
+        <v>24900</v>
       </c>
       <c r="I22" s="3">
-        <v>30400</v>
+        <v>24600</v>
       </c>
       <c r="J22" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K22" s="3">
         <v>32800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>32300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>22400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>16300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>749000</v>
+        <v>781000</v>
       </c>
       <c r="E23" s="3">
-        <v>640200</v>
+        <v>684000</v>
       </c>
       <c r="F23" s="3">
-        <v>524200</v>
+        <v>584700</v>
       </c>
       <c r="G23" s="3">
-        <v>506800</v>
+        <v>478700</v>
       </c>
       <c r="H23" s="3">
-        <v>382400</v>
+        <v>462900</v>
       </c>
       <c r="I23" s="3">
-        <v>256200</v>
+        <v>349200</v>
       </c>
       <c r="J23" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K23" s="3">
         <v>243100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>292400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>562200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>563400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>612900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>956100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>806800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>925000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>844800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>691300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>643900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>868000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>434800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>560600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>197000</v>
+        <v>239800</v>
       </c>
       <c r="E24" s="3">
-        <v>176300</v>
+        <v>179900</v>
       </c>
       <c r="F24" s="3">
-        <v>153800</v>
+        <v>161000</v>
       </c>
       <c r="G24" s="3">
-        <v>136200</v>
+        <v>140500</v>
       </c>
       <c r="H24" s="3">
-        <v>118100</v>
+        <v>124400</v>
       </c>
       <c r="I24" s="3">
-        <v>62100</v>
+        <v>107900</v>
       </c>
       <c r="J24" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K24" s="3">
         <v>83700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>129800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>163500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>163300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>239900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>227500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>274200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>254700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>293100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>142000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>259900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>85900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>135000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>124400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>552000</v>
+        <v>541100</v>
       </c>
       <c r="E26" s="3">
-        <v>463900</v>
+        <v>504100</v>
       </c>
       <c r="F26" s="3">
-        <v>370400</v>
+        <v>423700</v>
       </c>
       <c r="G26" s="3">
-        <v>370600</v>
+        <v>338300</v>
       </c>
       <c r="H26" s="3">
-        <v>264300</v>
+        <v>338400</v>
       </c>
       <c r="I26" s="3">
-        <v>194100</v>
+        <v>241300</v>
       </c>
       <c r="J26" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K26" s="3">
         <v>159300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>177900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>432300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>399900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>449600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>716200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>579400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>650800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>590100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>398100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>501800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>608200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>348900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>425700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>276200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>531900</v>
+        <v>540800</v>
       </c>
       <c r="E27" s="3">
-        <v>445700</v>
+        <v>485800</v>
       </c>
       <c r="F27" s="3">
-        <v>348800</v>
+        <v>407000</v>
       </c>
       <c r="G27" s="3">
-        <v>343400</v>
+        <v>318500</v>
       </c>
       <c r="H27" s="3">
-        <v>244700</v>
+        <v>313600</v>
       </c>
       <c r="I27" s="3">
-        <v>179500</v>
+        <v>223400</v>
       </c>
       <c r="J27" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K27" s="3">
         <v>138600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>411800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>391400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>434900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>694700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>555200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>579800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>572400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>373800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>481900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>590900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>329000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>399600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>273300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31500</v>
+        <v>-78800</v>
       </c>
       <c r="E32" s="3">
-        <v>-28200</v>
+        <v>-28800</v>
       </c>
       <c r="F32" s="3">
-        <v>-22800</v>
+        <v>-25700</v>
       </c>
       <c r="G32" s="3">
-        <v>-24100</v>
+        <v>-20800</v>
       </c>
       <c r="H32" s="3">
-        <v>-6800</v>
+        <v>-22000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1500</v>
+        <v>-6200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-46200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-37200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-372500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-36500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>531900</v>
+        <v>540800</v>
       </c>
       <c r="E33" s="3">
-        <v>445700</v>
+        <v>485800</v>
       </c>
       <c r="F33" s="3">
-        <v>348800</v>
+        <v>407000</v>
       </c>
       <c r="G33" s="3">
-        <v>343400</v>
+        <v>318500</v>
       </c>
       <c r="H33" s="3">
-        <v>244700</v>
+        <v>313600</v>
       </c>
       <c r="I33" s="3">
-        <v>179500</v>
+        <v>223400</v>
       </c>
       <c r="J33" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K33" s="3">
         <v>138600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>163700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>411800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>391400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>434900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>694700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>555200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>579800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>572400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>373800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>481900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>590900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>329000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>399600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>273300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>531900</v>
+        <v>540800</v>
       </c>
       <c r="E35" s="3">
-        <v>445700</v>
+        <v>485800</v>
       </c>
       <c r="F35" s="3">
-        <v>348800</v>
+        <v>407000</v>
       </c>
       <c r="G35" s="3">
-        <v>343400</v>
+        <v>318500</v>
       </c>
       <c r="H35" s="3">
-        <v>244700</v>
+        <v>313600</v>
       </c>
       <c r="I35" s="3">
-        <v>179500</v>
+        <v>223400</v>
       </c>
       <c r="J35" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K35" s="3">
         <v>138600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>163700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>411800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>391400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>434900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>694700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>555200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>579800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>572400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>373800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>481900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>590900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>329000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>399600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>273300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2331300</v>
+        <v>2466900</v>
       </c>
       <c r="E41" s="3">
-        <v>2337200</v>
+        <v>2129100</v>
       </c>
       <c r="F41" s="3">
-        <v>2011100</v>
+        <v>2134500</v>
       </c>
       <c r="G41" s="3">
-        <v>2073900</v>
+        <v>1836600</v>
       </c>
       <c r="H41" s="3">
-        <v>1863700</v>
+        <v>1894000</v>
       </c>
       <c r="I41" s="3">
-        <v>2011800</v>
+        <v>1702100</v>
       </c>
       <c r="J41" s="3">
+        <v>1837300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2194200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2199600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1689900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1514000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1792800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1449300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1421600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1196300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1343400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1327600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1516900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1482200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1381200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1083800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1209600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7270200</v>
+        <v>7436200</v>
       </c>
       <c r="E43" s="3">
-        <v>6797000</v>
+        <v>6639500</v>
       </c>
       <c r="F43" s="3">
-        <v>6720800</v>
+        <v>6207300</v>
       </c>
       <c r="G43" s="3">
-        <v>7000600</v>
+        <v>6137800</v>
       </c>
       <c r="H43" s="3">
-        <v>5875900</v>
+        <v>6393200</v>
       </c>
       <c r="I43" s="3">
-        <v>5714300</v>
+        <v>5366100</v>
       </c>
       <c r="J43" s="3">
+        <v>5218600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5668600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6558100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7002300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6799600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7109800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8093400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7464600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7593000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7131300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7166100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6920900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6481500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5949400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5492900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5117000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7688500</v>
+        <v>7696600</v>
       </c>
       <c r="E44" s="3">
-        <v>7244000</v>
+        <v>7021500</v>
       </c>
       <c r="F44" s="3">
-        <v>6986500</v>
+        <v>6615500</v>
       </c>
       <c r="G44" s="3">
-        <v>6771600</v>
+        <v>6380400</v>
       </c>
       <c r="H44" s="3">
-        <v>7011300</v>
+        <v>6184100</v>
       </c>
       <c r="I44" s="3">
-        <v>7155800</v>
+        <v>6403100</v>
       </c>
       <c r="J44" s="3">
+        <v>6535000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7393100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7094800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8199300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8217800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8015200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8048900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7793600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7851600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7246200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6601800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6847600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6441600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6211000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4735700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5252300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1396000</v>
+        <v>1262100</v>
       </c>
       <c r="E45" s="3">
-        <v>1172400</v>
+        <v>1274900</v>
       </c>
       <c r="F45" s="3">
-        <v>1188000</v>
+        <v>1070700</v>
       </c>
       <c r="G45" s="3">
-        <v>1122700</v>
+        <v>1084900</v>
       </c>
       <c r="H45" s="3">
-        <v>1120200</v>
+        <v>1025300</v>
       </c>
       <c r="I45" s="3">
-        <v>1121100</v>
+        <v>1023000</v>
       </c>
       <c r="J45" s="3">
+        <v>1023800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1269500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1298700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1368900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1225300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1322900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1330200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1291000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1205900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1188900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1154700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1105700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1052800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1084600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1278800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1242800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18686000</v>
+        <v>18861800</v>
       </c>
       <c r="E46" s="3">
-        <v>17550600</v>
+        <v>17064900</v>
       </c>
       <c r="F46" s="3">
-        <v>16906500</v>
+        <v>16028000</v>
       </c>
       <c r="G46" s="3">
-        <v>16968700</v>
+        <v>15439800</v>
       </c>
       <c r="H46" s="3">
-        <v>15871200</v>
+        <v>15496600</v>
       </c>
       <c r="I46" s="3">
-        <v>16003000</v>
+        <v>14494300</v>
       </c>
       <c r="J46" s="3">
+        <v>14614700</v>
+      </c>
+      <c r="K46" s="3">
         <v>16525500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17151200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18260400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17756700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18240800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18921700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17970800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17846800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16909800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16250200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16391200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15458100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14626200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12591200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12821700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4510700</v>
+        <v>4332500</v>
       </c>
       <c r="E47" s="3">
-        <v>4318700</v>
+        <v>4119400</v>
       </c>
       <c r="F47" s="3">
-        <v>4446500</v>
+        <v>3944000</v>
       </c>
       <c r="G47" s="3">
-        <v>4217100</v>
+        <v>4060700</v>
       </c>
       <c r="H47" s="3">
-        <v>4088500</v>
+        <v>3851200</v>
       </c>
       <c r="I47" s="3">
-        <v>4029100</v>
+        <v>3733800</v>
       </c>
       <c r="J47" s="3">
+        <v>3679600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4108100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4109500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4302400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4281700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4254400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4431700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3945800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4110500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3870100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3656300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3775100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3603400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3962700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3654400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3553700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7247000</v>
+        <v>6865100</v>
       </c>
       <c r="E48" s="3">
-        <v>7149800</v>
+        <v>6618300</v>
       </c>
       <c r="F48" s="3">
-        <v>7140700</v>
+        <v>6529500</v>
       </c>
       <c r="G48" s="3">
-        <v>7210400</v>
+        <v>6521200</v>
       </c>
       <c r="H48" s="3">
-        <v>6991000</v>
+        <v>6584900</v>
       </c>
       <c r="I48" s="3">
-        <v>6925900</v>
+        <v>6384500</v>
       </c>
       <c r="J48" s="3">
+        <v>6325100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6898700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7146100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7436500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7400100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7454200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7461400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7167800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7111300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6849300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6694400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6941200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6903500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6874400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6023000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6087900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2893900</v>
+        <v>2778100</v>
       </c>
       <c r="E49" s="3">
-        <v>2846600</v>
+        <v>2642900</v>
       </c>
       <c r="F49" s="3">
-        <v>2878000</v>
+        <v>2599700</v>
       </c>
       <c r="G49" s="3">
-        <v>2897400</v>
+        <v>2628400</v>
       </c>
       <c r="H49" s="3">
-        <v>2758200</v>
+        <v>2646000</v>
       </c>
       <c r="I49" s="3">
-        <v>2743900</v>
+        <v>2518900</v>
       </c>
       <c r="J49" s="3">
+        <v>2505800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2768200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2815500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3096100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3079300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2972100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3155200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3161900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3289100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3137100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2975000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3245200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3273300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3281300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>897200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>891700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1015800</v>
+        <v>1029800</v>
       </c>
       <c r="E52" s="3">
-        <v>1004700</v>
+        <v>927700</v>
       </c>
       <c r="F52" s="3">
-        <v>960400</v>
+        <v>917600</v>
       </c>
       <c r="G52" s="3">
-        <v>991200</v>
+        <v>877100</v>
       </c>
       <c r="H52" s="3">
-        <v>939400</v>
+        <v>905200</v>
       </c>
       <c r="I52" s="3">
-        <v>958900</v>
+        <v>857900</v>
       </c>
       <c r="J52" s="3">
+        <v>875700</v>
+      </c>
+      <c r="K52" s="3">
         <v>926900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>966700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>877800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>911400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>893200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>993200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>881500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>914100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>875400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>911800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>925500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>867000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>685400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>397300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>395700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34353500</v>
+        <v>33867200</v>
       </c>
       <c r="E54" s="3">
-        <v>32870400</v>
+        <v>31373300</v>
       </c>
       <c r="F54" s="3">
-        <v>32332000</v>
+        <v>30018800</v>
       </c>
       <c r="G54" s="3">
-        <v>32284700</v>
+        <v>29527100</v>
       </c>
       <c r="H54" s="3">
-        <v>30648200</v>
+        <v>29483900</v>
       </c>
       <c r="I54" s="3">
-        <v>30660900</v>
+        <v>27989400</v>
       </c>
       <c r="J54" s="3">
+        <v>28001000</v>
+      </c>
+      <c r="K54" s="3">
         <v>31227300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32189000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33973200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33429200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33814600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34963300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33127800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33271700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31641700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30487700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31278300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30105200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29429900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>23563000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23750700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2448100</v>
+        <v>2640600</v>
       </c>
       <c r="E57" s="3">
-        <v>2294100</v>
+        <v>2235700</v>
       </c>
       <c r="F57" s="3">
-        <v>2215300</v>
+        <v>2095100</v>
       </c>
       <c r="G57" s="3">
-        <v>2203400</v>
+        <v>2023100</v>
       </c>
       <c r="H57" s="3">
-        <v>1858800</v>
+        <v>2012300</v>
       </c>
       <c r="I57" s="3">
-        <v>1655300</v>
+        <v>1697600</v>
       </c>
       <c r="J57" s="3">
+        <v>1511700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1742400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1939600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2091700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2278800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2338800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2565400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2413100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2557500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2485200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2744100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2742000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2594600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2526300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2129800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1891800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4469400</v>
+        <v>4038100</v>
       </c>
       <c r="E58" s="3">
-        <v>3841900</v>
+        <v>4081600</v>
       </c>
       <c r="F58" s="3">
-        <v>3444900</v>
+        <v>3508600</v>
       </c>
       <c r="G58" s="3">
-        <v>3151500</v>
+        <v>3146100</v>
       </c>
       <c r="H58" s="3">
-        <v>3407900</v>
+        <v>2878100</v>
       </c>
       <c r="I58" s="3">
-        <v>3733000</v>
+        <v>3112300</v>
       </c>
       <c r="J58" s="3">
+        <v>3409100</v>
+      </c>
+      <c r="K58" s="3">
         <v>5190700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5308400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5845400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5004000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4708300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4403400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4835900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3995900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4127800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2982300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3226400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2743000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4866100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1932300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2705700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3372000</v>
+        <v>3635400</v>
       </c>
       <c r="E59" s="3">
-        <v>3191400</v>
+        <v>3079400</v>
       </c>
       <c r="F59" s="3">
-        <v>3030200</v>
+        <v>2914600</v>
       </c>
       <c r="G59" s="3">
-        <v>3114200</v>
+        <v>2767300</v>
       </c>
       <c r="H59" s="3">
-        <v>2938200</v>
+        <v>2844000</v>
       </c>
       <c r="I59" s="3">
-        <v>2885800</v>
+        <v>2683300</v>
       </c>
       <c r="J59" s="3">
+        <v>2635500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2809300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2959500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3169700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3262900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3290300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3430500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3011500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3336600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3020600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3220100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3131200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2985200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2675700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2148500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1977100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10289400</v>
+        <v>10314100</v>
       </c>
       <c r="E60" s="3">
-        <v>9327500</v>
+        <v>9396800</v>
       </c>
       <c r="F60" s="3">
-        <v>8690500</v>
+        <v>8518300</v>
       </c>
       <c r="G60" s="3">
-        <v>8469200</v>
+        <v>7936600</v>
       </c>
       <c r="H60" s="3">
-        <v>8204900</v>
+        <v>7734400</v>
       </c>
       <c r="I60" s="3">
-        <v>8274100</v>
+        <v>7493100</v>
       </c>
       <c r="J60" s="3">
+        <v>7556300</v>
+      </c>
+      <c r="K60" s="3">
         <v>9742300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10207500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11106800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10545700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10337400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10399400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10260500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9890100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9633600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8946500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9099600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8322800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10068000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6210600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6574700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3412100</v>
+        <v>3342000</v>
       </c>
       <c r="E61" s="3">
-        <v>3532800</v>
+        <v>3116100</v>
       </c>
       <c r="F61" s="3">
-        <v>4277400</v>
+        <v>3226300</v>
       </c>
       <c r="G61" s="3">
-        <v>4610600</v>
+        <v>3906300</v>
       </c>
       <c r="H61" s="3">
-        <v>4408800</v>
+        <v>4210600</v>
       </c>
       <c r="I61" s="3">
-        <v>4507500</v>
+        <v>4026400</v>
       </c>
       <c r="J61" s="3">
+        <v>4116400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3747600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3610700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3704600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3739100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4491900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4540600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4285500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4526300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4365800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4345500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4771500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4645600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2829700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1692900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1742600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2001300</v>
+        <v>1855700</v>
       </c>
       <c r="E62" s="3">
-        <v>1978900</v>
+        <v>1827700</v>
       </c>
       <c r="F62" s="3">
-        <v>2038800</v>
+        <v>1807300</v>
       </c>
       <c r="G62" s="3">
-        <v>2042300</v>
+        <v>1861900</v>
       </c>
       <c r="H62" s="3">
-        <v>1894700</v>
+        <v>1865200</v>
       </c>
       <c r="I62" s="3">
-        <v>1956300</v>
+        <v>1730300</v>
       </c>
       <c r="J62" s="3">
+        <v>1786600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1929800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2017500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1936900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1955600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1946800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1736800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1588900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1545500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1485000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1433600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1437400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1448700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1400700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1037100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1041600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16749500</v>
+        <v>16475900</v>
       </c>
       <c r="E66" s="3">
-        <v>15829800</v>
+        <v>15296500</v>
       </c>
       <c r="F66" s="3">
-        <v>15853400</v>
+        <v>14456500</v>
       </c>
       <c r="G66" s="3">
-        <v>15972800</v>
+        <v>14478000</v>
       </c>
       <c r="H66" s="3">
-        <v>15298500</v>
+        <v>14587100</v>
       </c>
       <c r="I66" s="3">
-        <v>15498000</v>
+        <v>13971300</v>
       </c>
       <c r="J66" s="3">
+        <v>14153500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16184500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16581100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17541800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16997900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17543800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17515500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16912800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16751000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16218100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15440300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16046200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15109600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14968700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9577900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9984500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16044800</v>
+        <v>15193600</v>
       </c>
       <c r="E72" s="3">
-        <v>15835500</v>
+        <v>14652800</v>
       </c>
       <c r="F72" s="3">
-        <v>15389800</v>
+        <v>14461700</v>
       </c>
       <c r="G72" s="3">
-        <v>15339400</v>
+        <v>14054700</v>
       </c>
       <c r="H72" s="3">
-        <v>14996000</v>
+        <v>14008700</v>
       </c>
       <c r="I72" s="3">
-        <v>14896500</v>
+        <v>13695100</v>
       </c>
       <c r="J72" s="3">
+        <v>13604200</v>
+      </c>
+      <c r="K72" s="3">
         <v>14720100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15384800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15739500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15939800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15497700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16338300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15366800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15023600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14132800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13901600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13527900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13353100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12762200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12442100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12042600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17604000</v>
+        <v>17391300</v>
       </c>
       <c r="E76" s="3">
-        <v>17040600</v>
+        <v>16076800</v>
       </c>
       <c r="F76" s="3">
-        <v>16478600</v>
+        <v>15562300</v>
       </c>
       <c r="G76" s="3">
-        <v>16311900</v>
+        <v>15049100</v>
       </c>
       <c r="H76" s="3">
-        <v>15349700</v>
+        <v>14896800</v>
       </c>
       <c r="I76" s="3">
-        <v>15162900</v>
+        <v>14018100</v>
       </c>
       <c r="J76" s="3">
+        <v>13847500</v>
+      </c>
+      <c r="K76" s="3">
         <v>15042800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15607800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16431500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16431400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16270800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17447700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16215000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16520700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15423500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15047400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15232100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14995700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14461200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13985100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13766200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>531900</v>
+        <v>540800</v>
       </c>
       <c r="E81" s="3">
-        <v>445700</v>
+        <v>485800</v>
       </c>
       <c r="F81" s="3">
-        <v>348800</v>
+        <v>407000</v>
       </c>
       <c r="G81" s="3">
-        <v>343400</v>
+        <v>318500</v>
       </c>
       <c r="H81" s="3">
-        <v>244700</v>
+        <v>313600</v>
       </c>
       <c r="I81" s="3">
-        <v>179500</v>
+        <v>223400</v>
       </c>
       <c r="J81" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K81" s="3">
         <v>138600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>163700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>411800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>391400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>434900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>694700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>555200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>579800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>572400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>373800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>481900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>590900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>329000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>399600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>273300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>266900</v>
+        <v>290500</v>
       </c>
       <c r="E83" s="3">
-        <v>285800</v>
+        <v>243800</v>
       </c>
       <c r="F83" s="3">
-        <v>292200</v>
+        <v>261100</v>
       </c>
       <c r="G83" s="3">
-        <v>297400</v>
+        <v>266800</v>
       </c>
       <c r="H83" s="3">
-        <v>286200</v>
+        <v>271600</v>
       </c>
       <c r="I83" s="3">
-        <v>280600</v>
+        <v>261400</v>
       </c>
       <c r="J83" s="3">
+        <v>256200</v>
+      </c>
+      <c r="K83" s="3">
         <v>271400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>302800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>296400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>294100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>299300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>320500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>309400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>301200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>299200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>316900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>301900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>295000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>296800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>238900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>226700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>234000</v>
+        <v>904500</v>
       </c>
       <c r="E89" s="3">
-        <v>791900</v>
+        <v>213700</v>
       </c>
       <c r="F89" s="3">
-        <v>551000</v>
+        <v>723200</v>
       </c>
       <c r="G89" s="3">
-        <v>978800</v>
+        <v>503200</v>
       </c>
       <c r="H89" s="3">
-        <v>740800</v>
+        <v>893900</v>
       </c>
       <c r="I89" s="3">
-        <v>831700</v>
+        <v>676500</v>
       </c>
       <c r="J89" s="3">
+        <v>759600</v>
+      </c>
+      <c r="K89" s="3">
         <v>469400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1208900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>202300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>715400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>530400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>982200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>259100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>677800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>603600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>357400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>376500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>971600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>448000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-354300</v>
+        <v>-304900</v>
       </c>
       <c r="E91" s="3">
-        <v>-377900</v>
+        <v>-323600</v>
       </c>
       <c r="F91" s="3">
-        <v>-323900</v>
+        <v>-345200</v>
       </c>
       <c r="G91" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-345200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-404800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-317900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-397700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-434800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-403000</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-453500</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-552400</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-411600</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-382200</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-389600</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-331300</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-390900</v>
+      </c>
+      <c r="X91" s="3">
         <v>-378000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-443200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-409500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-317900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-397700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-434800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-439600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-403000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-453500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-552400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-411600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-382200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-288700</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-389600</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-331300</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-390900</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-378000</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-296900</v>
+        <v>-307400</v>
       </c>
       <c r="E94" s="3">
-        <v>-338100</v>
+        <v>-271100</v>
       </c>
       <c r="F94" s="3">
-        <v>-253000</v>
+        <v>-308800</v>
       </c>
       <c r="G94" s="3">
-        <v>-311400</v>
+        <v>-231100</v>
       </c>
       <c r="H94" s="3">
-        <v>-396900</v>
+        <v>-284400</v>
       </c>
       <c r="I94" s="3">
-        <v>-380300</v>
+        <v>-362500</v>
       </c>
       <c r="J94" s="3">
+        <v>-347300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-302300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-366600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-388200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-542900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-436300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-432300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-524300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-408300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-388400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-520100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-228800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>103500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-347600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-383000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-322700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-294700</v>
       </c>
       <c r="F96" s="3">
-        <v>-298400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-272500</v>
       </c>
       <c r="H96" s="3">
-        <v>-145200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-132600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-314400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-473400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-510400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-454600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-411800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-307100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-247400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-242700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21400</v>
+        <v>-290400</v>
       </c>
       <c r="E100" s="3">
-        <v>-132200</v>
+        <v>19500</v>
       </c>
       <c r="F100" s="3">
-        <v>-371900</v>
+        <v>-120700</v>
       </c>
       <c r="G100" s="3">
-        <v>-446500</v>
+        <v>-339600</v>
       </c>
       <c r="H100" s="3">
-        <v>-514400</v>
+        <v>-407800</v>
       </c>
       <c r="I100" s="3">
-        <v>-639500</v>
+        <v>-469800</v>
       </c>
       <c r="J100" s="3">
+        <v>-584000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-102700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-261700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>363600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-431900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>305300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-522600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>409300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-408800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>466900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-341500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>246200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-372500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2673000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-763500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>417200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26200</v>
+        <v>38700</v>
       </c>
       <c r="E101" s="3">
-        <v>4900</v>
+        <v>23900</v>
       </c>
       <c r="F101" s="3">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="G101" s="3">
-        <v>-9900</v>
+        <v>11000</v>
       </c>
       <c r="H101" s="3">
-        <v>22200</v>
+        <v>-9000</v>
       </c>
       <c r="I101" s="3">
-        <v>11900</v>
+        <v>20200</v>
       </c>
       <c r="J101" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-24800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>62300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-40600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-66000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>69000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15300</v>
+        <v>345300</v>
       </c>
       <c r="E102" s="3">
-        <v>326500</v>
+        <v>-14000</v>
       </c>
       <c r="F102" s="3">
-        <v>-61800</v>
+        <v>298100</v>
       </c>
       <c r="G102" s="3">
-        <v>211100</v>
+        <v>-56500</v>
       </c>
       <c r="H102" s="3">
-        <v>-148400</v>
+        <v>192800</v>
       </c>
       <c r="I102" s="3">
-        <v>-176100</v>
+        <v>-135500</v>
       </c>
       <c r="J102" s="3">
+        <v>-160800</v>
+      </c>
+      <c r="K102" s="3">
         <v>63900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>563600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>188100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-280200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>412300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>206500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-179800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-189000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>97400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>278000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-125700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>416200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6135800</v>
+        <v>5598700</v>
       </c>
       <c r="E8" s="3">
-        <v>5634300</v>
+        <v>5773400</v>
       </c>
       <c r="F8" s="3">
-        <v>5010000</v>
+        <v>5301600</v>
       </c>
       <c r="G8" s="3">
-        <v>5050000</v>
+        <v>4714200</v>
       </c>
       <c r="H8" s="3">
-        <v>5267600</v>
+        <v>4751800</v>
       </c>
       <c r="I8" s="3">
-        <v>4328100</v>
+        <v>4956600</v>
       </c>
       <c r="J8" s="3">
+        <v>4072500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3887100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3913000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5439500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5593100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5548200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5585500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6790800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6613400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6242700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5872700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6285600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5847500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5403600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5073300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5111600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3819400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4422700</v>
+        <v>3997800</v>
       </c>
       <c r="E9" s="3">
-        <v>4069900</v>
+        <v>4161500</v>
       </c>
       <c r="F9" s="3">
-        <v>3563800</v>
+        <v>3829500</v>
       </c>
       <c r="G9" s="3">
-        <v>3700900</v>
+        <v>3353300</v>
       </c>
       <c r="H9" s="3">
-        <v>3890300</v>
+        <v>3482300</v>
       </c>
       <c r="I9" s="3">
-        <v>3188000</v>
+        <v>3660600</v>
       </c>
       <c r="J9" s="3">
+        <v>2999800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2844100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2855200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3983000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4023200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3933000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3914600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4734300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4644500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4266600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4011000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4364100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4072000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3892100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3635600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3643900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2714800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1713100</v>
+        <v>1600900</v>
       </c>
       <c r="E10" s="3">
-        <v>1564500</v>
+        <v>1611900</v>
       </c>
       <c r="F10" s="3">
-        <v>1446200</v>
+        <v>1472100</v>
       </c>
       <c r="G10" s="3">
-        <v>1349100</v>
+        <v>1360800</v>
       </c>
       <c r="H10" s="3">
-        <v>1377300</v>
+        <v>1269400</v>
       </c>
       <c r="I10" s="3">
-        <v>1140000</v>
+        <v>1296000</v>
       </c>
       <c r="J10" s="3">
+        <v>1072700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1043000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1057800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1456500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1569900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1615200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1670900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2056500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1968800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1976100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1861700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1921400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1775500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1511500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1437700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1467700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1104600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,16 +1183,19 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>10700</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1183,11 +1203,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>17600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1213,8 +1233,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1231,17 +1251,20 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>15500</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5409300</v>
+        <v>4912900</v>
       </c>
       <c r="E17" s="3">
-        <v>4952900</v>
+        <v>5089900</v>
       </c>
       <c r="F17" s="3">
-        <v>4429400</v>
+        <v>4660400</v>
       </c>
       <c r="G17" s="3">
-        <v>4569000</v>
+        <v>4167800</v>
       </c>
       <c r="H17" s="3">
-        <v>4801800</v>
+        <v>4299200</v>
       </c>
       <c r="I17" s="3">
-        <v>3960400</v>
+        <v>4518300</v>
       </c>
       <c r="J17" s="3">
+        <v>3726600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3626700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3683400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5061800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4993300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4930400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5810800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5711600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5274100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4999600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5531700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5170900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4865900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4606000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4516700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3438900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>726400</v>
+        <v>685800</v>
       </c>
       <c r="E18" s="3">
-        <v>681500</v>
+        <v>683500</v>
       </c>
       <c r="F18" s="3">
-        <v>580600</v>
+        <v>641200</v>
       </c>
       <c r="G18" s="3">
-        <v>481000</v>
+        <v>546300</v>
       </c>
       <c r="H18" s="3">
-        <v>465800</v>
+        <v>452600</v>
       </c>
       <c r="I18" s="3">
-        <v>367600</v>
+        <v>438300</v>
       </c>
       <c r="J18" s="3">
+        <v>345900</v>
+      </c>
+      <c r="K18" s="3">
         <v>260400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>229600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>377800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>599900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>617800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>684800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>979900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>901800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>968600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>873100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>753900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>676500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>537700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>467400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>594900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>380500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>78800</v>
+        <v>172900</v>
       </c>
       <c r="E20" s="3">
-        <v>28800</v>
+        <v>74100</v>
       </c>
       <c r="F20" s="3">
-        <v>25700</v>
+        <v>27100</v>
       </c>
       <c r="G20" s="3">
-        <v>20800</v>
+        <v>24200</v>
       </c>
       <c r="H20" s="3">
-        <v>22000</v>
+        <v>19600</v>
       </c>
       <c r="I20" s="3">
-        <v>6200</v>
+        <v>20700</v>
       </c>
       <c r="J20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>46200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-35100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>37200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>21000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>372500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>36500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1095700</v>
+        <v>1123900</v>
       </c>
       <c r="E21" s="3">
-        <v>954000</v>
+        <v>1031000</v>
       </c>
       <c r="F21" s="3">
-        <v>867400</v>
+        <v>897700</v>
       </c>
       <c r="G21" s="3">
-        <v>768600</v>
+        <v>816200</v>
       </c>
       <c r="H21" s="3">
-        <v>759300</v>
+        <v>723300</v>
       </c>
       <c r="I21" s="3">
-        <v>635200</v>
+        <v>714500</v>
       </c>
       <c r="J21" s="3">
+        <v>597700</v>
+      </c>
+      <c r="K21" s="3">
         <v>517900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>547300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>645500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>911300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>916800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>973100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1337600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1176100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1281800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1193400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1052800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>992600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1205300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>763800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>821800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>643700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24200</v>
+        <v>34200</v>
       </c>
       <c r="E22" s="3">
-        <v>26200</v>
+        <v>22800</v>
       </c>
       <c r="F22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H22" s="3">
         <v>21700</v>
       </c>
-      <c r="G22" s="3">
-        <v>23100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>24900</v>
-      </c>
       <c r="I22" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="J22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K22" s="3">
         <v>27800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>46900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>42200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>32300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>22400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>16300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>781000</v>
+        <v>824400</v>
       </c>
       <c r="E23" s="3">
-        <v>684000</v>
+        <v>734900</v>
       </c>
       <c r="F23" s="3">
-        <v>584700</v>
+        <v>643600</v>
       </c>
       <c r="G23" s="3">
-        <v>478700</v>
+        <v>550200</v>
       </c>
       <c r="H23" s="3">
-        <v>462900</v>
+        <v>450500</v>
       </c>
       <c r="I23" s="3">
-        <v>349200</v>
+        <v>435500</v>
       </c>
       <c r="J23" s="3">
+        <v>328600</v>
+      </c>
+      <c r="K23" s="3">
         <v>234000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>243100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>292400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>562200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>563400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>612900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>956100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>806800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>925000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>844800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>691300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>643900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>868000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>434800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>560600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>239800</v>
+        <v>216300</v>
       </c>
       <c r="E24" s="3">
-        <v>179900</v>
+        <v>225700</v>
       </c>
       <c r="F24" s="3">
-        <v>161000</v>
+        <v>169300</v>
       </c>
       <c r="G24" s="3">
-        <v>140500</v>
+        <v>151500</v>
       </c>
       <c r="H24" s="3">
+        <v>132200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>117100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>56700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>83700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>114500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>129800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>163500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>163300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>239900</v>
+      </c>
+      <c r="R24" s="3">
+        <v>227500</v>
+      </c>
+      <c r="S24" s="3">
+        <v>274200</v>
+      </c>
+      <c r="T24" s="3">
+        <v>254700</v>
+      </c>
+      <c r="U24" s="3">
+        <v>293100</v>
+      </c>
+      <c r="V24" s="3">
+        <v>142000</v>
+      </c>
+      <c r="W24" s="3">
+        <v>259900</v>
+      </c>
+      <c r="X24" s="3">
+        <v>85900</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>124400</v>
       </c>
-      <c r="I24" s="3">
-        <v>107900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>56700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>83700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>114500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>129800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>163500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>163300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>239900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>227500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>274200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>254700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>293100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>142000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>259900</v>
-      </c>
-      <c r="W24" s="3">
-        <v>85900</v>
-      </c>
-      <c r="X24" s="3">
-        <v>135000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>124400</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>541100</v>
+        <v>608100</v>
       </c>
       <c r="E26" s="3">
-        <v>504100</v>
+        <v>509200</v>
       </c>
       <c r="F26" s="3">
-        <v>423700</v>
+        <v>474400</v>
       </c>
       <c r="G26" s="3">
-        <v>338300</v>
+        <v>398700</v>
       </c>
       <c r="H26" s="3">
-        <v>338400</v>
+        <v>318300</v>
       </c>
       <c r="I26" s="3">
-        <v>241300</v>
+        <v>318400</v>
       </c>
       <c r="J26" s="3">
+        <v>227100</v>
+      </c>
+      <c r="K26" s="3">
         <v>177200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>159300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>177900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>432300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>399900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>449600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>716200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>579400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>650800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>590100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>398100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>501800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>608200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>348900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>425700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>276200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>540800</v>
+        <v>589700</v>
       </c>
       <c r="E27" s="3">
-        <v>485800</v>
+        <v>508900</v>
       </c>
       <c r="F27" s="3">
-        <v>407000</v>
+        <v>457100</v>
       </c>
       <c r="G27" s="3">
-        <v>318500</v>
+        <v>383000</v>
       </c>
       <c r="H27" s="3">
-        <v>313600</v>
+        <v>299700</v>
       </c>
       <c r="I27" s="3">
-        <v>223400</v>
+        <v>295100</v>
       </c>
       <c r="J27" s="3">
+        <v>210200</v>
+      </c>
+      <c r="K27" s="3">
         <v>163900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>411800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>391400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>434900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>694700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>555200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>579800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>572400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>373800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>481900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>590900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>329000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>399600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>273300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-78800</v>
+        <v>-172900</v>
       </c>
       <c r="E32" s="3">
-        <v>-28800</v>
+        <v>-74100</v>
       </c>
       <c r="F32" s="3">
-        <v>-25700</v>
+        <v>-27100</v>
       </c>
       <c r="G32" s="3">
-        <v>-20800</v>
+        <v>-24200</v>
       </c>
       <c r="H32" s="3">
-        <v>-22000</v>
+        <v>-19600</v>
       </c>
       <c r="I32" s="3">
-        <v>-6200</v>
+        <v>-20700</v>
       </c>
       <c r="J32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-46200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>35100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-21000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-372500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>11900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-36500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>540800</v>
+        <v>589700</v>
       </c>
       <c r="E33" s="3">
-        <v>485800</v>
+        <v>508900</v>
       </c>
       <c r="F33" s="3">
-        <v>407000</v>
+        <v>457100</v>
       </c>
       <c r="G33" s="3">
-        <v>318500</v>
+        <v>383000</v>
       </c>
       <c r="H33" s="3">
-        <v>313600</v>
+        <v>299700</v>
       </c>
       <c r="I33" s="3">
-        <v>223400</v>
+        <v>295100</v>
       </c>
       <c r="J33" s="3">
+        <v>210200</v>
+      </c>
+      <c r="K33" s="3">
         <v>163900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>163700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>411800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>391400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>434900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>694700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>555200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>579800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>572400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>373800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>481900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>590900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>329000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>399600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>273300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>540800</v>
+        <v>589700</v>
       </c>
       <c r="E35" s="3">
-        <v>485800</v>
+        <v>508900</v>
       </c>
       <c r="F35" s="3">
-        <v>407000</v>
+        <v>457100</v>
       </c>
       <c r="G35" s="3">
-        <v>318500</v>
+        <v>383000</v>
       </c>
       <c r="H35" s="3">
-        <v>313600</v>
+        <v>299700</v>
       </c>
       <c r="I35" s="3">
-        <v>223400</v>
+        <v>295100</v>
       </c>
       <c r="J35" s="3">
+        <v>210200</v>
+      </c>
+      <c r="K35" s="3">
         <v>163900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>163700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>411800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>391400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>434900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>694700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>555200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>579800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>572400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>373800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>481900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>590900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>329000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>399600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>273300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2466900</v>
+        <v>2819300</v>
       </c>
       <c r="E41" s="3">
-        <v>2129100</v>
+        <v>2321200</v>
       </c>
       <c r="F41" s="3">
-        <v>2134500</v>
+        <v>2003400</v>
       </c>
       <c r="G41" s="3">
-        <v>1836600</v>
+        <v>2008400</v>
       </c>
       <c r="H41" s="3">
-        <v>1894000</v>
+        <v>1728200</v>
       </c>
       <c r="I41" s="3">
-        <v>1702100</v>
+        <v>1782100</v>
       </c>
       <c r="J41" s="3">
+        <v>1601600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1837300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2194200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2199600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1689900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1514000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1792800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1449300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1421600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1196300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1343400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1327600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1516900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1482200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1381200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1083800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1209600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7436200</v>
+        <v>7292900</v>
       </c>
       <c r="E43" s="3">
-        <v>6639500</v>
+        <v>6997100</v>
       </c>
       <c r="F43" s="3">
-        <v>6207300</v>
+        <v>6247400</v>
       </c>
       <c r="G43" s="3">
-        <v>6137800</v>
+        <v>5840800</v>
       </c>
       <c r="H43" s="3">
-        <v>6393200</v>
+        <v>5775300</v>
       </c>
       <c r="I43" s="3">
-        <v>5366100</v>
+        <v>6015700</v>
       </c>
       <c r="J43" s="3">
+        <v>5049300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5218600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5668600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6558100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7002300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6799600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7109800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8093400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7464600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7593000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7131300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7166100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6920900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6481500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5949400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5492900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5117000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7696600</v>
+        <v>8610100</v>
       </c>
       <c r="E44" s="3">
-        <v>7021500</v>
+        <v>7242100</v>
       </c>
       <c r="F44" s="3">
-        <v>6615500</v>
+        <v>6606900</v>
       </c>
       <c r="G44" s="3">
-        <v>6380400</v>
+        <v>6224900</v>
       </c>
       <c r="H44" s="3">
-        <v>6184100</v>
+        <v>6003700</v>
       </c>
       <c r="I44" s="3">
-        <v>6403100</v>
+        <v>5818900</v>
       </c>
       <c r="J44" s="3">
+        <v>6025000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6535000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7393100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7094800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8199300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8217800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8015200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8048900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7793600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7851600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7246200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6601800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6847600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6441600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6211000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4735700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5252300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1262100</v>
+        <v>1373500</v>
       </c>
       <c r="E45" s="3">
-        <v>1274900</v>
+        <v>1187600</v>
       </c>
       <c r="F45" s="3">
-        <v>1070700</v>
+        <v>1199600</v>
       </c>
       <c r="G45" s="3">
-        <v>1084900</v>
+        <v>1007500</v>
       </c>
       <c r="H45" s="3">
-        <v>1025300</v>
+        <v>1020900</v>
       </c>
       <c r="I45" s="3">
-        <v>1023000</v>
+        <v>964700</v>
       </c>
       <c r="J45" s="3">
+        <v>962600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1023800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1269500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1298700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1368900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1225300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1322900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1330200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1291000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1205900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1188900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1154700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1105700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1052800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1084600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1278800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1242800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18861800</v>
+        <v>20095800</v>
       </c>
       <c r="E46" s="3">
-        <v>17064900</v>
+        <v>17748000</v>
       </c>
       <c r="F46" s="3">
-        <v>16028000</v>
+        <v>16057300</v>
       </c>
       <c r="G46" s="3">
-        <v>15439800</v>
+        <v>15081600</v>
       </c>
       <c r="H46" s="3">
-        <v>15496600</v>
+        <v>14528100</v>
       </c>
       <c r="I46" s="3">
-        <v>14494300</v>
+        <v>14581500</v>
       </c>
       <c r="J46" s="3">
+        <v>13638400</v>
+      </c>
+      <c r="K46" s="3">
         <v>14614700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16525500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17151200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18260400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17756700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18240800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18921700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17970800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17846800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16909800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16250200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16391200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15458100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>14626200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12591200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12821700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4332500</v>
+        <v>4684200</v>
       </c>
       <c r="E47" s="3">
-        <v>4119400</v>
+        <v>4076600</v>
       </c>
       <c r="F47" s="3">
-        <v>3944000</v>
+        <v>3876100</v>
       </c>
       <c r="G47" s="3">
-        <v>4060700</v>
+        <v>3711100</v>
       </c>
       <c r="H47" s="3">
-        <v>3851200</v>
+        <v>3820900</v>
       </c>
       <c r="I47" s="3">
-        <v>3733800</v>
+        <v>3623800</v>
       </c>
       <c r="J47" s="3">
+        <v>3513400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3679600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4108100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4109500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4302400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4281700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4254400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4431700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3945800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4110500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3870100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3656300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3775100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3603400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3962700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3654400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3553700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6865100</v>
+        <v>6715000</v>
       </c>
       <c r="E48" s="3">
-        <v>6618300</v>
+        <v>6459700</v>
       </c>
       <c r="F48" s="3">
-        <v>6529500</v>
+        <v>6227500</v>
       </c>
       <c r="G48" s="3">
-        <v>6521200</v>
+        <v>6144000</v>
       </c>
       <c r="H48" s="3">
-        <v>6584900</v>
+        <v>6136100</v>
       </c>
       <c r="I48" s="3">
-        <v>6384500</v>
+        <v>6196100</v>
       </c>
       <c r="J48" s="3">
+        <v>6007500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6325100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6898700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7146100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7436500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7400100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7454200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7461400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7167800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7111300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6849300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6694400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6941200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6903500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6874400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6023000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6087900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2778100</v>
+        <v>2811300</v>
       </c>
       <c r="E49" s="3">
-        <v>2642900</v>
+        <v>2614000</v>
       </c>
       <c r="F49" s="3">
-        <v>2599700</v>
+        <v>2486800</v>
       </c>
       <c r="G49" s="3">
-        <v>2628400</v>
+        <v>2446200</v>
       </c>
       <c r="H49" s="3">
-        <v>2646000</v>
+        <v>2473200</v>
       </c>
       <c r="I49" s="3">
-        <v>2518900</v>
+        <v>2489800</v>
       </c>
       <c r="J49" s="3">
+        <v>2370200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2505800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2768200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2815500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3096100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3079300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2972100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3155200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3161900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3289100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3137100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2975000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3245200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3273300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3281300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>897200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>891700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1029800</v>
+        <v>988300</v>
       </c>
       <c r="E52" s="3">
-        <v>927700</v>
+        <v>969000</v>
       </c>
       <c r="F52" s="3">
-        <v>917600</v>
+        <v>872900</v>
       </c>
       <c r="G52" s="3">
-        <v>877100</v>
+        <v>863400</v>
       </c>
       <c r="H52" s="3">
-        <v>905200</v>
+        <v>825300</v>
       </c>
       <c r="I52" s="3">
-        <v>857900</v>
+        <v>851700</v>
       </c>
       <c r="J52" s="3">
+        <v>807200</v>
+      </c>
+      <c r="K52" s="3">
         <v>875700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>926900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>966700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>877800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>911400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>893200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>993200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>881500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>914100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>875400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>911800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>925500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>867000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>685400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>397300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>395700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33867200</v>
+        <v>35294600</v>
       </c>
       <c r="E54" s="3">
-        <v>31373300</v>
+        <v>31867300</v>
       </c>
       <c r="F54" s="3">
-        <v>30018800</v>
+        <v>29520700</v>
       </c>
       <c r="G54" s="3">
-        <v>29527100</v>
+        <v>28246200</v>
       </c>
       <c r="H54" s="3">
-        <v>29483900</v>
+        <v>27783600</v>
       </c>
       <c r="I54" s="3">
-        <v>27989400</v>
+        <v>27742900</v>
       </c>
       <c r="J54" s="3">
+        <v>26336600</v>
+      </c>
+      <c r="K54" s="3">
         <v>28001000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31227300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32189000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33973200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33429200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33814600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34963300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33127800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33271700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31641700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30487700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31278300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30105200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29429900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>23563000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23750700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2640600</v>
+        <v>2546700</v>
       </c>
       <c r="E57" s="3">
-        <v>2235700</v>
+        <v>2484700</v>
       </c>
       <c r="F57" s="3">
-        <v>2095100</v>
+        <v>2103700</v>
       </c>
       <c r="G57" s="3">
-        <v>2023100</v>
+        <v>1971400</v>
       </c>
       <c r="H57" s="3">
-        <v>2012300</v>
+        <v>1903700</v>
       </c>
       <c r="I57" s="3">
-        <v>1697600</v>
+        <v>1893500</v>
       </c>
       <c r="J57" s="3">
+        <v>1597300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1511700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1742400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1939600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2091700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2278800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2338800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2565400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2413100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2557500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2485200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2744100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2742000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2594600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2526300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2129800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1891800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4038100</v>
+        <v>5047500</v>
       </c>
       <c r="E58" s="3">
-        <v>4081600</v>
+        <v>3799600</v>
       </c>
       <c r="F58" s="3">
-        <v>3508600</v>
+        <v>3840600</v>
       </c>
       <c r="G58" s="3">
-        <v>3146100</v>
+        <v>3301500</v>
       </c>
       <c r="H58" s="3">
-        <v>2878100</v>
+        <v>2960300</v>
       </c>
       <c r="I58" s="3">
-        <v>3112300</v>
+        <v>2708200</v>
       </c>
       <c r="J58" s="3">
+        <v>2928500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3409100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5190700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5308400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5845400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5004000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4708300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4403400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4835900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3995900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4127800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2982300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3226400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2743000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4866100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1932300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2705700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3635400</v>
+        <v>3467100</v>
       </c>
       <c r="E59" s="3">
-        <v>3079400</v>
+        <v>3420700</v>
       </c>
       <c r="F59" s="3">
-        <v>2914600</v>
+        <v>2897600</v>
       </c>
       <c r="G59" s="3">
-        <v>2767300</v>
+        <v>2742400</v>
       </c>
       <c r="H59" s="3">
-        <v>2844000</v>
+        <v>2603900</v>
       </c>
       <c r="I59" s="3">
-        <v>2683300</v>
+        <v>2676100</v>
       </c>
       <c r="J59" s="3">
+        <v>2524800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2635500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2809300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2959500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3169700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3262900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3290300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3430500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3011500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3336600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3020600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3220100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3131200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2985200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2675700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2148500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1977100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10314100</v>
+        <v>11061200</v>
       </c>
       <c r="E60" s="3">
-        <v>9396800</v>
+        <v>9705100</v>
       </c>
       <c r="F60" s="3">
-        <v>8518300</v>
+        <v>8841900</v>
       </c>
       <c r="G60" s="3">
-        <v>7936600</v>
+        <v>8015300</v>
       </c>
       <c r="H60" s="3">
-        <v>7734400</v>
+        <v>7467900</v>
       </c>
       <c r="I60" s="3">
-        <v>7493100</v>
+        <v>7277700</v>
       </c>
       <c r="J60" s="3">
+        <v>7050600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7556300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9742300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10207500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11106800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10545700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10337400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10399400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10260500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9890100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9633600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8946500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9099600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8322800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10068000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6210600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6574700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3342000</v>
+        <v>3483700</v>
       </c>
       <c r="E61" s="3">
-        <v>3116100</v>
+        <v>3144700</v>
       </c>
       <c r="F61" s="3">
-        <v>3226300</v>
+        <v>2932100</v>
       </c>
       <c r="G61" s="3">
-        <v>3906300</v>
+        <v>3035800</v>
       </c>
       <c r="H61" s="3">
-        <v>4210600</v>
+        <v>3675700</v>
       </c>
       <c r="I61" s="3">
-        <v>4026400</v>
+        <v>3962000</v>
       </c>
       <c r="J61" s="3">
+        <v>3788600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4116400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3747600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3610700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3704600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3739100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4491900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4540600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4285500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4526300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4365800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4345500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4771500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4645600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2829700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1692900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1742600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1855700</v>
+        <v>1887100</v>
       </c>
       <c r="E62" s="3">
-        <v>1827700</v>
+        <v>1746100</v>
       </c>
       <c r="F62" s="3">
-        <v>1807300</v>
+        <v>1719800</v>
       </c>
       <c r="G62" s="3">
-        <v>1861900</v>
+        <v>1700500</v>
       </c>
       <c r="H62" s="3">
-        <v>1865200</v>
+        <v>1752000</v>
       </c>
       <c r="I62" s="3">
-        <v>1730300</v>
+        <v>1755000</v>
       </c>
       <c r="J62" s="3">
+        <v>1628100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1786600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1929800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2017500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1936900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1955600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1946800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1736800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1588900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1545500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1485000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1433600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1437400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1448700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1400700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1037100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1041600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16475900</v>
+        <v>17370800</v>
       </c>
       <c r="E66" s="3">
-        <v>15296500</v>
+        <v>15503000</v>
       </c>
       <c r="F66" s="3">
-        <v>14456500</v>
+        <v>14393200</v>
       </c>
       <c r="G66" s="3">
-        <v>14478000</v>
+        <v>13602900</v>
       </c>
       <c r="H66" s="3">
-        <v>14587100</v>
+        <v>13623100</v>
       </c>
       <c r="I66" s="3">
-        <v>13971300</v>
+        <v>13725700</v>
       </c>
       <c r="J66" s="3">
+        <v>13146300</v>
+      </c>
+      <c r="K66" s="3">
         <v>14153500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16184500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16581100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17541800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16997900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17543800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17515500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16912800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16751000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16218100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15440300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16046200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15109600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14968700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9577900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9984500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15193600</v>
+        <v>14498000</v>
       </c>
       <c r="E72" s="3">
-        <v>14652800</v>
+        <v>14296500</v>
       </c>
       <c r="F72" s="3">
-        <v>14461700</v>
+        <v>13787600</v>
       </c>
       <c r="G72" s="3">
-        <v>14054700</v>
+        <v>13607800</v>
       </c>
       <c r="H72" s="3">
-        <v>14008700</v>
+        <v>13224800</v>
       </c>
       <c r="I72" s="3">
-        <v>13695100</v>
+        <v>13181500</v>
       </c>
       <c r="J72" s="3">
+        <v>12886400</v>
+      </c>
+      <c r="K72" s="3">
         <v>13604200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14720100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15384800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15739500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15939800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15497700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16338300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15366800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15023600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14132800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13901600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13527900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13353100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12762200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12442100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12042600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17391300</v>
+        <v>17923800</v>
       </c>
       <c r="E76" s="3">
-        <v>16076800</v>
+        <v>16364300</v>
       </c>
       <c r="F76" s="3">
-        <v>15562300</v>
+        <v>15127500</v>
       </c>
       <c r="G76" s="3">
-        <v>15049100</v>
+        <v>14643300</v>
       </c>
       <c r="H76" s="3">
-        <v>14896800</v>
+        <v>14160400</v>
       </c>
       <c r="I76" s="3">
-        <v>14018100</v>
+        <v>14017100</v>
       </c>
       <c r="J76" s="3">
+        <v>13190300</v>
+      </c>
+      <c r="K76" s="3">
         <v>13847500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15042800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15607800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16431500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16431400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16270800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17447700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16215000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16520700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15423500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15047400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15232100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14995700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14461200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13985100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13766200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>540800</v>
+        <v>589700</v>
       </c>
       <c r="E81" s="3">
-        <v>485800</v>
+        <v>508900</v>
       </c>
       <c r="F81" s="3">
-        <v>407000</v>
+        <v>457100</v>
       </c>
       <c r="G81" s="3">
-        <v>318500</v>
+        <v>383000</v>
       </c>
       <c r="H81" s="3">
-        <v>313600</v>
+        <v>299700</v>
       </c>
       <c r="I81" s="3">
-        <v>223400</v>
+        <v>295100</v>
       </c>
       <c r="J81" s="3">
+        <v>210200</v>
+      </c>
+      <c r="K81" s="3">
         <v>163900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>163700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>411800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>391400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>434900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>694700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>555200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>579800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>572400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>373800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>481900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>590900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>329000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>399600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>273300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>290500</v>
+        <v>265200</v>
       </c>
       <c r="E83" s="3">
-        <v>243800</v>
+        <v>273400</v>
       </c>
       <c r="F83" s="3">
-        <v>261100</v>
+        <v>229400</v>
       </c>
       <c r="G83" s="3">
-        <v>266800</v>
+        <v>245600</v>
       </c>
       <c r="H83" s="3">
-        <v>271600</v>
+        <v>251100</v>
       </c>
       <c r="I83" s="3">
-        <v>261400</v>
+        <v>255500</v>
       </c>
       <c r="J83" s="3">
+        <v>245900</v>
+      </c>
+      <c r="K83" s="3">
         <v>256200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>271400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>302800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>296400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>294100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>299300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>320500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>309400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>301200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>299200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>316900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>301900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>295000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>296800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>238900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>226700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>904500</v>
+        <v>-17200</v>
       </c>
       <c r="E89" s="3">
-        <v>213700</v>
+        <v>851000</v>
       </c>
       <c r="F89" s="3">
-        <v>723200</v>
+        <v>201100</v>
       </c>
       <c r="G89" s="3">
-        <v>503200</v>
+        <v>680500</v>
       </c>
       <c r="H89" s="3">
-        <v>893900</v>
+        <v>473500</v>
       </c>
       <c r="I89" s="3">
-        <v>676500</v>
+        <v>841100</v>
       </c>
       <c r="J89" s="3">
+        <v>636600</v>
+      </c>
+      <c r="K89" s="3">
         <v>759600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>469400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1208900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>202300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>715400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>530400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>982200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>259100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>677800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>603600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>357400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>376500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>971600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>448000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304900</v>
+        <v>-266700</v>
       </c>
       <c r="E91" s="3">
-        <v>-323600</v>
+        <v>-286900</v>
       </c>
       <c r="F91" s="3">
-        <v>-345200</v>
+        <v>-304500</v>
       </c>
       <c r="G91" s="3">
-        <v>-295800</v>
+        <v>-324800</v>
       </c>
       <c r="H91" s="3">
-        <v>-345200</v>
+        <v>-278400</v>
       </c>
       <c r="I91" s="3">
-        <v>-404800</v>
+        <v>-324800</v>
       </c>
       <c r="J91" s="3">
+        <v>-380900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-374000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-317900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-397700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-434800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-439600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-403000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-453500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-552400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-411600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-382200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-288700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-389600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-331300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-390900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-378000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-358000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-307400</v>
+        <v>-245100</v>
       </c>
       <c r="E94" s="3">
-        <v>-271100</v>
+        <v>-289300</v>
       </c>
       <c r="F94" s="3">
-        <v>-308800</v>
+        <v>-255100</v>
       </c>
       <c r="G94" s="3">
-        <v>-231100</v>
+        <v>-290600</v>
       </c>
       <c r="H94" s="3">
-        <v>-284400</v>
+        <v>-217400</v>
       </c>
       <c r="I94" s="3">
-        <v>-362500</v>
+        <v>-267600</v>
       </c>
       <c r="J94" s="3">
+        <v>-341100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-347300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-302300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-366600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-388200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-542900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-436300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-432300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-524300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-408300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-388400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-520100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-228800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>103500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-347600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-383000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-388200</v>
       </c>
       <c r="E96" s="3">
-        <v>-294700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-277300</v>
       </c>
       <c r="G96" s="3">
-        <v>-272500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-256400</v>
       </c>
       <c r="I96" s="3">
-        <v>-132600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-124700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-314400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-473400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-510400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-454600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-411800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-307100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-247400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-242700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-290400</v>
+        <v>536000</v>
       </c>
       <c r="E100" s="3">
-        <v>19500</v>
+        <v>-273300</v>
       </c>
       <c r="F100" s="3">
-        <v>-120700</v>
+        <v>18400</v>
       </c>
       <c r="G100" s="3">
-        <v>-339600</v>
+        <v>-113600</v>
       </c>
       <c r="H100" s="3">
-        <v>-407800</v>
+        <v>-319600</v>
       </c>
       <c r="I100" s="3">
-        <v>-469800</v>
+        <v>-383700</v>
       </c>
       <c r="J100" s="3">
+        <v>-442100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-584000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-102700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-261700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>363600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-431900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>305300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-522600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>409300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-408800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>466900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-341500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>246200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-372500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2673000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-763500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>417200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38700</v>
+        <v>226100</v>
       </c>
       <c r="E101" s="3">
-        <v>23900</v>
+        <v>36400</v>
       </c>
       <c r="F101" s="3">
-        <v>4500</v>
+        <v>22500</v>
       </c>
       <c r="G101" s="3">
-        <v>11000</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-9000</v>
+        <v>10300</v>
       </c>
       <c r="I101" s="3">
-        <v>20200</v>
+        <v>-8500</v>
       </c>
       <c r="J101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K101" s="3">
         <v>10900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>62300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-40600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-66000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>69000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>13800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-66000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>345300</v>
+        <v>499800</v>
       </c>
       <c r="E102" s="3">
-        <v>-14000</v>
+        <v>324900</v>
       </c>
       <c r="F102" s="3">
-        <v>298100</v>
+        <v>-13100</v>
       </c>
       <c r="G102" s="3">
-        <v>-56500</v>
+        <v>280500</v>
       </c>
       <c r="H102" s="3">
-        <v>192800</v>
+        <v>-53100</v>
       </c>
       <c r="I102" s="3">
-        <v>-135500</v>
+        <v>181400</v>
       </c>
       <c r="J102" s="3">
+        <v>-127500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-160800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>63900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>563600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>188100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-280200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>412300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>206500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-179800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-189000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>97400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>278000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-125700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>416200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5598700</v>
+        <v>6061400</v>
       </c>
       <c r="E8" s="3">
-        <v>5773400</v>
+        <v>5415400</v>
       </c>
       <c r="F8" s="3">
-        <v>5301600</v>
+        <v>5584400</v>
       </c>
       <c r="G8" s="3">
-        <v>4714200</v>
+        <v>5128000</v>
       </c>
       <c r="H8" s="3">
-        <v>4751800</v>
+        <v>4559800</v>
       </c>
       <c r="I8" s="3">
-        <v>4956600</v>
+        <v>4596200</v>
       </c>
       <c r="J8" s="3">
+        <v>4794300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4072500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3887100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3913000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5439500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5593100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5548200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5585500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6790800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6613400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6242700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5872700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6285600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5847500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5403600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5073300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5111600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3819400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3997800</v>
+        <v>4268500</v>
       </c>
       <c r="E9" s="3">
-        <v>4161500</v>
+        <v>3866900</v>
       </c>
       <c r="F9" s="3">
-        <v>3829500</v>
+        <v>4025300</v>
       </c>
       <c r="G9" s="3">
-        <v>3353300</v>
+        <v>3704100</v>
       </c>
       <c r="H9" s="3">
-        <v>3482300</v>
+        <v>3243500</v>
       </c>
       <c r="I9" s="3">
-        <v>3660600</v>
+        <v>3368300</v>
       </c>
       <c r="J9" s="3">
+        <v>3540700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2999800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2844100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2855200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3983000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4023200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3933000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3914600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4734300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4644500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4266600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4011000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4364100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4072000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3892100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3635600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3643900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2714800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1600900</v>
+        <v>1792900</v>
       </c>
       <c r="E10" s="3">
-        <v>1611900</v>
+        <v>1548500</v>
       </c>
       <c r="F10" s="3">
-        <v>1472100</v>
+        <v>1559100</v>
       </c>
       <c r="G10" s="3">
-        <v>1360800</v>
+        <v>1423900</v>
       </c>
       <c r="H10" s="3">
-        <v>1269400</v>
+        <v>1316300</v>
       </c>
       <c r="I10" s="3">
-        <v>1296000</v>
+        <v>1227900</v>
       </c>
       <c r="J10" s="3">
+        <v>1253500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1072700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1043000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1057800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1456500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1569900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1615200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1670900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2056500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1968800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1976100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1861700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1921400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1775500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1511500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1437700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1467700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1104600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1206,11 +1226,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1236,8 +1256,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1254,17 +1274,20 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>15500</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4912900</v>
+        <v>5224300</v>
       </c>
       <c r="E17" s="3">
-        <v>5089900</v>
+        <v>4752000</v>
       </c>
       <c r="F17" s="3">
-        <v>4660400</v>
+        <v>4923300</v>
       </c>
       <c r="G17" s="3">
-        <v>4167800</v>
+        <v>4507800</v>
       </c>
       <c r="H17" s="3">
-        <v>4299200</v>
+        <v>4031400</v>
       </c>
       <c r="I17" s="3">
-        <v>4518300</v>
+        <v>4158400</v>
       </c>
       <c r="J17" s="3">
+        <v>4370300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3726600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3626700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3683400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5061800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4993300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4930400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5810800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5711600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5274100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4999600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5531700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5170900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4865900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4606000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4516700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3438900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>685800</v>
+        <v>837100</v>
       </c>
       <c r="E18" s="3">
-        <v>683500</v>
+        <v>663400</v>
       </c>
       <c r="F18" s="3">
-        <v>641200</v>
+        <v>661200</v>
       </c>
       <c r="G18" s="3">
-        <v>546300</v>
+        <v>620200</v>
       </c>
       <c r="H18" s="3">
-        <v>452600</v>
+        <v>528400</v>
       </c>
       <c r="I18" s="3">
-        <v>438300</v>
+        <v>437800</v>
       </c>
       <c r="J18" s="3">
+        <v>423900</v>
+      </c>
+      <c r="K18" s="3">
         <v>345900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>260400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>229600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>377800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>599900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>617800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>684800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>979900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>901800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>968600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>873100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>753900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>676500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>537700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>467400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>594900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>380500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>172900</v>
+        <v>24300</v>
       </c>
       <c r="E20" s="3">
-        <v>74100</v>
+        <v>167200</v>
       </c>
       <c r="F20" s="3">
-        <v>27100</v>
+        <v>71700</v>
       </c>
       <c r="G20" s="3">
-        <v>24200</v>
+        <v>26200</v>
       </c>
       <c r="H20" s="3">
-        <v>19600</v>
+        <v>23400</v>
       </c>
       <c r="I20" s="3">
-        <v>20700</v>
+        <v>18900</v>
       </c>
       <c r="J20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>46200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-35100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>37200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-35000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>372500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>36500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1123900</v>
+        <v>1123100</v>
       </c>
       <c r="E21" s="3">
-        <v>1031000</v>
+        <v>1087100</v>
       </c>
       <c r="F21" s="3">
-        <v>897700</v>
+        <v>997200</v>
       </c>
       <c r="G21" s="3">
-        <v>816200</v>
+        <v>868300</v>
       </c>
       <c r="H21" s="3">
-        <v>723300</v>
+        <v>789500</v>
       </c>
       <c r="I21" s="3">
-        <v>714500</v>
+        <v>699600</v>
       </c>
       <c r="J21" s="3">
+        <v>691100</v>
+      </c>
+      <c r="K21" s="3">
         <v>597700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>517900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>547300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>645500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>911300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>916800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>973100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1337600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1176100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1281800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1193400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1052800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>992600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1205300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>763800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>821800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>643700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34200</v>
+        <v>44100</v>
       </c>
       <c r="E22" s="3">
-        <v>22800</v>
+        <v>33100</v>
       </c>
       <c r="F22" s="3">
-        <v>24700</v>
+        <v>22000</v>
       </c>
       <c r="G22" s="3">
-        <v>20400</v>
+        <v>23900</v>
       </c>
       <c r="H22" s="3">
-        <v>21700</v>
+        <v>19700</v>
       </c>
       <c r="I22" s="3">
-        <v>23500</v>
+        <v>21000</v>
       </c>
       <c r="J22" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K22" s="3">
         <v>23200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>61000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>55600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>44700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>46900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>42200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>32300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>22400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>16300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>824400</v>
+        <v>817400</v>
       </c>
       <c r="E23" s="3">
-        <v>734900</v>
+        <v>797400</v>
       </c>
       <c r="F23" s="3">
-        <v>643600</v>
+        <v>710800</v>
       </c>
       <c r="G23" s="3">
-        <v>550200</v>
+        <v>622500</v>
       </c>
       <c r="H23" s="3">
-        <v>450500</v>
+        <v>532100</v>
       </c>
       <c r="I23" s="3">
-        <v>435500</v>
+        <v>435700</v>
       </c>
       <c r="J23" s="3">
+        <v>421300</v>
+      </c>
+      <c r="K23" s="3">
         <v>328600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>234000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>243100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>292400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>562200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>563400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>612900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>956100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>806800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>925000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>844800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>691300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>643900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>868000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>434800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>560600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>400600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>216300</v>
+        <v>208100</v>
       </c>
       <c r="E24" s="3">
-        <v>225700</v>
+        <v>209300</v>
       </c>
       <c r="F24" s="3">
-        <v>169300</v>
+        <v>218300</v>
       </c>
       <c r="G24" s="3">
-        <v>151500</v>
+        <v>163700</v>
       </c>
       <c r="H24" s="3">
-        <v>132200</v>
+        <v>146500</v>
       </c>
       <c r="I24" s="3">
-        <v>117100</v>
+        <v>127800</v>
       </c>
       <c r="J24" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K24" s="3">
         <v>101500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>83700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>129800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>163500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>163300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>239900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>227500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>274200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>254700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>293100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>142000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>259900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>85900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>135000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>124400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>608100</v>
+        <v>609300</v>
       </c>
       <c r="E26" s="3">
-        <v>509200</v>
+        <v>588200</v>
       </c>
       <c r="F26" s="3">
-        <v>474400</v>
+        <v>492500</v>
       </c>
       <c r="G26" s="3">
-        <v>398700</v>
+        <v>458800</v>
       </c>
       <c r="H26" s="3">
-        <v>318300</v>
+        <v>385600</v>
       </c>
       <c r="I26" s="3">
-        <v>318400</v>
+        <v>307900</v>
       </c>
       <c r="J26" s="3">
+        <v>308000</v>
+      </c>
+      <c r="K26" s="3">
         <v>227100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>177200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>159300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>177900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>432300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>399900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>449600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>716200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>579400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>650800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>590100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>398100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>501800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>608200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>348900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>425700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>276200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>589700</v>
+        <v>582200</v>
       </c>
       <c r="E27" s="3">
-        <v>508900</v>
+        <v>570400</v>
       </c>
       <c r="F27" s="3">
-        <v>457100</v>
+        <v>492200</v>
       </c>
       <c r="G27" s="3">
-        <v>383000</v>
+        <v>442100</v>
       </c>
       <c r="H27" s="3">
-        <v>299700</v>
+        <v>370400</v>
       </c>
       <c r="I27" s="3">
-        <v>295100</v>
+        <v>289900</v>
       </c>
       <c r="J27" s="3">
+        <v>285500</v>
+      </c>
+      <c r="K27" s="3">
         <v>210200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>411800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>391400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>434900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>694700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>555200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>579800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>572400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>373800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>481900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>590900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>329000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>399600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>273300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-172900</v>
+        <v>-24300</v>
       </c>
       <c r="E32" s="3">
-        <v>-74100</v>
+        <v>-167200</v>
       </c>
       <c r="F32" s="3">
-        <v>-27100</v>
+        <v>-71700</v>
       </c>
       <c r="G32" s="3">
-        <v>-24200</v>
+        <v>-26200</v>
       </c>
       <c r="H32" s="3">
-        <v>-19600</v>
+        <v>-23400</v>
       </c>
       <c r="I32" s="3">
-        <v>-20700</v>
+        <v>-18900</v>
       </c>
       <c r="J32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-46200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>35100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-37200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>35000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-372500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>11900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-36500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>589700</v>
+        <v>582200</v>
       </c>
       <c r="E33" s="3">
-        <v>508900</v>
+        <v>570400</v>
       </c>
       <c r="F33" s="3">
-        <v>457100</v>
+        <v>492200</v>
       </c>
       <c r="G33" s="3">
-        <v>383000</v>
+        <v>442100</v>
       </c>
       <c r="H33" s="3">
-        <v>299700</v>
+        <v>370400</v>
       </c>
       <c r="I33" s="3">
-        <v>295100</v>
+        <v>289900</v>
       </c>
       <c r="J33" s="3">
+        <v>285500</v>
+      </c>
+      <c r="K33" s="3">
         <v>210200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>163900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>138600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>411800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>391400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>434900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>694700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>555200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>579800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>572400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>373800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>481900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>590900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>329000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>399600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>273300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>589700</v>
+        <v>582200</v>
       </c>
       <c r="E35" s="3">
-        <v>508900</v>
+        <v>570400</v>
       </c>
       <c r="F35" s="3">
-        <v>457100</v>
+        <v>492200</v>
       </c>
       <c r="G35" s="3">
-        <v>383000</v>
+        <v>442100</v>
       </c>
       <c r="H35" s="3">
-        <v>299700</v>
+        <v>370400</v>
       </c>
       <c r="I35" s="3">
-        <v>295100</v>
+        <v>289900</v>
       </c>
       <c r="J35" s="3">
+        <v>285500</v>
+      </c>
+      <c r="K35" s="3">
         <v>210200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>163900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>138600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>411800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>391400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>434900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>694700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>555200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>579800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>572400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>373800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>481900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>590900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>329000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>399600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>273300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2819300</v>
+        <v>2280100</v>
       </c>
       <c r="E41" s="3">
-        <v>2321200</v>
+        <v>2727000</v>
       </c>
       <c r="F41" s="3">
-        <v>2003400</v>
+        <v>2245200</v>
       </c>
       <c r="G41" s="3">
-        <v>2008400</v>
+        <v>1937800</v>
       </c>
       <c r="H41" s="3">
-        <v>1728200</v>
+        <v>1942700</v>
       </c>
       <c r="I41" s="3">
-        <v>1782100</v>
+        <v>1671600</v>
       </c>
       <c r="J41" s="3">
+        <v>1723800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1601600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1837300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2194200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2199600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1689900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1514000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1792800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1449300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1421600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1196300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1343400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1327600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1516900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1482200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1381200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1083800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1209600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3165,571 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7292900</v>
+        <v>7345700</v>
       </c>
       <c r="E43" s="3">
-        <v>6997100</v>
+        <v>7054100</v>
       </c>
       <c r="F43" s="3">
-        <v>6247400</v>
+        <v>6768000</v>
       </c>
       <c r="G43" s="3">
-        <v>5840800</v>
+        <v>6042900</v>
       </c>
       <c r="H43" s="3">
-        <v>5775300</v>
+        <v>5649600</v>
       </c>
       <c r="I43" s="3">
-        <v>6015700</v>
+        <v>5586200</v>
       </c>
       <c r="J43" s="3">
+        <v>5818700</v>
+      </c>
+      <c r="K43" s="3">
         <v>5049300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5218600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5668600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6558100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7002300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6799600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7109800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8093400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7464600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7593000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7131300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7166100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6920900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6481500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5949400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5492900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5117000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8610100</v>
+        <v>9039900</v>
       </c>
       <c r="E44" s="3">
-        <v>7242100</v>
+        <v>8328200</v>
       </c>
       <c r="F44" s="3">
-        <v>6606900</v>
+        <v>7005000</v>
       </c>
       <c r="G44" s="3">
-        <v>6224900</v>
+        <v>6390600</v>
       </c>
       <c r="H44" s="3">
-        <v>6003700</v>
+        <v>6021100</v>
       </c>
       <c r="I44" s="3">
-        <v>5818900</v>
+        <v>5807100</v>
       </c>
       <c r="J44" s="3">
+        <v>5628400</v>
+      </c>
+      <c r="K44" s="3">
         <v>6025000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6535000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7393100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7094800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8199300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8217800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8015200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8048900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7793600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7851600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7246200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6601800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6847600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6441600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6211000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4735700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5252300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1373500</v>
+        <v>1418600</v>
       </c>
       <c r="E45" s="3">
-        <v>1187600</v>
+        <v>1328500</v>
       </c>
       <c r="F45" s="3">
-        <v>1199600</v>
+        <v>1148700</v>
       </c>
       <c r="G45" s="3">
-        <v>1007500</v>
+        <v>1160300</v>
       </c>
       <c r="H45" s="3">
-        <v>1020900</v>
+        <v>974500</v>
       </c>
       <c r="I45" s="3">
-        <v>964700</v>
+        <v>987500</v>
       </c>
       <c r="J45" s="3">
+        <v>933200</v>
+      </c>
+      <c r="K45" s="3">
         <v>962600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1023800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1269500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1298700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1368900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1225300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1322900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1330200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1291000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1205900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1188900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1154700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1105700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1052800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1084600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1278800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1242800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20095800</v>
+        <v>20084300</v>
       </c>
       <c r="E46" s="3">
-        <v>17748000</v>
+        <v>19437800</v>
       </c>
       <c r="F46" s="3">
-        <v>16057300</v>
+        <v>17166900</v>
       </c>
       <c r="G46" s="3">
-        <v>15081600</v>
+        <v>15531500</v>
       </c>
       <c r="H46" s="3">
-        <v>14528100</v>
+        <v>14587800</v>
       </c>
       <c r="I46" s="3">
-        <v>14581500</v>
+        <v>14052400</v>
       </c>
       <c r="J46" s="3">
+        <v>14104100</v>
+      </c>
+      <c r="K46" s="3">
         <v>13638400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14614700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16525500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17151200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18260400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17756700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18240800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18921700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17970800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17846800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16909800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16250200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16391200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15458100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>14626200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12591200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12821700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4684200</v>
+        <v>4856800</v>
       </c>
       <c r="E47" s="3">
-        <v>4076600</v>
+        <v>4530800</v>
       </c>
       <c r="F47" s="3">
-        <v>3876100</v>
+        <v>3943200</v>
       </c>
       <c r="G47" s="3">
-        <v>3711100</v>
+        <v>3749200</v>
       </c>
       <c r="H47" s="3">
-        <v>3820900</v>
+        <v>3589600</v>
       </c>
       <c r="I47" s="3">
-        <v>3623800</v>
+        <v>3695800</v>
       </c>
       <c r="J47" s="3">
+        <v>3505200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3513400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3679600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4108100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4109500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4302400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4281700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4254400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4431700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3945800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4110500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3870100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3656300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3775100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3603400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3962700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3654400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3553700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6715000</v>
+        <v>6603700</v>
       </c>
       <c r="E48" s="3">
-        <v>6459700</v>
+        <v>6495100</v>
       </c>
       <c r="F48" s="3">
-        <v>6227500</v>
+        <v>6248200</v>
       </c>
       <c r="G48" s="3">
-        <v>6144000</v>
+        <v>6023600</v>
       </c>
       <c r="H48" s="3">
-        <v>6136100</v>
+        <v>5942800</v>
       </c>
       <c r="I48" s="3">
-        <v>6196100</v>
+        <v>5935200</v>
       </c>
       <c r="J48" s="3">
+        <v>5993200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6007500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6325100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6898700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7146100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7436500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7400100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7454200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7461400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7167800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7111300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6849300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6694400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6941200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6903500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6874400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6023000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6087900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2811300</v>
+        <v>2883500</v>
       </c>
       <c r="E49" s="3">
-        <v>2614000</v>
+        <v>2719300</v>
       </c>
       <c r="F49" s="3">
-        <v>2486800</v>
+        <v>2528400</v>
       </c>
       <c r="G49" s="3">
-        <v>2446200</v>
+        <v>2405400</v>
       </c>
       <c r="H49" s="3">
-        <v>2473200</v>
+        <v>2366100</v>
       </c>
       <c r="I49" s="3">
-        <v>2489800</v>
+        <v>2392200</v>
       </c>
       <c r="J49" s="3">
+        <v>2408200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2370200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2505800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2768200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2815500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3096100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3079300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2972100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3155200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3161900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3289100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3137100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2975000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3245200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3273300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3281300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>897200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>891700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>988300</v>
+        <v>1039800</v>
       </c>
       <c r="E52" s="3">
-        <v>969000</v>
+        <v>955900</v>
       </c>
       <c r="F52" s="3">
-        <v>872900</v>
+        <v>937300</v>
       </c>
       <c r="G52" s="3">
-        <v>863400</v>
+        <v>844400</v>
       </c>
       <c r="H52" s="3">
-        <v>825300</v>
+        <v>835100</v>
       </c>
       <c r="I52" s="3">
-        <v>851700</v>
+        <v>798200</v>
       </c>
       <c r="J52" s="3">
+        <v>823800</v>
+      </c>
+      <c r="K52" s="3">
         <v>807200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>875700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>926900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>966700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>877800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>911400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>893200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>993200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>881500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>914100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>875400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>911800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>925500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>867000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>685400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>397300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>395700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35294600</v>
+        <v>35468000</v>
       </c>
       <c r="E54" s="3">
-        <v>31867300</v>
+        <v>34138900</v>
       </c>
       <c r="F54" s="3">
-        <v>29520700</v>
+        <v>30823900</v>
       </c>
       <c r="G54" s="3">
-        <v>28246200</v>
+        <v>28554100</v>
       </c>
       <c r="H54" s="3">
-        <v>27783600</v>
+        <v>27321400</v>
       </c>
       <c r="I54" s="3">
-        <v>27742900</v>
+        <v>26873900</v>
       </c>
       <c r="J54" s="3">
+        <v>26834500</v>
+      </c>
+      <c r="K54" s="3">
         <v>26336600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28001000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31227300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32189000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33973200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33429200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33814600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34963300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33127800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33271700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31641700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30487700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31278300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30105200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29429900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>23563000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23750700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2546700</v>
+        <v>2524800</v>
       </c>
       <c r="E57" s="3">
-        <v>2484700</v>
+        <v>2463300</v>
       </c>
       <c r="F57" s="3">
-        <v>2103700</v>
+        <v>2403300</v>
       </c>
       <c r="G57" s="3">
-        <v>1971400</v>
+        <v>2034800</v>
       </c>
       <c r="H57" s="3">
-        <v>1903700</v>
+        <v>1906800</v>
       </c>
       <c r="I57" s="3">
-        <v>1893500</v>
+        <v>1841400</v>
       </c>
       <c r="J57" s="3">
+        <v>1831500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1597300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1511700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1742400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1939600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2091700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2278800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2338800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2565400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2413100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2557500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2485200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2744100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2742000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2594600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2526300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2129800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1891800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5047500</v>
+        <v>5155000</v>
       </c>
       <c r="E58" s="3">
-        <v>3799600</v>
+        <v>4882200</v>
       </c>
       <c r="F58" s="3">
-        <v>3840600</v>
+        <v>3675200</v>
       </c>
       <c r="G58" s="3">
-        <v>3301500</v>
+        <v>3714900</v>
       </c>
       <c r="H58" s="3">
-        <v>2960300</v>
+        <v>3193400</v>
       </c>
       <c r="I58" s="3">
-        <v>2708200</v>
+        <v>2863400</v>
       </c>
       <c r="J58" s="3">
+        <v>2619500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2928500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3409100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5190700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5308400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5845400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5004000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4708300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4403400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4835900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3995900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4127800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2982300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3226400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2743000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4866100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1932300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2705700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3467100</v>
+        <v>3525700</v>
       </c>
       <c r="E59" s="3">
-        <v>3420700</v>
+        <v>3353500</v>
       </c>
       <c r="F59" s="3">
-        <v>2897600</v>
+        <v>3308700</v>
       </c>
       <c r="G59" s="3">
-        <v>2742400</v>
+        <v>2802700</v>
       </c>
       <c r="H59" s="3">
-        <v>2603900</v>
+        <v>2652700</v>
       </c>
       <c r="I59" s="3">
-        <v>2676100</v>
+        <v>2518700</v>
       </c>
       <c r="J59" s="3">
+        <v>2588500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2524800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2635500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2809300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2959500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3169700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3262900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3290300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3430500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3011500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3336600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3020600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3220100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3131200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2985200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2675700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2148500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1977100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11061200</v>
+        <v>11205500</v>
       </c>
       <c r="E60" s="3">
-        <v>9705100</v>
+        <v>10699100</v>
       </c>
       <c r="F60" s="3">
-        <v>8841900</v>
+        <v>9387300</v>
       </c>
       <c r="G60" s="3">
-        <v>8015300</v>
+        <v>8552400</v>
       </c>
       <c r="H60" s="3">
-        <v>7467900</v>
+        <v>7752900</v>
       </c>
       <c r="I60" s="3">
-        <v>7277700</v>
+        <v>7223400</v>
       </c>
       <c r="J60" s="3">
+        <v>7039400</v>
+      </c>
+      <c r="K60" s="3">
         <v>7050600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7556300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9742300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10207500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11106800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10545700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10337400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10399400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10260500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9890100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9633600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8946500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9099600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8322800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10068000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6210600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6574700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3483700</v>
+        <v>3144300</v>
       </c>
       <c r="E61" s="3">
-        <v>3144700</v>
+        <v>3369600</v>
       </c>
       <c r="F61" s="3">
-        <v>2932100</v>
+        <v>3041700</v>
       </c>
       <c r="G61" s="3">
-        <v>3035800</v>
+        <v>2836000</v>
       </c>
       <c r="H61" s="3">
-        <v>3675700</v>
+        <v>2936400</v>
       </c>
       <c r="I61" s="3">
-        <v>3962000</v>
+        <v>3555300</v>
       </c>
       <c r="J61" s="3">
+        <v>3832300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3788600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4116400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3747600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3610700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3704600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3739100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4491900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4540600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4285500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4526300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4365800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4345500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4771500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4645600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2829700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1692900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1742600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1887100</v>
+        <v>1888200</v>
       </c>
       <c r="E62" s="3">
-        <v>1746100</v>
+        <v>1825300</v>
       </c>
       <c r="F62" s="3">
-        <v>1719800</v>
+        <v>1688900</v>
       </c>
       <c r="G62" s="3">
-        <v>1700500</v>
+        <v>1663400</v>
       </c>
       <c r="H62" s="3">
-        <v>1752000</v>
+        <v>1644900</v>
       </c>
       <c r="I62" s="3">
-        <v>1755000</v>
+        <v>1694600</v>
       </c>
       <c r="J62" s="3">
+        <v>1697600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1628100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1786600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1929800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2017500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1936900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1955600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1946800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1736800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1588900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1545500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1485000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1433600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1437400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1448700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1400700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1037100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1041600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17370800</v>
+        <v>17196100</v>
       </c>
       <c r="E66" s="3">
-        <v>15503000</v>
+        <v>16802000</v>
       </c>
       <c r="F66" s="3">
-        <v>14393200</v>
+        <v>14995400</v>
       </c>
       <c r="G66" s="3">
-        <v>13602900</v>
+        <v>13921900</v>
       </c>
       <c r="H66" s="3">
-        <v>13623100</v>
+        <v>13157500</v>
       </c>
       <c r="I66" s="3">
-        <v>13725700</v>
+        <v>13177100</v>
       </c>
       <c r="J66" s="3">
+        <v>13276300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13146300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14153500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16184500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16581100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17541800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16997900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17543800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17515500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16912800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16751000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16218100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15440300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16046200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15109600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14968700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9577900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9984500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14498000</v>
+        <v>14605500</v>
       </c>
       <c r="E72" s="3">
-        <v>14296500</v>
+        <v>14023300</v>
       </c>
       <c r="F72" s="3">
-        <v>13787600</v>
+        <v>13828400</v>
       </c>
       <c r="G72" s="3">
-        <v>13607800</v>
+        <v>13336100</v>
       </c>
       <c r="H72" s="3">
-        <v>13224800</v>
+        <v>13162200</v>
       </c>
       <c r="I72" s="3">
-        <v>13181500</v>
+        <v>12791800</v>
       </c>
       <c r="J72" s="3">
+        <v>12749900</v>
+      </c>
+      <c r="K72" s="3">
         <v>12886400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13604200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14720100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15384800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15739500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15939800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15497700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16338300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15366800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15023600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14132800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13901600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13527900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13353100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12762200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12442100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>12042600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17923800</v>
+        <v>18272000</v>
       </c>
       <c r="E76" s="3">
-        <v>16364300</v>
+        <v>17336900</v>
       </c>
       <c r="F76" s="3">
-        <v>15127500</v>
+        <v>15828500</v>
       </c>
       <c r="G76" s="3">
-        <v>14643300</v>
+        <v>14632200</v>
       </c>
       <c r="H76" s="3">
-        <v>14160400</v>
+        <v>14163900</v>
       </c>
       <c r="I76" s="3">
-        <v>14017100</v>
+        <v>13696800</v>
       </c>
       <c r="J76" s="3">
+        <v>13558200</v>
+      </c>
+      <c r="K76" s="3">
         <v>13190300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13847500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15042800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15607800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16431500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16431400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16270800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17447700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16215000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16520700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15423500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15047400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15232100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14995700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14461200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13985100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13766200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>589700</v>
+        <v>582200</v>
       </c>
       <c r="E81" s="3">
-        <v>508900</v>
+        <v>570400</v>
       </c>
       <c r="F81" s="3">
-        <v>457100</v>
+        <v>492200</v>
       </c>
       <c r="G81" s="3">
-        <v>383000</v>
+        <v>442100</v>
       </c>
       <c r="H81" s="3">
-        <v>299700</v>
+        <v>370400</v>
       </c>
       <c r="I81" s="3">
-        <v>295100</v>
+        <v>289900</v>
       </c>
       <c r="J81" s="3">
+        <v>285500</v>
+      </c>
+      <c r="K81" s="3">
         <v>210200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>163900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>138600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>411800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>391400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>434900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>694700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>555200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>579800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>572400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>373800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>481900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>590900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>329000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>399600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>273300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>265200</v>
+        <v>261600</v>
       </c>
       <c r="E83" s="3">
-        <v>273400</v>
+        <v>256500</v>
       </c>
       <c r="F83" s="3">
-        <v>229400</v>
+        <v>264400</v>
       </c>
       <c r="G83" s="3">
-        <v>245600</v>
+        <v>221900</v>
       </c>
       <c r="H83" s="3">
-        <v>251100</v>
+        <v>237600</v>
       </c>
       <c r="I83" s="3">
-        <v>255500</v>
+        <v>242800</v>
       </c>
       <c r="J83" s="3">
+        <v>247200</v>
+      </c>
+      <c r="K83" s="3">
         <v>245900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>256200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>271400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>302800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>296400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>294100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>299300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>320500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>309400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>301200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>299200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>316900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>301900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>295000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>296800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>238900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>226700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17200</v>
+        <v>197700</v>
       </c>
       <c r="E89" s="3">
-        <v>851000</v>
+        <v>-16600</v>
       </c>
       <c r="F89" s="3">
-        <v>201100</v>
+        <v>823200</v>
       </c>
       <c r="G89" s="3">
-        <v>680500</v>
+        <v>194500</v>
       </c>
       <c r="H89" s="3">
-        <v>473500</v>
+        <v>658200</v>
       </c>
       <c r="I89" s="3">
-        <v>841100</v>
+        <v>458000</v>
       </c>
       <c r="J89" s="3">
+        <v>813600</v>
+      </c>
+      <c r="K89" s="3">
         <v>636600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>759600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>469400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1208900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>202300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>715400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>530400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>982200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>259100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>677800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>603600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>357400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>376500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>971600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>448000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-266700</v>
+        <v>-353600</v>
       </c>
       <c r="E91" s="3">
-        <v>-286900</v>
+        <v>-257900</v>
       </c>
       <c r="F91" s="3">
-        <v>-304500</v>
+        <v>-277500</v>
       </c>
       <c r="G91" s="3">
-        <v>-324800</v>
+        <v>-294500</v>
       </c>
       <c r="H91" s="3">
-        <v>-278400</v>
+        <v>-314100</v>
       </c>
       <c r="I91" s="3">
-        <v>-324800</v>
+        <v>-269200</v>
       </c>
       <c r="J91" s="3">
+        <v>-314200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-380900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-374000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-317900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-397700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-434800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-439600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-403000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-453500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-552400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-411600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-382200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-288700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-389600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-331300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-390900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-378000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-245100</v>
+        <v>-367800</v>
       </c>
       <c r="E94" s="3">
-        <v>-289300</v>
+        <v>-237100</v>
       </c>
       <c r="F94" s="3">
-        <v>-255100</v>
+        <v>-279800</v>
       </c>
       <c r="G94" s="3">
-        <v>-290600</v>
+        <v>-246800</v>
       </c>
       <c r="H94" s="3">
-        <v>-217400</v>
+        <v>-281100</v>
       </c>
       <c r="I94" s="3">
-        <v>-267600</v>
+        <v>-210300</v>
       </c>
       <c r="J94" s="3">
+        <v>-258800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-341100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-347300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-302300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-366600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-388200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-542900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-436300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-432300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-524300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-408300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-388400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-520100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-228800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>103500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-347600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-383000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-388200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-375500</v>
       </c>
       <c r="F96" s="3">
-        <v>-277300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-268200</v>
       </c>
       <c r="H96" s="3">
-        <v>-256400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-248100</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-124700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-314400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-473400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-510400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-454600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-411800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-307100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-247400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-242700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>536000</v>
+        <v>-195100</v>
       </c>
       <c r="E100" s="3">
-        <v>-273300</v>
+        <v>518500</v>
       </c>
       <c r="F100" s="3">
-        <v>18400</v>
+        <v>-264300</v>
       </c>
       <c r="G100" s="3">
-        <v>-113600</v>
+        <v>17800</v>
       </c>
       <c r="H100" s="3">
-        <v>-319600</v>
+        <v>-109900</v>
       </c>
       <c r="I100" s="3">
-        <v>-383700</v>
+        <v>-309100</v>
       </c>
       <c r="J100" s="3">
+        <v>-371100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-442100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-584000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-261700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>363600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-431900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>305300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-522600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>409300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-408800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>466900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-341500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>246200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-372500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2673000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-763500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>417200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>226100</v>
+        <v>-79500</v>
       </c>
       <c r="E101" s="3">
-        <v>36400</v>
+        <v>218700</v>
       </c>
       <c r="F101" s="3">
-        <v>22500</v>
+        <v>35200</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>21800</v>
       </c>
       <c r="H101" s="3">
-        <v>10300</v>
+        <v>4100</v>
       </c>
       <c r="I101" s="3">
-        <v>-8500</v>
+        <v>10000</v>
       </c>
       <c r="J101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>19000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-20800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-24800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>62300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-40600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-66000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>69000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>13800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-66000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>499800</v>
+        <v>-444700</v>
       </c>
       <c r="E102" s="3">
-        <v>324900</v>
+        <v>483400</v>
       </c>
       <c r="F102" s="3">
-        <v>-13100</v>
+        <v>314300</v>
       </c>
       <c r="G102" s="3">
-        <v>280500</v>
+        <v>-12700</v>
       </c>
       <c r="H102" s="3">
-        <v>-53100</v>
+        <v>271300</v>
       </c>
       <c r="I102" s="3">
-        <v>181400</v>
+        <v>-51400</v>
       </c>
       <c r="J102" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-127500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-160800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>63900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>563600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>188100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-280200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>412300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>206500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-179800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-189000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>97400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>278000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-125700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>416200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6061400</v>
+        <v>6765700</v>
       </c>
       <c r="E8" s="3">
-        <v>5415400</v>
+        <v>6283700</v>
       </c>
       <c r="F8" s="3">
-        <v>5584400</v>
+        <v>5614000</v>
       </c>
       <c r="G8" s="3">
-        <v>5128000</v>
+        <v>5789200</v>
       </c>
       <c r="H8" s="3">
-        <v>4559800</v>
+        <v>5316100</v>
       </c>
       <c r="I8" s="3">
-        <v>4596200</v>
+        <v>4727000</v>
       </c>
       <c r="J8" s="3">
+        <v>4764800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4794300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4072500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3887100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3913000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5439500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5593100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5548200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5585500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6790800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6613400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6242700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5872700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6285600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5847500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5403600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5073300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5111600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3819400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4268500</v>
+        <v>4734600</v>
       </c>
       <c r="E9" s="3">
-        <v>3866900</v>
+        <v>4425100</v>
       </c>
       <c r="F9" s="3">
-        <v>4025300</v>
+        <v>4008700</v>
       </c>
       <c r="G9" s="3">
-        <v>3704100</v>
+        <v>4172900</v>
       </c>
       <c r="H9" s="3">
-        <v>3243500</v>
+        <v>3840000</v>
       </c>
       <c r="I9" s="3">
-        <v>3368300</v>
+        <v>3362500</v>
       </c>
       <c r="J9" s="3">
+        <v>3491800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3540700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2999800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2844100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2855200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3983000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4023200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3933000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3914600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4734300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4644500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4266600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4011000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4364100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4072000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3892100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3635600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3643900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2714800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1792900</v>
+        <v>2031100</v>
       </c>
       <c r="E10" s="3">
-        <v>1548500</v>
+        <v>1858700</v>
       </c>
       <c r="F10" s="3">
-        <v>1559100</v>
+        <v>1605300</v>
       </c>
       <c r="G10" s="3">
-        <v>1423900</v>
+        <v>1616300</v>
       </c>
       <c r="H10" s="3">
-        <v>1316300</v>
+        <v>1476100</v>
       </c>
       <c r="I10" s="3">
-        <v>1227900</v>
+        <v>1364600</v>
       </c>
       <c r="J10" s="3">
+        <v>1272900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1253500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1072700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1043000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1057800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1456500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1569900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1615200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1670900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2056500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1968800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1976100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1861700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1921400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1775500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1511500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1437700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1467700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1104600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,11 +1236,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1229,11 +1248,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>17000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1250,8 +1269,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1259,8 +1278,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1277,17 +1296,20 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>15500</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5224300</v>
+        <v>5773700</v>
       </c>
       <c r="E17" s="3">
-        <v>4752000</v>
+        <v>5415900</v>
       </c>
       <c r="F17" s="3">
-        <v>4923300</v>
+        <v>4926300</v>
       </c>
       <c r="G17" s="3">
-        <v>4507800</v>
+        <v>5103800</v>
       </c>
       <c r="H17" s="3">
-        <v>4031400</v>
+        <v>4673100</v>
       </c>
       <c r="I17" s="3">
-        <v>4158400</v>
+        <v>4179200</v>
       </c>
       <c r="J17" s="3">
+        <v>4310900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4370300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3726600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3626700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3683400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5061800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4993300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4930400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5810800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5711600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5274100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4999600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5531700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5170900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4865900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4606000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4516700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3438900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>837100</v>
+        <v>992000</v>
       </c>
       <c r="E18" s="3">
-        <v>663400</v>
+        <v>867800</v>
       </c>
       <c r="F18" s="3">
-        <v>661200</v>
+        <v>687700</v>
       </c>
       <c r="G18" s="3">
-        <v>620200</v>
+        <v>685400</v>
       </c>
       <c r="H18" s="3">
-        <v>528400</v>
+        <v>643000</v>
       </c>
       <c r="I18" s="3">
-        <v>437800</v>
+        <v>547800</v>
       </c>
       <c r="J18" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K18" s="3">
         <v>423900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>345900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>260400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>229600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>377800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>599900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>617800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>684800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>979900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>901800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>968600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>873100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>753900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>676500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>537700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>467400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>594900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>380500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-87700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>173300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>74300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I20" s="3">
         <v>24300</v>
       </c>
-      <c r="E20" s="3">
-        <v>167200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>71700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>26200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>23400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>18900</v>
-      </c>
       <c r="J20" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>46200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>37200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-35000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-17900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>372500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>36500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1123100</v>
+        <v>1187300</v>
       </c>
       <c r="E21" s="3">
-        <v>1087100</v>
+        <v>1164300</v>
       </c>
       <c r="F21" s="3">
-        <v>997200</v>
+        <v>1126900</v>
       </c>
       <c r="G21" s="3">
-        <v>868300</v>
+        <v>1033800</v>
       </c>
       <c r="H21" s="3">
-        <v>789500</v>
+        <v>900100</v>
       </c>
       <c r="I21" s="3">
-        <v>699600</v>
+        <v>818400</v>
       </c>
       <c r="J21" s="3">
+        <v>725200</v>
+      </c>
+      <c r="K21" s="3">
         <v>691100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>597700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>517900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>547300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>645500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>911300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>916800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>973100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1337600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1176100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1281800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1193400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1052800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>992600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1205300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>763800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>821800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>643700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44100</v>
+        <v>80800</v>
       </c>
       <c r="E22" s="3">
-        <v>33100</v>
+        <v>45700</v>
       </c>
       <c r="F22" s="3">
-        <v>22000</v>
+        <v>34300</v>
       </c>
       <c r="G22" s="3">
-        <v>23900</v>
+        <v>22900</v>
       </c>
       <c r="H22" s="3">
-        <v>19700</v>
+        <v>24700</v>
       </c>
       <c r="I22" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="J22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K22" s="3">
         <v>22700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>61000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>55600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>49300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>44700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>46900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>42200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>32300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>22400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>16300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>817400</v>
+        <v>823600</v>
       </c>
       <c r="E23" s="3">
-        <v>797400</v>
+        <v>847300</v>
       </c>
       <c r="F23" s="3">
-        <v>710800</v>
+        <v>826700</v>
       </c>
       <c r="G23" s="3">
-        <v>622500</v>
+        <v>736900</v>
       </c>
       <c r="H23" s="3">
-        <v>532100</v>
+        <v>645400</v>
       </c>
       <c r="I23" s="3">
-        <v>435700</v>
+        <v>551700</v>
       </c>
       <c r="J23" s="3">
+        <v>451700</v>
+      </c>
+      <c r="K23" s="3">
         <v>421300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>328600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>234000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>243100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>292400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>562200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>563400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>612900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>956100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>806800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>925000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>844800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>691300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>643900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>868000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>434800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>560600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>400600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>208100</v>
+        <v>281900</v>
       </c>
       <c r="E24" s="3">
-        <v>209300</v>
+        <v>215700</v>
       </c>
       <c r="F24" s="3">
-        <v>218300</v>
+        <v>216900</v>
       </c>
       <c r="G24" s="3">
-        <v>163700</v>
+        <v>226300</v>
       </c>
       <c r="H24" s="3">
-        <v>146500</v>
+        <v>169700</v>
       </c>
       <c r="I24" s="3">
-        <v>127800</v>
+        <v>151900</v>
       </c>
       <c r="J24" s="3">
+        <v>132500</v>
+      </c>
+      <c r="K24" s="3">
         <v>113200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>83700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>114500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>129800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>163500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>239900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>227500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>274200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>254700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>293100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>142000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>259900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>85900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>135000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>124400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>609300</v>
+        <v>541600</v>
       </c>
       <c r="E26" s="3">
-        <v>588200</v>
+        <v>631600</v>
       </c>
       <c r="F26" s="3">
-        <v>492500</v>
+        <v>609800</v>
       </c>
       <c r="G26" s="3">
-        <v>458800</v>
+        <v>510600</v>
       </c>
       <c r="H26" s="3">
-        <v>385600</v>
+        <v>475600</v>
       </c>
       <c r="I26" s="3">
-        <v>307900</v>
+        <v>399800</v>
       </c>
       <c r="J26" s="3">
+        <v>319200</v>
+      </c>
+      <c r="K26" s="3">
         <v>308000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>227100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>177200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>159300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>177900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>432300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>399900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>449600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>716200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>579400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>650800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>590100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>398100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>501800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>608200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>348900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>425700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>276200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>582200</v>
+        <v>509700</v>
       </c>
       <c r="E27" s="3">
-        <v>570400</v>
+        <v>603500</v>
       </c>
       <c r="F27" s="3">
-        <v>492200</v>
+        <v>591300</v>
       </c>
       <c r="G27" s="3">
-        <v>442100</v>
+        <v>510300</v>
       </c>
       <c r="H27" s="3">
-        <v>370400</v>
+        <v>458400</v>
       </c>
       <c r="I27" s="3">
-        <v>289900</v>
+        <v>384000</v>
       </c>
       <c r="J27" s="3">
+        <v>300600</v>
+      </c>
+      <c r="K27" s="3">
         <v>285500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>210200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>138600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>411800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>391400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>434900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>694700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>555200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>579800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>572400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>373800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>481900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>590900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>329000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>399600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>273300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-173300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-24300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-167200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-18900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-46200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-37200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>35000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>17900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-372500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>11900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-36500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>582200</v>
+        <v>509700</v>
       </c>
       <c r="E33" s="3">
-        <v>570400</v>
+        <v>603500</v>
       </c>
       <c r="F33" s="3">
-        <v>492200</v>
+        <v>591300</v>
       </c>
       <c r="G33" s="3">
-        <v>442100</v>
+        <v>510300</v>
       </c>
       <c r="H33" s="3">
-        <v>370400</v>
+        <v>458400</v>
       </c>
       <c r="I33" s="3">
-        <v>289900</v>
+        <v>384000</v>
       </c>
       <c r="J33" s="3">
+        <v>300600</v>
+      </c>
+      <c r="K33" s="3">
         <v>285500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>210200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>163900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>138600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>163700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>411800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>391400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>434900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>694700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>555200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>579800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>572400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>373800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>481900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>590900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>329000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>399600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>273300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>582200</v>
+        <v>509700</v>
       </c>
       <c r="E35" s="3">
-        <v>570400</v>
+        <v>603500</v>
       </c>
       <c r="F35" s="3">
-        <v>492200</v>
+        <v>591300</v>
       </c>
       <c r="G35" s="3">
-        <v>442100</v>
+        <v>510300</v>
       </c>
       <c r="H35" s="3">
-        <v>370400</v>
+        <v>458400</v>
       </c>
       <c r="I35" s="3">
-        <v>289900</v>
+        <v>384000</v>
       </c>
       <c r="J35" s="3">
+        <v>300600</v>
+      </c>
+      <c r="K35" s="3">
         <v>285500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>210200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>163900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>138600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>163700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>411800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>391400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>434900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>694700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>555200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>579800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>572400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>373800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>481900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>590900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>329000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>399600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>273300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2280100</v>
+        <v>2470700</v>
       </c>
       <c r="E41" s="3">
-        <v>2727000</v>
+        <v>2363700</v>
       </c>
       <c r="F41" s="3">
-        <v>2245200</v>
+        <v>2827000</v>
       </c>
       <c r="G41" s="3">
-        <v>1937800</v>
+        <v>2327500</v>
       </c>
       <c r="H41" s="3">
-        <v>1942700</v>
+        <v>2008800</v>
       </c>
       <c r="I41" s="3">
-        <v>1671600</v>
+        <v>2013900</v>
       </c>
       <c r="J41" s="3">
+        <v>1732900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1723800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1601600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1837300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2194200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2199600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1689900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1514000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1792800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1449300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1421600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1196300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1343400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1327600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1516900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1482200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1381200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1083800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1209600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,568 +3257,592 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7345700</v>
+        <v>7127700</v>
       </c>
       <c r="E43" s="3">
-        <v>7054100</v>
+        <v>7615000</v>
       </c>
       <c r="F43" s="3">
-        <v>6768000</v>
+        <v>7312800</v>
       </c>
       <c r="G43" s="3">
-        <v>6042900</v>
+        <v>7016200</v>
       </c>
       <c r="H43" s="3">
-        <v>5649600</v>
+        <v>6264500</v>
       </c>
       <c r="I43" s="3">
-        <v>5586200</v>
+        <v>5856700</v>
       </c>
       <c r="J43" s="3">
+        <v>5791100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5818700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5049300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5218600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5668600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6558100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7002300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6799600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7109800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8093400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7464600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7593000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7131300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7166100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6920900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6481500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5949400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5492900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5117000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9039900</v>
+        <v>9143600</v>
       </c>
       <c r="E44" s="3">
-        <v>8328200</v>
+        <v>9371400</v>
       </c>
       <c r="F44" s="3">
-        <v>7005000</v>
+        <v>8633600</v>
       </c>
       <c r="G44" s="3">
-        <v>6390600</v>
+        <v>7261900</v>
       </c>
       <c r="H44" s="3">
-        <v>6021100</v>
+        <v>6624900</v>
       </c>
       <c r="I44" s="3">
-        <v>5807100</v>
+        <v>6241900</v>
       </c>
       <c r="J44" s="3">
+        <v>6020100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5628400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6025000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6535000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7393100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7094800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8199300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8217800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8015200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8048900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7793600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7851600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7246200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6601800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6847600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6441600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6211000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4735700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5252300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1418600</v>
+        <v>1457400</v>
       </c>
       <c r="E45" s="3">
-        <v>1328500</v>
+        <v>1470700</v>
       </c>
       <c r="F45" s="3">
-        <v>1148700</v>
+        <v>1377200</v>
       </c>
       <c r="G45" s="3">
-        <v>1160300</v>
+        <v>1190800</v>
       </c>
       <c r="H45" s="3">
-        <v>974500</v>
+        <v>1202900</v>
       </c>
       <c r="I45" s="3">
-        <v>987500</v>
+        <v>1010200</v>
       </c>
       <c r="J45" s="3">
+        <v>1023700</v>
+      </c>
+      <c r="K45" s="3">
         <v>933200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>962600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1023800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1269500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1298700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1368900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1225300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1322900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1330200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1291000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1205900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1188900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1154700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1105700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1052800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1084600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1278800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1242800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20084300</v>
+        <v>20199400</v>
       </c>
       <c r="E46" s="3">
-        <v>19437800</v>
+        <v>20820800</v>
       </c>
       <c r="F46" s="3">
-        <v>17166900</v>
+        <v>20150600</v>
       </c>
       <c r="G46" s="3">
-        <v>15531500</v>
+        <v>17796400</v>
       </c>
       <c r="H46" s="3">
-        <v>14587800</v>
+        <v>16101100</v>
       </c>
       <c r="I46" s="3">
-        <v>14052400</v>
+        <v>15122700</v>
       </c>
       <c r="J46" s="3">
+        <v>14567700</v>
+      </c>
+      <c r="K46" s="3">
         <v>14104100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13638400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14614700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16525500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17151200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18260400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17756700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18240800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18921700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17970800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17846800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16909800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16250200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16391200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15458100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>14626200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12591200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12821700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4856800</v>
+        <v>4732500</v>
       </c>
       <c r="E47" s="3">
-        <v>4530800</v>
+        <v>5034900</v>
       </c>
       <c r="F47" s="3">
-        <v>3943200</v>
+        <v>4696900</v>
       </c>
       <c r="G47" s="3">
-        <v>3749200</v>
+        <v>4087800</v>
       </c>
       <c r="H47" s="3">
-        <v>3589600</v>
+        <v>3886700</v>
       </c>
       <c r="I47" s="3">
-        <v>3695800</v>
+        <v>3721200</v>
       </c>
       <c r="J47" s="3">
+        <v>3831400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3505200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3513400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3679600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4108100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4109500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4302400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4281700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4254400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4431700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3945800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4110500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3870100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3656300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3775100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3603400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3962700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3654400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3553700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6603700</v>
+        <v>6540400</v>
       </c>
       <c r="E48" s="3">
-        <v>6495100</v>
+        <v>6845900</v>
       </c>
       <c r="F48" s="3">
-        <v>6248200</v>
+        <v>6733300</v>
       </c>
       <c r="G48" s="3">
-        <v>6023600</v>
+        <v>6477300</v>
       </c>
       <c r="H48" s="3">
-        <v>5942800</v>
+        <v>6244500</v>
       </c>
       <c r="I48" s="3">
-        <v>5935200</v>
+        <v>6160700</v>
       </c>
       <c r="J48" s="3">
+        <v>6152900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5993200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6007500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6325100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6898700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7146100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7436500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7400100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7454200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7461400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7167800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7111300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6849300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6694400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6941200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6903500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6874400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6023000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6087900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2883500</v>
+        <v>2736100</v>
       </c>
       <c r="E49" s="3">
-        <v>2719300</v>
+        <v>2989300</v>
       </c>
       <c r="F49" s="3">
-        <v>2528400</v>
+        <v>2819000</v>
       </c>
       <c r="G49" s="3">
-        <v>2405400</v>
+        <v>2621100</v>
       </c>
       <c r="H49" s="3">
-        <v>2366100</v>
+        <v>2493600</v>
       </c>
       <c r="I49" s="3">
-        <v>2392200</v>
+        <v>2452900</v>
       </c>
       <c r="J49" s="3">
+        <v>2479900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2408200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2370200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2505800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2768200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2815500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3096100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3079300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2972100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3155200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3161900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3289100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3137100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2975000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3245200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3273300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3281300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>897200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>891700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1039800</v>
+        <v>951400</v>
       </c>
       <c r="E52" s="3">
-        <v>955900</v>
+        <v>1077900</v>
       </c>
       <c r="F52" s="3">
-        <v>937300</v>
+        <v>991000</v>
       </c>
       <c r="G52" s="3">
-        <v>844400</v>
+        <v>971700</v>
       </c>
       <c r="H52" s="3">
-        <v>835100</v>
+        <v>875300</v>
       </c>
       <c r="I52" s="3">
-        <v>798200</v>
+        <v>865700</v>
       </c>
       <c r="J52" s="3">
+        <v>827500</v>
+      </c>
+      <c r="K52" s="3">
         <v>823800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>807200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>875700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>926900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>966700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>877800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>911400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>893200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>993200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>881500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>914100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>875400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>911800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>925500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>867000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>685400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>397300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>395700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35468000</v>
+        <v>35159800</v>
       </c>
       <c r="E54" s="3">
-        <v>34138900</v>
+        <v>36768700</v>
       </c>
       <c r="F54" s="3">
-        <v>30823900</v>
+        <v>35390900</v>
       </c>
       <c r="G54" s="3">
-        <v>28554100</v>
+        <v>31954300</v>
       </c>
       <c r="H54" s="3">
-        <v>27321400</v>
+        <v>29601200</v>
       </c>
       <c r="I54" s="3">
-        <v>26873900</v>
+        <v>28323300</v>
       </c>
       <c r="J54" s="3">
+        <v>27859400</v>
+      </c>
+      <c r="K54" s="3">
         <v>26834500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26336600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28001000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31227300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32189000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33973200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33429200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33814600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34963300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33127800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33271700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31641700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30487700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31278300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30105200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>29429900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>23563000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23750700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2524800</v>
+        <v>2484900</v>
       </c>
       <c r="E57" s="3">
-        <v>2463300</v>
+        <v>2617400</v>
       </c>
       <c r="F57" s="3">
-        <v>2403300</v>
+        <v>2553600</v>
       </c>
       <c r="G57" s="3">
-        <v>2034800</v>
+        <v>2491500</v>
       </c>
       <c r="H57" s="3">
-        <v>1906800</v>
+        <v>2109400</v>
       </c>
       <c r="I57" s="3">
-        <v>1841400</v>
+        <v>1976800</v>
       </c>
       <c r="J57" s="3">
+        <v>1908900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1831500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1597300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1511700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1742400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1939600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2091700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2278800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2338800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2565400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2413100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2557500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2485200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2744100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2742000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2594600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2526300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2129800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1891800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5155000</v>
+        <v>4523400</v>
       </c>
       <c r="E58" s="3">
-        <v>4882200</v>
+        <v>5344000</v>
       </c>
       <c r="F58" s="3">
-        <v>3675200</v>
+        <v>5061200</v>
       </c>
       <c r="G58" s="3">
-        <v>3714900</v>
+        <v>3810000</v>
       </c>
       <c r="H58" s="3">
-        <v>3193400</v>
+        <v>3851100</v>
       </c>
       <c r="I58" s="3">
-        <v>2863400</v>
+        <v>3310500</v>
       </c>
       <c r="J58" s="3">
+        <v>2968400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2619500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2928500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3409100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5190700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5308400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5845400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5004000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4708300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4403400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4835900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3995900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4127800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2982300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3226400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2743000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4866100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1932300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2705700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3525700</v>
+        <v>3601400</v>
       </c>
       <c r="E59" s="3">
-        <v>3353500</v>
+        <v>3655000</v>
       </c>
       <c r="F59" s="3">
-        <v>3308700</v>
+        <v>3476500</v>
       </c>
       <c r="G59" s="3">
-        <v>2802700</v>
+        <v>3430100</v>
       </c>
       <c r="H59" s="3">
-        <v>2652700</v>
+        <v>2905500</v>
       </c>
       <c r="I59" s="3">
-        <v>2518700</v>
+        <v>2749900</v>
       </c>
       <c r="J59" s="3">
+        <v>2611000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2588500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2524800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2635500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2809300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2959500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3169700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3262900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3290300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3430500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3011500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3336600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3020600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3220100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3131200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2985200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2675700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2148500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1977100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11205500</v>
+        <v>10609700</v>
       </c>
       <c r="E60" s="3">
-        <v>10699100</v>
+        <v>11616400</v>
       </c>
       <c r="F60" s="3">
-        <v>9387300</v>
+        <v>11091400</v>
       </c>
       <c r="G60" s="3">
-        <v>8552400</v>
+        <v>9731600</v>
       </c>
       <c r="H60" s="3">
-        <v>7752900</v>
+        <v>8866000</v>
       </c>
       <c r="I60" s="3">
-        <v>7223400</v>
+        <v>8037200</v>
       </c>
       <c r="J60" s="3">
+        <v>7488300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7039400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7050600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7556300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9742300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10207500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11106800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10545700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10337400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10399400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10260500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9890100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9633600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8946500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9099600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8322800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10068000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6210600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6574700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3144300</v>
+        <v>4027000</v>
       </c>
       <c r="E61" s="3">
-        <v>3369600</v>
+        <v>3259600</v>
       </c>
       <c r="F61" s="3">
-        <v>3041700</v>
+        <v>3493200</v>
       </c>
       <c r="G61" s="3">
-        <v>2836000</v>
+        <v>3153200</v>
       </c>
       <c r="H61" s="3">
-        <v>2936400</v>
+        <v>2940100</v>
       </c>
       <c r="I61" s="3">
-        <v>3555300</v>
+        <v>3044100</v>
       </c>
       <c r="J61" s="3">
+        <v>3685700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3832300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3788600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4116400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3747600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3610700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3704600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3739100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4491900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4540600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4285500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4526300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4365800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4345500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4771500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4645600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2829700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1692900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1742600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1888200</v>
+        <v>1866700</v>
       </c>
       <c r="E62" s="3">
-        <v>1825300</v>
+        <v>1957400</v>
       </c>
       <c r="F62" s="3">
-        <v>1688900</v>
+        <v>1892200</v>
       </c>
       <c r="G62" s="3">
-        <v>1663400</v>
+        <v>1750900</v>
       </c>
       <c r="H62" s="3">
-        <v>1644900</v>
+        <v>1724400</v>
       </c>
       <c r="I62" s="3">
-        <v>1694600</v>
+        <v>1705200</v>
       </c>
       <c r="J62" s="3">
+        <v>1756800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1697600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1628100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1786600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1929800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2017500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1936900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1955600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1946800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1736800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1588900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1545500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1485000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1433600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1437400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1448700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1400700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1037100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1041600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17196100</v>
+        <v>17463600</v>
       </c>
       <c r="E66" s="3">
-        <v>16802000</v>
+        <v>17826700</v>
       </c>
       <c r="F66" s="3">
-        <v>14995400</v>
+        <v>17418200</v>
       </c>
       <c r="G66" s="3">
-        <v>13921900</v>
+        <v>15545300</v>
       </c>
       <c r="H66" s="3">
-        <v>13157500</v>
+        <v>14432500</v>
       </c>
       <c r="I66" s="3">
-        <v>13177100</v>
+        <v>13640000</v>
       </c>
       <c r="J66" s="3">
+        <v>13660300</v>
+      </c>
+      <c r="K66" s="3">
         <v>13276300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13146300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14153500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16184500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16581100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17541800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16997900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17543800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17515500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16912800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16751000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16218100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15440300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16046200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15109600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14968700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9577900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9984500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14605500</v>
+        <v>15205800</v>
       </c>
       <c r="E72" s="3">
-        <v>14023300</v>
+        <v>15141100</v>
       </c>
       <c r="F72" s="3">
-        <v>13828400</v>
+        <v>14537500</v>
       </c>
       <c r="G72" s="3">
-        <v>13336100</v>
+        <v>14335500</v>
       </c>
       <c r="H72" s="3">
-        <v>13162200</v>
+        <v>13825200</v>
       </c>
       <c r="I72" s="3">
-        <v>12791800</v>
+        <v>13644900</v>
       </c>
       <c r="J72" s="3">
+        <v>13260900</v>
+      </c>
+      <c r="K72" s="3">
         <v>12749900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12886400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13604200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14720100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15384800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15739500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15939800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15497700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16338300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15366800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15023600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14132800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13901600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13527900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13353100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12762200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>12442100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>12042600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18272000</v>
+        <v>17696200</v>
       </c>
       <c r="E76" s="3">
-        <v>17336900</v>
+        <v>18942100</v>
       </c>
       <c r="F76" s="3">
-        <v>15828500</v>
+        <v>17972700</v>
       </c>
       <c r="G76" s="3">
-        <v>14632200</v>
+        <v>16409000</v>
       </c>
       <c r="H76" s="3">
-        <v>14163900</v>
+        <v>15168800</v>
       </c>
       <c r="I76" s="3">
-        <v>13696800</v>
+        <v>14683300</v>
       </c>
       <c r="J76" s="3">
+        <v>14199100</v>
+      </c>
+      <c r="K76" s="3">
         <v>13558200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13190300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13847500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15042800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15607800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16431500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16431400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16270800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17447700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16215000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16520700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15423500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15047400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15232100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14995700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14461200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13985100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13766200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>582200</v>
+        <v>509700</v>
       </c>
       <c r="E81" s="3">
-        <v>570400</v>
+        <v>603500</v>
       </c>
       <c r="F81" s="3">
-        <v>492200</v>
+        <v>591300</v>
       </c>
       <c r="G81" s="3">
-        <v>442100</v>
+        <v>510300</v>
       </c>
       <c r="H81" s="3">
-        <v>370400</v>
+        <v>458400</v>
       </c>
       <c r="I81" s="3">
-        <v>289900</v>
+        <v>384000</v>
       </c>
       <c r="J81" s="3">
+        <v>300600</v>
+      </c>
+      <c r="K81" s="3">
         <v>285500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>210200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>163900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>138600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>163700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>411800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>391400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>434900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>694700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>555200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>579800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>572400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>373800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>481900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>590900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>329000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>399600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>273300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>261600</v>
+        <v>283000</v>
       </c>
       <c r="E83" s="3">
-        <v>256500</v>
+        <v>271200</v>
       </c>
       <c r="F83" s="3">
-        <v>264400</v>
+        <v>265900</v>
       </c>
       <c r="G83" s="3">
-        <v>221900</v>
+        <v>274100</v>
       </c>
       <c r="H83" s="3">
-        <v>237600</v>
+        <v>230000</v>
       </c>
       <c r="I83" s="3">
-        <v>242800</v>
+        <v>246300</v>
       </c>
       <c r="J83" s="3">
+        <v>251700</v>
+      </c>
+      <c r="K83" s="3">
         <v>247200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>245900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>256200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>271400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>302800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>296400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>294100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>299300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>320500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>309400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>301200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>299200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>316900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>301900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>295000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>296800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>238900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>226700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>197700</v>
+        <v>422900</v>
       </c>
       <c r="E89" s="3">
-        <v>-16600</v>
+        <v>204900</v>
       </c>
       <c r="F89" s="3">
-        <v>823200</v>
+        <v>-17300</v>
       </c>
       <c r="G89" s="3">
-        <v>194500</v>
+        <v>853400</v>
       </c>
       <c r="H89" s="3">
-        <v>658200</v>
+        <v>201600</v>
       </c>
       <c r="I89" s="3">
-        <v>458000</v>
+        <v>682300</v>
       </c>
       <c r="J89" s="3">
+        <v>474800</v>
+      </c>
+      <c r="K89" s="3">
         <v>813600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>636600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>759600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>469400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1208900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>202300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>715400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>530400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>982200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>259100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>677800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>603600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>357400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>376500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>971600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>448000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-353600</v>
+        <v>-357600</v>
       </c>
       <c r="E91" s="3">
-        <v>-257900</v>
+        <v>-366600</v>
       </c>
       <c r="F91" s="3">
-        <v>-277500</v>
+        <v>-267400</v>
       </c>
       <c r="G91" s="3">
-        <v>-294500</v>
+        <v>-287600</v>
       </c>
       <c r="H91" s="3">
-        <v>-314100</v>
+        <v>-305300</v>
       </c>
       <c r="I91" s="3">
-        <v>-269200</v>
+        <v>-325700</v>
       </c>
       <c r="J91" s="3">
+        <v>-279100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-314200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-380900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-374000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-317900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-397700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-434800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-439600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-403000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-453500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-552400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-411600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-382200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-288700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-389600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-331300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-390900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-378000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-367800</v>
+        <v>-335100</v>
       </c>
       <c r="E94" s="3">
-        <v>-237100</v>
+        <v>-381300</v>
       </c>
       <c r="F94" s="3">
-        <v>-279800</v>
+        <v>-245800</v>
       </c>
       <c r="G94" s="3">
-        <v>-246800</v>
+        <v>-290100</v>
       </c>
       <c r="H94" s="3">
-        <v>-281100</v>
+        <v>-255800</v>
       </c>
       <c r="I94" s="3">
-        <v>-210300</v>
+        <v>-291400</v>
       </c>
       <c r="J94" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-258800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-341100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-347300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-302300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-366600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-388200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-542900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-436300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-432300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-524300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-408300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-388400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-520100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-228800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>103500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-347600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-383000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-445000</v>
       </c>
       <c r="E96" s="3">
-        <v>-375500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-389300</v>
       </c>
       <c r="G96" s="3">
-        <v>-268200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-278000</v>
       </c>
       <c r="I96" s="3">
-        <v>-248100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-257100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-124700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-314400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-473400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-510400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-454600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-411800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-307100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-247400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-242700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-195100</v>
+        <v>113700</v>
       </c>
       <c r="E100" s="3">
-        <v>518500</v>
+        <v>-202200</v>
       </c>
       <c r="F100" s="3">
-        <v>-264300</v>
+        <v>537500</v>
       </c>
       <c r="G100" s="3">
-        <v>17800</v>
+        <v>-274000</v>
       </c>
       <c r="H100" s="3">
-        <v>-109900</v>
+        <v>18400</v>
       </c>
       <c r="I100" s="3">
-        <v>-309100</v>
+        <v>-113900</v>
       </c>
       <c r="J100" s="3">
+        <v>-320400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-371100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-442100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-584000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-261700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>363600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-431900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>305300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-522600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>409300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-408800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>466900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-341500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>246200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-372500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2673000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-763500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>417200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79500</v>
+        <v>-103700</v>
       </c>
       <c r="E101" s="3">
-        <v>218700</v>
+        <v>-82400</v>
       </c>
       <c r="F101" s="3">
-        <v>35200</v>
+        <v>226700</v>
       </c>
       <c r="G101" s="3">
-        <v>21800</v>
+        <v>36500</v>
       </c>
       <c r="H101" s="3">
-        <v>4100</v>
+        <v>22600</v>
       </c>
       <c r="I101" s="3">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>19000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-24800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>62300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-40600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-66000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>69000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>13800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-66000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-444700</v>
+        <v>97800</v>
       </c>
       <c r="E102" s="3">
-        <v>483400</v>
+        <v>-461000</v>
       </c>
       <c r="F102" s="3">
-        <v>314300</v>
+        <v>501100</v>
       </c>
       <c r="G102" s="3">
-        <v>-12700</v>
+        <v>325800</v>
       </c>
       <c r="H102" s="3">
-        <v>271300</v>
+        <v>-13200</v>
       </c>
       <c r="I102" s="3">
-        <v>-51400</v>
+        <v>281300</v>
       </c>
       <c r="J102" s="3">
+        <v>-53300</v>
+      </c>
+      <c r="K102" s="3">
         <v>175400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-127500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-160800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>63900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>563600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>188100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-280200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>412300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>206500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-179800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-189000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>35100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>97400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>278000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-125700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>416200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6765700</v>
+        <v>7240600</v>
       </c>
       <c r="E8" s="3">
-        <v>6283700</v>
+        <v>6636800</v>
       </c>
       <c r="F8" s="3">
-        <v>5614000</v>
+        <v>6164000</v>
       </c>
       <c r="G8" s="3">
-        <v>5789200</v>
+        <v>5507100</v>
       </c>
       <c r="H8" s="3">
-        <v>5316100</v>
+        <v>5678900</v>
       </c>
       <c r="I8" s="3">
-        <v>4727000</v>
+        <v>5214800</v>
       </c>
       <c r="J8" s="3">
+        <v>4637000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4764800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4794300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4072500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3887100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3913000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5439500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5593100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5548200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5585500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6790800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6613400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6242700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5872700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6285600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5847500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5403600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5073300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5111600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3819400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4734600</v>
+        <v>5139600</v>
       </c>
       <c r="E9" s="3">
-        <v>4425100</v>
+        <v>4644400</v>
       </c>
       <c r="F9" s="3">
-        <v>4008700</v>
+        <v>4340800</v>
       </c>
       <c r="G9" s="3">
-        <v>4172900</v>
+        <v>3932300</v>
       </c>
       <c r="H9" s="3">
-        <v>3840000</v>
+        <v>4093400</v>
       </c>
       <c r="I9" s="3">
-        <v>3362500</v>
+        <v>3766800</v>
       </c>
       <c r="J9" s="3">
+        <v>3298400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3491800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3540700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2999800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2844100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2855200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3983000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4023200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3933000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3914600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4734300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4644500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4266600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4011000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4364100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4072000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3892100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3635600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3643900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2714800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2031100</v>
+        <v>2101000</v>
       </c>
       <c r="E10" s="3">
-        <v>1858700</v>
+        <v>1992400</v>
       </c>
       <c r="F10" s="3">
-        <v>1605300</v>
+        <v>1823300</v>
       </c>
       <c r="G10" s="3">
-        <v>1616300</v>
+        <v>1574700</v>
       </c>
       <c r="H10" s="3">
-        <v>1476100</v>
+        <v>1585500</v>
       </c>
       <c r="I10" s="3">
-        <v>1364600</v>
+        <v>1448000</v>
       </c>
       <c r="J10" s="3">
+        <v>1338600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1272900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1253500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1072700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1043000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1057800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1456500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1569900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1615200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1670900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2056500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1968800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1976100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1861700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1921400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1775500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1511500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1437700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1467700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1104600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,13 +1238,16 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>39800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1239,11 +1255,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1251,11 +1267,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>17000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1272,8 +1288,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1281,8 +1297,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1299,17 +1315,20 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
         <v>15500</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5773700</v>
+        <v>6201700</v>
       </c>
       <c r="E17" s="3">
-        <v>5415900</v>
+        <v>5663700</v>
       </c>
       <c r="F17" s="3">
-        <v>4926300</v>
+        <v>5312700</v>
       </c>
       <c r="G17" s="3">
-        <v>5103800</v>
+        <v>4832500</v>
       </c>
       <c r="H17" s="3">
-        <v>4673100</v>
+        <v>5006600</v>
       </c>
       <c r="I17" s="3">
-        <v>4179200</v>
+        <v>4584100</v>
       </c>
       <c r="J17" s="3">
+        <v>4099600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4310900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4370300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3726600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3626700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3683400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5061800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4993300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4930400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4900700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5810800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5711600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5274100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4999600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5531700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5170900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4865900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4606000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4516700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3438900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>992000</v>
+        <v>1038900</v>
       </c>
       <c r="E18" s="3">
-        <v>867800</v>
+        <v>973100</v>
       </c>
       <c r="F18" s="3">
-        <v>687700</v>
+        <v>851300</v>
       </c>
       <c r="G18" s="3">
-        <v>685400</v>
+        <v>674600</v>
       </c>
       <c r="H18" s="3">
-        <v>643000</v>
+        <v>672300</v>
       </c>
       <c r="I18" s="3">
-        <v>547800</v>
+        <v>630700</v>
       </c>
       <c r="J18" s="3">
+        <v>537400</v>
+      </c>
+      <c r="K18" s="3">
         <v>453900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>423900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>345900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>260400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>229600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>377800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>599900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>617800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>684800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>979900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>901800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>968600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>873100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>753900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>676500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>537700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>467400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>594900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>380500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1645,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-87700</v>
+        <v>21800</v>
       </c>
       <c r="E20" s="3">
-        <v>25200</v>
+        <v>-86000</v>
       </c>
       <c r="F20" s="3">
-        <v>173300</v>
+        <v>24700</v>
       </c>
       <c r="G20" s="3">
-        <v>74300</v>
+        <v>170000</v>
       </c>
       <c r="H20" s="3">
-        <v>27100</v>
+        <v>72900</v>
       </c>
       <c r="I20" s="3">
-        <v>24300</v>
+        <v>26600</v>
       </c>
       <c r="J20" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K20" s="3">
         <v>19600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>46200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>37200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-35000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>21000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-17900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>372500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>36500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1187300</v>
+        <v>1335500</v>
       </c>
       <c r="E21" s="3">
-        <v>1164300</v>
+        <v>1164700</v>
       </c>
       <c r="F21" s="3">
-        <v>1126900</v>
+        <v>1142100</v>
       </c>
       <c r="G21" s="3">
-        <v>1033800</v>
+        <v>1105500</v>
       </c>
       <c r="H21" s="3">
-        <v>900100</v>
+        <v>1014100</v>
       </c>
       <c r="I21" s="3">
-        <v>818400</v>
+        <v>883000</v>
       </c>
       <c r="J21" s="3">
+        <v>802800</v>
+      </c>
+      <c r="K21" s="3">
         <v>725200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>691100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>597700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>517900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>547300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>645500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>911300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>916800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>973100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1337600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1176100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1281800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1193400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1052800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>992600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1205300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>763800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>821800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>643700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>80800</v>
+        <v>75600</v>
       </c>
       <c r="E22" s="3">
-        <v>45700</v>
+        <v>79200</v>
       </c>
       <c r="F22" s="3">
-        <v>34300</v>
+        <v>44800</v>
       </c>
       <c r="G22" s="3">
-        <v>22900</v>
+        <v>33700</v>
       </c>
       <c r="H22" s="3">
-        <v>24700</v>
+        <v>22400</v>
       </c>
       <c r="I22" s="3">
-        <v>20400</v>
+        <v>24300</v>
       </c>
       <c r="J22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K22" s="3">
         <v>21800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>61000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>59900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>55600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>49300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>44700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>46900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>42200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>32300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>22400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>16300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>823600</v>
+        <v>985100</v>
       </c>
       <c r="E23" s="3">
-        <v>847300</v>
+        <v>807900</v>
       </c>
       <c r="F23" s="3">
-        <v>826700</v>
+        <v>831200</v>
       </c>
       <c r="G23" s="3">
-        <v>736900</v>
+        <v>810900</v>
       </c>
       <c r="H23" s="3">
-        <v>645400</v>
+        <v>722800</v>
       </c>
       <c r="I23" s="3">
-        <v>551700</v>
+        <v>633100</v>
       </c>
       <c r="J23" s="3">
+        <v>541100</v>
+      </c>
+      <c r="K23" s="3">
         <v>451700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>421300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>328600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>234000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>243100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>292400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>562200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>563400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>612900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>956100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>806800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>925000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>844800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>691300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>643900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>868000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>434800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>560600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>400600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>281900</v>
+        <v>276300</v>
       </c>
       <c r="E24" s="3">
-        <v>215700</v>
+        <v>276600</v>
       </c>
       <c r="F24" s="3">
-        <v>216900</v>
+        <v>211600</v>
       </c>
       <c r="G24" s="3">
-        <v>226300</v>
+        <v>212800</v>
       </c>
       <c r="H24" s="3">
-        <v>169700</v>
+        <v>222000</v>
       </c>
       <c r="I24" s="3">
-        <v>151900</v>
+        <v>166500</v>
       </c>
       <c r="J24" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K24" s="3">
         <v>132500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>113200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>83700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>114500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>129800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>163500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>239900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>227500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>274200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>254700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>293100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>142000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>259900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>85900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>135000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>124400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>541600</v>
+        <v>708800</v>
       </c>
       <c r="E26" s="3">
-        <v>631600</v>
+        <v>531300</v>
       </c>
       <c r="F26" s="3">
-        <v>609800</v>
+        <v>619600</v>
       </c>
       <c r="G26" s="3">
-        <v>510600</v>
+        <v>598100</v>
       </c>
       <c r="H26" s="3">
-        <v>475600</v>
+        <v>500800</v>
       </c>
       <c r="I26" s="3">
-        <v>399800</v>
+        <v>466600</v>
       </c>
       <c r="J26" s="3">
+        <v>392100</v>
+      </c>
+      <c r="K26" s="3">
         <v>319200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>308000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>227100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>177200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>159300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>177900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>432300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>399900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>449600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>716200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>579400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>650800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>590100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>398100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>501800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>608200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>348900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>425700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>276200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>509700</v>
+        <v>681300</v>
       </c>
       <c r="E27" s="3">
-        <v>603500</v>
+        <v>500000</v>
       </c>
       <c r="F27" s="3">
-        <v>591300</v>
+        <v>592000</v>
       </c>
       <c r="G27" s="3">
-        <v>510300</v>
+        <v>580100</v>
       </c>
       <c r="H27" s="3">
-        <v>458400</v>
+        <v>500600</v>
       </c>
       <c r="I27" s="3">
-        <v>384000</v>
+        <v>449600</v>
       </c>
       <c r="J27" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K27" s="3">
         <v>300600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>285500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>210200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>138600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>163700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>411800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>391400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>434900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>694700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>555200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>579800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>572400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>373800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>481900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>590900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>329000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>399600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>273300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>87700</v>
+        <v>-21800</v>
       </c>
       <c r="E32" s="3">
-        <v>-25200</v>
+        <v>86000</v>
       </c>
       <c r="F32" s="3">
-        <v>-173300</v>
+        <v>-24700</v>
       </c>
       <c r="G32" s="3">
-        <v>-74300</v>
+        <v>-170000</v>
       </c>
       <c r="H32" s="3">
-        <v>-27100</v>
+        <v>-72900</v>
       </c>
       <c r="I32" s="3">
-        <v>-24300</v>
+        <v>-26600</v>
       </c>
       <c r="J32" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-46200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-37200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>35000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-21000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>17900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-372500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>11900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-36500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>509700</v>
+        <v>681300</v>
       </c>
       <c r="E33" s="3">
-        <v>603500</v>
+        <v>500000</v>
       </c>
       <c r="F33" s="3">
-        <v>591300</v>
+        <v>592000</v>
       </c>
       <c r="G33" s="3">
-        <v>510300</v>
+        <v>580100</v>
       </c>
       <c r="H33" s="3">
-        <v>458400</v>
+        <v>500600</v>
       </c>
       <c r="I33" s="3">
-        <v>384000</v>
+        <v>449600</v>
       </c>
       <c r="J33" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K33" s="3">
         <v>300600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>285500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>210200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>138600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>163700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>411800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>391400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>434900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>694700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>555200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>579800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>572400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>373800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>481900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>590900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>329000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>399600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>273300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>509700</v>
+        <v>681300</v>
       </c>
       <c r="E35" s="3">
-        <v>603500</v>
+        <v>500000</v>
       </c>
       <c r="F35" s="3">
-        <v>591300</v>
+        <v>592000</v>
       </c>
       <c r="G35" s="3">
-        <v>510300</v>
+        <v>580100</v>
       </c>
       <c r="H35" s="3">
-        <v>458400</v>
+        <v>500600</v>
       </c>
       <c r="I35" s="3">
-        <v>384000</v>
+        <v>449600</v>
       </c>
       <c r="J35" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K35" s="3">
         <v>300600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>285500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>210200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>138600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>163700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>411800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>391400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>434900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>694700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>555200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>579800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>572400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>373800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>481900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>590900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>329000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>399600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>273300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3176,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2470700</v>
+        <v>2090700</v>
       </c>
       <c r="E41" s="3">
-        <v>2363700</v>
+        <v>2423600</v>
       </c>
       <c r="F41" s="3">
-        <v>2827000</v>
+        <v>2318700</v>
       </c>
       <c r="G41" s="3">
-        <v>2327500</v>
+        <v>2773200</v>
       </c>
       <c r="H41" s="3">
-        <v>2008800</v>
+        <v>2283200</v>
       </c>
       <c r="I41" s="3">
-        <v>2013900</v>
+        <v>1970600</v>
       </c>
       <c r="J41" s="3">
+        <v>1975600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1732900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1723800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1601600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1837300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2194200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2199600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1689900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1514000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1792800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1449300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1421600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1196300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1343400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1327600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1516900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1482200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1381200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1083800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1209600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,589 +3346,613 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7127700</v>
+        <v>8016900</v>
       </c>
       <c r="E43" s="3">
-        <v>7615000</v>
+        <v>6991900</v>
       </c>
       <c r="F43" s="3">
-        <v>7312800</v>
+        <v>7470000</v>
       </c>
       <c r="G43" s="3">
-        <v>7016200</v>
+        <v>7173500</v>
       </c>
       <c r="H43" s="3">
-        <v>6264500</v>
+        <v>6882500</v>
       </c>
       <c r="I43" s="3">
-        <v>5856700</v>
+        <v>6145100</v>
       </c>
       <c r="J43" s="3">
+        <v>5745200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5791100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5818700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5049300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5218600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5668600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6558100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7002300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6799600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7109800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8093400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7464600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7593000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7131300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7166100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6920900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6481500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5949400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5492900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5117000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9143600</v>
+        <v>8848200</v>
       </c>
       <c r="E44" s="3">
-        <v>9371400</v>
+        <v>8969500</v>
       </c>
       <c r="F44" s="3">
-        <v>8633600</v>
+        <v>9192900</v>
       </c>
       <c r="G44" s="3">
-        <v>7261900</v>
+        <v>8469200</v>
       </c>
       <c r="H44" s="3">
-        <v>6624900</v>
+        <v>7123600</v>
       </c>
       <c r="I44" s="3">
-        <v>6241900</v>
+        <v>6498700</v>
       </c>
       <c r="J44" s="3">
+        <v>6123000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6020100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5628400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6025000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6535000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7393100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7094800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8199300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8217800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8015200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8048900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7793600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7851600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7246200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6601800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6847600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6441600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6211000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4735700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5252300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1457400</v>
+        <v>1495900</v>
       </c>
       <c r="E45" s="3">
-        <v>1470700</v>
+        <v>1429700</v>
       </c>
       <c r="F45" s="3">
-        <v>1377200</v>
+        <v>1442600</v>
       </c>
       <c r="G45" s="3">
-        <v>1190800</v>
+        <v>1351000</v>
       </c>
       <c r="H45" s="3">
-        <v>1202900</v>
+        <v>1168200</v>
       </c>
       <c r="I45" s="3">
-        <v>1010200</v>
+        <v>1180000</v>
       </c>
       <c r="J45" s="3">
+        <v>991000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1023700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>933200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>962600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1023800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1269500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1298700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1368900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1225300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1322900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1330200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1291000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1205900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1188900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1154700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1105700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1052800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1084600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1278800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1242800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20199400</v>
+        <v>20451700</v>
       </c>
       <c r="E46" s="3">
-        <v>20820800</v>
+        <v>19814700</v>
       </c>
       <c r="F46" s="3">
-        <v>20150600</v>
+        <v>20424200</v>
       </c>
       <c r="G46" s="3">
-        <v>17796400</v>
+        <v>19766800</v>
       </c>
       <c r="H46" s="3">
-        <v>16101100</v>
+        <v>17457400</v>
       </c>
       <c r="I46" s="3">
-        <v>15122700</v>
+        <v>15794400</v>
       </c>
       <c r="J46" s="3">
+        <v>14834700</v>
+      </c>
+      <c r="K46" s="3">
         <v>14567700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14104100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13638400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14614700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16525500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17151200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18260400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17756700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18240800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18921700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17970800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17846800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16909800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16250200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16391200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15458100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>14626200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12591200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12821700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4732500</v>
+        <v>4560800</v>
       </c>
       <c r="E47" s="3">
-        <v>5034900</v>
+        <v>4642400</v>
       </c>
       <c r="F47" s="3">
-        <v>4696900</v>
+        <v>4939000</v>
       </c>
       <c r="G47" s="3">
-        <v>4087800</v>
+        <v>4607500</v>
       </c>
       <c r="H47" s="3">
-        <v>3886700</v>
+        <v>4009900</v>
       </c>
       <c r="I47" s="3">
-        <v>3721200</v>
+        <v>3812700</v>
       </c>
       <c r="J47" s="3">
+        <v>3650400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3831400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3505200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3513400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3679600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4108100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4109500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4302400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4281700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4254400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4431700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3945800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4110500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3870100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3656300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3775100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3603400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3962700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3654400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3553700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6540400</v>
+        <v>6470900</v>
       </c>
       <c r="E48" s="3">
-        <v>6845900</v>
+        <v>6415800</v>
       </c>
       <c r="F48" s="3">
-        <v>6733300</v>
+        <v>6715500</v>
       </c>
       <c r="G48" s="3">
-        <v>6477300</v>
+        <v>6605100</v>
       </c>
       <c r="H48" s="3">
-        <v>6244500</v>
+        <v>6353900</v>
       </c>
       <c r="I48" s="3">
-        <v>6160700</v>
+        <v>6125600</v>
       </c>
       <c r="J48" s="3">
+        <v>6043400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6152900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5993200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6007500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6325100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6898700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7146100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7436500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7400100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7454200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7461400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7167800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7111300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6849300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6694400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6941200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6903500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6874400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6023000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6087900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2736100</v>
+        <v>2699100</v>
       </c>
       <c r="E49" s="3">
-        <v>2989300</v>
+        <v>2684000</v>
       </c>
       <c r="F49" s="3">
-        <v>2819000</v>
+        <v>2932300</v>
       </c>
       <c r="G49" s="3">
-        <v>2621100</v>
+        <v>2765300</v>
       </c>
       <c r="H49" s="3">
-        <v>2493600</v>
+        <v>2571200</v>
       </c>
       <c r="I49" s="3">
-        <v>2452900</v>
+        <v>2446100</v>
       </c>
       <c r="J49" s="3">
+        <v>2406100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2479900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2408200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2370200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2505800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2768200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2815500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3096100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3079300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2972100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3155200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3161900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3289100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3137100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2975000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3245200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3273300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3281300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>897200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>891700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>951400</v>
+        <v>972300</v>
       </c>
       <c r="E52" s="3">
-        <v>1077900</v>
+        <v>933200</v>
       </c>
       <c r="F52" s="3">
-        <v>991000</v>
+        <v>1057400</v>
       </c>
       <c r="G52" s="3">
-        <v>971700</v>
+        <v>972100</v>
       </c>
       <c r="H52" s="3">
-        <v>875300</v>
+        <v>953200</v>
       </c>
       <c r="I52" s="3">
-        <v>865700</v>
+        <v>858600</v>
       </c>
       <c r="J52" s="3">
+        <v>849300</v>
+      </c>
+      <c r="K52" s="3">
         <v>827500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>823800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>807200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>875700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>926900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>966700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>877800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>911400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>893200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>993200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>881500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>914100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>875400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>911800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>925500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>867000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>685400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>397300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>395700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35159800</v>
+        <v>35154900</v>
       </c>
       <c r="E54" s="3">
-        <v>36768700</v>
+        <v>34490100</v>
       </c>
       <c r="F54" s="3">
-        <v>35390900</v>
+        <v>36068300</v>
       </c>
       <c r="G54" s="3">
-        <v>31954300</v>
+        <v>34716700</v>
       </c>
       <c r="H54" s="3">
-        <v>29601200</v>
+        <v>31345600</v>
       </c>
       <c r="I54" s="3">
-        <v>28323300</v>
+        <v>29037400</v>
       </c>
       <c r="J54" s="3">
+        <v>27783800</v>
+      </c>
+      <c r="K54" s="3">
         <v>27859400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26834500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26336600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28001000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31227300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32189000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33973200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33429200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33814600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34963300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33127800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33271700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>31641700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30487700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31278300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30105200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>29429900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>23563000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23750700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2484900</v>
+        <v>2612600</v>
       </c>
       <c r="E57" s="3">
-        <v>2617400</v>
+        <v>2437600</v>
       </c>
       <c r="F57" s="3">
-        <v>2553600</v>
+        <v>2567600</v>
       </c>
       <c r="G57" s="3">
-        <v>2491500</v>
+        <v>2505000</v>
       </c>
       <c r="H57" s="3">
-        <v>2109400</v>
+        <v>2444000</v>
       </c>
       <c r="I57" s="3">
-        <v>1976800</v>
+        <v>2069300</v>
       </c>
       <c r="J57" s="3">
+        <v>1939100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1908900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1831500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1597300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1511700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1742400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1939600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2091700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2278800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2338800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2565400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2413100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2557500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2485200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2744100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2742000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2594600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2526300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2129800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1891800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4523400</v>
+        <v>3515400</v>
       </c>
       <c r="E58" s="3">
-        <v>5344000</v>
+        <v>4437300</v>
       </c>
       <c r="F58" s="3">
-        <v>5061200</v>
+        <v>5242200</v>
       </c>
       <c r="G58" s="3">
-        <v>3810000</v>
+        <v>4964800</v>
       </c>
       <c r="H58" s="3">
-        <v>3851100</v>
+        <v>3737400</v>
       </c>
       <c r="I58" s="3">
-        <v>3310500</v>
+        <v>3777700</v>
       </c>
       <c r="J58" s="3">
+        <v>3247400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2968400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2619500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2928500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3409100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5190700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5308400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5845400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5004000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4708300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4403400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4835900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3995900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4127800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2982300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3226400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2743000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4866100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1932300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2705700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3601400</v>
+        <v>3761700</v>
       </c>
       <c r="E59" s="3">
-        <v>3655000</v>
+        <v>3532800</v>
       </c>
       <c r="F59" s="3">
-        <v>3476500</v>
+        <v>3585400</v>
       </c>
       <c r="G59" s="3">
-        <v>3430100</v>
+        <v>3410300</v>
       </c>
       <c r="H59" s="3">
-        <v>2905500</v>
+        <v>3364700</v>
       </c>
       <c r="I59" s="3">
-        <v>2749900</v>
+        <v>2850200</v>
       </c>
       <c r="J59" s="3">
+        <v>2697500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2611000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2588500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2524800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2635500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2809300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2959500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3169700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3262900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3290300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3430500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3011500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3336600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3020600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3220100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3131200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2985200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2675700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2148500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1977100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10609700</v>
+        <v>9889700</v>
       </c>
       <c r="E60" s="3">
-        <v>11616400</v>
+        <v>10407600</v>
       </c>
       <c r="F60" s="3">
-        <v>11091400</v>
+        <v>11395100</v>
       </c>
       <c r="G60" s="3">
-        <v>9731600</v>
+        <v>10880100</v>
       </c>
       <c r="H60" s="3">
-        <v>8866000</v>
+        <v>9546200</v>
       </c>
       <c r="I60" s="3">
-        <v>8037200</v>
+        <v>8697200</v>
       </c>
       <c r="J60" s="3">
+        <v>7884100</v>
+      </c>
+      <c r="K60" s="3">
         <v>7488300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7039400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7050600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7556300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9742300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10207500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11106800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10545700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10337400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10399400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10260500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9890100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9633600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8946500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9099600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8322800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>10068000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6210600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6574700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4027000</v>
+        <v>4082200</v>
       </c>
       <c r="E61" s="3">
-        <v>3259600</v>
+        <v>3950300</v>
       </c>
       <c r="F61" s="3">
-        <v>3493200</v>
+        <v>3197500</v>
       </c>
       <c r="G61" s="3">
-        <v>3153200</v>
+        <v>3426700</v>
       </c>
       <c r="H61" s="3">
-        <v>2940100</v>
+        <v>3093200</v>
       </c>
       <c r="I61" s="3">
-        <v>3044100</v>
+        <v>2884100</v>
       </c>
       <c r="J61" s="3">
+        <v>2986100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3685700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3832300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3788600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4116400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3747600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3610700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3704600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3739100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4491900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4540600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4285500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4526300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4365800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4345500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4771500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4645600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2829700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1692900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1742600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1866700</v>
+        <v>1874900</v>
       </c>
       <c r="E62" s="3">
-        <v>1957400</v>
+        <v>1831100</v>
       </c>
       <c r="F62" s="3">
-        <v>1892200</v>
+        <v>1920100</v>
       </c>
       <c r="G62" s="3">
-        <v>1750900</v>
+        <v>1856200</v>
       </c>
       <c r="H62" s="3">
-        <v>1724400</v>
+        <v>1717500</v>
       </c>
       <c r="I62" s="3">
-        <v>1705200</v>
+        <v>1691600</v>
       </c>
       <c r="J62" s="3">
+        <v>1672700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1756800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1697600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1628100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1786600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1929800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2017500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1936900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1955600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1946800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1736800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1588900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1545500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1485000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1433600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1437400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1448700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1400700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1037100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1041600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17463600</v>
+        <v>16844000</v>
       </c>
       <c r="E66" s="3">
-        <v>17826700</v>
+        <v>17130900</v>
       </c>
       <c r="F66" s="3">
-        <v>17418200</v>
+        <v>17487100</v>
       </c>
       <c r="G66" s="3">
-        <v>15545300</v>
+        <v>17086400</v>
       </c>
       <c r="H66" s="3">
-        <v>14432500</v>
+        <v>15249200</v>
       </c>
       <c r="I66" s="3">
-        <v>13640000</v>
+        <v>14157600</v>
       </c>
       <c r="J66" s="3">
+        <v>13380200</v>
+      </c>
+      <c r="K66" s="3">
         <v>13660300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13276300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13146300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14153500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16184500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16581100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17541800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16997900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17543800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17515500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16912800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16751000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16218100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15440300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16046200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15109600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>14968700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9577900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9984500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15205800</v>
+        <v>15597400</v>
       </c>
       <c r="E72" s="3">
-        <v>15141100</v>
+        <v>14916100</v>
       </c>
       <c r="F72" s="3">
-        <v>14537500</v>
+        <v>14852700</v>
       </c>
       <c r="G72" s="3">
-        <v>14335500</v>
+        <v>14260600</v>
       </c>
       <c r="H72" s="3">
-        <v>13825200</v>
+        <v>14062400</v>
       </c>
       <c r="I72" s="3">
-        <v>13644900</v>
+        <v>13561900</v>
       </c>
       <c r="J72" s="3">
+        <v>13385000</v>
+      </c>
+      <c r="K72" s="3">
         <v>13260900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12749900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12886400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13604200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14720100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15384800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15739500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15939800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15497700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16338300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15366800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15023600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14132800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13901600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13527900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13353100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>12762200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>12442100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>12042600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17696200</v>
+        <v>18310800</v>
       </c>
       <c r="E76" s="3">
-        <v>18942100</v>
+        <v>17359200</v>
       </c>
       <c r="F76" s="3">
-        <v>17972700</v>
+        <v>18581300</v>
       </c>
       <c r="G76" s="3">
-        <v>16409000</v>
+        <v>17630400</v>
       </c>
       <c r="H76" s="3">
-        <v>15168800</v>
+        <v>16096400</v>
       </c>
       <c r="I76" s="3">
-        <v>14683300</v>
+        <v>14879800</v>
       </c>
       <c r="J76" s="3">
+        <v>14403600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14199100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13558200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13190300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13847500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15042800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15607800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16431500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16431400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16270800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17447700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16215000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16520700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15423500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15047400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15232100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14995700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14461200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13985100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13766200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>509700</v>
+        <v>681300</v>
       </c>
       <c r="E81" s="3">
-        <v>603500</v>
+        <v>500000</v>
       </c>
       <c r="F81" s="3">
-        <v>591300</v>
+        <v>592000</v>
       </c>
       <c r="G81" s="3">
-        <v>510300</v>
+        <v>580100</v>
       </c>
       <c r="H81" s="3">
-        <v>458400</v>
+        <v>500600</v>
       </c>
       <c r="I81" s="3">
-        <v>384000</v>
+        <v>449600</v>
       </c>
       <c r="J81" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K81" s="3">
         <v>300600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>285500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>210200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>138600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>163700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>411800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>391400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>434900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>694700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>555200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>579800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>572400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>373800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>481900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>590900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>329000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>399600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>273300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>283000</v>
+        <v>274800</v>
       </c>
       <c r="E83" s="3">
-        <v>271200</v>
+        <v>277600</v>
       </c>
       <c r="F83" s="3">
-        <v>265900</v>
+        <v>266000</v>
       </c>
       <c r="G83" s="3">
-        <v>274100</v>
+        <v>260800</v>
       </c>
       <c r="H83" s="3">
-        <v>230000</v>
+        <v>268900</v>
       </c>
       <c r="I83" s="3">
-        <v>246300</v>
+        <v>225600</v>
       </c>
       <c r="J83" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K83" s="3">
         <v>251700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>247200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>245900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>256200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>271400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>302800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>296400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>294100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>299300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>320500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>309400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>301200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>299200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>316900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>301900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>295000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>296800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>238900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>226700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>422900</v>
+        <v>889700</v>
       </c>
       <c r="E89" s="3">
-        <v>204900</v>
+        <v>414800</v>
       </c>
       <c r="F89" s="3">
-        <v>-17300</v>
+        <v>201000</v>
       </c>
       <c r="G89" s="3">
-        <v>853400</v>
+        <v>-16900</v>
       </c>
       <c r="H89" s="3">
-        <v>201600</v>
+        <v>837100</v>
       </c>
       <c r="I89" s="3">
-        <v>682300</v>
+        <v>197800</v>
       </c>
       <c r="J89" s="3">
+        <v>669300</v>
+      </c>
+      <c r="K89" s="3">
         <v>474800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>813600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>636600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>759600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>469400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1208900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>202300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>715400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>530400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>982200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>259100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>677800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>603600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>357400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>376500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>971600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>448000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-357600</v>
+        <v>-48621000</v>
       </c>
       <c r="E91" s="3">
-        <v>-366600</v>
+        <v>-48655000</v>
       </c>
       <c r="F91" s="3">
-        <v>-267400</v>
+        <v>-49879000</v>
       </c>
       <c r="G91" s="3">
-        <v>-287600</v>
+        <v>-36378000</v>
       </c>
       <c r="H91" s="3">
-        <v>-305300</v>
+        <v>-39135000</v>
       </c>
       <c r="I91" s="3">
-        <v>-325700</v>
+        <v>-41538000</v>
       </c>
       <c r="J91" s="3">
+        <v>-44307000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-279100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-314200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-380900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-374000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-317900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-397700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-434800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-439600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-403000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-453500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-552400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-411600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-382200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-288700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-389600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-331300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-390900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-378000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-335100</v>
+        <v>-278400</v>
       </c>
       <c r="E94" s="3">
-        <v>-381300</v>
+        <v>-328700</v>
       </c>
       <c r="F94" s="3">
-        <v>-245800</v>
+        <v>-374000</v>
       </c>
       <c r="G94" s="3">
-        <v>-290100</v>
+        <v>-241100</v>
       </c>
       <c r="H94" s="3">
-        <v>-255800</v>
+        <v>-284500</v>
       </c>
       <c r="I94" s="3">
-        <v>-291400</v>
+        <v>-250900</v>
       </c>
       <c r="J94" s="3">
+        <v>-285800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-218000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-258800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-341100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-347300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-302300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-366600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-388200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-542900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-436300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-432300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-524300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-408300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-388400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-520100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-228800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>103500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-347600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-383000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7415,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-445000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-436500</v>
       </c>
       <c r="F96" s="3">
-        <v>-389300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-381900</v>
       </c>
       <c r="H96" s="3">
-        <v>-278000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-272700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-257100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-124700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-314400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-473400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-510400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-454600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-411800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-307100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-247400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-242700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>113700</v>
+        <v>-920700</v>
       </c>
       <c r="E100" s="3">
-        <v>-202200</v>
+        <v>111600</v>
       </c>
       <c r="F100" s="3">
-        <v>537500</v>
+        <v>-198400</v>
       </c>
       <c r="G100" s="3">
-        <v>-274000</v>
+        <v>527200</v>
       </c>
       <c r="H100" s="3">
-        <v>18400</v>
+        <v>-268800</v>
       </c>
       <c r="I100" s="3">
-        <v>-113900</v>
+        <v>18100</v>
       </c>
       <c r="J100" s="3">
+        <v>-111700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-320400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-371100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-442100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-584000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-102700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-261700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>363600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-431900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>305300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-522600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>409300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-408800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>466900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-341500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>246200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-372500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2673000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-763500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>417200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-103700</v>
+        <v>-9000</v>
       </c>
       <c r="E101" s="3">
-        <v>-82400</v>
+        <v>-101700</v>
       </c>
       <c r="F101" s="3">
-        <v>226700</v>
+        <v>-80800</v>
       </c>
       <c r="G101" s="3">
-        <v>36500</v>
+        <v>222400</v>
       </c>
       <c r="H101" s="3">
-        <v>22600</v>
+        <v>35800</v>
       </c>
       <c r="I101" s="3">
-        <v>4200</v>
+        <v>22100</v>
       </c>
       <c r="J101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K101" s="3">
         <v>10400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-24800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>62300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-40600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-66000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>69000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>13700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>13800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-66000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>97800</v>
+        <v>-318400</v>
       </c>
       <c r="E102" s="3">
-        <v>-461000</v>
+        <v>96000</v>
       </c>
       <c r="F102" s="3">
-        <v>501100</v>
+        <v>-452200</v>
       </c>
       <c r="G102" s="3">
-        <v>325800</v>
+        <v>491600</v>
       </c>
       <c r="H102" s="3">
-        <v>-13200</v>
+        <v>319600</v>
       </c>
       <c r="I102" s="3">
-        <v>281300</v>
+        <v>-12900</v>
       </c>
       <c r="J102" s="3">
+        <v>275900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-53300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>175400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-127500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-160800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>63900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>563600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>188100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-280200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>412300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>206500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-179800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-189000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>35100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>97400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>278000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-125700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>416200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,392 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7240600</v>
+        <v>6179900</v>
       </c>
       <c r="E8" s="3">
-        <v>6636800</v>
+        <v>6899100</v>
       </c>
       <c r="F8" s="3">
-        <v>6164000</v>
+        <v>6323800</v>
       </c>
       <c r="G8" s="3">
-        <v>5507100</v>
+        <v>5873300</v>
       </c>
       <c r="H8" s="3">
-        <v>5678900</v>
+        <v>5247400</v>
       </c>
       <c r="I8" s="3">
-        <v>5214800</v>
+        <v>5411100</v>
       </c>
       <c r="J8" s="3">
+        <v>4968900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4637000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4764800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4794300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4072500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3887100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3913000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5439500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5593100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5548200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5585500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6790800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6613400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6242700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5872700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6285600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5847500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5403600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5073300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5111600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3819400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5139600</v>
+        <v>4199200</v>
       </c>
       <c r="E9" s="3">
-        <v>4644400</v>
+        <v>4897200</v>
       </c>
       <c r="F9" s="3">
-        <v>4340800</v>
+        <v>4425400</v>
       </c>
       <c r="G9" s="3">
-        <v>3932300</v>
+        <v>4136100</v>
       </c>
       <c r="H9" s="3">
-        <v>4093400</v>
+        <v>3746900</v>
       </c>
       <c r="I9" s="3">
-        <v>3766800</v>
+        <v>3900400</v>
       </c>
       <c r="J9" s="3">
+        <v>3589200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3298400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3491800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3540700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2999800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2844100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2855200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3983000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4023200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3933000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3914600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4734300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4644500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4266600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4011000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4364100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4072000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3892100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3635600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3643900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2714800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2101000</v>
+        <v>1980700</v>
       </c>
       <c r="E10" s="3">
-        <v>1992400</v>
+        <v>2002000</v>
       </c>
       <c r="F10" s="3">
-        <v>1823300</v>
+        <v>1898400</v>
       </c>
       <c r="G10" s="3">
-        <v>1574700</v>
+        <v>1737300</v>
       </c>
       <c r="H10" s="3">
-        <v>1585500</v>
+        <v>1500500</v>
       </c>
       <c r="I10" s="3">
-        <v>1448000</v>
+        <v>1510800</v>
       </c>
       <c r="J10" s="3">
+        <v>1379700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1338600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1272900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1253500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1072700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1043000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1057800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1456500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1569900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1615200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1670900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2056500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1968800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1976100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1861700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1921400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1775500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1511500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1437700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1467700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1104600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1168,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,16 +1257,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>39800</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>37900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1258,11 +1277,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1270,11 +1289,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>17000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1291,8 +1310,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1300,8 +1319,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1318,17 +1337,20 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>15500</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1467,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6201700</v>
+        <v>5169900</v>
       </c>
       <c r="E17" s="3">
-        <v>5663700</v>
+        <v>5909300</v>
       </c>
       <c r="F17" s="3">
-        <v>5312700</v>
+        <v>5396600</v>
       </c>
       <c r="G17" s="3">
-        <v>4832500</v>
+        <v>5062200</v>
       </c>
       <c r="H17" s="3">
-        <v>5006600</v>
+        <v>4604600</v>
       </c>
       <c r="I17" s="3">
-        <v>4584100</v>
+        <v>4770500</v>
       </c>
       <c r="J17" s="3">
+        <v>4367900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4099600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4310900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4370300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3726600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3626700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3683400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5061800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4993300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4930400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4900700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5810800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5711600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5274100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4999600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5531700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5170900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4865900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4606000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4516700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3438900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1038900</v>
+        <v>1010000</v>
       </c>
       <c r="E18" s="3">
-        <v>973100</v>
+        <v>989900</v>
       </c>
       <c r="F18" s="3">
-        <v>851300</v>
+        <v>927200</v>
       </c>
       <c r="G18" s="3">
-        <v>674600</v>
+        <v>811200</v>
       </c>
       <c r="H18" s="3">
-        <v>672300</v>
+        <v>642800</v>
       </c>
       <c r="I18" s="3">
-        <v>630700</v>
+        <v>640600</v>
       </c>
       <c r="J18" s="3">
+        <v>601000</v>
+      </c>
+      <c r="K18" s="3">
         <v>537400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>453900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>423900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>345900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>260400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>229600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>377800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>599900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>617800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>684800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>979900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>901800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>968600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>873100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>753900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>676500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>537700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>467400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>594900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>380500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,438 +1678,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21800</v>
+        <v>90000</v>
       </c>
       <c r="E20" s="3">
-        <v>-86000</v>
+        <v>20800</v>
       </c>
       <c r="F20" s="3">
-        <v>24700</v>
+        <v>-81900</v>
       </c>
       <c r="G20" s="3">
-        <v>170000</v>
+        <v>23600</v>
       </c>
       <c r="H20" s="3">
-        <v>72900</v>
+        <v>162000</v>
       </c>
       <c r="I20" s="3">
-        <v>26600</v>
+        <v>69500</v>
       </c>
       <c r="J20" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K20" s="3">
         <v>23800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>46200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>37200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>21000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>372500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-11900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>36500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1335500</v>
+        <v>1357600</v>
       </c>
       <c r="E21" s="3">
-        <v>1164700</v>
+        <v>1272500</v>
       </c>
       <c r="F21" s="3">
-        <v>1142100</v>
+        <v>1109800</v>
       </c>
       <c r="G21" s="3">
-        <v>1105500</v>
+        <v>1088200</v>
       </c>
       <c r="H21" s="3">
-        <v>1014100</v>
+        <v>1053300</v>
       </c>
       <c r="I21" s="3">
-        <v>883000</v>
+        <v>966300</v>
       </c>
       <c r="J21" s="3">
+        <v>841300</v>
+      </c>
+      <c r="K21" s="3">
         <v>802800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>725200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>691100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>597700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>517900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>547300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>645500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>911300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>916800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>973100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1337600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1176100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1281800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1193400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1052800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>992600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1205300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>763800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>821800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>643700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>75600</v>
+        <v>82200</v>
       </c>
       <c r="E22" s="3">
-        <v>79200</v>
+        <v>72100</v>
       </c>
       <c r="F22" s="3">
-        <v>44800</v>
+        <v>75500</v>
       </c>
       <c r="G22" s="3">
-        <v>33700</v>
+        <v>42700</v>
       </c>
       <c r="H22" s="3">
+        <v>32100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>22700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="O22" s="3">
+        <v>27800</v>
+      </c>
+      <c r="P22" s="3">
+        <v>32800</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>50200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>52700</v>
+      </c>
+      <c r="S22" s="3">
+        <v>59300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>60900</v>
+      </c>
+      <c r="U22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="V22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="W22" s="3">
+        <v>55600</v>
+      </c>
+      <c r="X22" s="3">
+        <v>49300</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>44700</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>46900</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>42200</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>32300</v>
+      </c>
+      <c r="AC22" s="3">
         <v>22400</v>
       </c>
-      <c r="I22" s="3">
-        <v>24300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>20100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>21800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>22700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>23200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>27800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>32800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>50200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>52700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>59300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>60900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>61000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>59900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>55600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>49300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>44700</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>46900</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>42200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>32300</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>22400</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>16300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>985100</v>
+        <v>1017900</v>
       </c>
       <c r="E23" s="3">
-        <v>807900</v>
+        <v>938600</v>
       </c>
       <c r="F23" s="3">
-        <v>831200</v>
+        <v>769800</v>
       </c>
       <c r="G23" s="3">
-        <v>810900</v>
+        <v>792000</v>
       </c>
       <c r="H23" s="3">
-        <v>722800</v>
+        <v>772700</v>
       </c>
       <c r="I23" s="3">
-        <v>633100</v>
+        <v>688700</v>
       </c>
       <c r="J23" s="3">
+        <v>603200</v>
+      </c>
+      <c r="K23" s="3">
         <v>541100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>451700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>421300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>328600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>234000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>243100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>292400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>562200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>563400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>612900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>956100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>806800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>925000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>844800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>691300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>643900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>868000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>434800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>560600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>400600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>276300</v>
+        <v>265800</v>
       </c>
       <c r="E24" s="3">
-        <v>276600</v>
+        <v>263300</v>
       </c>
       <c r="F24" s="3">
-        <v>211600</v>
+        <v>263500</v>
       </c>
       <c r="G24" s="3">
-        <v>212800</v>
+        <v>201600</v>
       </c>
       <c r="H24" s="3">
-        <v>222000</v>
+        <v>202800</v>
       </c>
       <c r="I24" s="3">
-        <v>166500</v>
+        <v>211500</v>
       </c>
       <c r="J24" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K24" s="3">
         <v>149000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>132500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>113200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>101500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>83700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>114500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>129800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>163500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>163300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>239900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>227500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>274200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>254700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>293100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>142000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>259900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>85900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>135000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>124400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2210,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>708800</v>
+        <v>752200</v>
       </c>
       <c r="E26" s="3">
-        <v>531300</v>
+        <v>675400</v>
       </c>
       <c r="F26" s="3">
-        <v>619600</v>
+        <v>506200</v>
       </c>
       <c r="G26" s="3">
-        <v>598100</v>
+        <v>590400</v>
       </c>
       <c r="H26" s="3">
-        <v>500800</v>
+        <v>569900</v>
       </c>
       <c r="I26" s="3">
-        <v>466600</v>
+        <v>477200</v>
       </c>
       <c r="J26" s="3">
+        <v>444600</v>
+      </c>
+      <c r="K26" s="3">
         <v>392100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>319200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>308000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>227100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>177200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>159300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>177900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>432300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>399900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>449600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>716200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>579400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>650800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>590100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>398100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>501800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>608200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>348900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>425700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>276200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>681300</v>
+        <v>724300</v>
       </c>
       <c r="E27" s="3">
-        <v>500000</v>
+        <v>649100</v>
       </c>
       <c r="F27" s="3">
-        <v>592000</v>
+        <v>476400</v>
       </c>
       <c r="G27" s="3">
-        <v>580100</v>
+        <v>564100</v>
       </c>
       <c r="H27" s="3">
-        <v>500600</v>
+        <v>552700</v>
       </c>
       <c r="I27" s="3">
-        <v>449600</v>
+        <v>476900</v>
       </c>
       <c r="J27" s="3">
+        <v>428400</v>
+      </c>
+      <c r="K27" s="3">
         <v>376700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>285500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>210200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>138600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>163700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>411800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>391400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>434900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>694700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>555200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>579800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>572400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>373800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>481900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>590900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>329000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>399600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>273300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2477,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2506,8 +2566,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2655,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2744,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21800</v>
+        <v>-90000</v>
       </c>
       <c r="E32" s="3">
-        <v>86000</v>
+        <v>-20800</v>
       </c>
       <c r="F32" s="3">
-        <v>-24700</v>
+        <v>81900</v>
       </c>
       <c r="G32" s="3">
-        <v>-170000</v>
+        <v>-23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-72900</v>
+        <v>-162000</v>
       </c>
       <c r="I32" s="3">
-        <v>-26600</v>
+        <v>-69500</v>
       </c>
       <c r="J32" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-46200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>35100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-37200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-21000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>17900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-372500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>11900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-36500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>681300</v>
+        <v>724300</v>
       </c>
       <c r="E33" s="3">
-        <v>500000</v>
+        <v>649100</v>
       </c>
       <c r="F33" s="3">
-        <v>592000</v>
+        <v>476400</v>
       </c>
       <c r="G33" s="3">
-        <v>580100</v>
+        <v>564100</v>
       </c>
       <c r="H33" s="3">
-        <v>500600</v>
+        <v>552700</v>
       </c>
       <c r="I33" s="3">
-        <v>449600</v>
+        <v>476900</v>
       </c>
       <c r="J33" s="3">
+        <v>428400</v>
+      </c>
+      <c r="K33" s="3">
         <v>376700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>285500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>210200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>163900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>138600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>163700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>411800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>391400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>434900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>694700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>555200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>579800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>572400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>373800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>481900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>590900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>329000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>399600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>273300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3011,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>681300</v>
+        <v>724300</v>
       </c>
       <c r="E35" s="3">
-        <v>500000</v>
+        <v>649100</v>
       </c>
       <c r="F35" s="3">
-        <v>592000</v>
+        <v>476400</v>
       </c>
       <c r="G35" s="3">
-        <v>580100</v>
+        <v>564100</v>
       </c>
       <c r="H35" s="3">
-        <v>500600</v>
+        <v>552700</v>
       </c>
       <c r="I35" s="3">
-        <v>449600</v>
+        <v>476900</v>
       </c>
       <c r="J35" s="3">
+        <v>428400</v>
+      </c>
+      <c r="K35" s="3">
         <v>376700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>285500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>210200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>163900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>138600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>163700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>411800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>391400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>434900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>694700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>555200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>579800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>572400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>373800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>481900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>590900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>329000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>399600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>273300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3229,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,117 +3262,121 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2090700</v>
+        <v>2359600</v>
       </c>
       <c r="E41" s="3">
-        <v>2423600</v>
+        <v>1992100</v>
       </c>
       <c r="F41" s="3">
-        <v>2318700</v>
+        <v>2295500</v>
       </c>
       <c r="G41" s="3">
-        <v>2773200</v>
+        <v>2204100</v>
       </c>
       <c r="H41" s="3">
-        <v>2283200</v>
+        <v>2634900</v>
       </c>
       <c r="I41" s="3">
-        <v>1970600</v>
+        <v>2166500</v>
       </c>
       <c r="J41" s="3">
+        <v>1862000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1975600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1732900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1723800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1601600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1837300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2194200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2199600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1689900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1514000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1792800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1449300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1421600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1196300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1343400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1327600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1516900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1482200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1381200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1083800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1209600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3349,610 +3438,634 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8016900</v>
+        <v>7829400</v>
       </c>
       <c r="E43" s="3">
-        <v>6991900</v>
+        <v>7638800</v>
       </c>
       <c r="F43" s="3">
-        <v>7470000</v>
+        <v>6662200</v>
       </c>
       <c r="G43" s="3">
-        <v>7173500</v>
+        <v>7117700</v>
       </c>
       <c r="H43" s="3">
-        <v>6882500</v>
+        <v>6835200</v>
       </c>
       <c r="I43" s="3">
-        <v>6145100</v>
+        <v>6558000</v>
       </c>
       <c r="J43" s="3">
+        <v>5855300</v>
+      </c>
+      <c r="K43" s="3">
         <v>5745200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5791100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5818700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5049300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5218600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5668600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6558100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7002300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6799600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7109800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8093400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7464600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7593000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7131300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7166100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6920900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6481500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5949400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5492900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5117000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8848200</v>
+        <v>9581300</v>
       </c>
       <c r="E44" s="3">
-        <v>8969500</v>
+        <v>8430900</v>
       </c>
       <c r="F44" s="3">
-        <v>9192900</v>
+        <v>8546500</v>
       </c>
       <c r="G44" s="3">
-        <v>8469200</v>
+        <v>8759400</v>
       </c>
       <c r="H44" s="3">
-        <v>7123600</v>
+        <v>8069800</v>
       </c>
       <c r="I44" s="3">
-        <v>6498700</v>
+        <v>6787600</v>
       </c>
       <c r="J44" s="3">
+        <v>6192300</v>
+      </c>
+      <c r="K44" s="3">
         <v>6123000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6020100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5628400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6025000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6535000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7393100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7094800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8199300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8217800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8015200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8048900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7793600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7851600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7246200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6601800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6847600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6441600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6211000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4735700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5252300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1495900</v>
+        <v>1704000</v>
       </c>
       <c r="E45" s="3">
-        <v>1429700</v>
+        <v>1425400</v>
       </c>
       <c r="F45" s="3">
-        <v>1442600</v>
+        <v>1362200</v>
       </c>
       <c r="G45" s="3">
-        <v>1351000</v>
+        <v>1374600</v>
       </c>
       <c r="H45" s="3">
-        <v>1168200</v>
+        <v>1287300</v>
       </c>
       <c r="I45" s="3">
-        <v>1180000</v>
+        <v>1113100</v>
       </c>
       <c r="J45" s="3">
+        <v>1124300</v>
+      </c>
+      <c r="K45" s="3">
         <v>991000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1023700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>933200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>962600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1023800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1269500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1298700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1368900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1225300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1322900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1330200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1291000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1205900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1188900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1154700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1105700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1052800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1084600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1278800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1242800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20451700</v>
+        <v>21474400</v>
       </c>
       <c r="E46" s="3">
-        <v>19814700</v>
+        <v>19487300</v>
       </c>
       <c r="F46" s="3">
-        <v>20424200</v>
+        <v>18880300</v>
       </c>
       <c r="G46" s="3">
-        <v>19766800</v>
+        <v>19461100</v>
       </c>
       <c r="H46" s="3">
-        <v>17457400</v>
+        <v>18834700</v>
       </c>
       <c r="I46" s="3">
-        <v>15794400</v>
+        <v>16634200</v>
       </c>
       <c r="J46" s="3">
+        <v>15049600</v>
+      </c>
+      <c r="K46" s="3">
         <v>14834700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14567700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14104100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13638400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14614700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16525500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17151200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18260400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17756700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18240800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18921700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17970800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17846800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16909800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16250200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16391200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15458100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>14626200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12591200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>12821700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4560800</v>
+        <v>4849900</v>
       </c>
       <c r="E47" s="3">
-        <v>4642400</v>
+        <v>4345800</v>
       </c>
       <c r="F47" s="3">
-        <v>4939000</v>
+        <v>4423400</v>
       </c>
       <c r="G47" s="3">
-        <v>4607500</v>
+        <v>4706100</v>
       </c>
       <c r="H47" s="3">
-        <v>4009900</v>
+        <v>4390200</v>
       </c>
       <c r="I47" s="3">
-        <v>3812700</v>
+        <v>3820800</v>
       </c>
       <c r="J47" s="3">
+        <v>3632900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3650400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3831400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3505200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3513400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3679600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4108100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4109500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4302400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4281700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4254400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4431700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3945800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4110500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3870100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3656300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3775100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3603400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3962700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3654400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3553700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6470900</v>
+        <v>6402900</v>
       </c>
       <c r="E48" s="3">
-        <v>6415800</v>
+        <v>6165800</v>
       </c>
       <c r="F48" s="3">
-        <v>6715500</v>
+        <v>6113300</v>
       </c>
       <c r="G48" s="3">
-        <v>6605100</v>
+        <v>6398800</v>
       </c>
       <c r="H48" s="3">
-        <v>6353900</v>
+        <v>6293600</v>
       </c>
       <c r="I48" s="3">
-        <v>6125600</v>
+        <v>6054300</v>
       </c>
       <c r="J48" s="3">
+        <v>5836700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6043400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6152900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5993200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6007500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6325100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6898700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7146100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7436500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7400100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7454200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7461400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7167800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7111300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6849300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6694400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6941200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6903500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6874400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6023000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>6087900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2699100</v>
+        <v>2715100</v>
       </c>
       <c r="E49" s="3">
-        <v>2684000</v>
+        <v>2571800</v>
       </c>
       <c r="F49" s="3">
-        <v>2932300</v>
+        <v>2557400</v>
       </c>
       <c r="G49" s="3">
-        <v>2765300</v>
+        <v>2794000</v>
       </c>
       <c r="H49" s="3">
-        <v>2571200</v>
+        <v>2634900</v>
       </c>
       <c r="I49" s="3">
-        <v>2446100</v>
+        <v>2450000</v>
       </c>
       <c r="J49" s="3">
+        <v>2330800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2406100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2479900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2408200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2370200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2505800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2768200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2815500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3096100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3079300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2972100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3155200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3161900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3289100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3137100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2975000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3245200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3273300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3281300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>897200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>891700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4150,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4239,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>972300</v>
+        <v>955500</v>
       </c>
       <c r="E52" s="3">
-        <v>933200</v>
+        <v>926400</v>
       </c>
       <c r="F52" s="3">
-        <v>1057400</v>
+        <v>889200</v>
       </c>
       <c r="G52" s="3">
-        <v>972100</v>
+        <v>1007500</v>
       </c>
       <c r="H52" s="3">
-        <v>953200</v>
+        <v>926300</v>
       </c>
       <c r="I52" s="3">
-        <v>858600</v>
+        <v>908200</v>
       </c>
       <c r="J52" s="3">
+        <v>818200</v>
+      </c>
+      <c r="K52" s="3">
         <v>849300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>827500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>823800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>807200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>875700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>926900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>966700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>877800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>911400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>893200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>993200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>881500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>914100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>875400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>911800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>925500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>867000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>685400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>397300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>395700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4417,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35154900</v>
+        <v>36397800</v>
       </c>
       <c r="E54" s="3">
-        <v>34490100</v>
+        <v>33497100</v>
       </c>
       <c r="F54" s="3">
-        <v>36068300</v>
+        <v>32863700</v>
       </c>
       <c r="G54" s="3">
-        <v>34716700</v>
+        <v>34367500</v>
       </c>
       <c r="H54" s="3">
-        <v>31345600</v>
+        <v>33079600</v>
       </c>
       <c r="I54" s="3">
-        <v>29037400</v>
+        <v>29867500</v>
       </c>
       <c r="J54" s="3">
+        <v>27668100</v>
+      </c>
+      <c r="K54" s="3">
         <v>27783800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27859400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26834500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26336600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28001000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31227300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32189000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33973200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33429200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33814600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34963300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33127800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33271700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>31641700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30487700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>31278300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>30105200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>29429900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>23563000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>23750700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4541,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4574,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2612600</v>
+        <v>2523800</v>
       </c>
       <c r="E57" s="3">
-        <v>2437600</v>
+        <v>2489400</v>
       </c>
       <c r="F57" s="3">
-        <v>2567600</v>
+        <v>2322600</v>
       </c>
       <c r="G57" s="3">
-        <v>2505000</v>
+        <v>2446500</v>
       </c>
       <c r="H57" s="3">
-        <v>2444000</v>
+        <v>2386900</v>
       </c>
       <c r="I57" s="3">
-        <v>2069300</v>
+        <v>2328800</v>
       </c>
       <c r="J57" s="3">
+        <v>1971700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1939100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1908900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1831500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1597300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1511700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1742400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1939600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2091700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2278800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2338800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2565400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2413100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2557500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2485200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2744100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2742000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2594600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2526300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2129800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1891800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3515400</v>
+        <v>4187700</v>
       </c>
       <c r="E58" s="3">
-        <v>4437300</v>
+        <v>3349600</v>
       </c>
       <c r="F58" s="3">
-        <v>5242200</v>
+        <v>4228000</v>
       </c>
       <c r="G58" s="3">
-        <v>4964800</v>
+        <v>4995000</v>
       </c>
       <c r="H58" s="3">
-        <v>3737400</v>
+        <v>4730700</v>
       </c>
       <c r="I58" s="3">
-        <v>3777700</v>
+        <v>3561200</v>
       </c>
       <c r="J58" s="3">
+        <v>3599600</v>
+      </c>
+      <c r="K58" s="3">
         <v>3247400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2968400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2619500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2928500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3409100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5190700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5308400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5845400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5004000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4708300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4403400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4835900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3995900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4127800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2982300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3226400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2743000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4866100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1932300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2705700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3761700</v>
+        <v>3990800</v>
       </c>
       <c r="E59" s="3">
-        <v>3532800</v>
+        <v>3584300</v>
       </c>
       <c r="F59" s="3">
-        <v>3585400</v>
+        <v>3366200</v>
       </c>
       <c r="G59" s="3">
-        <v>3410300</v>
+        <v>3416300</v>
       </c>
       <c r="H59" s="3">
-        <v>3364700</v>
+        <v>3249500</v>
       </c>
       <c r="I59" s="3">
-        <v>2850200</v>
+        <v>3206100</v>
       </c>
       <c r="J59" s="3">
+        <v>2715800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2697500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2611000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2588500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2524800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2635500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2809300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2959500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3169700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3262900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3290300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3430500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3011500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3336600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3020600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3220100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3131200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2985200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2675700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2148500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1977100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9889700</v>
+        <v>10702300</v>
       </c>
       <c r="E60" s="3">
-        <v>10407600</v>
+        <v>9423300</v>
       </c>
       <c r="F60" s="3">
-        <v>11395100</v>
+        <v>9916800</v>
       </c>
       <c r="G60" s="3">
-        <v>10880100</v>
+        <v>10857800</v>
       </c>
       <c r="H60" s="3">
-        <v>9546200</v>
+        <v>10367100</v>
       </c>
       <c r="I60" s="3">
-        <v>8697200</v>
+        <v>9096000</v>
       </c>
       <c r="J60" s="3">
+        <v>8287000</v>
+      </c>
+      <c r="K60" s="3">
         <v>7884100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7488300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7039400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7050600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7556300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9742300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10207500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11106800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10545700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10337400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10399400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10260500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9890100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9633600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8946500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9099600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8322800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>10068000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6210600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6574700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4082200</v>
+        <v>4098400</v>
       </c>
       <c r="E61" s="3">
-        <v>3950300</v>
+        <v>3889700</v>
       </c>
       <c r="F61" s="3">
-        <v>3197500</v>
+        <v>3764000</v>
       </c>
       <c r="G61" s="3">
-        <v>3426700</v>
+        <v>3046700</v>
       </c>
       <c r="H61" s="3">
-        <v>3093200</v>
+        <v>3265100</v>
       </c>
       <c r="I61" s="3">
-        <v>2884100</v>
+        <v>2947300</v>
       </c>
       <c r="J61" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2986100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3685700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3832300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3788600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4116400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3747600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3610700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3704600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3739100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4491900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4540600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4285500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4526300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4365800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4345500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4771500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4645600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2829700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1692900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1742600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1874900</v>
+        <v>1902000</v>
       </c>
       <c r="E62" s="3">
-        <v>1831100</v>
+        <v>1786500</v>
       </c>
       <c r="F62" s="3">
-        <v>1920100</v>
+        <v>1744800</v>
       </c>
       <c r="G62" s="3">
-        <v>1856200</v>
+        <v>1829600</v>
       </c>
       <c r="H62" s="3">
-        <v>1717500</v>
+        <v>1768700</v>
       </c>
       <c r="I62" s="3">
-        <v>1691600</v>
+        <v>1636500</v>
       </c>
       <c r="J62" s="3">
+        <v>1611800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1672700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1756800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1697600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1628100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1786600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1929800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2017500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1936900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1955600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1946800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1736800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1588900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1545500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1485000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1433600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1437400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1448700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1400700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1037100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1041600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5195,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5284,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5373,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16844000</v>
+        <v>17719000</v>
       </c>
       <c r="E66" s="3">
-        <v>17130900</v>
+        <v>16049700</v>
       </c>
       <c r="F66" s="3">
-        <v>17487100</v>
+        <v>16323100</v>
       </c>
       <c r="G66" s="3">
-        <v>17086400</v>
+        <v>16662500</v>
       </c>
       <c r="H66" s="3">
-        <v>15249200</v>
+        <v>16280600</v>
       </c>
       <c r="I66" s="3">
-        <v>14157600</v>
+        <v>14530100</v>
       </c>
       <c r="J66" s="3">
+        <v>13489900</v>
+      </c>
+      <c r="K66" s="3">
         <v>13380200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13660300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13276300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13146300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14153500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16184500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16581100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17541800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16997900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17543800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17515500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16912800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16751000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16218100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15440300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16046200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15109600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>14968700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9577900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9984500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5497,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5584,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5673,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5762,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5851,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15597400</v>
+        <v>15087500</v>
       </c>
       <c r="E72" s="3">
-        <v>14916100</v>
+        <v>14861900</v>
       </c>
       <c r="F72" s="3">
-        <v>14852700</v>
+        <v>14212700</v>
       </c>
       <c r="G72" s="3">
-        <v>14260600</v>
+        <v>14152300</v>
       </c>
       <c r="H72" s="3">
-        <v>14062400</v>
+        <v>13588100</v>
       </c>
       <c r="I72" s="3">
-        <v>13561900</v>
+        <v>13399300</v>
       </c>
       <c r="J72" s="3">
+        <v>12922300</v>
+      </c>
+      <c r="K72" s="3">
         <v>13385000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13260900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12749900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12886400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13604200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14720100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15384800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15739500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15939800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15497700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16338300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15366800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15023600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14132800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13901600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13527900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13353100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>12762200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>12442100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>12042600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6029,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6118,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6207,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18310800</v>
+        <v>18678800</v>
       </c>
       <c r="E76" s="3">
-        <v>17359200</v>
+        <v>17447300</v>
       </c>
       <c r="F76" s="3">
-        <v>18581300</v>
+        <v>16540600</v>
       </c>
       <c r="G76" s="3">
-        <v>17630400</v>
+        <v>17705000</v>
       </c>
       <c r="H76" s="3">
-        <v>16096400</v>
+        <v>16799000</v>
       </c>
       <c r="I76" s="3">
-        <v>14879800</v>
+        <v>15337400</v>
       </c>
       <c r="J76" s="3">
+        <v>14178100</v>
+      </c>
+      <c r="K76" s="3">
         <v>14403600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14199100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13558200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13190300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13847500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15042800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15607800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16431500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16431400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16270800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17447700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16215000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16520700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15423500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15047400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15232100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14995700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14461200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13985100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13766200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6385,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>681300</v>
+        <v>724300</v>
       </c>
       <c r="E81" s="3">
-        <v>500000</v>
+        <v>649100</v>
       </c>
       <c r="F81" s="3">
-        <v>592000</v>
+        <v>476400</v>
       </c>
       <c r="G81" s="3">
-        <v>580100</v>
+        <v>564100</v>
       </c>
       <c r="H81" s="3">
-        <v>500600</v>
+        <v>552700</v>
       </c>
       <c r="I81" s="3">
-        <v>449600</v>
+        <v>476900</v>
       </c>
       <c r="J81" s="3">
+        <v>428400</v>
+      </c>
+      <c r="K81" s="3">
         <v>376700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>285500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>210200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>163900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>138600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>163700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>411800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>391400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>434900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>694700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>555200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>579800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>572400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>373800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>481900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>590900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>329000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>399600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>273300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6603,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>274800</v>
+        <v>257500</v>
       </c>
       <c r="E83" s="3">
-        <v>277600</v>
+        <v>261800</v>
       </c>
       <c r="F83" s="3">
-        <v>266000</v>
+        <v>264500</v>
       </c>
       <c r="G83" s="3">
-        <v>260800</v>
+        <v>253500</v>
       </c>
       <c r="H83" s="3">
-        <v>268900</v>
+        <v>248500</v>
       </c>
       <c r="I83" s="3">
-        <v>225600</v>
+        <v>256200</v>
       </c>
       <c r="J83" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K83" s="3">
         <v>241600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>251700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>247200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>245900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>256200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>271400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>302800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>296400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>294100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>299300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>320500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>309400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>301200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>299200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>316900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>301900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>295000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>296800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>238900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>226700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6779,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6868,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6957,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7046,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7135,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>889700</v>
+        <v>586900</v>
       </c>
       <c r="E89" s="3">
-        <v>414800</v>
+        <v>847800</v>
       </c>
       <c r="F89" s="3">
-        <v>201000</v>
+        <v>395300</v>
       </c>
       <c r="G89" s="3">
-        <v>-16900</v>
+        <v>191500</v>
       </c>
       <c r="H89" s="3">
-        <v>837100</v>
+        <v>-16100</v>
       </c>
       <c r="I89" s="3">
-        <v>197800</v>
+        <v>797600</v>
       </c>
       <c r="J89" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K89" s="3">
         <v>669300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>474800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>813600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>636600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>759600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>469400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1208900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>202300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>715400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>530400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>982200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>259100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>677800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>603600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>357400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>376500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>971600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>448000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7259,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40522000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48621000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48655000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49879000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36378000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39135000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41538000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44307000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-279100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-314200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-380900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-374000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-317900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-397700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-434800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-439600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-403000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-453500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-552400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-411600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-382200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-288700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-389600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-331300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-390900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-378000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7435,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7524,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-278400</v>
+        <v>-270300</v>
       </c>
       <c r="E94" s="3">
-        <v>-328700</v>
+        <v>-265300</v>
       </c>
       <c r="F94" s="3">
-        <v>-374000</v>
+        <v>-313200</v>
       </c>
       <c r="G94" s="3">
-        <v>-241100</v>
+        <v>-356400</v>
       </c>
       <c r="H94" s="3">
-        <v>-284500</v>
+        <v>-229800</v>
       </c>
       <c r="I94" s="3">
-        <v>-250900</v>
+        <v>-271100</v>
       </c>
       <c r="J94" s="3">
+        <v>-239100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-285800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-218000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-258800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-341100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-347300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-302300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-366600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-388200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-542900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-436300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-432300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-524300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-408300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-388400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-520100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-228800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>103500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-347600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-383000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,94 +7648,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-487400</v>
       </c>
       <c r="E96" s="3">
-        <v>-436500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-415900</v>
       </c>
       <c r="G96" s="3">
-        <v>-381900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-363900</v>
       </c>
       <c r="I96" s="3">
-        <v>-272700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-259900</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-257100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-124700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-314400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-473400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-510400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-454600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-411800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-307100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-247400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-242700</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7824,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7913,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8002,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-920700</v>
+        <v>42600</v>
       </c>
       <c r="E100" s="3">
-        <v>111600</v>
+        <v>-877300</v>
       </c>
       <c r="F100" s="3">
-        <v>-198400</v>
+        <v>106300</v>
       </c>
       <c r="G100" s="3">
-        <v>527200</v>
+        <v>-189000</v>
       </c>
       <c r="H100" s="3">
-        <v>-268800</v>
+        <v>502400</v>
       </c>
       <c r="I100" s="3">
-        <v>18100</v>
+        <v>-256100</v>
       </c>
       <c r="J100" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-111700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-320400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-371100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-442100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-584000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-102700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-261700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>363600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-431900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>305300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-522600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>409300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-408800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>466900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-341500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>246200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-372500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2673000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-763500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>417200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9000</v>
+        <v>8300</v>
       </c>
       <c r="E101" s="3">
-        <v>-101700</v>
+        <v>-8600</v>
       </c>
       <c r="F101" s="3">
-        <v>-80800</v>
+        <v>-96900</v>
       </c>
       <c r="G101" s="3">
-        <v>222400</v>
+        <v>-77000</v>
       </c>
       <c r="H101" s="3">
-        <v>35800</v>
+        <v>211900</v>
       </c>
       <c r="I101" s="3">
-        <v>22100</v>
+        <v>34100</v>
       </c>
       <c r="J101" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K101" s="3">
         <v>4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-20800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-24800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>62300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-40600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-66000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>69000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>13700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>13800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-66000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-318400</v>
+        <v>367500</v>
       </c>
       <c r="E102" s="3">
-        <v>96000</v>
+        <v>-303400</v>
       </c>
       <c r="F102" s="3">
-        <v>-452200</v>
+        <v>91400</v>
       </c>
       <c r="G102" s="3">
-        <v>491600</v>
+        <v>-430900</v>
       </c>
       <c r="H102" s="3">
-        <v>319600</v>
+        <v>468400</v>
       </c>
       <c r="I102" s="3">
-        <v>-12900</v>
+        <v>304500</v>
       </c>
       <c r="J102" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K102" s="3">
         <v>275900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>175400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-127500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-160800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>63900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>563600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>188100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-280200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>412300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>206500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-179800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-189000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>35100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>97400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>278000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-125700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>416200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-166700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KMTUY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>KMTUY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,392 +665,404 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6179900</v>
+        <v>6131700</v>
       </c>
       <c r="E8" s="3">
-        <v>6899100</v>
+        <v>5973000</v>
       </c>
       <c r="F8" s="3">
-        <v>6323800</v>
+        <v>6668200</v>
       </c>
       <c r="G8" s="3">
-        <v>5873300</v>
+        <v>6112100</v>
       </c>
       <c r="H8" s="3">
-        <v>5247400</v>
+        <v>5676700</v>
       </c>
       <c r="I8" s="3">
-        <v>5411100</v>
+        <v>5071700</v>
       </c>
       <c r="J8" s="3">
+        <v>5230000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4968900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4637000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4764800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4794300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4072500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3887100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3913000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5439500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5593100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5548200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5585500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6790800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6613400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6242700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5872700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6285600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5847500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5403600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5073300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5111600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3819400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3608800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4199200</v>
+        <v>4156400</v>
       </c>
       <c r="E9" s="3">
-        <v>4897200</v>
+        <v>4058600</v>
       </c>
       <c r="F9" s="3">
-        <v>4425400</v>
+        <v>4733200</v>
       </c>
       <c r="G9" s="3">
-        <v>4136100</v>
+        <v>4277200</v>
       </c>
       <c r="H9" s="3">
-        <v>3746900</v>
+        <v>3997600</v>
       </c>
       <c r="I9" s="3">
-        <v>3900400</v>
+        <v>3621500</v>
       </c>
       <c r="J9" s="3">
+        <v>3769800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3589200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3298400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3491800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3540700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2999800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2844100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2855200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3983000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4023200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3933000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3914600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4734300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4644500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4266600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4011000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4364100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4072000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3892100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3635600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3643900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2714800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2572600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1980700</v>
+        <v>1975300</v>
       </c>
       <c r="E10" s="3">
-        <v>2002000</v>
+        <v>1914400</v>
       </c>
       <c r="F10" s="3">
-        <v>1898400</v>
+        <v>1934900</v>
       </c>
       <c r="G10" s="3">
-        <v>1737300</v>
+        <v>1834900</v>
       </c>
       <c r="H10" s="3">
-        <v>1500500</v>
+        <v>1679100</v>
       </c>
       <c r="I10" s="3">
-        <v>1510800</v>
+        <v>1450200</v>
       </c>
       <c r="J10" s="3">
+        <v>1460200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1379700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1338600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1272900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1253500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1072700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1043000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1057800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1456500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1569900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1615200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1670900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2056500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1968800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1976100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1861700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1921400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1775500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1511500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1437700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1467700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1104600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,8 +1094,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,8 +1184,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,19 +1276,22 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>37900</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>36700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1280,11 +1299,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1292,11 +1311,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>17000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1313,8 +1332,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1322,8 +1341,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1340,17 +1359,20 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>15500</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1468,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5169900</v>
+        <v>5136000</v>
       </c>
       <c r="E17" s="3">
-        <v>5909300</v>
+        <v>4996800</v>
       </c>
       <c r="F17" s="3">
-        <v>5396600</v>
+        <v>5711400</v>
       </c>
       <c r="G17" s="3">
-        <v>5062200</v>
+        <v>5215900</v>
       </c>
       <c r="H17" s="3">
-        <v>4604600</v>
+        <v>4892700</v>
       </c>
       <c r="I17" s="3">
-        <v>4770500</v>
+        <v>4450400</v>
       </c>
       <c r="J17" s="3">
+        <v>4610800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4367900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4099600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4310900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4370300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3726600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3626700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3683400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5061800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4993300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4930400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5810800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5711600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5274100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4999600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5531700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5170900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4865900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4606000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4516700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3438900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3304300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1010000</v>
+        <v>995700</v>
       </c>
       <c r="E18" s="3">
-        <v>989900</v>
+        <v>976200</v>
       </c>
       <c r="F18" s="3">
-        <v>927200</v>
+        <v>956700</v>
       </c>
       <c r="G18" s="3">
-        <v>811200</v>
+        <v>896200</v>
       </c>
       <c r="H18" s="3">
-        <v>642800</v>
+        <v>784000</v>
       </c>
       <c r="I18" s="3">
-        <v>640600</v>
+        <v>621300</v>
       </c>
       <c r="J18" s="3">
+        <v>619200</v>
+      </c>
+      <c r="K18" s="3">
         <v>601000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>537400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>453900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>423900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>345900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>260400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>229600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>377800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>599900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>617800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>684800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>979900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>901800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>968600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>873100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>753900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>676500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>537700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>467400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>594900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>380500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>304600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1679,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>90000</v>
+        <v>19500</v>
       </c>
       <c r="E20" s="3">
-        <v>20800</v>
+        <v>87000</v>
       </c>
       <c r="F20" s="3">
-        <v>-81900</v>
+        <v>20100</v>
       </c>
       <c r="G20" s="3">
-        <v>23600</v>
+        <v>-79200</v>
       </c>
       <c r="H20" s="3">
-        <v>162000</v>
+        <v>22800</v>
       </c>
       <c r="I20" s="3">
-        <v>69500</v>
+        <v>156600</v>
       </c>
       <c r="J20" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K20" s="3">
         <v>25400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>46200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-35100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>37200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>21000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>372500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-11900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>36500</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1357600</v>
+        <v>1273900</v>
       </c>
       <c r="E21" s="3">
-        <v>1272500</v>
+        <v>1312200</v>
       </c>
       <c r="F21" s="3">
-        <v>1109800</v>
+        <v>1229900</v>
       </c>
       <c r="G21" s="3">
-        <v>1088200</v>
+        <v>1072600</v>
       </c>
       <c r="H21" s="3">
-        <v>1053300</v>
+        <v>1051800</v>
       </c>
       <c r="I21" s="3">
-        <v>966300</v>
+        <v>1018100</v>
       </c>
       <c r="J21" s="3">
+        <v>933900</v>
+      </c>
+      <c r="K21" s="3">
         <v>841300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>802800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>725200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>691100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>597700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>517900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>547300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>645500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>911300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>916800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>973100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1337600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1176100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1281800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1193400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1052800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>992600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1205300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>763800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>821800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>643700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>539800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>82200</v>
+        <v>86600</v>
       </c>
       <c r="E22" s="3">
-        <v>72100</v>
+        <v>79400</v>
       </c>
       <c r="F22" s="3">
-        <v>75500</v>
+        <v>69600</v>
       </c>
       <c r="G22" s="3">
-        <v>42700</v>
+        <v>73000</v>
       </c>
       <c r="H22" s="3">
-        <v>32100</v>
+        <v>41300</v>
       </c>
       <c r="I22" s="3">
-        <v>21400</v>
+        <v>31000</v>
       </c>
       <c r="J22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K22" s="3">
         <v>23100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>32800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>50200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>61000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>59900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>55600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>49300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>44700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>46900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>42200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>32300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>22400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>16300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1017900</v>
+        <v>928600</v>
       </c>
       <c r="E23" s="3">
-        <v>938600</v>
+        <v>983800</v>
       </c>
       <c r="F23" s="3">
-        <v>769800</v>
+        <v>907200</v>
       </c>
       <c r="G23" s="3">
-        <v>792000</v>
+        <v>744000</v>
       </c>
       <c r="H23" s="3">
-        <v>772700</v>
+        <v>765500</v>
       </c>
       <c r="I23" s="3">
-        <v>688700</v>
+        <v>746800</v>
       </c>
       <c r="J23" s="3">
+        <v>665700</v>
+      </c>
+      <c r="K23" s="3">
         <v>603200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>541100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>451700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>421300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>328600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>234000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>243100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>292400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>562200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>563400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>612900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>956100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>806800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>925000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>844800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>691300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>643900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>868000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>434800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>560600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>400600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>300600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>265800</v>
+        <v>238700</v>
       </c>
       <c r="E24" s="3">
-        <v>263300</v>
+        <v>256900</v>
       </c>
       <c r="F24" s="3">
-        <v>263500</v>
+        <v>254500</v>
       </c>
       <c r="G24" s="3">
-        <v>201600</v>
+        <v>254700</v>
       </c>
       <c r="H24" s="3">
-        <v>202800</v>
+        <v>194900</v>
       </c>
       <c r="I24" s="3">
-        <v>211500</v>
+        <v>196000</v>
       </c>
       <c r="J24" s="3">
+        <v>204400</v>
+      </c>
+      <c r="K24" s="3">
         <v>158600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>149000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>132500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>113200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>101500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>83700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>114500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>129800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>163500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>163300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>239900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>227500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>274200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>254700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>293100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>142000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>259900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>85900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>135000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>124400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>105900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2213,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>752200</v>
+        <v>689900</v>
       </c>
       <c r="E26" s="3">
-        <v>675400</v>
+        <v>727000</v>
       </c>
       <c r="F26" s="3">
-        <v>506200</v>
+        <v>652800</v>
       </c>
       <c r="G26" s="3">
-        <v>590400</v>
+        <v>489300</v>
       </c>
       <c r="H26" s="3">
-        <v>569900</v>
+        <v>570600</v>
       </c>
       <c r="I26" s="3">
-        <v>477200</v>
+        <v>550900</v>
       </c>
       <c r="J26" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K26" s="3">
         <v>444600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>392100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>319200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>308000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>227100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>177200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>159300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>177900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>432300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>399900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>449600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>716200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>579400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>650800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>590100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>398100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>501800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>608200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>348900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>425700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>276200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>194700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>724300</v>
+        <v>664800</v>
       </c>
       <c r="E27" s="3">
-        <v>649100</v>
+        <v>700000</v>
       </c>
       <c r="F27" s="3">
-        <v>476400</v>
+        <v>627400</v>
       </c>
       <c r="G27" s="3">
-        <v>564100</v>
+        <v>460400</v>
       </c>
       <c r="H27" s="3">
-        <v>552700</v>
+        <v>545200</v>
       </c>
       <c r="I27" s="3">
-        <v>476900</v>
+        <v>534200</v>
       </c>
       <c r="J27" s="3">
+        <v>461000</v>
+      </c>
+      <c r="K27" s="3">
         <v>428400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>376700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>285500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>210200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>163900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>138600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>163700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>411800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>391400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>434900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>694700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>555200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>579800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>572400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>373800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>481900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>590900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>329000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>399600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>273300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2658,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2747,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-90000</v>
+        <v>-19500</v>
       </c>
       <c r="E32" s="3">
-        <v>-20800</v>
+        <v>-87000</v>
       </c>
       <c r="F32" s="3">
-        <v>81900</v>
+        <v>-20100</v>
       </c>
       <c r="G32" s="3">
-        <v>-23600</v>
+        <v>79200</v>
       </c>
       <c r="H32" s="3">
-        <v>-162000</v>
+        <v>-22800</v>
       </c>
       <c r="I32" s="3">
-        <v>-69500</v>
+        <v>-156600</v>
       </c>
       <c r="J32" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>35100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-37200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>17900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-372500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>11900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-36500</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>724300</v>
+        <v>664800</v>
       </c>
       <c r="E33" s="3">
-        <v>649100</v>
+        <v>700000</v>
       </c>
       <c r="F33" s="3">
-        <v>476400</v>
+        <v>627400</v>
       </c>
       <c r="G33" s="3">
-        <v>564100</v>
+        <v>460400</v>
       </c>
       <c r="H33" s="3">
-        <v>552700</v>
+        <v>545200</v>
       </c>
       <c r="I33" s="3">
-        <v>476900</v>
+        <v>534200</v>
       </c>
       <c r="J33" s="3">
+        <v>461000</v>
+      </c>
+      <c r="K33" s="3">
         <v>428400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>376700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>285500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>210200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>163900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>138600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>163700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>411800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>391400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>434900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>694700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>555200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>579800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>572400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>373800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>481900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>590900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>329000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>399600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>273300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>724300</v>
+        <v>664800</v>
       </c>
       <c r="E35" s="3">
-        <v>649100</v>
+        <v>700000</v>
       </c>
       <c r="F35" s="3">
-        <v>476400</v>
+        <v>627400</v>
       </c>
       <c r="G35" s="3">
-        <v>564100</v>
+        <v>460400</v>
       </c>
       <c r="H35" s="3">
-        <v>552700</v>
+        <v>545200</v>
       </c>
       <c r="I35" s="3">
-        <v>476900</v>
+        <v>534200</v>
       </c>
       <c r="J35" s="3">
+        <v>461000</v>
+      </c>
+      <c r="K35" s="3">
         <v>428400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>376700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>285500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>210200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>163900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>138600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>163700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>411800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>391400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>434900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>694700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>555200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>579800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>572400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>373800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>481900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>590900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>329000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>399600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>273300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3230,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3263,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2359600</v>
+        <v>2106800</v>
       </c>
       <c r="E41" s="3">
-        <v>1992100</v>
+        <v>2280600</v>
       </c>
       <c r="F41" s="3">
-        <v>2295500</v>
+        <v>1925400</v>
       </c>
       <c r="G41" s="3">
-        <v>2204100</v>
+        <v>2218700</v>
       </c>
       <c r="H41" s="3">
-        <v>2634900</v>
+        <v>2130300</v>
       </c>
       <c r="I41" s="3">
-        <v>2166500</v>
+        <v>2546700</v>
       </c>
       <c r="J41" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1862000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1975600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1732900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1723800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1601600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1837300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2194200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2199600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1689900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1514000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1792800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1449300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1421600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1196300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1343400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1327600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1516900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1482200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1381200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1083800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1209600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>789900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3363,24 +3452,24 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>13800</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>5300</v>
+        <v>13400</v>
       </c>
       <c r="H42" s="3">
-        <v>7400</v>
+        <v>5100</v>
       </c>
       <c r="I42" s="3">
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="J42" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K42" s="3">
         <v>15600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -3441,631 +3530,655 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7829400</v>
+        <v>7423500</v>
       </c>
       <c r="E43" s="3">
-        <v>7638800</v>
+        <v>7567300</v>
       </c>
       <c r="F43" s="3">
-        <v>6662200</v>
+        <v>7383100</v>
       </c>
       <c r="G43" s="3">
-        <v>7117700</v>
+        <v>6439100</v>
       </c>
       <c r="H43" s="3">
-        <v>6835200</v>
+        <v>6879400</v>
       </c>
       <c r="I43" s="3">
-        <v>6558000</v>
+        <v>6606400</v>
       </c>
       <c r="J43" s="3">
+        <v>6338400</v>
+      </c>
+      <c r="K43" s="3">
         <v>5855300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5745200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5791100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5818700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5049300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5218600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5668600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6558100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7002300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6799600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7109800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8093400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7464600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7593000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7131300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7166100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6920900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6481500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5949400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5492900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>5117000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>4460600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9581300</v>
+        <v>9903700</v>
       </c>
       <c r="E44" s="3">
-        <v>8430900</v>
+        <v>9260500</v>
       </c>
       <c r="F44" s="3">
-        <v>8546500</v>
+        <v>8148700</v>
       </c>
       <c r="G44" s="3">
-        <v>8759400</v>
+        <v>8260400</v>
       </c>
       <c r="H44" s="3">
-        <v>8069800</v>
+        <v>8466200</v>
       </c>
       <c r="I44" s="3">
-        <v>6787600</v>
+        <v>7799600</v>
       </c>
       <c r="J44" s="3">
+        <v>6560400</v>
+      </c>
+      <c r="K44" s="3">
         <v>6192300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6123000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6020100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5628400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6025000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6535000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7393100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7094800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8199300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8217800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8015200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8048900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7793600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7851600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7246200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6601800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6847600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6441600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6211000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4735700</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>5252300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>4645600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1704000</v>
+        <v>1648800</v>
       </c>
       <c r="E45" s="3">
-        <v>1425400</v>
+        <v>1647000</v>
       </c>
       <c r="F45" s="3">
-        <v>1362200</v>
+        <v>1377700</v>
       </c>
       <c r="G45" s="3">
-        <v>1374600</v>
+        <v>1316600</v>
       </c>
       <c r="H45" s="3">
-        <v>1287300</v>
+        <v>1328600</v>
       </c>
       <c r="I45" s="3">
-        <v>1113100</v>
+        <v>1244200</v>
       </c>
       <c r="J45" s="3">
+        <v>1075800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1124300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>991000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1023700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>933200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>962600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1023800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1269500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1298700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1368900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1225300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1322900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1330200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1291000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1205900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1188900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1154700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1105700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1052800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1084600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1278800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1242800</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>1155000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21474400</v>
+        <v>21082800</v>
       </c>
       <c r="E46" s="3">
-        <v>19487300</v>
+        <v>20755400</v>
       </c>
       <c r="F46" s="3">
-        <v>18880300</v>
+        <v>18834900</v>
       </c>
       <c r="G46" s="3">
-        <v>19461100</v>
+        <v>18248200</v>
       </c>
       <c r="H46" s="3">
-        <v>18834700</v>
+        <v>18809600</v>
       </c>
       <c r="I46" s="3">
-        <v>16634200</v>
+        <v>18204100</v>
       </c>
       <c r="J46" s="3">
+        <v>16077300</v>
+      </c>
+      <c r="K46" s="3">
         <v>15049600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14834700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14567700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14104100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13638400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14614700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16525500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17151200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18260400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17756700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18240800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18921700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17970800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17846800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16909800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16250200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16391200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15458100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>14626200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>12591200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>12821700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>11051100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4849900</v>
+        <v>4824100</v>
       </c>
       <c r="E47" s="3">
-        <v>4345800</v>
+        <v>4687600</v>
       </c>
       <c r="F47" s="3">
-        <v>4423400</v>
+        <v>4200300</v>
       </c>
       <c r="G47" s="3">
-        <v>4706100</v>
+        <v>4275400</v>
       </c>
       <c r="H47" s="3">
-        <v>4390200</v>
+        <v>4548500</v>
       </c>
       <c r="I47" s="3">
-        <v>3820800</v>
+        <v>4243200</v>
       </c>
       <c r="J47" s="3">
+        <v>3692900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3632900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3650400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3831400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3505200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3513400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3679600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4108100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4109500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4302400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4281700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4254400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4431700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3945800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4110500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3870100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3656300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3775100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3603400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3962700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3654400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3553700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>3114700</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6402900</v>
+        <v>6302700</v>
       </c>
       <c r="E48" s="3">
-        <v>6165800</v>
+        <v>6188500</v>
       </c>
       <c r="F48" s="3">
-        <v>6113300</v>
+        <v>5959400</v>
       </c>
       <c r="G48" s="3">
-        <v>6398800</v>
+        <v>5908600</v>
       </c>
       <c r="H48" s="3">
-        <v>6293600</v>
+        <v>6184600</v>
       </c>
       <c r="I48" s="3">
-        <v>6054300</v>
+        <v>6082900</v>
       </c>
       <c r="J48" s="3">
+        <v>5851600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5836700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6043400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6152900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5993200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6007500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6325100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6898700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7146100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7436500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7400100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7454200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7461400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7167800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7111300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6849300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6694400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6941200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6903500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6874400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>6023000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>6087900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>5725600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2715100</v>
+        <v>2645400</v>
       </c>
       <c r="E49" s="3">
-        <v>2571800</v>
+        <v>2624200</v>
       </c>
       <c r="F49" s="3">
-        <v>2557400</v>
+        <v>2485700</v>
       </c>
       <c r="G49" s="3">
-        <v>2794000</v>
+        <v>2471800</v>
       </c>
       <c r="H49" s="3">
-        <v>2634900</v>
+        <v>2700500</v>
       </c>
       <c r="I49" s="3">
-        <v>2450000</v>
+        <v>2546700</v>
       </c>
       <c r="J49" s="3">
+        <v>2367900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2330800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2406100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2479900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2408200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2370200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2505800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2768200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2815500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3096100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3079300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2972100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3155200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3161900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3289100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3137100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2975000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3245200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3273300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3281300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>897200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>891700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>852900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4153,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4242,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>955500</v>
+        <v>1028100</v>
       </c>
       <c r="E52" s="3">
-        <v>926400</v>
+        <v>923500</v>
       </c>
       <c r="F52" s="3">
-        <v>889200</v>
+        <v>895400</v>
       </c>
       <c r="G52" s="3">
-        <v>1007500</v>
+        <v>859500</v>
       </c>
       <c r="H52" s="3">
-        <v>926300</v>
+        <v>973800</v>
       </c>
       <c r="I52" s="3">
-        <v>908200</v>
+        <v>895300</v>
       </c>
       <c r="J52" s="3">
+        <v>877800</v>
+      </c>
+      <c r="K52" s="3">
         <v>818200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>849300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>827500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>823800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>807200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>875700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>926900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>966700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>877800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>911400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>893200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>993200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>881500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>914100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>875400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>911800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>925500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>867000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>685400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>397300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>395700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4420,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36397800</v>
+        <v>35883100</v>
       </c>
       <c r="E54" s="3">
-        <v>33497100</v>
+        <v>35179300</v>
       </c>
       <c r="F54" s="3">
-        <v>32863700</v>
+        <v>32375600</v>
       </c>
       <c r="G54" s="3">
-        <v>34367500</v>
+        <v>31763400</v>
       </c>
       <c r="H54" s="3">
-        <v>33079600</v>
+        <v>33216900</v>
       </c>
       <c r="I54" s="3">
-        <v>29867500</v>
+        <v>31972200</v>
       </c>
       <c r="J54" s="3">
+        <v>28867500</v>
+      </c>
+      <c r="K54" s="3">
         <v>27668100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27783800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27859400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26834500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26336600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28001000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31227300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32189000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33973200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33429200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33814600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34963300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33127800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>33271700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>31641700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30487700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>31278300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>30105200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>29429900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>23563000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>23750700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>21217100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4542,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4575,542 +4704,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2523800</v>
+        <v>2315200</v>
       </c>
       <c r="E57" s="3">
-        <v>2489400</v>
+        <v>2439300</v>
       </c>
       <c r="F57" s="3">
-        <v>2322600</v>
+        <v>2406100</v>
       </c>
       <c r="G57" s="3">
-        <v>2446500</v>
+        <v>2244900</v>
       </c>
       <c r="H57" s="3">
-        <v>2386900</v>
+        <v>2364600</v>
       </c>
       <c r="I57" s="3">
-        <v>2328800</v>
+        <v>2307000</v>
       </c>
       <c r="J57" s="3">
+        <v>2250800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1971700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1939100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1908900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1831500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1597300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1511700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1742400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1939600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2091700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2278800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2338800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2565400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2413100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2557500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2485200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2744100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2742000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2594600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2526300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2129800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1891800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1680000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4187700</v>
+        <v>3303600</v>
       </c>
       <c r="E58" s="3">
-        <v>3349600</v>
+        <v>4047500</v>
       </c>
       <c r="F58" s="3">
-        <v>4228000</v>
+        <v>3237500</v>
       </c>
       <c r="G58" s="3">
-        <v>4995000</v>
+        <v>4086500</v>
       </c>
       <c r="H58" s="3">
-        <v>4730700</v>
+        <v>4827800</v>
       </c>
       <c r="I58" s="3">
-        <v>3561200</v>
+        <v>4572300</v>
       </c>
       <c r="J58" s="3">
+        <v>3442000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3599600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3247400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2968400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2619500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2928500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3409100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5190700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5308400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5845400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5004000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4708300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4403400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4835900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3995900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4127800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2982300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3226400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2743000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4866100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1932300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2705700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1856900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3990800</v>
+        <v>3951300</v>
       </c>
       <c r="E59" s="3">
-        <v>3584300</v>
+        <v>3857200</v>
       </c>
       <c r="F59" s="3">
-        <v>3366200</v>
+        <v>3464300</v>
       </c>
       <c r="G59" s="3">
-        <v>3416300</v>
+        <v>3253500</v>
       </c>
       <c r="H59" s="3">
-        <v>3249500</v>
+        <v>3301900</v>
       </c>
       <c r="I59" s="3">
-        <v>3206100</v>
+        <v>3140700</v>
       </c>
       <c r="J59" s="3">
+        <v>3098700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2715800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2697500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2611000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2588500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2524800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2635500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2809300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2959500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3169700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3262900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3290300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3430500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3011500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3336600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3020600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3220100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3131200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2985200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2675700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2148500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1977100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1932900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10702300</v>
+        <v>9570100</v>
       </c>
       <c r="E60" s="3">
-        <v>9423300</v>
+        <v>10344000</v>
       </c>
       <c r="F60" s="3">
-        <v>9916800</v>
+        <v>9107800</v>
       </c>
       <c r="G60" s="3">
-        <v>10857800</v>
+        <v>9584800</v>
       </c>
       <c r="H60" s="3">
-        <v>10367100</v>
+        <v>10494300</v>
       </c>
       <c r="I60" s="3">
-        <v>9096000</v>
+        <v>10020000</v>
       </c>
       <c r="J60" s="3">
+        <v>8791500</v>
+      </c>
+      <c r="K60" s="3">
         <v>8287000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7884100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7488300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7039400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7050600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7556300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9742300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10207500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11106800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10545700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10337400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10399400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10260500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9890100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9633600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8946500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9099600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8322800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10068000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6210600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>6574700</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5469800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4098400</v>
+        <v>4349300</v>
       </c>
       <c r="E61" s="3">
-        <v>3889700</v>
+        <v>3961200</v>
       </c>
       <c r="F61" s="3">
-        <v>3764000</v>
+        <v>3759500</v>
       </c>
       <c r="G61" s="3">
-        <v>3046700</v>
+        <v>3638000</v>
       </c>
       <c r="H61" s="3">
-        <v>3265100</v>
+        <v>2944700</v>
       </c>
       <c r="I61" s="3">
-        <v>2947300</v>
+        <v>3155800</v>
       </c>
       <c r="J61" s="3">
+        <v>2848600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2748000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2986100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3685700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3832300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3788600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4116400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3747600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3610700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3704600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3739100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4491900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4540600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4285500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4526300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4365800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4345500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4771500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4645600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2829700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1692900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1742600</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1577700</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1902000</v>
+        <v>1932100</v>
       </c>
       <c r="E62" s="3">
-        <v>1786500</v>
+        <v>1838300</v>
       </c>
       <c r="F62" s="3">
-        <v>1744800</v>
+        <v>1726700</v>
       </c>
       <c r="G62" s="3">
-        <v>1829600</v>
+        <v>1686400</v>
       </c>
       <c r="H62" s="3">
-        <v>1768700</v>
+        <v>1768300</v>
       </c>
       <c r="I62" s="3">
-        <v>1636500</v>
+        <v>1709400</v>
       </c>
       <c r="J62" s="3">
+        <v>1581700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1611800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1672700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1756800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1697600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1628100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1786600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1929800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2017500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1936900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1955600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1946800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1736800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1588900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1545500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1485000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1433600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1437400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1448700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1400700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1037100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1041600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>965200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5198,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5287,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5376,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17719000</v>
+        <v>16857900</v>
       </c>
       <c r="E66" s="3">
-        <v>16049700</v>
+        <v>17125800</v>
       </c>
       <c r="F66" s="3">
-        <v>16323100</v>
+        <v>15512400</v>
       </c>
       <c r="G66" s="3">
-        <v>16662500</v>
+        <v>15776600</v>
       </c>
       <c r="H66" s="3">
-        <v>16280600</v>
+        <v>16104600</v>
       </c>
       <c r="I66" s="3">
-        <v>14530100</v>
+        <v>15735600</v>
       </c>
       <c r="J66" s="3">
+        <v>14043700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13489900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13380200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13660300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13276300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13146300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14153500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16184500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16581100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17541800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16997900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17543800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17515500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16912800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16751000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16218100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15440300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16046200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15109600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>14968700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9577900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9984500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>8556800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5498,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5587,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5676,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5765,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5854,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15087500</v>
+        <v>15247200</v>
       </c>
       <c r="E72" s="3">
-        <v>14861900</v>
+        <v>14582400</v>
       </c>
       <c r="F72" s="3">
-        <v>14212700</v>
+        <v>14364300</v>
       </c>
       <c r="G72" s="3">
-        <v>14152300</v>
+        <v>13736900</v>
       </c>
       <c r="H72" s="3">
-        <v>13588100</v>
+        <v>13678500</v>
       </c>
       <c r="I72" s="3">
-        <v>13399300</v>
+        <v>13133200</v>
       </c>
       <c r="J72" s="3">
+        <v>12950700</v>
+      </c>
+      <c r="K72" s="3">
         <v>12922300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13385000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13260900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12749900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12886400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13604200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14720100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15384800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15739500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15939800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15497700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16338300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15366800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15023600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14132800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13901600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13527900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13353100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>12762200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>12442100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>12042600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>12011900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6032,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6121,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6210,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18678800</v>
+        <v>19025300</v>
       </c>
       <c r="E76" s="3">
-        <v>17447300</v>
+        <v>18053500</v>
       </c>
       <c r="F76" s="3">
-        <v>16540600</v>
+        <v>16863200</v>
       </c>
       <c r="G76" s="3">
-        <v>17705000</v>
+        <v>15986800</v>
       </c>
       <c r="H76" s="3">
-        <v>16799000</v>
+        <v>17112300</v>
       </c>
       <c r="I76" s="3">
-        <v>15337400</v>
+        <v>16236600</v>
       </c>
       <c r="J76" s="3">
+        <v>14823900</v>
+      </c>
+      <c r="K76" s="3">
         <v>14178100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14403600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14199100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13558200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13190300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13847500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15042800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15607800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16431500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16431400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16270800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17447700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16215000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16520700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15423500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15047400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15232100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14995700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14461200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13985100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13766200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>12660300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6388,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>724300</v>
+        <v>664800</v>
       </c>
       <c r="E81" s="3">
-        <v>649100</v>
+        <v>700000</v>
       </c>
       <c r="F81" s="3">
-        <v>476400</v>
+        <v>627400</v>
       </c>
       <c r="G81" s="3">
-        <v>564100</v>
+        <v>460400</v>
       </c>
       <c r="H81" s="3">
-        <v>552700</v>
+        <v>545200</v>
       </c>
       <c r="I81" s="3">
-        <v>476900</v>
+        <v>534200</v>
       </c>
       <c r="J81" s="3">
+        <v>461000</v>
+      </c>
+      <c r="K81" s="3">
         <v>428400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>376700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>285500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>210200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>163900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>138600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>163700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>411800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>391400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>434900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>694700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>555200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>579800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>572400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>373800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>481900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>590900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>329000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>399600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>273300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>194500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6604,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257500</v>
+        <v>258700</v>
       </c>
       <c r="E83" s="3">
-        <v>261800</v>
+        <v>248900</v>
       </c>
       <c r="F83" s="3">
-        <v>264500</v>
+        <v>253100</v>
       </c>
       <c r="G83" s="3">
-        <v>253500</v>
+        <v>255700</v>
       </c>
       <c r="H83" s="3">
-        <v>248500</v>
+        <v>245000</v>
       </c>
       <c r="I83" s="3">
+        <v>240200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>247600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>215000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>241600</v>
+      </c>
+      <c r="M83" s="3">
+        <v>251700</v>
+      </c>
+      <c r="N83" s="3">
+        <v>247200</v>
+      </c>
+      <c r="O83" s="3">
+        <v>245900</v>
+      </c>
+      <c r="P83" s="3">
         <v>256200</v>
       </c>
-      <c r="J83" s="3">
-        <v>215000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>241600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>251700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>247200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>245900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>256200</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>271400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>302800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>296400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>294100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>299300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>320500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>309400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>301200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>299200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>316900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>301900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>295000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>296800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>238900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>226700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6782,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6871,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6960,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7049,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7138,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>586900</v>
+        <v>676500</v>
       </c>
       <c r="E89" s="3">
-        <v>847800</v>
+        <v>567300</v>
       </c>
       <c r="F89" s="3">
-        <v>395300</v>
+        <v>819400</v>
       </c>
       <c r="G89" s="3">
-        <v>191500</v>
+        <v>382000</v>
       </c>
       <c r="H89" s="3">
-        <v>-16100</v>
+        <v>185100</v>
       </c>
       <c r="I89" s="3">
-        <v>797600</v>
+        <v>-15600</v>
       </c>
       <c r="J89" s="3">
+        <v>770900</v>
+      </c>
+      <c r="K89" s="3">
         <v>188500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>669300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>474800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>813600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>636600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>759600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>469400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1208900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>202300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>715400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>530400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>982200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>259100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>677800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>603600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>357400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>376500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>971600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>448000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>444400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7260,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48195000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40522000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48621000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48655000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49879000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36378000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39135000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41538000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44307000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-279100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-314200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-380900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-374000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-317900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-397700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-434800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-439600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-403000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-453500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-552400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-411600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-382200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-288700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-389600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-331300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-390900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-378000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-358000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-298900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7438,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7527,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-270300</v>
+        <v>-279300</v>
       </c>
       <c r="E94" s="3">
-        <v>-265300</v>
+        <v>-261300</v>
       </c>
       <c r="F94" s="3">
-        <v>-313200</v>
+        <v>-256400</v>
       </c>
       <c r="G94" s="3">
-        <v>-356400</v>
+        <v>-302700</v>
       </c>
       <c r="H94" s="3">
-        <v>-229800</v>
+        <v>-344500</v>
       </c>
       <c r="I94" s="3">
-        <v>-271100</v>
+        <v>-222100</v>
       </c>
       <c r="J94" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-239100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-285800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-218000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-258800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-341100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-347300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-302300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-366600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-388200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-542900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-436300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-432300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-524300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-408300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-388400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-520100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-228800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>103500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2769300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-347600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-383000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-233600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7649,97 +7881,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-487400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-471100</v>
       </c>
       <c r="F96" s="3">
-        <v>-415900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-402000</v>
       </c>
       <c r="H96" s="3">
-        <v>-363900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-351700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-259900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-257100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-124700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-314400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-473400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-510400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-454600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-411800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-307100</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-247400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-242700</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7827,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7916,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8005,271 +8247,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42600</v>
+        <v>-569800</v>
       </c>
       <c r="E100" s="3">
-        <v>-877300</v>
+        <v>41200</v>
       </c>
       <c r="F100" s="3">
-        <v>106300</v>
+        <v>-847900</v>
       </c>
       <c r="G100" s="3">
-        <v>-189000</v>
+        <v>102700</v>
       </c>
       <c r="H100" s="3">
-        <v>502400</v>
+        <v>-182700</v>
       </c>
       <c r="I100" s="3">
-        <v>-256100</v>
+        <v>485600</v>
       </c>
       <c r="J100" s="3">
+        <v>-247600</v>
+      </c>
+      <c r="K100" s="3">
         <v>17200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-111700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-320400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-371100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-442100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-584000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-102700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-261700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>363600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-431900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>305300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-522600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>409300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-408800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>466900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-341500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>246200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-372500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2673000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-763500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>417200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-385800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>204800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>21100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>10900</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>10400</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="U101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="W101" s="3">
+        <v>62300</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>69000</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>13700</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>8900</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>13800</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="AF101" s="3">
         <v>8300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-96900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>211900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>34100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>21100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>10400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>19000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>10900</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>10400</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="T101" s="3">
-        <v>12800</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-24800</v>
-      </c>
-      <c r="V101" s="3">
-        <v>62300</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-40600</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-66000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>69000</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>13700</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>8900</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>13800</v>
-      </c>
-      <c r="AD101" s="3">
-        <v>-66000</v>
-      </c>
-      <c r="AE101" s="3">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>367500</v>
+        <v>-173900</v>
       </c>
       <c r="E102" s="3">
-        <v>-303400</v>
+        <v>355200</v>
       </c>
       <c r="F102" s="3">
-        <v>91400</v>
+        <v>-293200</v>
       </c>
       <c r="G102" s="3">
-        <v>-430900</v>
+        <v>88400</v>
       </c>
       <c r="H102" s="3">
-        <v>468400</v>
+        <v>-416500</v>
       </c>
       <c r="I102" s="3">
-        <v>304500</v>
+        <v>452700</v>
       </c>
       <c r="J102" s="3">
+        <v>294300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>275900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>175400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-127500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-160800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>63900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>563600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>188100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-280200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>412300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>206500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-179800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-189000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>35100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>97400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>278000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-125700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>416200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-166700</v>
       </c>
     </row>
